--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$A$1:$Q$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$A$1:$Q$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -2338,7 +2338,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -6211,9 +6211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>238320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6227,7 +6227,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="748800" cy="205560"/>
+          <a:ext cx="748440" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6248,9 +6248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6264,7 +6264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1092240" cy="205560"/>
+          <a:ext cx="1091880" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6285,9 +6285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6301,7 +6301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1398960" cy="205560"/>
+          <a:ext cx="1398600" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6322,9 +6322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>335520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6338,7 +6338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1722960" cy="205560"/>
+          <a:ext cx="1722600" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6359,9 +6359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>266040</xdr:rowOff>
+      <xdr:rowOff>265680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6375,7 +6375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2030040" cy="218520"/>
+          <a:ext cx="2029680" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6396,9 +6396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6412,7 +6412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2366280" cy="205560"/>
+          <a:ext cx="2365920" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6433,9 +6433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6445,7 +6445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530400"/>
-          <a:ext cx="2679120" cy="204480"/>
+          <a:ext cx="2678760" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6814,9 +6814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6826,7 +6826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6978240" cy="10548000"/>
+          <a:ext cx="6977880" cy="10547640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6955,8 +6955,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8497,8 +8497,8 @@
   </sheetPr>
   <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15033,8 +15033,8 @@
   </sheetPr>
   <dimension ref="B1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15619,9 +15619,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" display="Motiva Oy - Sakkunnig i effektiv användning av energi och material, www.motiva.fi"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29188]</t>
   </si>
   <si>
-    <t xml:space="preserve">    Energiatehokkuusluokka </t>
+    <t xml:space="preserve">    Energiprestandaklass</t>
   </si>
   <si>
     <t xml:space="preserve">Beräknat jämförelsetal för byggnadens energiprestanda (E-talet)</t>
@@ -196,7 +196,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">vuosi)</t>
+      <t xml:space="preserve">år)</t>
     </r>
   </si>
   <si>
@@ -8105,8 +8105,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S24" activeCellId="0" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9741,8 +9741,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11954,8 +11954,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13899,8 +13899,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15794,7 +15794,7 @@
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="V32" activeCellId="0" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="612">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2743,6 +2743,12 @@
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :suositukset-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Ytterligare uppgifter om energiprestanda</t>
@@ -3839,7 +3845,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3851,7 +3857,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3943,7 +3949,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4039,7 +4045,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4051,7 +4057,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4095,7 +4101,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4203,7 +4209,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4279,7 +4285,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4435,7 +4441,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4567,7 +4573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4599,7 +4605,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4859,7 +4865,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4889,93 +4895,93 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7361,9 +7367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>249480</xdr:rowOff>
+      <xdr:rowOff>249120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7377,7 +7383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="745200" cy="201960"/>
+          <a:ext cx="744840" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7398,9 +7404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>134640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>249480</xdr:rowOff>
+      <xdr:rowOff>249120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7414,7 +7420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1088640" cy="201960"/>
+          <a:ext cx="1088280" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7435,9 +7441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>249480</xdr:rowOff>
+      <xdr:rowOff>249120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7451,7 +7457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1395360" cy="201960"/>
+          <a:ext cx="1395000" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7472,9 +7478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>249480</xdr:rowOff>
+      <xdr:rowOff>249120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7488,7 +7494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1719360" cy="201960"/>
+          <a:ext cx="1719000" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7509,9 +7515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>205200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7525,7 +7531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2026440" cy="214920"/>
+          <a:ext cx="2026080" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7546,9 +7552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>249480</xdr:rowOff>
+      <xdr:rowOff>249120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7562,7 +7568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2362680" cy="201960"/>
+          <a:ext cx="2362320" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7583,9 +7589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>250560</xdr:rowOff>
+      <xdr:rowOff>250200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7595,7 +7601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2675520" cy="200880"/>
+          <a:ext cx="2675160" cy="200520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7964,9 +7970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>288360</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7976,7 +7982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6974640" cy="10496160"/>
+          <a:ext cx="6974280" cy="10495800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8105,7 +8111,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S24" activeCellId="0" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -11954,8 +11960,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18464,8 +18470,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19001,9 +19007,9 @@
       <c r="A37" s="166" t="s">
         <v>598</v>
       </c>
-      <c r="B37" s="389" t="n">
-        <f aca="false">A44</f>
-        <v>0</v>
+      <c r="B37" s="389" t="str">
+        <f aca="false">A43</f>
+        <v>[:huomiot :suositukset-sv]</v>
       </c>
       <c r="C37" s="389"/>
       <c r="D37" s="389"/>
@@ -19071,7 +19077,9 @@
       <c r="F43" s="389"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="166"/>
+      <c r="A44" s="166" t="s">
+        <v>605</v>
+      </c>
       <c r="B44" s="389"/>
       <c r="C44" s="389"/>
       <c r="D44" s="389"/>
@@ -19079,7 +19087,9 @@
       <c r="F44" s="389"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="166"/>
+      <c r="A45" s="166" t="s">
+        <v>606</v>
+      </c>
       <c r="B45" s="389"/>
       <c r="C45" s="389"/>
       <c r="D45" s="389"/>
@@ -19136,7 +19146,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="369" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C52" s="102"/>
       <c r="D52" s="370"/>
@@ -19154,7 +19164,7 @@
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
       <c r="B54" s="331" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C54" s="331"/>
       <c r="D54" s="331"/>
@@ -19163,33 +19173,36 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
-      <c r="B55" s="337"/>
-      <c r="C55" s="337"/>
-      <c r="D55" s="337"/>
-      <c r="E55" s="337"/>
-      <c r="F55" s="337"/>
+      <c r="B55" s="391" t="str">
+        <f aca="false">A45</f>
+        <v>[:huomiot :lisatietoja-sv]</v>
+      </c>
+      <c r="C55" s="391"/>
+      <c r="D55" s="391"/>
+      <c r="E55" s="391"/>
+      <c r="F55" s="391"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
-      <c r="B56" s="337"/>
-      <c r="C56" s="337"/>
-      <c r="D56" s="337"/>
-      <c r="E56" s="337"/>
-      <c r="F56" s="337"/>
+      <c r="B56" s="391"/>
+      <c r="C56" s="391"/>
+      <c r="D56" s="391"/>
+      <c r="E56" s="391"/>
+      <c r="F56" s="391"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
-      <c r="B57" s="337"/>
-      <c r="C57" s="337"/>
-      <c r="D57" s="337"/>
-      <c r="E57" s="337"/>
-      <c r="F57" s="337"/>
+      <c r="B57" s="391"/>
+      <c r="C57" s="391"/>
+      <c r="D57" s="391"/>
+      <c r="E57" s="391"/>
+      <c r="F57" s="391"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="152"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
+      <c r="B58" s="391"/>
+      <c r="C58" s="391"/>
+      <c r="D58" s="391"/>
+      <c r="E58" s="391"/>
       <c r="F58" s="391"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19206,7 +19219,7 @@
       <c r="B60" s="385"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="B3:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -19222,9 +19235,7 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F51"/>
     <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B55:F58"/>
     <mergeCell ref="B59:F59"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:AMJ14 B39:B43 B51:F51 H53:AMJ53 H33:AMJ51 B37:F38 B11:C13 H62:AMJ1048576 H52:AMJ52 H2:AMJ9 H18:AMJ31 G54:AMJ57 B55:B57 G10:G14 D53:G53 G33:G51 A62:G1048576 C52:G52 A3:G9 G18:G31 A58:AMJ61 C18:F26 B16:AMJ17 A2 C2:G2 B18 B20:B26 A52">
@@ -19335,10 +19346,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B2" s="392" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C2" s="392"/>
       <c r="D2" s="392"/>
@@ -19349,7 +19360,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="365" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B3" s="372" t="str">
         <f aca="false">A3</f>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="609">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-nettoala-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">TOIMENPIDE-EHDOTUKSIA E-LUVUN PARANTAMISEKSI</t>
+    <t xml:space="preserve">ÅTGÄRDSFÖRSLAG FÖR ATT FÖRBÄTTRA E-TALET</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :nimi]</t>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t xml:space="preserve">Byggnaden färdigställd år</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lämmitetty nettoala</t>
   </si>
   <si>
     <r>
@@ -526,7 +523,7 @@
     <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennusvaippa</t>
+    <t xml:space="preserve">Klimatskal</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ulkoseinat :ala]</t>
@@ -653,7 +650,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Osuus lämpöhäviöistä</t>
+    <t xml:space="preserve">Andel av
+Värmeförlusten</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ulkoseinat :UA]</t>
@@ -1076,39 +1074,6 @@
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :ikkunat :etela :U]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kWh/(m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vuosi)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :ikkunat :etela :g-ks]</t>
@@ -2401,9 +2366,6 @@
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :ymparys :teksti-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÅTGÄRDSFÖRSLAG FÖR ATT FÖRBÄTTRA E-TALET</t>
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :ymparys :teksti-sv]</t>
@@ -4157,9 +4119,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -4994,7 +4956,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="319">
+  <dxfs count="318">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -6457,13 +6419,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -8112,7 +8067,7 @@
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S24" activeCellId="0" sqref="S24"/>
+      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="F38 F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9747,8 +9702,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="F38 C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11960,8 +11915,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G42" activeCellId="1" sqref="F38 G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12077,23 +12032,23 @@
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="E5" s="172" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F5" s="174" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="G5" s="175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="176"/>
       <c r="C6" s="177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="178"/>
       <c r="E6" s="179"/>
@@ -12102,67 +12057,67 @@
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="166" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="171"/>
       <c r="C7" s="172" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="181" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</v>
       </c>
       <c r="E7" s="182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="183"/>
       <c r="G7" s="184"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="171"/>
       <c r="C8" s="185"/>
       <c r="D8" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="F8" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="G8" s="187" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="187" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="166" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="171"/>
       <c r="C9" s="185"/>
       <c r="D9" s="121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="G9" s="121" t="s">
         <v>136</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="174" t="str">
         <f aca="false">A7</f>
@@ -12190,11 +12145,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="171"/>
       <c r="C11" s="175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="174" t="str">
         <f aca="false">A11</f>
@@ -12222,11 +12177,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="171"/>
       <c r="C12" s="175" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="191" t="str">
         <f aca="false">A15</f>
@@ -12254,11 +12209,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="174" t="str">
         <f aca="false">A19</f>
@@ -12286,11 +12241,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="171"/>
       <c r="C14" s="175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="174" t="str">
         <f aca="false">A23</f>
@@ -12318,11 +12273,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="171"/>
       <c r="C15" s="175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="193" t="s">
         <v>61</v>
@@ -12348,11 +12303,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="176"/>
       <c r="C16" s="177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="178"/>
       <c r="E16" s="179"/>
@@ -12361,32 +12316,32 @@
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="171"/>
       <c r="C17" s="185"/>
       <c r="D17" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="195" t="s">
-        <v>131</v>
-      </c>
       <c r="F17" s="196" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="197"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="171"/>
       <c r="C18" s="185"/>
       <c r="D18" s="121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="198" t="s">
         <v>61</v>
@@ -12395,11 +12350,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="171"/>
       <c r="C19" s="172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="189" t="str">
         <f aca="false">A29</f>
@@ -12417,11 +12372,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="171"/>
       <c r="C20" s="172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="189" t="str">
         <f aca="false">A32</f>
@@ -12439,11 +12394,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="171"/>
       <c r="C21" s="172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="189" t="str">
         <f aca="false">A35</f>
@@ -12461,11 +12416,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="171"/>
       <c r="C22" s="172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="189" t="str">
         <f aca="false">A38</f>
@@ -12483,11 +12438,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="171"/>
       <c r="C23" s="172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="189" t="str">
         <f aca="false">A41</f>
@@ -12505,11 +12460,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="171"/>
       <c r="C24" s="172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="189" t="str">
         <f aca="false">A44</f>
@@ -12527,11 +12482,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="171"/>
       <c r="C25" s="172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="189" t="str">
         <f aca="false">A47</f>
@@ -12549,11 +12504,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="171"/>
       <c r="C26" s="172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="189" t="str">
         <f aca="false">A50</f>
@@ -12571,11 +12526,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="168"/>
       <c r="C27" s="169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="170"/>
       <c r="E27" s="170"/>
@@ -12584,11 +12539,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="200" t="str">
         <f aca="false">A54</f>
@@ -12600,7 +12555,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="201"/>
       <c r="C29" s="184"/>
@@ -12611,66 +12566,66 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="171"/>
       <c r="C30" s="204"/>
       <c r="D30" s="205" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="186" t="s">
+      <c r="F30" s="186" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="186" t="s">
+      <c r="G30" s="186" t="s">
         <v>179</v>
-      </c>
-      <c r="G30" s="186" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="171"/>
       <c r="C31" s="204"/>
       <c r="D31" s="206" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="195" t="s">
+      <c r="F31" s="195" t="s">
         <v>183</v>
-      </c>
-      <c r="F31" s="195" t="s">
-        <v>184</v>
       </c>
       <c r="G31" s="195"/>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="171"/>
       <c r="C32" s="204"/>
       <c r="D32" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="121" t="s">
         <v>186</v>
-      </c>
-      <c r="E32" s="121" t="s">
-        <v>187</v>
       </c>
       <c r="F32" s="121" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="208" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="171"/>
       <c r="C33" s="175" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="209" t="str">
         <f aca="false">A55</f>
@@ -12691,11 +12646,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" s="171"/>
       <c r="C34" s="175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="209" t="str">
         <f aca="false">A59</f>
@@ -12714,11 +12669,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="201"/>
       <c r="C35" s="213" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="214" t="str">
         <f aca="false">A61</f>
@@ -12737,11 +12692,11 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="171"/>
       <c r="C36" s="217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="217"/>
       <c r="E36" s="218" t="str">
@@ -12753,11 +12708,11 @@
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="168"/>
       <c r="C37" s="169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="170"/>
       <c r="E37" s="170"/>
@@ -12766,11 +12721,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="171"/>
       <c r="C38" s="172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="219" t="str">
         <f aca="false">A65</f>
@@ -12782,7 +12737,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" s="171"/>
       <c r="C39" s="202"/>
@@ -12793,43 +12748,43 @@
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="221"/>
       <c r="C40" s="222"/>
       <c r="D40" s="186" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="223" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="223" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="186" t="s">
+      <c r="G40" s="186" t="s">
         <v>203</v>
-      </c>
-      <c r="G40" s="186" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="185"/>
       <c r="D41" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="224" t="s">
         <v>206</v>
-      </c>
-      <c r="E41" s="224" t="s">
-        <v>207</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="185"/>
@@ -12843,16 +12798,16 @@
         <v>61</v>
       </c>
       <c r="G42" s="121" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B43" s="171"/>
       <c r="C43" s="172" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D43" s="226" t="str">
         <f aca="false">A66</f>
@@ -12873,11 +12828,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B44" s="171"/>
       <c r="C44" s="172" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" s="226" t="str">
         <f aca="false">A70</f>
@@ -12898,11 +12853,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="227" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D45" s="228"/>
       <c r="E45" s="228"/>
@@ -12911,11 +12866,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B46" s="171"/>
       <c r="C46" s="227" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="172"/>
       <c r="E46" s="172"/>
@@ -12924,7 +12879,7 @@
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B47" s="171"/>
       <c r="C47" s="229"/>
@@ -12936,27 +12891,27 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B48" s="171"/>
       <c r="C48" s="185"/>
       <c r="D48" s="186" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E48" s="186" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F48" s="232"/>
       <c r="G48" s="203"/>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" s="171"/>
       <c r="C49" s="185"/>
       <c r="D49" s="121" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" s="121" t="s">
         <v>59</v>
@@ -12966,11 +12921,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B50" s="171"/>
       <c r="C50" s="172" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" s="209" t="str">
         <f aca="false">A74</f>
@@ -12985,11 +12940,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="172" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D51" s="209" t="str">
         <f aca="false">A76</f>
@@ -13004,11 +12959,11 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="166" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B52" s="168"/>
       <c r="C52" s="169" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" s="170"/>
       <c r="E52" s="170"/>
@@ -13022,7 +12977,7 @@
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
       <c r="D53" s="233" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E53" s="206"/>
       <c r="F53" s="206"/>
@@ -13043,11 +12998,11 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="166" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D55" s="199" t="str">
         <f aca="false">A78</f>
@@ -13059,11 +13014,11 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="166" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B56" s="168"/>
       <c r="C56" s="169" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D56" s="170"/>
       <c r="E56" s="170"/>
@@ -13072,27 +13027,27 @@
     </row>
     <row r="57" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="202"/>
       <c r="D57" s="236" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E57" s="237" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F57" s="202"/>
       <c r="G57" s="203"/>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="166" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="185"/>
       <c r="D58" s="238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="194" t="s">
         <v>60</v>
@@ -13102,11 +13057,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="166" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B59" s="171"/>
       <c r="C59" s="172" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D59" s="239" t="str">
         <f aca="false">A79</f>
@@ -13121,11 +13076,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B60" s="168"/>
       <c r="C60" s="169" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D60" s="170"/>
       <c r="E60" s="170"/>
@@ -13134,26 +13089,26 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="185"/>
       <c r="D61" s="195" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" s="232" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="195" t="s">
+      <c r="G61" s="195" t="s">
         <v>245</v>
-      </c>
-      <c r="F61" s="232" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="195" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="166" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="171"/>
       <c r="C62" s="185"/>
@@ -13161,18 +13116,18 @@
         <v>61</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F62" s="238" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="20"/>
@@ -13241,7 +13196,7 @@
     </row>
     <row r="66" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="166" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B66" s="162" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 3/8"</f>
@@ -13256,7 +13211,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B67" s="247"/>
       <c r="C67" s="4"/>
@@ -13267,127 +13222,127 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="166" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="166" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="166" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="166" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="166" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="166" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="166" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="166" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="166" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="166" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="166" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="166" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="166" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="166" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="166" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="166" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="166" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="166" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="166" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="166" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="166" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="166" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="166" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -13411,7 +13366,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:G8 E9:G9">
+  <conditionalFormatting sqref="D8:F8 E9:G9">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
       <formula>"*"</formula>
     </cfRule>
@@ -13476,7 +13431,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E53 G8">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>"*"</formula>
     </cfRule>
@@ -13905,8 +13860,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13931,7 +13886,7 @@
       </c>
       <c r="B2" s="249"/>
       <c r="C2" s="250" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="251"/>
       <c r="E2" s="250"/>
@@ -14048,7 +14003,7 @@
       </c>
       <c r="B8" s="171"/>
       <c r="C8" s="261" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D8" s="262" t="str">
         <f aca="false">A5</f>
@@ -14060,11 +14015,11 @@
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="166" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="171"/>
       <c r="C9" s="233" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="265" t="str">
         <f aca="false">A6</f>
@@ -14095,7 +14050,7 @@
       </c>
       <c r="B11" s="253"/>
       <c r="C11" s="254" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D11" s="255"/>
       <c r="E11" s="255"/>
@@ -14115,20 +14070,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="264" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="268" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="195" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="268" t="s">
+      <c r="F13" s="269" t="s">
         <v>285</v>
-      </c>
-      <c r="E13" s="195" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="269" t="s">
-        <v>287</v>
       </c>
       <c r="G13" s="269"/>
     </row>
@@ -14139,13 +14094,13 @@
       <c r="B14" s="171"/>
       <c r="C14" s="185"/>
       <c r="D14" s="268" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="195" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="269" t="s">
         <v>288</v>
-      </c>
-      <c r="E14" s="195" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="269" t="s">
-        <v>290</v>
       </c>
       <c r="G14" s="269"/>
     </row>
@@ -14162,10 +14117,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="238" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G15" s="198" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14181,7 +14136,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B17" s="171"/>
       <c r="C17" s="271" t="s">
@@ -14281,7 +14236,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B21" s="171"/>
       <c r="C21" s="273" t="s">
@@ -14310,7 +14265,7 @@
       </c>
       <c r="B22" s="171"/>
       <c r="C22" s="264" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D22" s="274" t="str">
         <f aca="false">A42</f>
@@ -14343,7 +14298,7 @@
       </c>
       <c r="B24" s="253"/>
       <c r="C24" s="254" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D24" s="170"/>
       <c r="E24" s="255"/>
@@ -14352,7 +14307,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B25" s="221"/>
       <c r="C25" s="276"/>
@@ -14393,7 +14348,7 @@
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="278" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D28" s="278"/>
       <c r="E28" s="240" t="str">
@@ -14412,7 +14367,7 @@
       </c>
       <c r="B29" s="171"/>
       <c r="C29" s="278" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D29" s="278"/>
       <c r="E29" s="240" t="str">
@@ -14427,11 +14382,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B30" s="171"/>
       <c r="C30" s="278" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D30" s="278"/>
       <c r="E30" s="240" t="str">
@@ -14450,7 +14405,7 @@
       </c>
       <c r="B31" s="171"/>
       <c r="C31" s="278" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D31" s="278"/>
       <c r="E31" s="240" t="str">
@@ -14469,7 +14424,7 @@
       </c>
       <c r="B32" s="171"/>
       <c r="C32" s="278" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D32" s="278"/>
       <c r="E32" s="240" t="str">
@@ -14488,7 +14443,7 @@
       </c>
       <c r="B33" s="171"/>
       <c r="C33" s="278" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D33" s="278"/>
       <c r="E33" s="240" t="str">
@@ -14514,11 +14469,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B35" s="253"/>
       <c r="C35" s="254" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D35" s="255"/>
       <c r="E35" s="255"/>
@@ -14544,13 +14499,13 @@
       <c r="C37" s="185"/>
       <c r="D37" s="185"/>
       <c r="E37" s="195" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="195" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="195" t="s">
         <v>307</v>
-      </c>
-      <c r="F37" s="195" t="s">
-        <v>308</v>
-      </c>
-      <c r="G37" s="195" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14560,11 +14515,11 @@
       <c r="B38" s="171"/>
       <c r="C38" s="185"/>
       <c r="D38" s="185"/>
-      <c r="E38" s="194" t="s">
-        <v>210</v>
-      </c>
-      <c r="F38" s="194" t="s">
-        <v>210</v>
+      <c r="E38" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="121" t="s">
+        <v>60</v>
       </c>
       <c r="G38" s="194" t="s">
         <v>60</v>
@@ -14583,7 +14538,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B40" s="171"/>
       <c r="C40" s="172" t="s">
@@ -14600,7 +14555,7 @@
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="172" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D41" s="172"/>
       <c r="E41" s="240" t="str">
@@ -14617,11 +14572,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="172" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="172"/>
       <c r="E42" s="240" t="str">
@@ -14638,11 +14593,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B43" s="171"/>
       <c r="C43" s="172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D43" s="172"/>
       <c r="E43" s="240" t="str">
@@ -14659,11 +14614,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B44" s="171"/>
       <c r="C44" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D44" s="172"/>
       <c r="E44" s="240" t="str">
@@ -14679,11 +14634,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="172" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="172"/>
       <c r="E45" s="240" t="str">
@@ -14701,11 +14656,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B46" s="171"/>
       <c r="C46" s="172" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D46" s="172"/>
       <c r="E46" s="240" t="str">
@@ -14721,11 +14676,11 @@
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B47" s="171"/>
       <c r="C47" s="264" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D47" s="264"/>
       <c r="E47" s="282" t="str">
@@ -14743,11 +14698,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B48" s="171"/>
       <c r="C48" s="227" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D48" s="264"/>
       <c r="E48" s="234"/>
@@ -14756,7 +14711,7 @@
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B49" s="171"/>
       <c r="C49" s="202"/>
@@ -14767,11 +14722,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B50" s="253"/>
       <c r="C50" s="254" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D50" s="255"/>
       <c r="E50" s="255"/>
@@ -14780,7 +14735,7 @@
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="202"/>
@@ -14791,7 +14746,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B52" s="171"/>
       <c r="C52" s="185"/>
@@ -14806,7 +14761,7 @@
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
@@ -14817,11 +14772,11 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B54" s="171"/>
       <c r="C54" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D54" s="172"/>
       <c r="E54" s="240" t="str">
@@ -14836,11 +14791,11 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D55" s="172"/>
       <c r="E55" s="240" t="str">
@@ -14855,11 +14810,11 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="166" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B56" s="171"/>
       <c r="C56" s="172" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D56" s="172"/>
       <c r="E56" s="240" t="str">
@@ -14874,11 +14829,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D57" s="172"/>
       <c r="E57" s="240" t="str">
@@ -14893,7 +14848,7 @@
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="166" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="172"/>
@@ -14904,11 +14859,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="166" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="171"/>
       <c r="C59" s="227" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D59" s="285"/>
       <c r="E59" s="286"/>
@@ -14917,11 +14872,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="166" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B60" s="171"/>
       <c r="C60" s="227" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D60" s="285"/>
       <c r="E60" s="287"/>
@@ -14930,7 +14885,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="172"/>
@@ -14941,11 +14896,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="166" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B62" s="253"/>
       <c r="C62" s="254" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D62" s="255"/>
       <c r="E62" s="255"/>
@@ -14954,7 +14909,7 @@
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="166" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="202"/>
@@ -14965,7 +14920,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="166" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B64" s="171"/>
       <c r="C64" s="185"/>
@@ -14980,7 +14935,7 @@
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="166" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B65" s="171"/>
       <c r="C65" s="185"/>
@@ -14991,11 +14946,11 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="166" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B66" s="171"/>
       <c r="C66" s="172" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D66" s="172"/>
       <c r="E66" s="240" t="str">
@@ -15010,11 +14965,11 @@
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="166" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" s="171"/>
       <c r="C67" s="172" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D67" s="172"/>
       <c r="E67" s="240" t="str">
@@ -15029,11 +14984,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="166" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B68" s="171"/>
       <c r="C68" s="172" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D68" s="172"/>
       <c r="E68" s="240" t="str">
@@ -15048,11 +15003,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="166" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B69" s="171"/>
       <c r="C69" s="172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D69" s="172"/>
       <c r="E69" s="240" t="str">
@@ -15067,11 +15022,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="166" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B70" s="171"/>
       <c r="C70" s="172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D70" s="172"/>
       <c r="E70" s="240" t="str">
@@ -15086,7 +15041,7 @@
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="166" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B71" s="171"/>
       <c r="C71" s="172"/>
@@ -15097,11 +15052,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="166" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B72" s="253"/>
       <c r="C72" s="254" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D72" s="255"/>
       <c r="E72" s="255"/>
@@ -15110,7 +15065,7 @@
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="166" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B73" s="171"/>
       <c r="C73" s="202"/>
@@ -15121,11 +15076,11 @@
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="166" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B74" s="171"/>
       <c r="C74" s="172" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D74" s="172"/>
       <c r="E74" s="289" t="str">
@@ -15137,7 +15092,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="166" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B75" s="244"/>
       <c r="C75" s="183"/>
@@ -15148,12 +15103,12 @@
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="166" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="166" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B77" s="291" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 4/8"</f>
@@ -15167,182 +15122,182 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="166" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="166" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="166" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="166" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="166" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="166" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="166" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="166" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="166" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="166" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="166" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="166" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="166" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="166" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="166" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="166" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="166" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="166" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="166" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="166" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="166" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="166" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="166" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="166" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="166" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="166" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="166" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="166" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="166" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="166" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="166" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -15461,7 +15416,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F48 E38">
+  <conditionalFormatting sqref="F47:F48">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
       <formula>"*"</formula>
     </cfRule>
@@ -15736,43 +15691,43 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
       <formula>"Täytä lähtötietoihin!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C68 C70">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
     <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="205">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="C74">
     <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15800,7 +15755,7 @@
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V32" activeCellId="0" sqref="V32"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="F38 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15824,11 +15779,11 @@
     </row>
     <row r="2" s="297" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="292" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B2" s="293"/>
       <c r="C2" s="294" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D2" s="294"/>
       <c r="E2" s="295"/>
@@ -15887,11 +15842,11 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="298" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D3" s="298"/>
       <c r="E3" s="298"/>
@@ -15903,7 +15858,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B4" s="105"/>
       <c r="C4" s="68"/>
@@ -15917,11 +15872,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="97" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="102" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="103"/>
@@ -15933,7 +15888,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="97" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="0"/>
@@ -15948,7 +15903,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="299" t="str">
@@ -15966,7 +15921,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="97" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="5"/>
@@ -15980,7 +15935,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -15994,11 +15949,11 @@
     </row>
     <row r="10" s="297" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="292" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="302"/>
       <c r="C10" s="303" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D10" s="304"/>
       <c r="E10" s="305"/>
@@ -16061,7 +16016,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="97" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="5"/>
@@ -16075,11 +16030,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="108" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="312"/>
@@ -16097,7 +16052,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="97" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="108"/>
@@ -16111,11 +16066,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="108" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="312"/>
@@ -16133,7 +16088,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="108"/>
@@ -16147,11 +16102,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="317" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="312"/>
@@ -16169,11 +16124,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="97" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="317" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="312"/>
@@ -16191,7 +16146,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="317"/>
@@ -16205,11 +16160,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="97" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -16227,7 +16182,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="318"/>
@@ -16241,21 +16196,21 @@
     </row>
     <row r="21" s="297" customFormat="true" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="292" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" s="302"/>
       <c r="C21" s="303" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D21" s="303"/>
       <c r="E21" s="322" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="323" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" s="322" t="s">
         <v>428</v>
-      </c>
-      <c r="F21" s="323" t="s">
-        <v>429</v>
-      </c>
-      <c r="G21" s="322" t="s">
-        <v>430</v>
       </c>
       <c r="H21" s="323" t="s">
         <v>59</v>
@@ -16314,7 +16269,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="97" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B22" s="99"/>
       <c r="C22" s="324"/>
@@ -16328,11 +16283,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="108" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="240" t="str">
@@ -16340,7 +16295,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="F23" s="331" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G23" s="332" t="n">
         <v>10</v>
@@ -16357,11 +16312,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="108" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D24" s="108"/>
       <c r="E24" s="240" t="str">
@@ -16369,7 +16324,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="F24" s="331" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G24" s="332" t="n">
         <v>1300</v>
@@ -16386,11 +16341,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="108" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="240" t="str">
@@ -16398,7 +16353,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="F25" s="331" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G25" s="332" t="n">
         <v>1700</v>
@@ -16415,11 +16370,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D26" s="108"/>
       <c r="E26" s="240" t="str">
@@ -16427,7 +16382,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="F26" s="331" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G26" s="332" t="n">
         <v>4.7</v>
@@ -16444,7 +16399,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B27" s="105"/>
       <c r="C27" s="333" t="str">
@@ -16476,7 +16431,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="333" t="str">
@@ -16508,11 +16463,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B29" s="105"/>
       <c r="C29" s="336" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D29" s="336"/>
       <c r="E29" s="240"/>
@@ -16524,7 +16479,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B30" s="105"/>
       <c r="C30" s="336"/>
@@ -16538,7 +16493,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="336"/>
@@ -16552,7 +16507,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="336"/>
@@ -16566,7 +16521,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="97" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B33" s="105"/>
       <c r="C33" s="340"/>
@@ -16580,7 +16535,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B34" s="114"/>
       <c r="C34" s="341"/>
@@ -16594,11 +16549,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="303" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D35" s="303"/>
       <c r="E35" s="312"/>
@@ -16610,7 +16565,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="303"/>
@@ -16628,7 +16583,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B37" s="99"/>
       <c r="C37" s="347"/>
@@ -16642,11 +16597,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="353"/>
@@ -16664,7 +16619,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="32"/>
@@ -16678,11 +16633,11 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="353"/>
@@ -16700,7 +16655,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="32"/>
@@ -16714,11 +16669,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="353"/>
@@ -16736,7 +16691,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="32"/>
@@ -16750,11 +16705,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="353"/>
@@ -16772,7 +16727,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="32"/>
@@ -16786,11 +16741,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="97" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="5"/>
@@ -16808,7 +16763,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="97" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B47" s="114"/>
       <c r="C47" s="359"/>
@@ -16822,11 +16777,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="97" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B48" s="99"/>
       <c r="C48" s="362" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D48" s="362"/>
       <c r="E48" s="362"/>
@@ -16838,7 +16793,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="97" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B49" s="105"/>
       <c r="C49" s="362"/>
@@ -16852,7 +16807,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="97" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B50" s="105"/>
       <c r="C50" s="362"/>
@@ -16866,7 +16821,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="97" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="105"/>
       <c r="C51" s="362"/>
@@ -16880,7 +16835,7 @@
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="97" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B52" s="105"/>
       <c r="C52" s="362"/>
@@ -16894,7 +16849,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="97" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" s="152"/>
       <c r="C53" s="362"/>
@@ -16909,7 +16864,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="97" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" s="364" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
@@ -16926,7 +16881,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="97" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B55" s="364"/>
       <c r="C55" s="364"/>
@@ -16940,62 +16895,62 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="97" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="97" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="97" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="97" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="97" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="97" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="97" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="97" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="97" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -17015,412 +16970,412 @@
     <mergeCell ref="B54:J55"/>
   </mergeCells>
   <conditionalFormatting sqref="L46:GZ47 L53:GZ54 K53 L37:GZ45 K32:K47 J5:J9 B56:GZ65353 B2:J2 D5:I5 B9:I9 E11:H11 B47:E47 F12:F13 L2:GZ6 B37:D37 B8:D8 F8:I8 K2:K24 L7:GZ7 B4:J4 B3:C3 I20 H12:H20 L8:GZ24 B10:B24 H27:I35 L32:GZ36 B32:B36 E23:E36 G27:G36 K55:GZ55 B54:J55 B5:B6 D6:I6 B45:D45 B38:B44 D38:D44 B46 D46:E46">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 I7">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G46">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:I47 I10">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D51 B52 K48:GZ52">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 C33:D34 C20 F32:F36 C24">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
       <formula>LEFT(C20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
       <formula>LEFT(D24,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:GZ27">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G26 G25">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 C26">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
       <formula>LEFT(C25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27 D26">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>LEFT(C26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 E10">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15 C14:C15">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15 C23">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23 C16:C18">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18 C16:C18">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23 C23">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25 C25">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 C24">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
       <formula>LEFT(D26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24 C24">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 C23">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23 C23">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24 C24">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G26 C26">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26 C25">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>LEFT(F27,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:GZ31">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B31">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D28 D29">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>LEFT(C28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F31">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>LEFT(F28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I42 I44 H46:I46">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I42 I44 H46:I46">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 I15">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 I15">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 I45 I43 I40">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 I45 I43 I40">
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G18">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38 H42:H45 H40 C21">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D22 D21:E21">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22 G21">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 H21">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 I21">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22 H36">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:G19">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17430,37 +17385,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>LEFT(C25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>LEFT(C25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>LEFT(C26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>LEFT(C29,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17488,7 +17443,7 @@
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="1" sqref="F38 D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17508,10 +17463,10 @@
     </row>
     <row r="2" s="367" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="248" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="366" t="s">
-        <v>491</v>
+        <v>97</v>
       </c>
       <c r="C2" s="366"/>
       <c r="D2" s="366"/>
@@ -17550,10 +17505,10 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="166" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B3" s="368" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C3" s="368"/>
       <c r="D3" s="368"/>
@@ -17562,10 +17517,10 @@
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="365" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B4" s="369" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C4" s="102"/>
       <c r="D4" s="370"/>
@@ -17574,7 +17529,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="365" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B5" s="372" t="str">
         <f aca="false">A3</f>
@@ -17588,7 +17543,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="365" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B6" s="372"/>
       <c r="C6" s="372"/>
@@ -17598,7 +17553,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="365" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B7" s="372"/>
       <c r="C7" s="372"/>
@@ -17608,7 +17563,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="365" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B8" s="372"/>
       <c r="C8" s="372"/>
@@ -17618,7 +17573,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="365" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B9" s="372"/>
       <c r="C9" s="372"/>
@@ -17628,7 +17583,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="365" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B10" s="372"/>
       <c r="C10" s="372"/>
@@ -17638,10 +17593,10 @@
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B11" s="373" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C11" s="373"/>
       <c r="D11" s="373"/>
@@ -17650,7 +17605,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B12" s="374" t="n">
         <v>1</v>
@@ -17665,7 +17620,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B13" s="374" t="n">
         <v>2</v>
@@ -17680,7 +17635,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B14" s="374" t="n">
         <v>3</v>
@@ -17695,25 +17650,25 @@
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B15" s="376"/>
       <c r="C15" s="377" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="377" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="377" t="s">
+        <v>507</v>
+      </c>
+      <c r="F15" s="378" t="s">
         <v>508</v>
-      </c>
-      <c r="D15" s="377" t="s">
-        <v>509</v>
-      </c>
-      <c r="E15" s="377" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" s="378" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B16" s="379"/>
       <c r="C16" s="120" t="s">
@@ -17726,12 +17681,12 @@
         <v>59</v>
       </c>
       <c r="F16" s="120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B17" s="374" t="n">
         <v>1</v>
@@ -17755,7 +17710,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B18" s="374" t="n">
         <v>2</v>
@@ -17779,7 +17734,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B19" s="374" t="n">
         <v>3</v>
@@ -17803,10 +17758,10 @@
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B20" s="381" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C20" s="102"/>
       <c r="D20" s="370"/>
@@ -17815,7 +17770,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B21" s="372" t="str">
         <f aca="false">A23</f>
@@ -17828,7 +17783,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B22" s="372"/>
       <c r="C22" s="372"/>
@@ -17838,7 +17793,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B23" s="372"/>
       <c r="C23" s="372"/>
@@ -17848,7 +17803,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B24" s="372"/>
       <c r="C24" s="372"/>
@@ -17858,7 +17813,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B25" s="372"/>
       <c r="C25" s="372"/>
@@ -17868,7 +17823,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B26" s="372"/>
       <c r="C26" s="372"/>
@@ -17878,10 +17833,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B27" s="373" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C27" s="373"/>
       <c r="D27" s="373"/>
@@ -17890,7 +17845,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B28" s="374" t="n">
         <v>1</v>
@@ -17905,7 +17860,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B29" s="374" t="n">
         <v>2</v>
@@ -17920,7 +17875,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B30" s="374" t="n">
         <v>3</v>
@@ -17935,25 +17890,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B31" s="383"/>
       <c r="C31" s="377" t="s">
+        <v>505</v>
+      </c>
+      <c r="D31" s="377" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="377" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" s="378" t="s">
         <v>508</v>
-      </c>
-      <c r="D31" s="377" t="s">
-        <v>509</v>
-      </c>
-      <c r="E31" s="377" t="s">
-        <v>510</v>
-      </c>
-      <c r="F31" s="378" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B32" s="383"/>
       <c r="C32" s="120" t="s">
@@ -17966,12 +17921,12 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B33" s="374" t="n">
         <v>1</v>
@@ -17995,7 +17950,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B34" s="374" t="n">
         <v>2</v>
@@ -18019,7 +17974,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B35" s="374" t="n">
         <v>3</v>
@@ -18043,10 +17998,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B36" s="381" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C36" s="384"/>
       <c r="D36" s="14"/>
@@ -18055,7 +18010,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B37" s="372" t="str">
         <f aca="false">A43</f>
@@ -18068,7 +18023,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B38" s="372"/>
       <c r="C38" s="372"/>
@@ -18078,7 +18033,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B39" s="372"/>
       <c r="C39" s="372"/>
@@ -18088,7 +18043,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B40" s="372"/>
       <c r="C40" s="372"/>
@@ -18098,7 +18053,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B41" s="372"/>
       <c r="C41" s="372"/>
@@ -18108,7 +18063,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B42" s="372"/>
       <c r="C42" s="372"/>
@@ -18118,10 +18073,10 @@
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B43" s="373" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C43" s="373"/>
       <c r="D43" s="373"/>
@@ -18130,7 +18085,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B44" s="374" t="n">
         <v>1</v>
@@ -18145,7 +18100,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B45" s="374" t="n">
         <v>2</v>
@@ -18160,7 +18115,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B46" s="374" t="n">
         <v>3</v>
@@ -18175,25 +18130,25 @@
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B47" s="383"/>
       <c r="C47" s="377" t="s">
+        <v>505</v>
+      </c>
+      <c r="D47" s="377" t="s">
+        <v>506</v>
+      </c>
+      <c r="E47" s="377" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47" s="378" t="s">
         <v>508</v>
-      </c>
-      <c r="D47" s="377" t="s">
-        <v>509</v>
-      </c>
-      <c r="E47" s="377" t="s">
-        <v>510</v>
-      </c>
-      <c r="F47" s="378" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B48" s="383"/>
       <c r="C48" s="120" t="s">
@@ -18206,12 +18161,12 @@
         <v>59</v>
       </c>
       <c r="F48" s="120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B49" s="374" t="n">
         <v>1</v>
@@ -18235,7 +18190,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B50" s="374" t="n">
         <v>2</v>
@@ -18259,7 +18214,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B51" s="374" t="n">
         <v>3</v>
@@ -18283,7 +18238,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="365" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B52" s="291" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 6/8"</f>
@@ -18296,48 +18251,48 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="365" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B53" s="385"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="365" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="365" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="365" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="365" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="365" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="365" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="365" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="365" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -18364,92 +18319,92 @@
     <mergeCell ref="B52:F52"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:AMJ3 H54:AMJ1048576 B2:B3 H11:AMJ14 H4:AMJ10 H16:AMJ31 C33:F42 G33:AMJ47 G2:G3 A54:G1048576 G11:G14 A4:G10 G16:G31 A52:AMJ53 B21:F26 C20:F20 B33:B35 B37:B42">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:AMJ51 B27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C30">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F19 B11">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C14">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:F51 B43">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C46 C16:E16 C32:E32 C48:E48">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 F32 F48">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15 E31 E47">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C31 C47">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D31 D47">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:AMJ32">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:AMJ48">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B36">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18470,8 +18425,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="1" sqref="F38 B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18491,10 +18446,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="365" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B2" s="369" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="370"/>
@@ -18503,7 +18458,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="365" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B3" s="372" t="str">
         <f aca="false">A3</f>
@@ -18516,7 +18471,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="365" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B4" s="372"/>
       <c r="C4" s="372"/>
@@ -18526,7 +18481,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="365" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B5" s="372"/>
       <c r="C5" s="372"/>
@@ -18537,7 +18492,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="365" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B6" s="372"/>
       <c r="C6" s="372"/>
@@ -18548,7 +18503,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="365" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B7" s="372"/>
       <c r="C7" s="372"/>
@@ -18558,7 +18513,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="365" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B8" s="372"/>
       <c r="C8" s="372"/>
@@ -18568,7 +18523,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="365" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B9" s="372"/>
       <c r="C9" s="372"/>
@@ -18578,10 +18533,10 @@
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B10" s="386" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C10" s="386"/>
       <c r="D10" s="386"/>
@@ -18590,7 +18545,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B11" s="374" t="n">
         <v>1</v>
@@ -18605,7 +18560,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B12" s="374" t="n">
         <v>2</v>
@@ -18620,7 +18575,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B13" s="374" t="n">
         <v>3</v>
@@ -18635,25 +18590,25 @@
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B14" s="383"/>
       <c r="C14" s="377" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="377" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="377" t="s">
+        <v>507</v>
+      </c>
+      <c r="F14" s="378" t="s">
         <v>508</v>
-      </c>
-      <c r="D14" s="377" t="s">
-        <v>509</v>
-      </c>
-      <c r="E14" s="377" t="s">
-        <v>510</v>
-      </c>
-      <c r="F14" s="378" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B15" s="383"/>
       <c r="C15" s="120" t="s">
@@ -18666,12 +18621,12 @@
         <v>59</v>
       </c>
       <c r="F15" s="120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B16" s="374" t="n">
         <v>1</v>
@@ -18695,7 +18650,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B17" s="374" t="n">
         <v>2</v>
@@ -18719,7 +18674,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B18" s="374" t="n">
         <v>3</v>
@@ -18743,10 +18698,10 @@
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B19" s="381" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="14"/>
@@ -18755,7 +18710,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B20" s="372" t="str">
         <f aca="false">A23</f>
@@ -18768,7 +18723,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B21" s="372"/>
       <c r="C21" s="372"/>
@@ -18778,7 +18733,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B22" s="372"/>
       <c r="C22" s="372"/>
@@ -18788,7 +18743,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B23" s="372"/>
       <c r="C23" s="372"/>
@@ -18798,7 +18753,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B24" s="372"/>
       <c r="C24" s="372"/>
@@ -18808,7 +18763,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B25" s="372"/>
       <c r="C25" s="372"/>
@@ -18818,7 +18773,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B26" s="372"/>
       <c r="C26" s="372"/>
@@ -18828,10 +18783,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B27" s="386" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C27" s="386"/>
       <c r="D27" s="386"/>
@@ -18840,7 +18795,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B28" s="374" t="n">
         <v>1</v>
@@ -18855,7 +18810,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B29" s="374" t="n">
         <v>2</v>
@@ -18870,7 +18825,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B30" s="374" t="n">
         <v>3</v>
@@ -18885,25 +18840,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B31" s="383"/>
       <c r="C31" s="377" t="s">
+        <v>505</v>
+      </c>
+      <c r="D31" s="377" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="377" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" s="378" t="s">
         <v>508</v>
-      </c>
-      <c r="D31" s="377" t="s">
-        <v>509</v>
-      </c>
-      <c r="E31" s="377" t="s">
-        <v>510</v>
-      </c>
-      <c r="F31" s="378" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B32" s="383"/>
       <c r="C32" s="120" t="s">
@@ -18916,12 +18871,12 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B33" s="374" t="n">
         <v>1</v>
@@ -18945,7 +18900,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B34" s="374" t="n">
         <v>2</v>
@@ -18969,7 +18924,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B35" s="374" t="n">
         <v>3</v>
@@ -18993,10 +18948,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B36" s="388" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C36" s="388"/>
       <c r="D36" s="388"/>
@@ -19005,7 +18960,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B37" s="389" t="str">
         <f aca="false">A43</f>
@@ -19018,7 +18973,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B38" s="389"/>
       <c r="C38" s="389"/>
@@ -19028,7 +18983,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B39" s="389"/>
       <c r="C39" s="389"/>
@@ -19038,7 +18993,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B40" s="389"/>
       <c r="C40" s="389"/>
@@ -19048,7 +19003,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B41" s="389"/>
       <c r="C41" s="389"/>
@@ -19058,7 +19013,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B42" s="389"/>
       <c r="C42" s="389"/>
@@ -19068,7 +19023,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B43" s="389"/>
       <c r="C43" s="389"/>
@@ -19078,7 +19033,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B44" s="389"/>
       <c r="C44" s="389"/>
@@ -19088,7 +19043,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B45" s="389"/>
       <c r="C45" s="389"/>
@@ -19146,7 +19101,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="369" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C52" s="102"/>
       <c r="D52" s="370"/>
@@ -19164,7 +19119,7 @@
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
       <c r="B54" s="331" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C54" s="331"/>
       <c r="D54" s="331"/>
@@ -19239,72 +19194,72 @@
     <mergeCell ref="B59:F59"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:AMJ14 B39:B43 B51:F51 H53:AMJ53 H33:AMJ51 B37:F38 B11:C13 H62:AMJ1048576 H52:AMJ52 H2:AMJ9 H18:AMJ31 G54:AMJ57 B55:B57 G10:G14 D53:G53 G33:G51 A62:G1048576 C52:G52 A3:G9 G18:G31 A58:AMJ61 C18:F26 B16:AMJ17 A2 C2:G2 B18 B20:B26 A52">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C30 B33:F35">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:AMJ32">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 B10 B19 B36 B52">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E31">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C31">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 D31">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15 C32:E32">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F32">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19326,7 +19281,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F38 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19346,10 +19301,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B2" s="392" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C2" s="392"/>
       <c r="D2" s="392"/>
@@ -19360,7 +19315,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="365" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B3" s="372" t="str">
         <f aca="false">A3</f>
@@ -19925,12 +19880,12 @@
     <mergeCell ref="B62:H63"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:AMJ2 A3:AMJ1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -4927,7 +4927,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4935,8 +4935,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -7322,9 +7322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>234720</xdr:colOff>
+      <xdr:colOff>234360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>249120</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7338,7 +7338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="744840" cy="201600"/>
+          <a:ext cx="744480" cy="201240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7359,9 +7359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>134640</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>249120</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7375,7 +7375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1088280" cy="201600"/>
+          <a:ext cx="1087920" cy="201240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7396,9 +7396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>249120</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7412,7 +7412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1395000" cy="201600"/>
+          <a:ext cx="1394640" cy="201240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7433,9 +7433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>249120</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7449,7 +7449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1719000" cy="201600"/>
+          <a:ext cx="1718640" cy="201240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7470,9 +7470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7486,7 +7486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2026080" cy="214560"/>
+          <a:ext cx="2025720" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7507,9 +7507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>249120</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7523,7 +7523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2362320" cy="201600"/>
+          <a:ext cx="2361960" cy="201240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,9 +7544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>250200</xdr:rowOff>
+      <xdr:rowOff>249840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7556,7 +7556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2675160" cy="200520"/>
+          <a:ext cx="2674800" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7925,9 +7925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7937,7 +7937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6974280" cy="10495800"/>
+          <a:ext cx="6973920" cy="10495440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8066,8 +8066,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="F38 F42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9703,7 +9703,7 @@
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="F38 C58"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11916,7 +11916,7 @@
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G42" activeCellId="1" sqref="F38 G42"/>
+      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13860,7 +13860,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -15755,7 +15755,7 @@
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="F38 C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17443,7 +17443,7 @@
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="1" sqref="F38 D36"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18425,8 +18425,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="1" sqref="F38 B37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19281,7 +19281,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F38 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="746">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29169]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61210]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">[:perustiedot :alakayttotarkoitus-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29171]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29173]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29175]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61212]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61214]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61216]</t>
   </si>
   <si>
     <t xml:space="preserve">Permanent byggnadsbeteckning:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29177]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61218]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnaden färdigställd år:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29179]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61220]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadens användningskategori:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29181]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29183]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61222]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61224]</t>
   </si>
   <si>
     <t xml:space="preserve">Certifikatnummer:</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29186]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29188]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61227]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61230]</t>
   </si>
   <si>
     <t xml:space="preserve">    Energiprestandaklass</t>
@@ -221,28 +221,28 @@
     <t xml:space="preserve">Sista giltighetsdag:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29190]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61234]</t>
   </si>
   <si>
     <t xml:space="preserve">SAMMANDRAG ÖVER BYGGNADENS ENERGIPRESTANDA</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Beräknad förbrukning av köpt energi och jämförelsetal för energiprestanda (E-tal)</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-sv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Uppvärmd nettoarea</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-sv]</t>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Uppvärmningssystemet</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">[:tulokset :e-luokka-info :luokittelu :label-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29192]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29195]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29198]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29201]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29204]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29207]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29210]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61236]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61239]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61242]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61245]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61248]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61251]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61254]</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :e-luokka-info :e-luokka]</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :takka :tuotto]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :maara]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</t>
@@ -1352,40 +1352,40 @@
     <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29213]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29215]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29217]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29219]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29221]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29223]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29225]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29227]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29229]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29231]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29233]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29235]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61257]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61261]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61263]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61265]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61267]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61269]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61271]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61273]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61275]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61277]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61279]</t>
   </si>
   <si>
     <t xml:space="preserve">BERÄKNING AV E-TAL, RESULTAT</t>
@@ -2029,13 +2029,13 @@
     <t xml:space="preserve">[:tulokset :laskentatyokalu]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29237]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61281]</t>
   </si>
   <si>
     <t xml:space="preserve">FAKTISK ENERGIFÖRBRUKNING</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29239]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61283]</t>
   </si>
   <si>
     <t xml:space="preserve">De mängder köpt energi som står till förfogande anges i oförändrad form utan korrigering enligt graddagstalet. Mängderna köpt energi uppges för hela det kalenderår som föregick upprättandet av energicertifikatet.</t>
@@ -2726,6 +2726,417 @@
   </si>
   <si>
     <t xml:space="preserve">[:lisamerkintoja-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ilmatilavuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -3370,7 +3781,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="393">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4243,7 +4654,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4926,10 +5337,6 @@
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -7322,9 +7729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>234360</xdr:colOff>
+      <xdr:colOff>233280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7338,7 +7745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="744480" cy="201240"/>
+          <a:ext cx="743400" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7359,9 +7766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7375,7 +7782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1087920" cy="201240"/>
+          <a:ext cx="1086840" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7396,9 +7803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7412,7 +7819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1394640" cy="201240"/>
+          <a:ext cx="1393560" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7433,9 +7840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7449,7 +7856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1718640" cy="201240"/>
+          <a:ext cx="1717560" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7470,9 +7877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7486,7 +7893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2025720" cy="214200"/>
+          <a:ext cx="2024640" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7507,9 +7914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7523,7 +7930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2361960" cy="201240"/>
+          <a:ext cx="2360880" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,9 +7951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>249840</xdr:rowOff>
+      <xdr:rowOff>248760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7556,7 +7963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2674800" cy="200160"/>
+          <a:ext cx="2673720" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7925,9 +8332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7937,7 +8344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6973920" cy="10495440"/>
+          <a:ext cx="6972840" cy="10494360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8060,14 +8467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8362,7 +8769,7 @@
       <c r="J9" s="0"/>
       <c r="K9" s="20" t="str">
         <f aca="false">A5</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29169]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61210]</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -8799,7 +9206,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="38" t="str">
         <f aca="false">A11</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29173]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61214]</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -8826,7 +9233,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="38" t="str">
         <f aca="false">A13</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29177]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61218]</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -8851,7 +9258,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="str">
         <f aca="false">A15</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29181]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61222]</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -8861,7 +9268,10 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5" t="str">
+        <f aca="false">A16</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61224]</v>
+      </c>
       <c r="O21" s="16"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -9539,7 +9949,7 @@
     <row r="50" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C50" s="92" t="str">
         <f aca="false">A21</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29186]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61227]</v>
       </c>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
@@ -9551,7 +9961,7 @@
       <c r="K50" s="87"/>
       <c r="L50" s="94" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29188]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61230]</v>
       </c>
       <c r="M50" s="94"/>
       <c r="N50" s="94"/>
@@ -9696,7 +10106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -9852,7 +10262,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="107" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29190]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61234]</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="5"/>
@@ -9887,7 +10297,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="109" t="str">
         <f aca="false">A4</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-sv]</v>
+        <v>[:lahtotiedot :lammitys :label-sv]</v>
       </c>
       <c r="G6" s="109"/>
       <c r="H6" s="109"/>
@@ -9923,7 +10333,7 @@
       <c r="E7" s="111"/>
       <c r="F7" s="112" t="str">
         <f aca="false">A6</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-sv]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
@@ -10569,15 +10979,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="139" t="str">
         <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29192]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61236]</v>
       </c>
       <c r="H25" s="140" t="str">
         <f aca="false">A46</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29195]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61239]</v>
       </c>
       <c r="I25" s="141" t="str">
         <f aca="false">A47</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29198]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61242]</v>
       </c>
       <c r="J25" s="136"/>
       <c r="L25" s="0"/>
@@ -10608,15 +11018,15 @@
       <c r="F26" s="5"/>
       <c r="G26" s="142" t="str">
         <f aca="false">A48</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29201]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61245]</v>
       </c>
       <c r="H26" s="143" t="str">
         <f aca="false">A49</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29204]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61248]</v>
       </c>
       <c r="I26" s="144" t="str">
         <f aca="false">A50</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29207]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61251]</v>
       </c>
       <c r="J26" s="136"/>
       <c r="L26" s="0"/>
@@ -10647,7 +11057,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="145" t="str">
         <f aca="false">A51</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29210]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61254]</v>
       </c>
       <c r="H27" s="146"/>
       <c r="I27" s="146"/>
@@ -11909,7 +12319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -12547,7 +12957,7 @@
       </c>
       <c r="D28" s="200" t="str">
         <f aca="false">A54</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-sv]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
       <c r="E28" s="200"/>
       <c r="F28" s="200"/>
@@ -12729,7 +13139,7 @@
       </c>
       <c r="D38" s="219" t="str">
         <f aca="false">A65</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-sv]</v>
+        <v>[:lahtotiedot :lammitys :label-sv]</v>
       </c>
       <c r="E38" s="219"/>
       <c r="F38" s="219"/>
@@ -12948,11 +13358,11 @@
       </c>
       <c r="D51" s="209" t="str">
         <f aca="false">A76</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
       <c r="E51" s="209" t="str">
         <f aca="false">A77</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
       <c r="F51" s="232"/>
       <c r="G51" s="203"/>
@@ -13133,19 +13543,19 @@
       <c r="C63" s="20"/>
       <c r="D63" s="210" t="str">
         <f aca="false">A81</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29213]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
       </c>
       <c r="E63" s="209" t="str">
         <f aca="false">A82</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29215]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
       </c>
       <c r="F63" s="243" t="str">
         <f aca="false">A83</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29217]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
       </c>
       <c r="G63" s="209" t="str">
         <f aca="false">A84</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29219]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61263]</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13156,19 +13566,19 @@
       <c r="C64" s="20"/>
       <c r="D64" s="210" t="str">
         <f aca="false">A85</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29221]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
       </c>
       <c r="E64" s="243" t="str">
         <f aca="false">A86</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29223]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
       </c>
       <c r="F64" s="243" t="str">
         <f aca="false">A87</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29225]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
       </c>
       <c r="G64" s="209" t="str">
         <f aca="false">A88</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29227]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61271]</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13179,19 +13589,19 @@
       <c r="C65" s="183"/>
       <c r="D65" s="245" t="str">
         <f aca="false">A89</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29229]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
       </c>
       <c r="E65" s="214" t="str">
         <f aca="false">A90</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29231]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
       </c>
       <c r="F65" s="246" t="str">
         <f aca="false">A91</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29233]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
       </c>
       <c r="G65" s="214" t="str">
         <f aca="false">A92</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29235]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61279]</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13854,7 +14264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -15748,7 +16158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -15908,7 +16318,7 @@
       <c r="B7" s="105"/>
       <c r="C7" s="299" t="str">
         <f aca="false">A3</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29239]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
@@ -17436,7 +17846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -18419,13 +18829,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -18962,142 +19372,142 @@
       <c r="A37" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="B37" s="389" t="str">
+      <c r="B37" s="372" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="C37" s="389"/>
-      <c r="D37" s="389"/>
-      <c r="E37" s="389"/>
-      <c r="F37" s="389"/>
+      <c r="C37" s="372"/>
+      <c r="D37" s="372"/>
+      <c r="E37" s="372"/>
+      <c r="F37" s="372"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
         <v>596</v>
       </c>
-      <c r="B38" s="389"/>
-      <c r="C38" s="389"/>
-      <c r="D38" s="389"/>
-      <c r="E38" s="389"/>
-      <c r="F38" s="389"/>
+      <c r="B38" s="372"/>
+      <c r="C38" s="372"/>
+      <c r="D38" s="372"/>
+      <c r="E38" s="372"/>
+      <c r="F38" s="372"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="B39" s="389"/>
-      <c r="C39" s="389"/>
-      <c r="D39" s="389"/>
-      <c r="E39" s="389"/>
-      <c r="F39" s="389"/>
+      <c r="B39" s="372"/>
+      <c r="C39" s="372"/>
+      <c r="D39" s="372"/>
+      <c r="E39" s="372"/>
+      <c r="F39" s="372"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
         <v>598</v>
       </c>
-      <c r="B40" s="389"/>
-      <c r="C40" s="389"/>
-      <c r="D40" s="389"/>
-      <c r="E40" s="389"/>
-      <c r="F40" s="389"/>
+      <c r="B40" s="372"/>
+      <c r="C40" s="372"/>
+      <c r="D40" s="372"/>
+      <c r="E40" s="372"/>
+      <c r="F40" s="372"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
         <v>599</v>
       </c>
-      <c r="B41" s="389"/>
-      <c r="C41" s="389"/>
-      <c r="D41" s="389"/>
-      <c r="E41" s="389"/>
-      <c r="F41" s="389"/>
+      <c r="B41" s="372"/>
+      <c r="C41" s="372"/>
+      <c r="D41" s="372"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="372"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
         <v>600</v>
       </c>
-      <c r="B42" s="389"/>
-      <c r="C42" s="389"/>
-      <c r="D42" s="389"/>
-      <c r="E42" s="389"/>
-      <c r="F42" s="389"/>
+      <c r="B42" s="372"/>
+      <c r="C42" s="372"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
+      <c r="F42" s="372"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
         <v>601</v>
       </c>
-      <c r="B43" s="389"/>
-      <c r="C43" s="389"/>
-      <c r="D43" s="389"/>
-      <c r="E43" s="389"/>
-      <c r="F43" s="389"/>
+      <c r="B43" s="372"/>
+      <c r="C43" s="372"/>
+      <c r="D43" s="372"/>
+      <c r="E43" s="372"/>
+      <c r="F43" s="372"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
         <v>602</v>
       </c>
-      <c r="B44" s="389"/>
-      <c r="C44" s="389"/>
-      <c r="D44" s="389"/>
-      <c r="E44" s="389"/>
-      <c r="F44" s="389"/>
+      <c r="B44" s="372"/>
+      <c r="C44" s="372"/>
+      <c r="D44" s="372"/>
+      <c r="E44" s="372"/>
+      <c r="F44" s="372"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
         <v>603</v>
       </c>
-      <c r="B45" s="389"/>
-      <c r="C45" s="389"/>
-      <c r="D45" s="389"/>
-      <c r="E45" s="389"/>
-      <c r="F45" s="389"/>
+      <c r="B45" s="372"/>
+      <c r="C45" s="372"/>
+      <c r="D45" s="372"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="372"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166"/>
-      <c r="B46" s="389"/>
-      <c r="C46" s="389"/>
-      <c r="D46" s="389"/>
-      <c r="E46" s="389"/>
-      <c r="F46" s="389"/>
+      <c r="B46" s="372"/>
+      <c r="C46" s="372"/>
+      <c r="D46" s="372"/>
+      <c r="E46" s="372"/>
+      <c r="F46" s="372"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166"/>
-      <c r="B47" s="389"/>
-      <c r="C47" s="389"/>
-      <c r="D47" s="389"/>
-      <c r="E47" s="389"/>
-      <c r="F47" s="389"/>
+      <c r="B47" s="372"/>
+      <c r="C47" s="372"/>
+      <c r="D47" s="372"/>
+      <c r="E47" s="372"/>
+      <c r="F47" s="372"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="166"/>
-      <c r="B48" s="389"/>
-      <c r="C48" s="389"/>
-      <c r="D48" s="389"/>
-      <c r="E48" s="389"/>
-      <c r="F48" s="389"/>
+      <c r="B48" s="372"/>
+      <c r="C48" s="372"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="372"/>
+      <c r="F48" s="372"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166"/>
-      <c r="B49" s="389"/>
-      <c r="C49" s="389"/>
-      <c r="D49" s="389"/>
-      <c r="E49" s="389"/>
-      <c r="F49" s="389"/>
+      <c r="B49" s="372"/>
+      <c r="C49" s="372"/>
+      <c r="D49" s="372"/>
+      <c r="E49" s="372"/>
+      <c r="F49" s="372"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166"/>
-      <c r="B50" s="389"/>
-      <c r="C50" s="389"/>
-      <c r="D50" s="389"/>
-      <c r="E50" s="389"/>
-      <c r="F50" s="389"/>
+      <c r="B50" s="372"/>
+      <c r="C50" s="372"/>
+      <c r="D50" s="372"/>
+      <c r="E50" s="372"/>
+      <c r="F50" s="372"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166"/>
-      <c r="B51" s="389"/>
-      <c r="C51" s="389"/>
-      <c r="D51" s="389"/>
-      <c r="E51" s="389"/>
-      <c r="F51" s="389"/>
+      <c r="B51" s="372"/>
+      <c r="C51" s="372"/>
+      <c r="D51" s="372"/>
+      <c r="E51" s="372"/>
+      <c r="F51" s="372"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="369" t="s">
@@ -19114,7 +19524,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="390"/>
+      <c r="F53" s="389"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
@@ -19128,37 +19538,37 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
-      <c r="B55" s="391" t="str">
+      <c r="B55" s="390" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="C55" s="391"/>
-      <c r="D55" s="391"/>
-      <c r="E55" s="391"/>
-      <c r="F55" s="391"/>
+      <c r="C55" s="390"/>
+      <c r="D55" s="390"/>
+      <c r="E55" s="390"/>
+      <c r="F55" s="390"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
-      <c r="B56" s="391"/>
-      <c r="C56" s="391"/>
-      <c r="D56" s="391"/>
-      <c r="E56" s="391"/>
-      <c r="F56" s="391"/>
+      <c r="B56" s="390"/>
+      <c r="C56" s="390"/>
+      <c r="D56" s="390"/>
+      <c r="E56" s="390"/>
+      <c r="F56" s="390"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
-      <c r="B57" s="391"/>
-      <c r="C57" s="391"/>
-      <c r="D57" s="391"/>
-      <c r="E57" s="391"/>
-      <c r="F57" s="391"/>
+      <c r="B57" s="390"/>
+      <c r="C57" s="390"/>
+      <c r="D57" s="390"/>
+      <c r="E57" s="390"/>
+      <c r="F57" s="390"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="391"/>
-      <c r="C58" s="391"/>
-      <c r="D58" s="391"/>
-      <c r="E58" s="391"/>
-      <c r="F58" s="391"/>
+      <c r="B58" s="390"/>
+      <c r="C58" s="390"/>
+      <c r="D58" s="390"/>
+      <c r="E58" s="390"/>
+      <c r="F58" s="390"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="291" t="str">
@@ -19274,11 +19684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -19303,15 +19713,15 @@
       <c r="A2" s="166" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="391" t="s">
         <v>607</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="365" t="s">
@@ -19329,6 +19739,9 @@
       <c r="H3" s="372"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="365" t="s">
+        <v>609</v>
+      </c>
       <c r="B4" s="372"/>
       <c r="C4" s="372"/>
       <c r="D4" s="372"/>
@@ -19338,6 +19751,9 @@
       <c r="H4" s="372"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="365" t="s">
+        <v>610</v>
+      </c>
       <c r="B5" s="372"/>
       <c r="C5" s="372"/>
       <c r="D5" s="372"/>
@@ -19347,6 +19763,9 @@
       <c r="H5" s="372"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="365" t="s">
+        <v>611</v>
+      </c>
       <c r="B6" s="372"/>
       <c r="C6" s="372"/>
       <c r="D6" s="372"/>
@@ -19357,6 +19776,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="365" t="s">
+        <v>612</v>
+      </c>
       <c r="B7" s="372"/>
       <c r="C7" s="372"/>
       <c r="D7" s="372"/>
@@ -19367,6 +19789,9 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="365" t="s">
+        <v>613</v>
+      </c>
       <c r="B8" s="372"/>
       <c r="C8" s="372"/>
       <c r="D8" s="372"/>
@@ -19376,6 +19801,9 @@
       <c r="H8" s="372"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="365" t="s">
+        <v>614</v>
+      </c>
       <c r="B9" s="372"/>
       <c r="C9" s="372"/>
       <c r="D9" s="372"/>
@@ -19385,6 +19813,9 @@
       <c r="H9" s="372"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="365" t="s">
+        <v>615</v>
+      </c>
       <c r="B10" s="372"/>
       <c r="C10" s="372"/>
       <c r="D10" s="372"/>
@@ -19394,6 +19825,9 @@
       <c r="H10" s="372"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="365" t="s">
+        <v>616</v>
+      </c>
       <c r="B11" s="372"/>
       <c r="C11" s="372"/>
       <c r="D11" s="372"/>
@@ -19403,6 +19837,9 @@
       <c r="H11" s="372"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="365" t="s">
+        <v>617</v>
+      </c>
       <c r="B12" s="372"/>
       <c r="C12" s="372"/>
       <c r="D12" s="372"/>
@@ -19412,6 +19849,9 @@
       <c r="H12" s="372"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="365" t="s">
+        <v>618</v>
+      </c>
       <c r="B13" s="372"/>
       <c r="C13" s="372"/>
       <c r="D13" s="372"/>
@@ -19421,6 +19861,9 @@
       <c r="H13" s="372"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="365" t="s">
+        <v>619</v>
+      </c>
       <c r="B14" s="372"/>
       <c r="C14" s="372"/>
       <c r="D14" s="372"/>
@@ -19430,6 +19873,9 @@
       <c r="H14" s="372"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="365" t="s">
+        <v>620</v>
+      </c>
       <c r="B15" s="372"/>
       <c r="C15" s="372"/>
       <c r="D15" s="372"/>
@@ -19439,6 +19885,9 @@
       <c r="H15" s="372"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="365" t="s">
+        <v>621</v>
+      </c>
       <c r="B16" s="372"/>
       <c r="C16" s="372"/>
       <c r="D16" s="372"/>
@@ -19448,6 +19897,9 @@
       <c r="H16" s="372"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="365" t="s">
+        <v>622</v>
+      </c>
       <c r="B17" s="372"/>
       <c r="C17" s="372"/>
       <c r="D17" s="372"/>
@@ -19457,6 +19909,9 @@
       <c r="H17" s="372"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="365" t="s">
+        <v>623</v>
+      </c>
       <c r="B18" s="372"/>
       <c r="C18" s="372"/>
       <c r="D18" s="372"/>
@@ -19466,6 +19921,9 @@
       <c r="H18" s="372"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="365" t="s">
+        <v>624</v>
+      </c>
       <c r="B19" s="372"/>
       <c r="C19" s="372"/>
       <c r="D19" s="372"/>
@@ -19475,6 +19933,9 @@
       <c r="H19" s="372"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="365" t="s">
+        <v>625</v>
+      </c>
       <c r="B20" s="372"/>
       <c r="C20" s="372"/>
       <c r="D20" s="372"/>
@@ -19484,6 +19945,9 @@
       <c r="H20" s="372"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="365" t="s">
+        <v>626</v>
+      </c>
       <c r="B21" s="372"/>
       <c r="C21" s="372"/>
       <c r="D21" s="372"/>
@@ -19493,6 +19957,9 @@
       <c r="H21" s="372"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="365" t="s">
+        <v>627</v>
+      </c>
       <c r="B22" s="372"/>
       <c r="C22" s="372"/>
       <c r="D22" s="372"/>
@@ -19502,6 +19969,9 @@
       <c r="H22" s="372"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="365" t="s">
+        <v>628</v>
+      </c>
       <c r="B23" s="372"/>
       <c r="C23" s="372"/>
       <c r="D23" s="372"/>
@@ -19511,6 +19981,9 @@
       <c r="H23" s="372"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="365" t="s">
+        <v>629</v>
+      </c>
       <c r="B24" s="372"/>
       <c r="C24" s="372"/>
       <c r="D24" s="372"/>
@@ -19520,6 +19993,9 @@
       <c r="H24" s="372"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="365" t="s">
+        <v>630</v>
+      </c>
       <c r="B25" s="372"/>
       <c r="C25" s="372"/>
       <c r="D25" s="372"/>
@@ -19529,6 +20005,9 @@
       <c r="H25" s="372"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="365" t="s">
+        <v>631</v>
+      </c>
       <c r="B26" s="372"/>
       <c r="C26" s="372"/>
       <c r="D26" s="372"/>
@@ -19538,6 +20017,9 @@
       <c r="H26" s="372"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="365" t="s">
+        <v>632</v>
+      </c>
       <c r="B27" s="372"/>
       <c r="C27" s="372"/>
       <c r="D27" s="372"/>
@@ -19547,6 +20029,9 @@
       <c r="H27" s="372"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="365" t="s">
+        <v>633</v>
+      </c>
       <c r="B28" s="372"/>
       <c r="C28" s="372"/>
       <c r="D28" s="372"/>
@@ -19556,6 +20041,9 @@
       <c r="H28" s="372"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="365" t="s">
+        <v>634</v>
+      </c>
       <c r="B29" s="372"/>
       <c r="C29" s="372"/>
       <c r="D29" s="372"/>
@@ -19565,6 +20053,9 @@
       <c r="H29" s="372"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="365" t="s">
+        <v>635</v>
+      </c>
       <c r="B30" s="372"/>
       <c r="C30" s="372"/>
       <c r="D30" s="372"/>
@@ -19574,6 +20065,9 @@
       <c r="H30" s="372"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="365" t="s">
+        <v>636</v>
+      </c>
       <c r="B31" s="372"/>
       <c r="C31" s="372"/>
       <c r="D31" s="372"/>
@@ -19583,6 +20077,9 @@
       <c r="H31" s="372"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="365" t="s">
+        <v>637</v>
+      </c>
       <c r="B32" s="372"/>
       <c r="C32" s="372"/>
       <c r="D32" s="372"/>
@@ -19592,6 +20089,9 @@
       <c r="H32" s="372"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="365" t="s">
+        <v>638</v>
+      </c>
       <c r="B33" s="372"/>
       <c r="C33" s="372"/>
       <c r="D33" s="372"/>
@@ -19601,6 +20101,9 @@
       <c r="H33" s="372"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="365" t="s">
+        <v>639</v>
+      </c>
       <c r="B34" s="372"/>
       <c r="C34" s="372"/>
       <c r="D34" s="372"/>
@@ -19610,6 +20113,9 @@
       <c r="H34" s="372"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="365" t="s">
+        <v>640</v>
+      </c>
       <c r="B35" s="372"/>
       <c r="C35" s="372"/>
       <c r="D35" s="372"/>
@@ -19619,6 +20125,9 @@
       <c r="H35" s="372"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="365" t="s">
+        <v>641</v>
+      </c>
       <c r="B36" s="372"/>
       <c r="C36" s="372"/>
       <c r="D36" s="372"/>
@@ -19628,6 +20137,9 @@
       <c r="H36" s="372"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="365" t="s">
+        <v>642</v>
+      </c>
       <c r="B37" s="372"/>
       <c r="C37" s="372"/>
       <c r="D37" s="372"/>
@@ -19637,6 +20149,9 @@
       <c r="H37" s="372"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="365" t="s">
+        <v>643</v>
+      </c>
       <c r="B38" s="372"/>
       <c r="C38" s="372"/>
       <c r="D38" s="372"/>
@@ -19646,6 +20161,9 @@
       <c r="H38" s="372"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="365" t="s">
+        <v>644</v>
+      </c>
       <c r="B39" s="372"/>
       <c r="C39" s="372"/>
       <c r="D39" s="372"/>
@@ -19655,6 +20173,9 @@
       <c r="H39" s="372"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="365" t="s">
+        <v>645</v>
+      </c>
       <c r="B40" s="372"/>
       <c r="C40" s="372"/>
       <c r="D40" s="372"/>
@@ -19664,6 +20185,9 @@
       <c r="H40" s="372"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="365" t="s">
+        <v>646</v>
+      </c>
       <c r="B41" s="372"/>
       <c r="C41" s="372"/>
       <c r="D41" s="372"/>
@@ -19673,6 +20197,9 @@
       <c r="H41" s="372"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="365" t="s">
+        <v>647</v>
+      </c>
       <c r="B42" s="372"/>
       <c r="C42" s="372"/>
       <c r="D42" s="372"/>
@@ -19682,6 +20209,9 @@
       <c r="H42" s="372"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="365" t="s">
+        <v>648</v>
+      </c>
       <c r="B43" s="372"/>
       <c r="C43" s="372"/>
       <c r="D43" s="372"/>
@@ -19691,6 +20221,9 @@
       <c r="H43" s="372"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="365" t="s">
+        <v>649</v>
+      </c>
       <c r="B44" s="372"/>
       <c r="C44" s="372"/>
       <c r="D44" s="372"/>
@@ -19700,6 +20233,9 @@
       <c r="H44" s="372"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="365" t="s">
+        <v>650</v>
+      </c>
       <c r="B45" s="372"/>
       <c r="C45" s="372"/>
       <c r="D45" s="372"/>
@@ -19709,6 +20245,9 @@
       <c r="H45" s="372"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="365" t="s">
+        <v>651</v>
+      </c>
       <c r="B46" s="372"/>
       <c r="C46" s="372"/>
       <c r="D46" s="372"/>
@@ -19718,6 +20257,9 @@
       <c r="H46" s="372"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="365" t="s">
+        <v>652</v>
+      </c>
       <c r="B47" s="372"/>
       <c r="C47" s="372"/>
       <c r="D47" s="372"/>
@@ -19727,6 +20269,9 @@
       <c r="H47" s="372"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="365" t="s">
+        <v>653</v>
+      </c>
       <c r="B48" s="372"/>
       <c r="C48" s="372"/>
       <c r="D48" s="372"/>
@@ -19736,6 +20281,9 @@
       <c r="H48" s="372"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="365" t="s">
+        <v>654</v>
+      </c>
       <c r="B49" s="372"/>
       <c r="C49" s="372"/>
       <c r="D49" s="372"/>
@@ -19745,6 +20293,9 @@
       <c r="H49" s="372"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="365" t="s">
+        <v>655</v>
+      </c>
       <c r="B50" s="372"/>
       <c r="C50" s="372"/>
       <c r="D50" s="372"/>
@@ -19754,6 +20305,9 @@
       <c r="H50" s="372"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="365" t="s">
+        <v>656</v>
+      </c>
       <c r="B51" s="372"/>
       <c r="C51" s="372"/>
       <c r="D51" s="372"/>
@@ -19763,6 +20317,9 @@
       <c r="H51" s="372"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="365" t="s">
+        <v>657</v>
+      </c>
       <c r="B52" s="372"/>
       <c r="C52" s="372"/>
       <c r="D52" s="372"/>
@@ -19772,6 +20329,9 @@
       <c r="H52" s="372"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="365" t="s">
+        <v>658</v>
+      </c>
       <c r="B53" s="372"/>
       <c r="C53" s="372"/>
       <c r="D53" s="372"/>
@@ -19781,6 +20341,9 @@
       <c r="H53" s="372"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="365" t="s">
+        <v>659</v>
+      </c>
       <c r="B54" s="372"/>
       <c r="C54" s="372"/>
       <c r="D54" s="372"/>
@@ -19790,6 +20353,9 @@
       <c r="H54" s="372"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="365" t="s">
+        <v>660</v>
+      </c>
       <c r="B55" s="372"/>
       <c r="C55" s="372"/>
       <c r="D55" s="372"/>
@@ -19799,6 +20365,9 @@
       <c r="H55" s="372"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="365" t="s">
+        <v>661</v>
+      </c>
       <c r="B56" s="372"/>
       <c r="C56" s="372"/>
       <c r="D56" s="372"/>
@@ -19808,6 +20377,9 @@
       <c r="H56" s="372"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="365" t="s">
+        <v>662</v>
+      </c>
       <c r="B57" s="372"/>
       <c r="C57" s="372"/>
       <c r="D57" s="372"/>
@@ -19817,6 +20389,9 @@
       <c r="H57" s="372"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="365" t="s">
+        <v>663</v>
+      </c>
       <c r="B58" s="372"/>
       <c r="C58" s="372"/>
       <c r="D58" s="372"/>
@@ -19826,6 +20401,9 @@
       <c r="H58" s="372"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="365" t="s">
+        <v>664</v>
+      </c>
       <c r="B59" s="372"/>
       <c r="C59" s="372"/>
       <c r="D59" s="372"/>
@@ -19835,6 +20413,9 @@
       <c r="H59" s="372"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="365" t="s">
+        <v>665</v>
+      </c>
       <c r="B60" s="372"/>
       <c r="C60" s="372"/>
       <c r="D60" s="372"/>
@@ -19844,6 +20425,9 @@
       <c r="H60" s="372"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="365" t="s">
+        <v>666</v>
+      </c>
       <c r="B61" s="372"/>
       <c r="C61" s="372"/>
       <c r="D61" s="372"/>
@@ -19853,25 +20437,416 @@
       <c r="H61" s="372"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="393" t="str">
+      <c r="A62" s="365" t="s">
+        <v>667</v>
+      </c>
+      <c r="B62" s="392" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="393"/>
-      <c r="D62" s="393"/>
-      <c r="E62" s="393"/>
-      <c r="F62" s="393"/>
-      <c r="G62" s="393"/>
-      <c r="H62" s="393"/>
+      <c r="C62" s="392"/>
+      <c r="D62" s="392"/>
+      <c r="E62" s="392"/>
+      <c r="F62" s="392"/>
+      <c r="G62" s="392"/>
+      <c r="H62" s="392"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="393"/>
-      <c r="C63" s="393"/>
-      <c r="D63" s="393"/>
-      <c r="E63" s="393"/>
-      <c r="F63" s="393"/>
-      <c r="G63" s="393"/>
-      <c r="H63" s="393"/>
+      <c r="A63" s="365" t="s">
+        <v>668</v>
+      </c>
+      <c r="B63" s="392"/>
+      <c r="C63" s="392"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="392"/>
+      <c r="F63" s="392"/>
+      <c r="G63" s="392"/>
+      <c r="H63" s="392"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="365" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="365" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="365" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="365" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="365" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="365" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="365" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="365" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="365" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="365" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="365" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="365" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="365" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="365" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="365" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="365" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="365" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="365" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="365" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="365" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="365" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="365" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="365" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="365" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="365" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="365" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="365" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="365" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="365" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="365" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="365" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="365" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="365" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="365" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="365" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="365" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="365" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="365" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="365" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="365" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="365" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="365" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="365" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="365" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="365" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="365" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="365" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="365" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="365" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="365" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="365" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="365" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="365" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="365" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="365" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="365" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="365" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="365" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="365" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="365" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="365" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="365" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="365" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="365" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="365" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="365" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="365" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="365" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="365" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="365" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="365" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="365" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="365" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="365" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="365" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="365" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="365" t="s">
+        <v>745</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="747">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2056,6 +2056,29 @@
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</t>
   </si>
   <si>
@@ -3156,7 +3179,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3468,6 +3491,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF339966"/>
       <name val="Arial"/>
@@ -3781,7 +3819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="395">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4978,7 +5016,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5102,7 +5148,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5174,11 +5220,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5194,11 +5240,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5214,7 +5260,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7729,9 +7775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7745,7 +7791,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="743400" cy="200160"/>
+          <a:ext cx="743040" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7766,9 +7812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:colOff>132840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7782,7 +7828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1086840" cy="200160"/>
+          <a:ext cx="1086480" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7803,9 +7849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7819,7 +7865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1393560" cy="200160"/>
+          <a:ext cx="1393200" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7840,9 +7886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7856,7 +7902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1717560" cy="200160"/>
+          <a:ext cx="1717200" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7877,9 +7923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7893,7 +7939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2024640" cy="213120"/>
+          <a:ext cx="2024280" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7914,9 +7960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7930,7 +7976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2360880" cy="200160"/>
+          <a:ext cx="2360520" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7951,9 +7997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:colOff>86760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>248760</xdr:rowOff>
+      <xdr:rowOff>248400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7963,7 +8009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2673720" cy="199080"/>
+          <a:ext cx="2673360" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8332,9 +8378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8344,7 +8390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6972840" cy="10494360"/>
+          <a:ext cx="6972480" cy="10494000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8473,7 +8519,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -14271,7 +14317,7 @@
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16164,22 +16210,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="97" width="49.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="98" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="98" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="98" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="98" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="98" width="3.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="977" min="12" style="98" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="98" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="98" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="98" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="98" width="3.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="978" min="13" style="98" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="979" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16196,13 +16242,13 @@
         <v>398</v>
       </c>
       <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
+      <c r="E2" s="294"/>
       <c r="F2" s="295"/>
       <c r="G2" s="295"/>
       <c r="H2" s="295"/>
       <c r="I2" s="295"/>
-      <c r="J2" s="296"/>
-      <c r="AKP2" s="0"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="296"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
       <c r="AKS2" s="0"/>
@@ -16265,6 +16311,7 @@
       <c r="H3" s="298"/>
       <c r="I3" s="298"/>
       <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
@@ -16278,9 +16325,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="5"/>
+      <c r="K4" s="106"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="97" t="s">
         <v>402</v>
       </c>
@@ -16289,12 +16337,13 @@
         <v>403</v>
       </c>
       <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="103"/>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
       <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="97" t="s">
@@ -16308,30 +16357,36 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="5"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="97" t="s">
         <v>405</v>
       </c>
       <c r="B7" s="105"/>
-      <c r="C7" s="299" t="str">
+      <c r="C7" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="300" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="111"/>
+      <c r="E7" s="301" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="302"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="113"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="113"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="97" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="5"/>
@@ -16341,11 +16396,12 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="106"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="106"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -16355,28 +16411,29 @@
       <c r="G9" s="115"/>
       <c r="H9" s="115"/>
       <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="10" s="297" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="292" t="s">
-        <v>408</v>
-      </c>
-      <c r="B10" s="302"/>
-      <c r="C10" s="303" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="304"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="308" t="s">
+      <c r="B10" s="304"/>
+      <c r="C10" s="305" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="308" t="s">
+      <c r="J10" s="310" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="308"/>
-      <c r="AKP10" s="0"/>
+      <c r="K10" s="310"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
       <c r="AKS10" s="0"/>
@@ -16426,151 +16483,159 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="310"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="5"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="313"/>
+      <c r="K11" s="312"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="108" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D12" s="108"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="240" t="str">
+      <c r="E12" s="108"/>
+      <c r="F12" s="314"/>
+      <c r="G12" s="315"/>
+      <c r="H12" s="316"/>
+      <c r="I12" s="240" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="I12" s="315" t="str">
+      <c r="J12" s="317" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="J12" s="316"/>
+      <c r="K12" s="318"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="316"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="108"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="318"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="108" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D14" s="108"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="240" t="str">
+      <c r="E14" s="108"/>
+      <c r="F14" s="314"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="316"/>
+      <c r="I14" s="240" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="I14" s="315" t="str">
+      <c r="J14" s="317" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="J14" s="316"/>
+      <c r="K14" s="318"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="315"/>
-      <c r="J15" s="316"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="108"/>
+      <c r="F15" s="314"/>
+      <c r="G15" s="315"/>
+      <c r="H15" s="316"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="318"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B16" s="105"/>
-      <c r="C16" s="317" t="s">
-        <v>418</v>
+      <c r="C16" s="319" t="s">
+        <v>419</v>
       </c>
       <c r="D16" s="108"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="240" t="str">
+      <c r="E16" s="108"/>
+      <c r="F16" s="314"/>
+      <c r="G16" s="315"/>
+      <c r="H16" s="316"/>
+      <c r="I16" s="240" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="I16" s="315" t="str">
+      <c r="J16" s="317" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="J16" s="316"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="318"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="97" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" s="105"/>
-      <c r="C17" s="317" t="s">
-        <v>420</v>
+      <c r="C17" s="319" t="s">
+        <v>421</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="313"/>
-      <c r="G17" s="314"/>
-      <c r="H17" s="240" t="str">
+      <c r="E17" s="108"/>
+      <c r="F17" s="314"/>
+      <c r="G17" s="315"/>
+      <c r="H17" s="316"/>
+      <c r="I17" s="240" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="I17" s="315" t="str">
+      <c r="J17" s="317" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="J17" s="316"/>
+      <c r="K17" s="318"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B18" s="105"/>
-      <c r="C18" s="317"/>
+      <c r="C18" s="319"/>
       <c r="D18" s="108"/>
-      <c r="E18" s="312"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="312"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="315"/>
-      <c r="J18" s="316"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="108"/>
+      <c r="F18" s="314"/>
+      <c r="G18" s="315"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="318"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="97" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="108" t="s">
@@ -16580,56 +16645,58 @@
       <c r="E19" s="108"/>
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
-      <c r="H19" s="240" t="str">
+      <c r="H19" s="108"/>
+      <c r="I19" s="240" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="I19" s="315" t="str">
+      <c r="J19" s="317" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="J19" s="316"/>
+      <c r="K19" s="318"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="318"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="320"/>
-      <c r="J20" s="321"/>
-    </row>
-    <row r="21" s="297" customFormat="true" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="320"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="320"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="323"/>
+    </row>
+    <row r="21" s="297" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="292" t="s">
-        <v>424</v>
-      </c>
-      <c r="B21" s="302"/>
-      <c r="C21" s="303" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="303"/>
-      <c r="E21" s="322" t="s">
+      <c r="B21" s="304"/>
+      <c r="C21" s="305" t="s">
         <v>426</v>
       </c>
-      <c r="F21" s="323" t="s">
+      <c r="D21" s="305"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="324" t="s">
         <v>427</v>
       </c>
-      <c r="G21" s="322" t="s">
+      <c r="G21" s="325" t="s">
         <v>428</v>
       </c>
-      <c r="H21" s="323" t="s">
+      <c r="H21" s="324" t="s">
+        <v>429</v>
+      </c>
+      <c r="I21" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="323" t="s">
+      <c r="J21" s="325" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="323"/>
-      <c r="AKP21" s="0"/>
+      <c r="K21" s="325"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
       <c r="AKS21" s="0"/>
@@ -16679,737 +16746,771 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="97" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B22" s="99"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="326"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
-      <c r="I22" s="329"/>
-      <c r="J22" s="330"/>
+      <c r="C22" s="326"/>
+      <c r="D22" s="326"/>
+      <c r="E22" s="326"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="331"/>
+      <c r="K22" s="332"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="108" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D23" s="108"/>
-      <c r="E23" s="240" t="str">
+      <c r="E23" s="108"/>
+      <c r="F23" s="240" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="F23" s="331" t="s">
-        <v>432</v>
-      </c>
-      <c r="G23" s="332" t="n">
+      <c r="G23" s="333" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="334" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="315" t="str">
+      <c r="I23" s="317" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="I23" s="315" t="str">
+      <c r="J23" s="317" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="J23" s="316"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="318"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="108" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D24" s="108"/>
-      <c r="E24" s="240" t="str">
+      <c r="E24" s="108"/>
+      <c r="F24" s="240" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="F24" s="331" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="332" t="n">
+      <c r="G24" s="333" t="s">
+        <v>436</v>
+      </c>
+      <c r="H24" s="334" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="315" t="str">
+      <c r="I24" s="317" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="I24" s="315" t="str">
+      <c r="J24" s="317" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="J24" s="316"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="318"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="108" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D25" s="108"/>
-      <c r="E25" s="240" t="str">
+      <c r="E25" s="108"/>
+      <c r="F25" s="240" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="F25" s="331" t="s">
-        <v>435</v>
-      </c>
-      <c r="G25" s="332" t="n">
+      <c r="G25" s="333" t="s">
+        <v>436</v>
+      </c>
+      <c r="H25" s="334" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="315" t="str">
+      <c r="I25" s="317" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="I25" s="315" t="str">
+      <c r="J25" s="317" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="J25" s="316"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="318"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="108" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D26" s="108"/>
-      <c r="E26" s="240" t="str">
+      <c r="E26" s="108"/>
+      <c r="F26" s="240" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="F26" s="331" t="s">
-        <v>440</v>
-      </c>
-      <c r="G26" s="332" t="n">
+      <c r="G26" s="333" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="334" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="315" t="str">
+      <c r="I26" s="317" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="I26" s="315" t="str">
+      <c r="J26" s="317" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="J26" s="316"/>
+      <c r="K26" s="318"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B27" s="105"/>
-      <c r="C27" s="333" t="str">
+      <c r="C27" s="335" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="D27" s="333"/>
-      <c r="E27" s="240" t="str">
+      <c r="D27" s="335"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="240" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="F27" s="334" t="str">
+      <c r="G27" s="336" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
-      <c r="G27" s="188" t="str">
+      <c r="H27" s="188" t="str">
         <f aca="false">A49</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :muunnoskerroin]</v>
       </c>
-      <c r="H27" s="128" t="str">
+      <c r="I27" s="128" t="str">
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="I27" s="315" t="str">
+      <c r="J27" s="317" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="J27" s="335"/>
+      <c r="K27" s="337"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B28" s="105"/>
-      <c r="C28" s="333" t="str">
+      <c r="C28" s="335" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="D28" s="333"/>
-      <c r="E28" s="240" t="str">
+      <c r="D28" s="335"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="240" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="F28" s="334" t="str">
+      <c r="G28" s="336" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
-      <c r="G28" s="188" t="str">
+      <c r="H28" s="188" t="str">
         <f aca="false">A55</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :muunnoskerroin]</v>
       </c>
-      <c r="H28" s="128" t="str">
+      <c r="I28" s="128" t="str">
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="I28" s="315" t="str">
+      <c r="J28" s="317" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="J28" s="335"/>
+      <c r="K28" s="337"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="105"/>
-      <c r="C29" s="336" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" s="336"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="337"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="316"/>
+      <c r="C29" s="338" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="339"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="317"/>
+      <c r="K29" s="318"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B30" s="105"/>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="337"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="315"/>
-      <c r="J30" s="316"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="339"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="317"/>
+      <c r="K30" s="318"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B31" s="105"/>
-      <c r="C31" s="336"/>
-      <c r="D31" s="336"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="337"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="338"/>
-      <c r="I31" s="339"/>
-      <c r="J31" s="316"/>
+      <c r="C31" s="338"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="339"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="341"/>
+      <c r="K31" s="318"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B32" s="105"/>
-      <c r="C32" s="336"/>
-      <c r="D32" s="336"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="337"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="338"/>
-      <c r="I32" s="339"/>
-      <c r="J32" s="316"/>
+      <c r="C32" s="338"/>
+      <c r="D32" s="338"/>
+      <c r="E32" s="338"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="341"/>
+      <c r="K32" s="318"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="97" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B33" s="105"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="340"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="337"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="338"/>
-      <c r="I33" s="339"/>
-      <c r="J33" s="316"/>
+      <c r="C33" s="342"/>
+      <c r="D33" s="342"/>
+      <c r="E33" s="342"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="339"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="341"/>
+      <c r="K33" s="318"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B34" s="114"/>
-      <c r="C34" s="341"/>
-      <c r="D34" s="341"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="342"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="343"/>
-      <c r="I34" s="344"/>
-      <c r="J34" s="321"/>
+      <c r="C34" s="343"/>
+      <c r="D34" s="343"/>
+      <c r="E34" s="343"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="344"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="345"/>
+      <c r="J34" s="346"/>
+      <c r="K34" s="323"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B35" s="105"/>
-      <c r="C35" s="303" t="s">
-        <v>451</v>
-      </c>
-      <c r="D35" s="303"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="313"/>
-      <c r="G35" s="312"/>
-      <c r="H35" s="345"/>
-      <c r="I35" s="346"/>
-      <c r="J35" s="316"/>
+      <c r="C35" s="305" t="s">
+        <v>452</v>
+      </c>
+      <c r="D35" s="305"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="314"/>
+      <c r="G35" s="315"/>
+      <c r="H35" s="314"/>
+      <c r="I35" s="347"/>
+      <c r="J35" s="348"/>
+      <c r="K35" s="318"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B36" s="105"/>
-      <c r="C36" s="303"/>
-      <c r="D36" s="303"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="120" t="s">
+      <c r="C36" s="305"/>
+      <c r="D36" s="305"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="314"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="314"/>
+      <c r="I36" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="120" t="s">
+      <c r="J36" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B37" s="99"/>
-      <c r="C37" s="347"/>
-      <c r="D37" s="347"/>
-      <c r="E37" s="348"/>
-      <c r="F37" s="349"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="350"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="352"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="349"/>
+      <c r="D37" s="349"/>
+      <c r="E37" s="349"/>
+      <c r="F37" s="350"/>
+      <c r="G37" s="351"/>
+      <c r="H37" s="351"/>
+      <c r="I37" s="352"/>
+      <c r="J37" s="353"/>
+      <c r="K37" s="354"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D38" s="32"/>
-      <c r="E38" s="353"/>
-      <c r="F38" s="354"/>
-      <c r="G38" s="354"/>
-      <c r="H38" s="240" t="str">
+      <c r="E38" s="32"/>
+      <c r="F38" s="355"/>
+      <c r="G38" s="356"/>
+      <c r="H38" s="356"/>
+      <c r="I38" s="240" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="I38" s="315" t="str">
+      <c r="J38" s="317" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="J38" s="316"/>
+      <c r="K38" s="318"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="354"/>
-      <c r="G39" s="354"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="356"/>
-      <c r="J39" s="316"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="32"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="356"/>
+      <c r="H39" s="356"/>
+      <c r="I39" s="357"/>
+      <c r="J39" s="358"/>
+      <c r="K39" s="318"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D40" s="32"/>
-      <c r="E40" s="353"/>
-      <c r="F40" s="354"/>
-      <c r="G40" s="354"/>
-      <c r="H40" s="240" t="str">
+      <c r="E40" s="32"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="356"/>
+      <c r="H40" s="356"/>
+      <c r="I40" s="240" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="I40" s="357" t="str">
+      <c r="J40" s="359" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="J40" s="316"/>
+      <c r="K40" s="318"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
-      <c r="E41" s="353"/>
-      <c r="F41" s="354"/>
-      <c r="G41" s="354"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="357"/>
-      <c r="J41" s="316"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="32"/>
+      <c r="F41" s="355"/>
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="359"/>
+      <c r="K41" s="318"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D42" s="32"/>
-      <c r="E42" s="353"/>
-      <c r="F42" s="354"/>
-      <c r="G42" s="354"/>
-      <c r="H42" s="240" t="str">
+      <c r="E42" s="32"/>
+      <c r="F42" s="355"/>
+      <c r="G42" s="356"/>
+      <c r="H42" s="356"/>
+      <c r="I42" s="240" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="I42" s="315" t="str">
+      <c r="J42" s="317" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="J42" s="316"/>
+      <c r="K42" s="318"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="353"/>
-      <c r="F43" s="354"/>
-      <c r="G43" s="354"/>
-      <c r="H43" s="240"/>
-      <c r="I43" s="357"/>
-      <c r="J43" s="316"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="32"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="356"/>
+      <c r="H43" s="356"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="359"/>
+      <c r="K43" s="318"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="32" t="s">
         <v>307</v>
       </c>
       <c r="D44" s="32"/>
-      <c r="E44" s="353"/>
-      <c r="F44" s="354"/>
-      <c r="G44" s="354"/>
-      <c r="H44" s="240" t="str">
+      <c r="E44" s="32"/>
+      <c r="F44" s="355"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="240" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="I44" s="315" t="str">
+      <c r="J44" s="317" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="J44" s="316"/>
+      <c r="K44" s="318"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="353"/>
-      <c r="F45" s="354"/>
-      <c r="G45" s="354"/>
-      <c r="H45" s="240"/>
-      <c r="I45" s="357"/>
-      <c r="J45" s="316"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="32"/>
+      <c r="F45" s="355"/>
+      <c r="G45" s="356"/>
+      <c r="H45" s="356"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="359"/>
+      <c r="K45" s="318"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="47"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="47"/>
-      <c r="H46" s="315" t="str">
+      <c r="H46" s="47"/>
+      <c r="I46" s="317" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="I46" s="315" t="str">
+      <c r="J46" s="317" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="J46" s="358"/>
+      <c r="K46" s="360"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="97" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B47" s="114"/>
-      <c r="C47" s="359"/>
-      <c r="D47" s="359"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="360"/>
-      <c r="G47" s="360"/>
-      <c r="H47" s="361"/>
-      <c r="I47" s="360"/>
-      <c r="J47" s="154"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="361"/>
+      <c r="E47" s="361"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="154"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="97" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B48" s="99"/>
-      <c r="C48" s="362" t="s">
-        <v>468</v>
-      </c>
-      <c r="D48" s="362"/>
-      <c r="E48" s="362"/>
-      <c r="F48" s="362"/>
-      <c r="G48" s="362"/>
-      <c r="H48" s="362"/>
-      <c r="I48" s="362"/>
-      <c r="J48" s="362"/>
+      <c r="C48" s="364" t="s">
+        <v>469</v>
+      </c>
+      <c r="D48" s="364"/>
+      <c r="E48" s="364"/>
+      <c r="F48" s="364"/>
+      <c r="G48" s="364"/>
+      <c r="H48" s="364"/>
+      <c r="I48" s="364"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B49" s="105"/>
-      <c r="C49" s="362"/>
-      <c r="D49" s="362"/>
-      <c r="E49" s="362"/>
-      <c r="F49" s="362"/>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="362"/>
+      <c r="C49" s="364"/>
+      <c r="D49" s="364"/>
+      <c r="E49" s="364"/>
+      <c r="F49" s="364"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="364"/>
+      <c r="I49" s="364"/>
+      <c r="J49" s="364"/>
+      <c r="K49" s="364"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B50" s="105"/>
-      <c r="C50" s="362"/>
-      <c r="D50" s="362"/>
-      <c r="E50" s="362"/>
-      <c r="F50" s="362"/>
-      <c r="G50" s="362"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362"/>
+      <c r="C50" s="364"/>
+      <c r="D50" s="364"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="364"/>
+      <c r="G50" s="364"/>
+      <c r="H50" s="364"/>
+      <c r="I50" s="364"/>
+      <c r="J50" s="364"/>
+      <c r="K50" s="364"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B51" s="105"/>
-      <c r="C51" s="362"/>
-      <c r="D51" s="362"/>
-      <c r="E51" s="362"/>
-      <c r="F51" s="362"/>
-      <c r="G51" s="362"/>
-      <c r="H51" s="362"/>
-      <c r="I51" s="362"/>
-      <c r="J51" s="362"/>
+      <c r="C51" s="364"/>
+      <c r="D51" s="364"/>
+      <c r="E51" s="364"/>
+      <c r="F51" s="364"/>
+      <c r="G51" s="364"/>
+      <c r="H51" s="364"/>
+      <c r="I51" s="364"/>
+      <c r="J51" s="364"/>
+      <c r="K51" s="364"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B52" s="105"/>
-      <c r="C52" s="362"/>
-      <c r="D52" s="362"/>
-      <c r="E52" s="362"/>
-      <c r="F52" s="362"/>
-      <c r="G52" s="362"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
+      <c r="C52" s="364"/>
+      <c r="D52" s="364"/>
+      <c r="E52" s="364"/>
+      <c r="F52" s="364"/>
+      <c r="G52" s="364"/>
+      <c r="H52" s="364"/>
+      <c r="I52" s="364"/>
+      <c r="J52" s="364"/>
+      <c r="K52" s="364"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B53" s="152"/>
-      <c r="C53" s="362"/>
-      <c r="D53" s="362"/>
-      <c r="E53" s="362"/>
-      <c r="F53" s="362"/>
-      <c r="G53" s="362"/>
-      <c r="H53" s="362"/>
-      <c r="I53" s="362"/>
-      <c r="J53" s="362"/>
-      <c r="K53" s="363"/>
+      <c r="C53" s="364"/>
+      <c r="D53" s="364"/>
+      <c r="E53" s="364"/>
+      <c r="F53" s="364"/>
+      <c r="G53" s="364"/>
+      <c r="H53" s="364"/>
+      <c r="I53" s="364"/>
+      <c r="J53" s="364"/>
+      <c r="K53" s="364"/>
+      <c r="L53" s="365"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="97" t="s">
-        <v>474</v>
-      </c>
-      <c r="B54" s="364" t="str">
+        <v>475</v>
+      </c>
+      <c r="B54" s="366" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
         <v>Certifikatbeteckning: [:id], 5/8</v>
       </c>
-      <c r="C54" s="364"/>
-      <c r="D54" s="364"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="364"/>
-      <c r="G54" s="364"/>
-      <c r="H54" s="364"/>
-      <c r="I54" s="364"/>
-      <c r="J54" s="364"/>
+      <c r="C54" s="366"/>
+      <c r="D54" s="366"/>
+      <c r="E54" s="366"/>
+      <c r="F54" s="366"/>
+      <c r="G54" s="366"/>
+      <c r="H54" s="366"/>
+      <c r="I54" s="366"/>
+      <c r="J54" s="366"/>
+      <c r="K54" s="366"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="97" t="s">
-        <v>475</v>
-      </c>
-      <c r="B55" s="364"/>
-      <c r="C55" s="364"/>
-      <c r="D55" s="364"/>
-      <c r="E55" s="364"/>
-      <c r="F55" s="364"/>
-      <c r="G55" s="364"/>
-      <c r="H55" s="364"/>
-      <c r="I55" s="364"/>
-      <c r="J55" s="364"/>
+        <v>476</v>
+      </c>
+      <c r="B55" s="366"/>
+      <c r="C55" s="366"/>
+      <c r="D55" s="366"/>
+      <c r="E55" s="366"/>
+      <c r="F55" s="366"/>
+      <c r="G55" s="366"/>
+      <c r="H55" s="366"/>
+      <c r="I55" s="366"/>
+      <c r="J55" s="366"/>
+      <c r="K55" s="366"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="97" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="97" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="97" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="97" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="97" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="97" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D32"/>
+    <mergeCell ref="C29:E32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C48:J53"/>
-    <mergeCell ref="B54:J55"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C48:K53"/>
+    <mergeCell ref="B54:K55"/>
   </mergeCells>
-  <conditionalFormatting sqref="L46:GZ47 L53:GZ54 K53 L37:GZ45 K32:K47 J5:J9 B56:GZ65353 B2:J2 D5:I5 B9:I9 E11:H11 B47:E47 F12:F13 L2:GZ6 B37:D37 B8:D8 F8:I8 K2:K24 L7:GZ7 B4:J4 B3:C3 I20 H12:H20 L8:GZ24 B10:B24 H27:I35 L32:GZ36 B32:B36 E23:E36 G27:G36 K55:GZ55 B54:J55 B5:B6 D6:I6 B45:D45 B38:B44 D38:D44 B46 D46:E46">
+  <conditionalFormatting sqref="M46:HA47 M53:HA54 L53 M37:HA45 L32:L47 K5:K9 D56:HA65353 C2:K2 D5:J5 D9:J9 F11:I11 D47:F47 G12:G13 M2:HA6 D8:E8 G8:J8 L2:L24 M7:HA7 C4:K4 B2:B4 J20 I12:I20 M8:HA24 B10:B24 I27:J35 M32:HA36 B32:B36 F23:F36 H27:H36 L55:HA55 B5:B6 D6:J6 B45:E45 B38:B44 D38:E44 B46 D46:F46 B55:C65353 B8:C9 B47:C47 B37:E37 C3 B54:K55">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7 I7">
+  <conditionalFormatting sqref="B7 J7">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G46">
+  <conditionalFormatting sqref="G46:H46">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:I47 I10">
+  <conditionalFormatting sqref="G47:J47 J10">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:D51 B52 K48:GZ52">
+  <conditionalFormatting sqref="B48:E51 B52 L48:HA52">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="G24:H24">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
       <formula>"*"</formula>
     </cfRule>
@@ -17419,22 +17520,22 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="L54">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 C33:D34 C20 F32:F36 C24">
+  <conditionalFormatting sqref="D25:E25 C33:E34 G32:G36 C24 C20">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
       <formula>LEFT(C20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
       <formula>LEFT(D24,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:GZ27">
+  <conditionalFormatting sqref="L25:HA27">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
       <formula>"*"</formula>
     </cfRule>
@@ -17444,207 +17545,207 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:G26 G25">
+  <conditionalFormatting sqref="G26:H26 H25">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 C26">
+  <conditionalFormatting sqref="D25:E25 C26">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+      <formula>LEFT(C24,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26 C27:E27">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>LEFT(C25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27 D26">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
-      <formula>LEFT(C26,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 E10">
+  <conditionalFormatting sqref="D7 F10">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="D12:E13">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15 C14:C15">
+  <conditionalFormatting sqref="G14:G15 C14:C15">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15 C23">
+  <conditionalFormatting sqref="D14:E15 C23">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
+  <conditionalFormatting sqref="D16:E18">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G23 C16:C18">
+  <conditionalFormatting sqref="G23:H23 C16:C18">
     <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18 C16:C18">
+  <conditionalFormatting sqref="G16:G18 C16:C18">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
+  <conditionalFormatting sqref="D16:E18">
     <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G23 C23">
+  <conditionalFormatting sqref="G23:H23 C23">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 C25">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25 C24">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 C25">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25 C24">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="H25">
     <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D26:E26">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
       <formula>LEFT(D26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24 C24">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24 C23">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24 C24">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24 C23">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G23 C23">
+  <conditionalFormatting sqref="G23:H23 C23">
     <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24 C24">
+  <conditionalFormatting sqref="G24:H24 C24">
     <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26 C26">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26 C25">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+      <formula>LEFT(G27,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:G26 C26">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26 C25">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
-      <formula>LEFT(F27,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:GZ31">
+  <conditionalFormatting sqref="L28:HA31">
     <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>"*"</formula>
     </cfRule>
@@ -17654,112 +17755,112 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:D28 D29">
+  <conditionalFormatting sqref="C28:E28 D29:E29">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>LEFT(C28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F31">
+  <conditionalFormatting sqref="G28:G31">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
-      <formula>LEFT(F28,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I42 I44 H46:I46">
+      <formula>LEFT(G28,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J14 J16:J17 J19 I23:J26 J38 J42 J44 I46:J46">
     <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I42 I44 H46:I46">
+  <conditionalFormatting sqref="J12:J14 J16:J17 J19 I23:J26 J38 J42 J44 I46:J46">
     <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18 I15">
+  <conditionalFormatting sqref="J18 J15">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18 I15">
+  <conditionalFormatting sqref="J18 J15">
     <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37 I45 I43 I40">
+  <conditionalFormatting sqref="J37 J45 J43 J40">
     <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37 I45 I43 I40">
+  <conditionalFormatting sqref="J37 J45 J43 J40">
     <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E41">
+  <conditionalFormatting sqref="F37:F41">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
+  <conditionalFormatting sqref="F12:F13">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E18">
+  <conditionalFormatting sqref="F14:F18">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G18">
+  <conditionalFormatting sqref="H12:H18">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H38 H42:H45 H40 C21">
+  <conditionalFormatting sqref="I37:I38 I42:I45 I40 C21">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D22 D21:E21">
+  <conditionalFormatting sqref="C22:E22 D21:F21">
     <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 G21">
+  <conditionalFormatting sqref="F22 H21">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 H21">
+  <conditionalFormatting sqref="H22 I21">
     <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 I21">
+  <conditionalFormatting sqref="I22 J21">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22 H36">
+  <conditionalFormatting sqref="J22 I36">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
       <formula>"*"</formula>
     </cfRule>
@@ -17769,32 +17870,32 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:G19">
+  <conditionalFormatting sqref="D19:H19">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
     <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5 C10 H10 C35 C38:C44 C46">
+  <conditionalFormatting sqref="C5 C10 I10 C38:C44 C46 C35">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>"*"</formula>
     </cfRule>
@@ -17819,18 +17920,18 @@
       <formula>LEFT(C26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>LEFT(C29,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:B55 D6:AMJ6 C7:AMJ9 K10:AMJ10 C11:AMJ11 D12:AMJ19 C20:AMJ20 D21 K21:AMJ21 C22:AMJ22 D23:AMJ26 C27:AMJ28 D29:AMJ29 C30:AMJ34 D35:AMJ35 C36:G37 K36:AMJ36 H37:AMJ37 D38:AMJ38 D39:G44 J39:AMJ39 H40:AMJ44 C45:AMJ45 D46:AMJ46 C47:AMJ55" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:B55 D6:AMJ6 C7:D7 F7:AMJ7 C8:AMJ9 L10:AMJ10 C11:AMJ11 D12:AMJ19 C20:AMJ20 D21:E21 L21:AMJ21 C22:AMJ22 D23:AMJ26 C27:AMJ28 D29:AMJ29 C30:AMJ34 D35:AMJ35 C36:H37 L36:AMJ36 I37:AMJ37 D38:AMJ38 D39:H44 K39:AMJ39 I40:AMJ44 C45:AMJ45 D46:AMJ46 C47:AMJ55" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17858,7 +17959,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="365" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -17871,17 +17972,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="367" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="369" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="248" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="366" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -17915,172 +18016,172 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="166" t="s">
-        <v>489</v>
-      </c>
-      <c r="B3" s="368" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
+      <c r="B3" s="370" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="365" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" s="369" t="s">
+      <c r="A4" s="367" t="s">
         <v>492</v>
       </c>
+      <c r="B4" s="371" t="s">
+        <v>493</v>
+      </c>
       <c r="C4" s="102"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="371"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="373"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="365" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5" s="372" t="str">
+      <c r="A5" s="367" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="374" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="365" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="372"/>
-      <c r="C6" s="372"/>
-      <c r="D6" s="372"/>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372"/>
+      <c r="A6" s="367" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="365" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" s="372"/>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
+      <c r="A7" s="367" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="365" t="s">
-        <v>496</v>
-      </c>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="A8" s="367" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="365" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9" s="372"/>
-      <c r="C9" s="372"/>
-      <c r="D9" s="372"/>
-      <c r="E9" s="372"/>
-      <c r="F9" s="372"/>
+      <c r="A9" s="367" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="374"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="365" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="372"/>
-      <c r="C10" s="372"/>
-      <c r="D10" s="372"/>
-      <c r="E10" s="372"/>
-      <c r="F10" s="372"/>
+      <c r="A10" s="367" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="374"/>
+      <c r="C10" s="374"/>
+      <c r="D10" s="374"/>
+      <c r="E10" s="374"/>
+      <c r="F10" s="374"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11" s="373" t="s">
         <v>500</v>
       </c>
-      <c r="C11" s="373"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="373"/>
-      <c r="F11" s="373"/>
+      <c r="B11" s="375" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="375"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="375"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>501</v>
-      </c>
-      <c r="B12" s="374" t="n">
+        <v>502</v>
+      </c>
+      <c r="B12" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="375" t="str">
+      <c r="C12" s="377" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
-      <c r="F12" s="375"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
+      <c r="F12" s="377"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" s="374" t="n">
+        <v>503</v>
+      </c>
+      <c r="B13" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="375" t="str">
+      <c r="C13" s="377" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D13" s="375"/>
-      <c r="E13" s="375"/>
-      <c r="F13" s="375"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="377"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="374" t="n">
+        <v>504</v>
+      </c>
+      <c r="B14" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="375" t="str">
+      <c r="C14" s="377" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D14" s="375"/>
-      <c r="E14" s="375"/>
-      <c r="F14" s="375"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="B15" s="376"/>
-      <c r="C15" s="377" t="s">
         <v>505</v>
       </c>
-      <c r="D15" s="377" t="s">
+      <c r="B15" s="378"/>
+      <c r="C15" s="379" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="377" t="s">
+      <c r="D15" s="379" t="s">
         <v>507</v>
       </c>
-      <c r="F15" s="378" t="s">
+      <c r="E15" s="379" t="s">
         <v>508</v>
+      </c>
+      <c r="F15" s="380" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>509</v>
-      </c>
-      <c r="B16" s="379"/>
+        <v>510</v>
+      </c>
+      <c r="B16" s="381"/>
       <c r="C16" s="120" t="s">
         <v>59</v>
       </c>
@@ -18096,231 +18197,231 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>510</v>
-      </c>
-      <c r="B17" s="374" t="n">
+        <v>511</v>
+      </c>
+      <c r="B17" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="380" t="str">
+      <c r="C17" s="382" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D17" s="380" t="str">
+      <c r="D17" s="382" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E17" s="380" t="str">
+      <c r="E17" s="382" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F17" s="380" t="str">
+      <c r="F17" s="382" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>511</v>
-      </c>
-      <c r="B18" s="374" t="n">
+        <v>512</v>
+      </c>
+      <c r="B18" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="380" t="str">
+      <c r="C18" s="382" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D18" s="380" t="str">
+      <c r="D18" s="382" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E18" s="380" t="str">
+      <c r="E18" s="382" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F18" s="380" t="str">
+      <c r="F18" s="382" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>512</v>
-      </c>
-      <c r="B19" s="374" t="n">
+        <v>513</v>
+      </c>
+      <c r="B19" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="380" t="str">
+      <c r="C19" s="382" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D19" s="380" t="str">
+      <c r="D19" s="382" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E19" s="380" t="str">
+      <c r="E19" s="382" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F19" s="380" t="str">
+      <c r="F19" s="382" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>513</v>
-      </c>
-      <c r="B20" s="381" t="s">
         <v>514</v>
       </c>
+      <c r="B20" s="383" t="s">
+        <v>515</v>
+      </c>
       <c r="C20" s="102"/>
-      <c r="D20" s="370"/>
-      <c r="E20" s="370"/>
-      <c r="F20" s="382"/>
+      <c r="D20" s="372"/>
+      <c r="E20" s="372"/>
+      <c r="F20" s="384"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>515</v>
-      </c>
-      <c r="B21" s="372" t="str">
+        <v>516</v>
+      </c>
+      <c r="B21" s="374" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="C21" s="372"/>
-      <c r="D21" s="372"/>
-      <c r="E21" s="372"/>
-      <c r="F21" s="372"/>
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>516</v>
-      </c>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
+        <v>517</v>
+      </c>
+      <c r="B22" s="374"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>517</v>
-      </c>
-      <c r="B23" s="372"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="372"/>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
+        <v>518</v>
+      </c>
+      <c r="B23" s="374"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>518</v>
-      </c>
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
+        <v>519</v>
+      </c>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>519</v>
-      </c>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="372"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
+        <v>520</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>520</v>
-      </c>
-      <c r="B26" s="372"/>
-      <c r="C26" s="372"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
+        <v>521</v>
+      </c>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" s="373" t="s">
-        <v>500</v>
-      </c>
-      <c r="C27" s="373"/>
-      <c r="D27" s="373"/>
-      <c r="E27" s="373"/>
-      <c r="F27" s="373"/>
+        <v>522</v>
+      </c>
+      <c r="B27" s="375" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" s="375"/>
+      <c r="D27" s="375"/>
+      <c r="E27" s="375"/>
+      <c r="F27" s="375"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>522</v>
-      </c>
-      <c r="B28" s="374" t="n">
+        <v>523</v>
+      </c>
+      <c r="B28" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="375" t="str">
+      <c r="C28" s="377" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="375"/>
-      <c r="E28" s="375"/>
-      <c r="F28" s="375"/>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="377"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>523</v>
-      </c>
-      <c r="B29" s="374" t="n">
+        <v>524</v>
+      </c>
+      <c r="B29" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="375" t="str">
+      <c r="C29" s="377" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="375"/>
+      <c r="D29" s="377"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="377"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>524</v>
-      </c>
-      <c r="B30" s="374" t="n">
+        <v>525</v>
+      </c>
+      <c r="B30" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="375" t="str">
+      <c r="C30" s="377" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="375"/>
+      <c r="D30" s="377"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="383"/>
-      <c r="C31" s="377" t="s">
-        <v>505</v>
-      </c>
-      <c r="D31" s="377" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="385"/>
+      <c r="C31" s="379" t="s">
         <v>506</v>
       </c>
-      <c r="E31" s="377" t="s">
+      <c r="D31" s="379" t="s">
         <v>507</v>
       </c>
-      <c r="F31" s="378" t="s">
+      <c r="E31" s="379" t="s">
         <v>508</v>
+      </c>
+      <c r="F31" s="380" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32" s="383"/>
+        <v>527</v>
+      </c>
+      <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -18336,231 +18437,231 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="374" t="n">
+        <v>528</v>
+      </c>
+      <c r="B33" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="380" t="str">
+      <c r="C33" s="382" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="380" t="str">
+      <c r="D33" s="382" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="380" t="str">
+      <c r="E33" s="382" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="380" t="str">
+      <c r="F33" s="382" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>528</v>
-      </c>
-      <c r="B34" s="374" t="n">
+        <v>529</v>
+      </c>
+      <c r="B34" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="380" t="str">
+      <c r="C34" s="382" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="380" t="str">
+      <c r="D34" s="382" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="380" t="str">
+      <c r="E34" s="382" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="380" t="str">
+      <c r="F34" s="382" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>529</v>
-      </c>
-      <c r="B35" s="374" t="n">
+        <v>530</v>
+      </c>
+      <c r="B35" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="380" t="str">
+      <c r="C35" s="382" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="380" t="str">
+      <c r="D35" s="382" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="380" t="str">
+      <c r="E35" s="382" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="380" t="str">
+      <c r="F35" s="382" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>530</v>
-      </c>
-      <c r="B36" s="381" t="s">
         <v>531</v>
       </c>
-      <c r="C36" s="384"/>
+      <c r="B36" s="383" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="386"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="382"/>
+      <c r="F36" s="384"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>532</v>
-      </c>
-      <c r="B37" s="372" t="str">
+        <v>533</v>
+      </c>
+      <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="C37" s="372"/>
-      <c r="D37" s="372"/>
-      <c r="E37" s="372"/>
-      <c r="F37" s="372"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>533</v>
-      </c>
-      <c r="B38" s="372"/>
-      <c r="C38" s="372"/>
-      <c r="D38" s="372"/>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
+        <v>534</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>534</v>
-      </c>
-      <c r="B39" s="372"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="372"/>
-      <c r="E39" s="372"/>
-      <c r="F39" s="372"/>
+        <v>535</v>
+      </c>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>535</v>
-      </c>
-      <c r="B40" s="372"/>
-      <c r="C40" s="372"/>
-      <c r="D40" s="372"/>
-      <c r="E40" s="372"/>
-      <c r="F40" s="372"/>
+        <v>536</v>
+      </c>
+      <c r="B40" s="374"/>
+      <c r="C40" s="374"/>
+      <c r="D40" s="374"/>
+      <c r="E40" s="374"/>
+      <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>536</v>
-      </c>
-      <c r="B41" s="372"/>
-      <c r="C41" s="372"/>
-      <c r="D41" s="372"/>
-      <c r="E41" s="372"/>
-      <c r="F41" s="372"/>
+        <v>537</v>
+      </c>
+      <c r="B41" s="374"/>
+      <c r="C41" s="374"/>
+      <c r="D41" s="374"/>
+      <c r="E41" s="374"/>
+      <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>537</v>
-      </c>
-      <c r="B42" s="372"/>
-      <c r="C42" s="372"/>
-      <c r="D42" s="372"/>
-      <c r="E42" s="372"/>
-      <c r="F42" s="372"/>
+        <v>538</v>
+      </c>
+      <c r="B42" s="374"/>
+      <c r="C42" s="374"/>
+      <c r="D42" s="374"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="373" t="s">
-        <v>500</v>
-      </c>
-      <c r="C43" s="373"/>
-      <c r="D43" s="373"/>
-      <c r="E43" s="373"/>
-      <c r="F43" s="373"/>
+        <v>539</v>
+      </c>
+      <c r="B43" s="375" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="375"/>
+      <c r="D43" s="375"/>
+      <c r="E43" s="375"/>
+      <c r="F43" s="375"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>539</v>
-      </c>
-      <c r="B44" s="374" t="n">
+        <v>540</v>
+      </c>
+      <c r="B44" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="375" t="str">
+      <c r="C44" s="377" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D44" s="375"/>
-      <c r="E44" s="375"/>
-      <c r="F44" s="375"/>
+      <c r="D44" s="377"/>
+      <c r="E44" s="377"/>
+      <c r="F44" s="377"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>540</v>
-      </c>
-      <c r="B45" s="374" t="n">
+        <v>541</v>
+      </c>
+      <c r="B45" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="375" t="str">
+      <c r="C45" s="377" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D45" s="375"/>
-      <c r="E45" s="375"/>
-      <c r="F45" s="375"/>
+      <c r="D45" s="377"/>
+      <c r="E45" s="377"/>
+      <c r="F45" s="377"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>541</v>
-      </c>
-      <c r="B46" s="374" t="n">
+        <v>542</v>
+      </c>
+      <c r="B46" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="375" t="str">
+      <c r="C46" s="377" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D46" s="375"/>
-      <c r="E46" s="375"/>
-      <c r="F46" s="375"/>
+      <c r="D46" s="377"/>
+      <c r="E46" s="377"/>
+      <c r="F46" s="377"/>
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>542</v>
-      </c>
-      <c r="B47" s="383"/>
-      <c r="C47" s="377" t="s">
-        <v>505</v>
-      </c>
-      <c r="D47" s="377" t="s">
+        <v>543</v>
+      </c>
+      <c r="B47" s="385"/>
+      <c r="C47" s="379" t="s">
         <v>506</v>
       </c>
-      <c r="E47" s="377" t="s">
+      <c r="D47" s="379" t="s">
         <v>507</v>
       </c>
-      <c r="F47" s="378" t="s">
+      <c r="E47" s="379" t="s">
         <v>508</v>
+      </c>
+      <c r="F47" s="380" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>543</v>
-      </c>
-      <c r="B48" s="383"/>
+        <v>544</v>
+      </c>
+      <c r="B48" s="385"/>
       <c r="C48" s="120" t="s">
         <v>59</v>
       </c>
@@ -18576,79 +18677,79 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>544</v>
-      </c>
-      <c r="B49" s="374" t="n">
+        <v>545</v>
+      </c>
+      <c r="B49" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="380" t="str">
+      <c r="C49" s="382" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D49" s="380" t="str">
+      <c r="D49" s="382" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E49" s="380" t="str">
+      <c r="E49" s="382" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F49" s="380" t="str">
+      <c r="F49" s="382" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>545</v>
-      </c>
-      <c r="B50" s="374" t="n">
+        <v>546</v>
+      </c>
+      <c r="B50" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="380" t="str">
+      <c r="C50" s="382" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D50" s="380" t="str">
+      <c r="D50" s="382" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E50" s="380" t="str">
+      <c r="E50" s="382" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F50" s="380" t="str">
+      <c r="F50" s="382" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>546</v>
-      </c>
-      <c r="B51" s="374" t="n">
+        <v>547</v>
+      </c>
+      <c r="B51" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="380" t="str">
+      <c r="C51" s="382" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D51" s="380" t="str">
+      <c r="D51" s="382" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E51" s="380" t="str">
+      <c r="E51" s="382" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F51" s="380" t="str">
+      <c r="F51" s="382" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="365" t="s">
-        <v>547</v>
+      <c r="A52" s="367" t="s">
+        <v>548</v>
       </c>
       <c r="B52" s="291" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 6/8"</f>
@@ -18660,49 +18761,49 @@
       <c r="F52" s="291"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="365" t="s">
-        <v>548</v>
-      </c>
-      <c r="B53" s="385"/>
+      <c r="A53" s="367" t="s">
+        <v>549</v>
+      </c>
+      <c r="B53" s="387"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="365" t="s">
-        <v>549</v>
+      <c r="A54" s="367" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="365" t="s">
-        <v>550</v>
+      <c r="A55" s="367" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="365" t="s">
-        <v>551</v>
+      <c r="A56" s="367" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="365" t="s">
-        <v>552</v>
+      <c r="A57" s="367" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="365" t="s">
-        <v>553</v>
+      <c r="A58" s="367" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="365" t="s">
-        <v>554</v>
+      <c r="A59" s="367" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="365" t="s">
-        <v>555</v>
+      <c r="A60" s="367" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="365" t="s">
-        <v>556</v>
+      <c r="A61" s="367" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -18841,7 +18942,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="365" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -18855,172 +18956,172 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="365" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="369" t="s">
+      <c r="A2" s="367" t="s">
         <v>558</v>
       </c>
+      <c r="B2" s="371" t="s">
+        <v>559</v>
+      </c>
       <c r="C2" s="102"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="371"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="373"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="365" t="s">
-        <v>559</v>
-      </c>
-      <c r="B3" s="372" t="str">
+      <c r="A3" s="367" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="374" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="365" t="s">
-        <v>560</v>
-      </c>
-      <c r="B4" s="372"/>
-      <c r="C4" s="372"/>
-      <c r="D4" s="372"/>
-      <c r="E4" s="372"/>
-      <c r="F4" s="372"/>
+      <c r="A4" s="367" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="374"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="365" t="s">
-        <v>561</v>
-      </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
+      <c r="A5" s="367" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" s="374"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="365" t="s">
-        <v>562</v>
-      </c>
-      <c r="B6" s="372"/>
-      <c r="C6" s="372"/>
-      <c r="D6" s="372"/>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372"/>
+      <c r="A6" s="367" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="365" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="372"/>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
+      <c r="A7" s="367" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="365" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="A8" s="367" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="365" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" s="372"/>
-      <c r="C9" s="372"/>
-      <c r="D9" s="372"/>
-      <c r="E9" s="372"/>
-      <c r="F9" s="372"/>
+      <c r="A9" s="367" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="374"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
-        <v>566</v>
-      </c>
-      <c r="B10" s="386" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
+        <v>567</v>
+      </c>
+      <c r="B10" s="388" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>567</v>
-      </c>
-      <c r="B11" s="374" t="n">
+        <v>568</v>
+      </c>
+      <c r="B11" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="387" t="str">
+      <c r="C11" s="389" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D11" s="387"/>
-      <c r="E11" s="387"/>
-      <c r="F11" s="387"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>568</v>
-      </c>
-      <c r="B12" s="374" t="n">
+        <v>569</v>
+      </c>
+      <c r="B12" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="387" t="str">
+      <c r="C12" s="389" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D12" s="387"/>
-      <c r="E12" s="387"/>
-      <c r="F12" s="387"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="374" t="n">
+        <v>570</v>
+      </c>
+      <c r="B13" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="387" t="str">
+      <c r="C13" s="389" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D13" s="387"/>
-      <c r="E13" s="387"/>
-      <c r="F13" s="387"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="389"/>
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>570</v>
-      </c>
-      <c r="B14" s="383"/>
-      <c r="C14" s="377" t="s">
-        <v>505</v>
-      </c>
-      <c r="D14" s="377" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" s="385"/>
+      <c r="C14" s="379" t="s">
         <v>506</v>
       </c>
-      <c r="E14" s="377" t="s">
+      <c r="D14" s="379" t="s">
         <v>507</v>
       </c>
-      <c r="F14" s="378" t="s">
+      <c r="E14" s="379" t="s">
         <v>508</v>
+      </c>
+      <c r="F14" s="380" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>571</v>
-      </c>
-      <c r="B15" s="383"/>
+        <v>572</v>
+      </c>
+      <c r="B15" s="385"/>
       <c r="C15" s="120" t="s">
         <v>59</v>
       </c>
@@ -19036,241 +19137,241 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>572</v>
-      </c>
-      <c r="B16" s="374" t="n">
+        <v>573</v>
+      </c>
+      <c r="B16" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="380" t="str">
+      <c r="C16" s="382" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D16" s="380" t="str">
+      <c r="D16" s="382" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E16" s="380" t="str">
+      <c r="E16" s="382" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F16" s="380" t="str">
+      <c r="F16" s="382" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="B17" s="374" t="n">
+        <v>574</v>
+      </c>
+      <c r="B17" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="380" t="str">
+      <c r="C17" s="382" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D17" s="380" t="str">
+      <c r="D17" s="382" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E17" s="380" t="str">
+      <c r="E17" s="382" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F17" s="380" t="str">
+      <c r="F17" s="382" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="B18" s="374" t="n">
+        <v>575</v>
+      </c>
+      <c r="B18" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="380" t="str">
+      <c r="C18" s="382" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D18" s="380" t="str">
+      <c r="D18" s="382" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E18" s="380" t="str">
+      <c r="E18" s="382" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F18" s="380" t="str">
+      <c r="F18" s="382" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>575</v>
-      </c>
-      <c r="B19" s="381" t="s">
         <v>576</v>
       </c>
-      <c r="C19" s="384"/>
+      <c r="B19" s="383" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="386"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="382"/>
+      <c r="F19" s="384"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>577</v>
-      </c>
-      <c r="B20" s="372" t="str">
+        <v>578</v>
+      </c>
+      <c r="B20" s="374" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="C20" s="372"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
-      <c r="F20" s="372"/>
+      <c r="C20" s="374"/>
+      <c r="D20" s="374"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>578</v>
-      </c>
-      <c r="B21" s="372"/>
-      <c r="C21" s="372"/>
-      <c r="D21" s="372"/>
-      <c r="E21" s="372"/>
-      <c r="F21" s="372"/>
+        <v>579</v>
+      </c>
+      <c r="B21" s="374"/>
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>579</v>
-      </c>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
+        <v>580</v>
+      </c>
+      <c r="B22" s="374"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>580</v>
-      </c>
-      <c r="B23" s="372"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="372"/>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
+        <v>581</v>
+      </c>
+      <c r="B23" s="374"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>581</v>
-      </c>
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
+        <v>582</v>
+      </c>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>582</v>
-      </c>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="372"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
+        <v>583</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>583</v>
-      </c>
-      <c r="B26" s="372"/>
-      <c r="C26" s="372"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
+        <v>584</v>
+      </c>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>584</v>
-      </c>
-      <c r="B27" s="386" t="s">
-        <v>500</v>
-      </c>
-      <c r="C27" s="386"/>
-      <c r="D27" s="386"/>
-      <c r="E27" s="386"/>
-      <c r="F27" s="386"/>
+        <v>585</v>
+      </c>
+      <c r="B27" s="388" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" s="388"/>
+      <c r="D27" s="388"/>
+      <c r="E27" s="388"/>
+      <c r="F27" s="388"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>585</v>
-      </c>
-      <c r="B28" s="374" t="n">
+        <v>586</v>
+      </c>
+      <c r="B28" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="387" t="str">
+      <c r="C28" s="389" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="387"/>
-      <c r="E28" s="387"/>
-      <c r="F28" s="387"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="389"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>586</v>
-      </c>
-      <c r="B29" s="374" t="n">
+        <v>587</v>
+      </c>
+      <c r="B29" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="387" t="str">
+      <c r="C29" s="389" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="387"/>
-      <c r="E29" s="387"/>
-      <c r="F29" s="387"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="389"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>587</v>
-      </c>
-      <c r="B30" s="374" t="n">
+        <v>588</v>
+      </c>
+      <c r="B30" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="387" t="str">
+      <c r="C30" s="389" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="387"/>
-      <c r="E30" s="387"/>
-      <c r="F30" s="387"/>
+      <c r="D30" s="389"/>
+      <c r="E30" s="389"/>
+      <c r="F30" s="389"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>588</v>
-      </c>
-      <c r="B31" s="383"/>
-      <c r="C31" s="377" t="s">
-        <v>505</v>
-      </c>
-      <c r="D31" s="377" t="s">
+        <v>589</v>
+      </c>
+      <c r="B31" s="385"/>
+      <c r="C31" s="379" t="s">
         <v>506</v>
       </c>
-      <c r="E31" s="377" t="s">
+      <c r="D31" s="379" t="s">
         <v>507</v>
       </c>
-      <c r="F31" s="378" t="s">
+      <c r="E31" s="379" t="s">
         <v>508</v>
+      </c>
+      <c r="F31" s="380" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>589</v>
-      </c>
-      <c r="B32" s="383"/>
+        <v>590</v>
+      </c>
+      <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -19286,237 +19387,237 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>590</v>
-      </c>
-      <c r="B33" s="374" t="n">
+        <v>591</v>
+      </c>
+      <c r="B33" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="380" t="str">
+      <c r="C33" s="382" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="380" t="str">
+      <c r="D33" s="382" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="380" t="str">
+      <c r="E33" s="382" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="380" t="str">
+      <c r="F33" s="382" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>591</v>
-      </c>
-      <c r="B34" s="374" t="n">
+        <v>592</v>
+      </c>
+      <c r="B34" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="380" t="str">
+      <c r="C34" s="382" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="380" t="str">
+      <c r="D34" s="382" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="380" t="str">
+      <c r="E34" s="382" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="380" t="str">
+      <c r="F34" s="382" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>592</v>
-      </c>
-      <c r="B35" s="374" t="n">
+        <v>593</v>
+      </c>
+      <c r="B35" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="380" t="str">
+      <c r="C35" s="382" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="380" t="str">
+      <c r="D35" s="382" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="380" t="str">
+      <c r="E35" s="382" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="380" t="str">
+      <c r="F35" s="382" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>593</v>
-      </c>
-      <c r="B36" s="388" t="s">
         <v>594</v>
       </c>
-      <c r="C36" s="388"/>
-      <c r="D36" s="388"/>
-      <c r="E36" s="388"/>
-      <c r="F36" s="388"/>
+      <c r="B36" s="390" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>595</v>
-      </c>
-      <c r="B37" s="372" t="str">
+        <v>596</v>
+      </c>
+      <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="C37" s="372"/>
-      <c r="D37" s="372"/>
-      <c r="E37" s="372"/>
-      <c r="F37" s="372"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>596</v>
-      </c>
-      <c r="B38" s="372"/>
-      <c r="C38" s="372"/>
-      <c r="D38" s="372"/>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
+        <v>597</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>597</v>
-      </c>
-      <c r="B39" s="372"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="372"/>
-      <c r="E39" s="372"/>
-      <c r="F39" s="372"/>
+        <v>598</v>
+      </c>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>598</v>
-      </c>
-      <c r="B40" s="372"/>
-      <c r="C40" s="372"/>
-      <c r="D40" s="372"/>
-      <c r="E40" s="372"/>
-      <c r="F40" s="372"/>
+        <v>599</v>
+      </c>
+      <c r="B40" s="374"/>
+      <c r="C40" s="374"/>
+      <c r="D40" s="374"/>
+      <c r="E40" s="374"/>
+      <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>599</v>
-      </c>
-      <c r="B41" s="372"/>
-      <c r="C41" s="372"/>
-      <c r="D41" s="372"/>
-      <c r="E41" s="372"/>
-      <c r="F41" s="372"/>
+        <v>600</v>
+      </c>
+      <c r="B41" s="374"/>
+      <c r="C41" s="374"/>
+      <c r="D41" s="374"/>
+      <c r="E41" s="374"/>
+      <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>600</v>
-      </c>
-      <c r="B42" s="372"/>
-      <c r="C42" s="372"/>
-      <c r="D42" s="372"/>
-      <c r="E42" s="372"/>
-      <c r="F42" s="372"/>
+        <v>601</v>
+      </c>
+      <c r="B42" s="374"/>
+      <c r="C42" s="374"/>
+      <c r="D42" s="374"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>601</v>
-      </c>
-      <c r="B43" s="372"/>
-      <c r="C43" s="372"/>
-      <c r="D43" s="372"/>
-      <c r="E43" s="372"/>
-      <c r="F43" s="372"/>
+        <v>602</v>
+      </c>
+      <c r="B43" s="374"/>
+      <c r="C43" s="374"/>
+      <c r="D43" s="374"/>
+      <c r="E43" s="374"/>
+      <c r="F43" s="374"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>602</v>
-      </c>
-      <c r="B44" s="372"/>
-      <c r="C44" s="372"/>
-      <c r="D44" s="372"/>
-      <c r="E44" s="372"/>
-      <c r="F44" s="372"/>
+        <v>603</v>
+      </c>
+      <c r="B44" s="374"/>
+      <c r="C44" s="374"/>
+      <c r="D44" s="374"/>
+      <c r="E44" s="374"/>
+      <c r="F44" s="374"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>603</v>
-      </c>
-      <c r="B45" s="372"/>
-      <c r="C45" s="372"/>
-      <c r="D45" s="372"/>
-      <c r="E45" s="372"/>
-      <c r="F45" s="372"/>
+        <v>604</v>
+      </c>
+      <c r="B45" s="374"/>
+      <c r="C45" s="374"/>
+      <c r="D45" s="374"/>
+      <c r="E45" s="374"/>
+      <c r="F45" s="374"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166"/>
-      <c r="B46" s="372"/>
-      <c r="C46" s="372"/>
-      <c r="D46" s="372"/>
-      <c r="E46" s="372"/>
-      <c r="F46" s="372"/>
+      <c r="B46" s="374"/>
+      <c r="C46" s="374"/>
+      <c r="D46" s="374"/>
+      <c r="E46" s="374"/>
+      <c r="F46" s="374"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166"/>
-      <c r="B47" s="372"/>
-      <c r="C47" s="372"/>
-      <c r="D47" s="372"/>
-      <c r="E47" s="372"/>
-      <c r="F47" s="372"/>
+      <c r="B47" s="374"/>
+      <c r="C47" s="374"/>
+      <c r="D47" s="374"/>
+      <c r="E47" s="374"/>
+      <c r="F47" s="374"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="166"/>
-      <c r="B48" s="372"/>
-      <c r="C48" s="372"/>
-      <c r="D48" s="372"/>
-      <c r="E48" s="372"/>
-      <c r="F48" s="372"/>
+      <c r="B48" s="374"/>
+      <c r="C48" s="374"/>
+      <c r="D48" s="374"/>
+      <c r="E48" s="374"/>
+      <c r="F48" s="374"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166"/>
-      <c r="B49" s="372"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="372"/>
-      <c r="F49" s="372"/>
+      <c r="B49" s="374"/>
+      <c r="C49" s="374"/>
+      <c r="D49" s="374"/>
+      <c r="E49" s="374"/>
+      <c r="F49" s="374"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166"/>
-      <c r="B50" s="372"/>
-      <c r="C50" s="372"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="372"/>
-      <c r="F50" s="372"/>
+      <c r="B50" s="374"/>
+      <c r="C50" s="374"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="374"/>
+      <c r="F50" s="374"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166"/>
-      <c r="B51" s="372"/>
-      <c r="C51" s="372"/>
-      <c r="D51" s="372"/>
-      <c r="E51" s="372"/>
-      <c r="F51" s="372"/>
+      <c r="B51" s="374"/>
+      <c r="C51" s="374"/>
+      <c r="D51" s="374"/>
+      <c r="E51" s="374"/>
+      <c r="F51" s="374"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="369" t="s">
-        <v>604</v>
+      <c r="B52" s="371" t="s">
+        <v>605</v>
       </c>
       <c r="C52" s="102"/>
-      <c r="D52" s="370"/>
-      <c r="E52" s="370"/>
-      <c r="F52" s="371"/>
+      <c r="D52" s="372"/>
+      <c r="E52" s="372"/>
+      <c r="F52" s="373"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166"/>
@@ -19524,51 +19625,51 @@
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="389"/>
+      <c r="F53" s="391"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
-      <c r="B54" s="331" t="s">
-        <v>605</v>
-      </c>
-      <c r="C54" s="331"/>
-      <c r="D54" s="331"/>
-      <c r="E54" s="331"/>
-      <c r="F54" s="331"/>
+      <c r="B54" s="333" t="s">
+        <v>606</v>
+      </c>
+      <c r="C54" s="333"/>
+      <c r="D54" s="333"/>
+      <c r="E54" s="333"/>
+      <c r="F54" s="333"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
-      <c r="B55" s="390" t="str">
+      <c r="B55" s="392" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="C55" s="390"/>
-      <c r="D55" s="390"/>
-      <c r="E55" s="390"/>
-      <c r="F55" s="390"/>
+      <c r="C55" s="392"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
-      <c r="B56" s="390"/>
-      <c r="C56" s="390"/>
-      <c r="D56" s="390"/>
-      <c r="E56" s="390"/>
-      <c r="F56" s="390"/>
+      <c r="B56" s="392"/>
+      <c r="C56" s="392"/>
+      <c r="D56" s="392"/>
+      <c r="E56" s="392"/>
+      <c r="F56" s="392"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
-      <c r="B57" s="390"/>
-      <c r="C57" s="390"/>
-      <c r="D57" s="390"/>
-      <c r="E57" s="390"/>
-      <c r="F57" s="390"/>
+      <c r="B57" s="392"/>
+      <c r="C57" s="392"/>
+      <c r="D57" s="392"/>
+      <c r="E57" s="392"/>
+      <c r="F57" s="392"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="390"/>
-      <c r="C58" s="390"/>
-      <c r="D58" s="390"/>
-      <c r="E58" s="390"/>
-      <c r="F58" s="390"/>
+      <c r="B58" s="392"/>
+      <c r="C58" s="392"/>
+      <c r="D58" s="392"/>
+      <c r="E58" s="392"/>
+      <c r="F58" s="392"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="291" t="str">
@@ -19581,7 +19682,7 @@
       <c r="F59" s="291"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="385"/>
+      <c r="B60" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -19696,7 +19797,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="365" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="3" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="1.12"/>
@@ -19711,1141 +19812,1141 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
-        <v>606</v>
-      </c>
-      <c r="B2" s="391" t="s">
         <v>607</v>
       </c>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
+      <c r="B2" s="393" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="365" t="s">
-        <v>608</v>
-      </c>
-      <c r="B3" s="372" t="str">
+      <c r="A3" s="367" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="374" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
+      <c r="H3" s="374"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="365" t="s">
-        <v>609</v>
-      </c>
-      <c r="B4" s="372"/>
-      <c r="C4" s="372"/>
-      <c r="D4" s="372"/>
-      <c r="E4" s="372"/>
-      <c r="F4" s="372"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="372"/>
+      <c r="A4" s="367" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="374"/>
+      <c r="H4" s="374"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="365" t="s">
-        <v>610</v>
-      </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
+      <c r="A5" s="367" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="374"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="374"/>
+      <c r="H5" s="374"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="365" t="s">
-        <v>611</v>
-      </c>
-      <c r="B6" s="372"/>
-      <c r="C6" s="372"/>
-      <c r="D6" s="372"/>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372"/>
-      <c r="G6" s="372"/>
-      <c r="H6" s="372"/>
+      <c r="A6" s="367" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="365" t="s">
-        <v>612</v>
-      </c>
-      <c r="B7" s="372"/>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="372"/>
+      <c r="A7" s="367" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="365" t="s">
-        <v>613</v>
-      </c>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
-      <c r="G8" s="372"/>
-      <c r="H8" s="372"/>
+      <c r="A8" s="367" t="s">
+        <v>614</v>
+      </c>
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
+      <c r="G8" s="374"/>
+      <c r="H8" s="374"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="365" t="s">
-        <v>614</v>
-      </c>
-      <c r="B9" s="372"/>
-      <c r="C9" s="372"/>
-      <c r="D9" s="372"/>
-      <c r="E9" s="372"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="372"/>
-      <c r="H9" s="372"/>
+      <c r="A9" s="367" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" s="374"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="374"/>
+      <c r="H9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="365" t="s">
-        <v>615</v>
-      </c>
-      <c r="B10" s="372"/>
-      <c r="C10" s="372"/>
-      <c r="D10" s="372"/>
-      <c r="E10" s="372"/>
-      <c r="F10" s="372"/>
-      <c r="G10" s="372"/>
-      <c r="H10" s="372"/>
+      <c r="A10" s="367" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" s="374"/>
+      <c r="C10" s="374"/>
+      <c r="D10" s="374"/>
+      <c r="E10" s="374"/>
+      <c r="F10" s="374"/>
+      <c r="G10" s="374"/>
+      <c r="H10" s="374"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="365" t="s">
-        <v>616</v>
-      </c>
-      <c r="B11" s="372"/>
-      <c r="C11" s="372"/>
-      <c r="D11" s="372"/>
-      <c r="E11" s="372"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="372"/>
-      <c r="H11" s="372"/>
+      <c r="A11" s="367" t="s">
+        <v>617</v>
+      </c>
+      <c r="B11" s="374"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="374"/>
+      <c r="H11" s="374"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="365" t="s">
-        <v>617</v>
-      </c>
-      <c r="B12" s="372"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="372"/>
-      <c r="H12" s="372"/>
+      <c r="A12" s="367" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" s="374"/>
+      <c r="C12" s="374"/>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="374"/>
+      <c r="G12" s="374"/>
+      <c r="H12" s="374"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="365" t="s">
-        <v>618</v>
-      </c>
-      <c r="B13" s="372"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="372"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="372"/>
-      <c r="H13" s="372"/>
+      <c r="A13" s="367" t="s">
+        <v>619</v>
+      </c>
+      <c r="B13" s="374"/>
+      <c r="C13" s="374"/>
+      <c r="D13" s="374"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="374"/>
+      <c r="H13" s="374"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="365" t="s">
-        <v>619</v>
-      </c>
-      <c r="B14" s="372"/>
-      <c r="C14" s="372"/>
-      <c r="D14" s="372"/>
-      <c r="E14" s="372"/>
-      <c r="F14" s="372"/>
-      <c r="G14" s="372"/>
-      <c r="H14" s="372"/>
+      <c r="A14" s="367" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14" s="374"/>
+      <c r="C14" s="374"/>
+      <c r="D14" s="374"/>
+      <c r="E14" s="374"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="374"/>
+      <c r="H14" s="374"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="365" t="s">
-        <v>620</v>
-      </c>
-      <c r="B15" s="372"/>
-      <c r="C15" s="372"/>
-      <c r="D15" s="372"/>
-      <c r="E15" s="372"/>
-      <c r="F15" s="372"/>
-      <c r="G15" s="372"/>
-      <c r="H15" s="372"/>
+      <c r="A15" s="367" t="s">
+        <v>621</v>
+      </c>
+      <c r="B15" s="374"/>
+      <c r="C15" s="374"/>
+      <c r="D15" s="374"/>
+      <c r="E15" s="374"/>
+      <c r="F15" s="374"/>
+      <c r="G15" s="374"/>
+      <c r="H15" s="374"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="365" t="s">
-        <v>621</v>
-      </c>
-      <c r="B16" s="372"/>
-      <c r="C16" s="372"/>
-      <c r="D16" s="372"/>
-      <c r="E16" s="372"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="372"/>
-      <c r="H16" s="372"/>
+      <c r="A16" s="367" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16" s="374"/>
+      <c r="C16" s="374"/>
+      <c r="D16" s="374"/>
+      <c r="E16" s="374"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="374"/>
+      <c r="H16" s="374"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="365" t="s">
-        <v>622</v>
-      </c>
-      <c r="B17" s="372"/>
-      <c r="C17" s="372"/>
-      <c r="D17" s="372"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="372"/>
-      <c r="H17" s="372"/>
+      <c r="A17" s="367" t="s">
+        <v>623</v>
+      </c>
+      <c r="B17" s="374"/>
+      <c r="C17" s="374"/>
+      <c r="D17" s="374"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="374"/>
+      <c r="H17" s="374"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="365" t="s">
-        <v>623</v>
-      </c>
-      <c r="B18" s="372"/>
-      <c r="C18" s="372"/>
-      <c r="D18" s="372"/>
-      <c r="E18" s="372"/>
-      <c r="F18" s="372"/>
-      <c r="G18" s="372"/>
-      <c r="H18" s="372"/>
+      <c r="A18" s="367" t="s">
+        <v>624</v>
+      </c>
+      <c r="B18" s="374"/>
+      <c r="C18" s="374"/>
+      <c r="D18" s="374"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="374"/>
+      <c r="H18" s="374"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="365" t="s">
-        <v>624</v>
-      </c>
-      <c r="B19" s="372"/>
-      <c r="C19" s="372"/>
-      <c r="D19" s="372"/>
-      <c r="E19" s="372"/>
-      <c r="F19" s="372"/>
-      <c r="G19" s="372"/>
-      <c r="H19" s="372"/>
+      <c r="A19" s="367" t="s">
+        <v>625</v>
+      </c>
+      <c r="B19" s="374"/>
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="374"/>
+      <c r="H19" s="374"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="365" t="s">
-        <v>625</v>
-      </c>
-      <c r="B20" s="372"/>
-      <c r="C20" s="372"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
-      <c r="F20" s="372"/>
-      <c r="G20" s="372"/>
-      <c r="H20" s="372"/>
+      <c r="A20" s="367" t="s">
+        <v>626</v>
+      </c>
+      <c r="B20" s="374"/>
+      <c r="C20" s="374"/>
+      <c r="D20" s="374"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
+      <c r="G20" s="374"/>
+      <c r="H20" s="374"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="365" t="s">
-        <v>626</v>
-      </c>
-      <c r="B21" s="372"/>
-      <c r="C21" s="372"/>
-      <c r="D21" s="372"/>
-      <c r="E21" s="372"/>
-      <c r="F21" s="372"/>
-      <c r="G21" s="372"/>
-      <c r="H21" s="372"/>
+      <c r="A21" s="367" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="374"/>
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="374"/>
+      <c r="H21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="365" t="s">
-        <v>627</v>
-      </c>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
-      <c r="G22" s="372"/>
-      <c r="H22" s="372"/>
+      <c r="A22" s="367" t="s">
+        <v>628</v>
+      </c>
+      <c r="B22" s="374"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="365" t="s">
-        <v>628</v>
-      </c>
-      <c r="B23" s="372"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="372"/>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
-      <c r="G23" s="372"/>
-      <c r="H23" s="372"/>
+      <c r="A23" s="367" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" s="374"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="374"/>
+      <c r="H23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="365" t="s">
-        <v>629</v>
-      </c>
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
-      <c r="G24" s="372"/>
-      <c r="H24" s="372"/>
+      <c r="A24" s="367" t="s">
+        <v>630</v>
+      </c>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
+      <c r="G24" s="374"/>
+      <c r="H24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="365" t="s">
-        <v>630</v>
-      </c>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="372"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
+      <c r="A25" s="367" t="s">
+        <v>631</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
+      <c r="G25" s="374"/>
+      <c r="H25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="365" t="s">
-        <v>631</v>
-      </c>
-      <c r="B26" s="372"/>
-      <c r="C26" s="372"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
-      <c r="G26" s="372"/>
-      <c r="H26" s="372"/>
+      <c r="A26" s="367" t="s">
+        <v>632</v>
+      </c>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="374"/>
+      <c r="H26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="365" t="s">
-        <v>632</v>
-      </c>
-      <c r="B27" s="372"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="372"/>
-      <c r="E27" s="372"/>
-      <c r="F27" s="372"/>
-      <c r="G27" s="372"/>
-      <c r="H27" s="372"/>
+      <c r="A27" s="367" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27" s="374"/>
+      <c r="C27" s="374"/>
+      <c r="D27" s="374"/>
+      <c r="E27" s="374"/>
+      <c r="F27" s="374"/>
+      <c r="G27" s="374"/>
+      <c r="H27" s="374"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="365" t="s">
-        <v>633</v>
-      </c>
-      <c r="B28" s="372"/>
-      <c r="C28" s="372"/>
-      <c r="D28" s="372"/>
-      <c r="E28" s="372"/>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
+      <c r="A28" s="367" t="s">
+        <v>634</v>
+      </c>
+      <c r="B28" s="374"/>
+      <c r="C28" s="374"/>
+      <c r="D28" s="374"/>
+      <c r="E28" s="374"/>
+      <c r="F28" s="374"/>
+      <c r="G28" s="374"/>
+      <c r="H28" s="374"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="365" t="s">
-        <v>634</v>
-      </c>
-      <c r="B29" s="372"/>
-      <c r="C29" s="372"/>
-      <c r="D29" s="372"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="372"/>
-      <c r="G29" s="372"/>
-      <c r="H29" s="372"/>
+      <c r="A29" s="367" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" s="374"/>
+      <c r="C29" s="374"/>
+      <c r="D29" s="374"/>
+      <c r="E29" s="374"/>
+      <c r="F29" s="374"/>
+      <c r="G29" s="374"/>
+      <c r="H29" s="374"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="365" t="s">
-        <v>635</v>
-      </c>
-      <c r="B30" s="372"/>
-      <c r="C30" s="372"/>
-      <c r="D30" s="372"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="372"/>
-      <c r="G30" s="372"/>
-      <c r="H30" s="372"/>
+      <c r="A30" s="367" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" s="374"/>
+      <c r="C30" s="374"/>
+      <c r="D30" s="374"/>
+      <c r="E30" s="374"/>
+      <c r="F30" s="374"/>
+      <c r="G30" s="374"/>
+      <c r="H30" s="374"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="365" t="s">
-        <v>636</v>
-      </c>
-      <c r="B31" s="372"/>
-      <c r="C31" s="372"/>
-      <c r="D31" s="372"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="372"/>
-      <c r="G31" s="372"/>
-      <c r="H31" s="372"/>
+      <c r="A31" s="367" t="s">
+        <v>637</v>
+      </c>
+      <c r="B31" s="374"/>
+      <c r="C31" s="374"/>
+      <c r="D31" s="374"/>
+      <c r="E31" s="374"/>
+      <c r="F31" s="374"/>
+      <c r="G31" s="374"/>
+      <c r="H31" s="374"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="365" t="s">
-        <v>637</v>
-      </c>
-      <c r="B32" s="372"/>
-      <c r="C32" s="372"/>
-      <c r="D32" s="372"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="372"/>
-      <c r="G32" s="372"/>
-      <c r="H32" s="372"/>
+      <c r="A32" s="367" t="s">
+        <v>638</v>
+      </c>
+      <c r="B32" s="374"/>
+      <c r="C32" s="374"/>
+      <c r="D32" s="374"/>
+      <c r="E32" s="374"/>
+      <c r="F32" s="374"/>
+      <c r="G32" s="374"/>
+      <c r="H32" s="374"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="365" t="s">
-        <v>638</v>
-      </c>
-      <c r="B33" s="372"/>
-      <c r="C33" s="372"/>
-      <c r="D33" s="372"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="372"/>
-      <c r="G33" s="372"/>
-      <c r="H33" s="372"/>
+      <c r="A33" s="367" t="s">
+        <v>639</v>
+      </c>
+      <c r="B33" s="374"/>
+      <c r="C33" s="374"/>
+      <c r="D33" s="374"/>
+      <c r="E33" s="374"/>
+      <c r="F33" s="374"/>
+      <c r="G33" s="374"/>
+      <c r="H33" s="374"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="365" t="s">
-        <v>639</v>
-      </c>
-      <c r="B34" s="372"/>
-      <c r="C34" s="372"/>
-      <c r="D34" s="372"/>
-      <c r="E34" s="372"/>
-      <c r="F34" s="372"/>
-      <c r="G34" s="372"/>
-      <c r="H34" s="372"/>
+      <c r="A34" s="367" t="s">
+        <v>640</v>
+      </c>
+      <c r="B34" s="374"/>
+      <c r="C34" s="374"/>
+      <c r="D34" s="374"/>
+      <c r="E34" s="374"/>
+      <c r="F34" s="374"/>
+      <c r="G34" s="374"/>
+      <c r="H34" s="374"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="365" t="s">
-        <v>640</v>
-      </c>
-      <c r="B35" s="372"/>
-      <c r="C35" s="372"/>
-      <c r="D35" s="372"/>
-      <c r="E35" s="372"/>
-      <c r="F35" s="372"/>
-      <c r="G35" s="372"/>
-      <c r="H35" s="372"/>
+      <c r="A35" s="367" t="s">
+        <v>641</v>
+      </c>
+      <c r="B35" s="374"/>
+      <c r="C35" s="374"/>
+      <c r="D35" s="374"/>
+      <c r="E35" s="374"/>
+      <c r="F35" s="374"/>
+      <c r="G35" s="374"/>
+      <c r="H35" s="374"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="365" t="s">
-        <v>641</v>
-      </c>
-      <c r="B36" s="372"/>
-      <c r="C36" s="372"/>
-      <c r="D36" s="372"/>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
+      <c r="A36" s="367" t="s">
+        <v>642</v>
+      </c>
+      <c r="B36" s="374"/>
+      <c r="C36" s="374"/>
+      <c r="D36" s="374"/>
+      <c r="E36" s="374"/>
+      <c r="F36" s="374"/>
+      <c r="G36" s="374"/>
+      <c r="H36" s="374"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="365" t="s">
-        <v>642</v>
-      </c>
-      <c r="B37" s="372"/>
-      <c r="C37" s="372"/>
-      <c r="D37" s="372"/>
-      <c r="E37" s="372"/>
-      <c r="F37" s="372"/>
-      <c r="G37" s="372"/>
-      <c r="H37" s="372"/>
+      <c r="A37" s="367" t="s">
+        <v>643</v>
+      </c>
+      <c r="B37" s="374"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
+      <c r="G37" s="374"/>
+      <c r="H37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="365" t="s">
-        <v>643</v>
-      </c>
-      <c r="B38" s="372"/>
-      <c r="C38" s="372"/>
-      <c r="D38" s="372"/>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
-      <c r="G38" s="372"/>
-      <c r="H38" s="372"/>
+      <c r="A38" s="367" t="s">
+        <v>644</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="374"/>
+      <c r="G38" s="374"/>
+      <c r="H38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="365" t="s">
-        <v>644</v>
-      </c>
-      <c r="B39" s="372"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="372"/>
-      <c r="E39" s="372"/>
-      <c r="F39" s="372"/>
-      <c r="G39" s="372"/>
-      <c r="H39" s="372"/>
+      <c r="A39" s="367" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
+      <c r="G39" s="374"/>
+      <c r="H39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="365" t="s">
-        <v>645</v>
-      </c>
-      <c r="B40" s="372"/>
-      <c r="C40" s="372"/>
-      <c r="D40" s="372"/>
-      <c r="E40" s="372"/>
-      <c r="F40" s="372"/>
-      <c r="G40" s="372"/>
-      <c r="H40" s="372"/>
+      <c r="A40" s="367" t="s">
+        <v>646</v>
+      </c>
+      <c r="B40" s="374"/>
+      <c r="C40" s="374"/>
+      <c r="D40" s="374"/>
+      <c r="E40" s="374"/>
+      <c r="F40" s="374"/>
+      <c r="G40" s="374"/>
+      <c r="H40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="365" t="s">
-        <v>646</v>
-      </c>
-      <c r="B41" s="372"/>
-      <c r="C41" s="372"/>
-      <c r="D41" s="372"/>
-      <c r="E41" s="372"/>
-      <c r="F41" s="372"/>
-      <c r="G41" s="372"/>
-      <c r="H41" s="372"/>
+      <c r="A41" s="367" t="s">
+        <v>647</v>
+      </c>
+      <c r="B41" s="374"/>
+      <c r="C41" s="374"/>
+      <c r="D41" s="374"/>
+      <c r="E41" s="374"/>
+      <c r="F41" s="374"/>
+      <c r="G41" s="374"/>
+      <c r="H41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="365" t="s">
-        <v>647</v>
-      </c>
-      <c r="B42" s="372"/>
-      <c r="C42" s="372"/>
-      <c r="D42" s="372"/>
-      <c r="E42" s="372"/>
-      <c r="F42" s="372"/>
-      <c r="G42" s="372"/>
-      <c r="H42" s="372"/>
+      <c r="A42" s="367" t="s">
+        <v>648</v>
+      </c>
+      <c r="B42" s="374"/>
+      <c r="C42" s="374"/>
+      <c r="D42" s="374"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
+      <c r="G42" s="374"/>
+      <c r="H42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="365" t="s">
-        <v>648</v>
-      </c>
-      <c r="B43" s="372"/>
-      <c r="C43" s="372"/>
-      <c r="D43" s="372"/>
-      <c r="E43" s="372"/>
-      <c r="F43" s="372"/>
-      <c r="G43" s="372"/>
-      <c r="H43" s="372"/>
+      <c r="A43" s="367" t="s">
+        <v>649</v>
+      </c>
+      <c r="B43" s="374"/>
+      <c r="C43" s="374"/>
+      <c r="D43" s="374"/>
+      <c r="E43" s="374"/>
+      <c r="F43" s="374"/>
+      <c r="G43" s="374"/>
+      <c r="H43" s="374"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="365" t="s">
-        <v>649</v>
-      </c>
-      <c r="B44" s="372"/>
-      <c r="C44" s="372"/>
-      <c r="D44" s="372"/>
-      <c r="E44" s="372"/>
-      <c r="F44" s="372"/>
-      <c r="G44" s="372"/>
-      <c r="H44" s="372"/>
+      <c r="A44" s="367" t="s">
+        <v>650</v>
+      </c>
+      <c r="B44" s="374"/>
+      <c r="C44" s="374"/>
+      <c r="D44" s="374"/>
+      <c r="E44" s="374"/>
+      <c r="F44" s="374"/>
+      <c r="G44" s="374"/>
+      <c r="H44" s="374"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="365" t="s">
-        <v>650</v>
-      </c>
-      <c r="B45" s="372"/>
-      <c r="C45" s="372"/>
-      <c r="D45" s="372"/>
-      <c r="E45" s="372"/>
-      <c r="F45" s="372"/>
-      <c r="G45" s="372"/>
-      <c r="H45" s="372"/>
+      <c r="A45" s="367" t="s">
+        <v>651</v>
+      </c>
+      <c r="B45" s="374"/>
+      <c r="C45" s="374"/>
+      <c r="D45" s="374"/>
+      <c r="E45" s="374"/>
+      <c r="F45" s="374"/>
+      <c r="G45" s="374"/>
+      <c r="H45" s="374"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="365" t="s">
-        <v>651</v>
-      </c>
-      <c r="B46" s="372"/>
-      <c r="C46" s="372"/>
-      <c r="D46" s="372"/>
-      <c r="E46" s="372"/>
-      <c r="F46" s="372"/>
-      <c r="G46" s="372"/>
-      <c r="H46" s="372"/>
+      <c r="A46" s="367" t="s">
+        <v>652</v>
+      </c>
+      <c r="B46" s="374"/>
+      <c r="C46" s="374"/>
+      <c r="D46" s="374"/>
+      <c r="E46" s="374"/>
+      <c r="F46" s="374"/>
+      <c r="G46" s="374"/>
+      <c r="H46" s="374"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="365" t="s">
-        <v>652</v>
-      </c>
-      <c r="B47" s="372"/>
-      <c r="C47" s="372"/>
-      <c r="D47" s="372"/>
-      <c r="E47" s="372"/>
-      <c r="F47" s="372"/>
-      <c r="G47" s="372"/>
-      <c r="H47" s="372"/>
+      <c r="A47" s="367" t="s">
+        <v>653</v>
+      </c>
+      <c r="B47" s="374"/>
+      <c r="C47" s="374"/>
+      <c r="D47" s="374"/>
+      <c r="E47" s="374"/>
+      <c r="F47" s="374"/>
+      <c r="G47" s="374"/>
+      <c r="H47" s="374"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="365" t="s">
-        <v>653</v>
-      </c>
-      <c r="B48" s="372"/>
-      <c r="C48" s="372"/>
-      <c r="D48" s="372"/>
-      <c r="E48" s="372"/>
-      <c r="F48" s="372"/>
-      <c r="G48" s="372"/>
-      <c r="H48" s="372"/>
+      <c r="A48" s="367" t="s">
+        <v>654</v>
+      </c>
+      <c r="B48" s="374"/>
+      <c r="C48" s="374"/>
+      <c r="D48" s="374"/>
+      <c r="E48" s="374"/>
+      <c r="F48" s="374"/>
+      <c r="G48" s="374"/>
+      <c r="H48" s="374"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="365" t="s">
-        <v>654</v>
-      </c>
-      <c r="B49" s="372"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="372"/>
-      <c r="F49" s="372"/>
-      <c r="G49" s="372"/>
-      <c r="H49" s="372"/>
+      <c r="A49" s="367" t="s">
+        <v>655</v>
+      </c>
+      <c r="B49" s="374"/>
+      <c r="C49" s="374"/>
+      <c r="D49" s="374"/>
+      <c r="E49" s="374"/>
+      <c r="F49" s="374"/>
+      <c r="G49" s="374"/>
+      <c r="H49" s="374"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="365" t="s">
-        <v>655</v>
-      </c>
-      <c r="B50" s="372"/>
-      <c r="C50" s="372"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="372"/>
-      <c r="F50" s="372"/>
-      <c r="G50" s="372"/>
-      <c r="H50" s="372"/>
+      <c r="A50" s="367" t="s">
+        <v>656</v>
+      </c>
+      <c r="B50" s="374"/>
+      <c r="C50" s="374"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="374"/>
+      <c r="F50" s="374"/>
+      <c r="G50" s="374"/>
+      <c r="H50" s="374"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="365" t="s">
-        <v>656</v>
-      </c>
-      <c r="B51" s="372"/>
-      <c r="C51" s="372"/>
-      <c r="D51" s="372"/>
-      <c r="E51" s="372"/>
-      <c r="F51" s="372"/>
-      <c r="G51" s="372"/>
-      <c r="H51" s="372"/>
+      <c r="A51" s="367" t="s">
+        <v>657</v>
+      </c>
+      <c r="B51" s="374"/>
+      <c r="C51" s="374"/>
+      <c r="D51" s="374"/>
+      <c r="E51" s="374"/>
+      <c r="F51" s="374"/>
+      <c r="G51" s="374"/>
+      <c r="H51" s="374"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="365" t="s">
-        <v>657</v>
-      </c>
-      <c r="B52" s="372"/>
-      <c r="C52" s="372"/>
-      <c r="D52" s="372"/>
-      <c r="E52" s="372"/>
-      <c r="F52" s="372"/>
-      <c r="G52" s="372"/>
-      <c r="H52" s="372"/>
+      <c r="A52" s="367" t="s">
+        <v>658</v>
+      </c>
+      <c r="B52" s="374"/>
+      <c r="C52" s="374"/>
+      <c r="D52" s="374"/>
+      <c r="E52" s="374"/>
+      <c r="F52" s="374"/>
+      <c r="G52" s="374"/>
+      <c r="H52" s="374"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="365" t="s">
-        <v>658</v>
-      </c>
-      <c r="B53" s="372"/>
-      <c r="C53" s="372"/>
-      <c r="D53" s="372"/>
-      <c r="E53" s="372"/>
-      <c r="F53" s="372"/>
-      <c r="G53" s="372"/>
-      <c r="H53" s="372"/>
+      <c r="A53" s="367" t="s">
+        <v>659</v>
+      </c>
+      <c r="B53" s="374"/>
+      <c r="C53" s="374"/>
+      <c r="D53" s="374"/>
+      <c r="E53" s="374"/>
+      <c r="F53" s="374"/>
+      <c r="G53" s="374"/>
+      <c r="H53" s="374"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="365" t="s">
-        <v>659</v>
-      </c>
-      <c r="B54" s="372"/>
-      <c r="C54" s="372"/>
-      <c r="D54" s="372"/>
-      <c r="E54" s="372"/>
-      <c r="F54" s="372"/>
-      <c r="G54" s="372"/>
-      <c r="H54" s="372"/>
+      <c r="A54" s="367" t="s">
+        <v>660</v>
+      </c>
+      <c r="B54" s="374"/>
+      <c r="C54" s="374"/>
+      <c r="D54" s="374"/>
+      <c r="E54" s="374"/>
+      <c r="F54" s="374"/>
+      <c r="G54" s="374"/>
+      <c r="H54" s="374"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="365" t="s">
-        <v>660</v>
-      </c>
-      <c r="B55" s="372"/>
-      <c r="C55" s="372"/>
-      <c r="D55" s="372"/>
-      <c r="E55" s="372"/>
-      <c r="F55" s="372"/>
-      <c r="G55" s="372"/>
-      <c r="H55" s="372"/>
+      <c r="A55" s="367" t="s">
+        <v>661</v>
+      </c>
+      <c r="B55" s="374"/>
+      <c r="C55" s="374"/>
+      <c r="D55" s="374"/>
+      <c r="E55" s="374"/>
+      <c r="F55" s="374"/>
+      <c r="G55" s="374"/>
+      <c r="H55" s="374"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="365" t="s">
-        <v>661</v>
-      </c>
-      <c r="B56" s="372"/>
-      <c r="C56" s="372"/>
-      <c r="D56" s="372"/>
-      <c r="E56" s="372"/>
-      <c r="F56" s="372"/>
-      <c r="G56" s="372"/>
-      <c r="H56" s="372"/>
+      <c r="A56" s="367" t="s">
+        <v>662</v>
+      </c>
+      <c r="B56" s="374"/>
+      <c r="C56" s="374"/>
+      <c r="D56" s="374"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="374"/>
+      <c r="G56" s="374"/>
+      <c r="H56" s="374"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="365" t="s">
-        <v>662</v>
-      </c>
-      <c r="B57" s="372"/>
-      <c r="C57" s="372"/>
-      <c r="D57" s="372"/>
-      <c r="E57" s="372"/>
-      <c r="F57" s="372"/>
-      <c r="G57" s="372"/>
-      <c r="H57" s="372"/>
+      <c r="A57" s="367" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" s="374"/>
+      <c r="C57" s="374"/>
+      <c r="D57" s="374"/>
+      <c r="E57" s="374"/>
+      <c r="F57" s="374"/>
+      <c r="G57" s="374"/>
+      <c r="H57" s="374"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="365" t="s">
-        <v>663</v>
-      </c>
-      <c r="B58" s="372"/>
-      <c r="C58" s="372"/>
-      <c r="D58" s="372"/>
-      <c r="E58" s="372"/>
-      <c r="F58" s="372"/>
-      <c r="G58" s="372"/>
-      <c r="H58" s="372"/>
+      <c r="A58" s="367" t="s">
+        <v>664</v>
+      </c>
+      <c r="B58" s="374"/>
+      <c r="C58" s="374"/>
+      <c r="D58" s="374"/>
+      <c r="E58" s="374"/>
+      <c r="F58" s="374"/>
+      <c r="G58" s="374"/>
+      <c r="H58" s="374"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="365" t="s">
-        <v>664</v>
-      </c>
-      <c r="B59" s="372"/>
-      <c r="C59" s="372"/>
-      <c r="D59" s="372"/>
-      <c r="E59" s="372"/>
-      <c r="F59" s="372"/>
-      <c r="G59" s="372"/>
-      <c r="H59" s="372"/>
+      <c r="A59" s="367" t="s">
+        <v>665</v>
+      </c>
+      <c r="B59" s="374"/>
+      <c r="C59" s="374"/>
+      <c r="D59" s="374"/>
+      <c r="E59" s="374"/>
+      <c r="F59" s="374"/>
+      <c r="G59" s="374"/>
+      <c r="H59" s="374"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="365" t="s">
-        <v>665</v>
-      </c>
-      <c r="B60" s="372"/>
-      <c r="C60" s="372"/>
-      <c r="D60" s="372"/>
-      <c r="E60" s="372"/>
-      <c r="F60" s="372"/>
-      <c r="G60" s="372"/>
-      <c r="H60" s="372"/>
+      <c r="A60" s="367" t="s">
+        <v>666</v>
+      </c>
+      <c r="B60" s="374"/>
+      <c r="C60" s="374"/>
+      <c r="D60" s="374"/>
+      <c r="E60" s="374"/>
+      <c r="F60" s="374"/>
+      <c r="G60" s="374"/>
+      <c r="H60" s="374"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="365" t="s">
-        <v>666</v>
-      </c>
-      <c r="B61" s="372"/>
-      <c r="C61" s="372"/>
-      <c r="D61" s="372"/>
-      <c r="E61" s="372"/>
-      <c r="F61" s="372"/>
-      <c r="G61" s="372"/>
-      <c r="H61" s="372"/>
+      <c r="A61" s="367" t="s">
+        <v>667</v>
+      </c>
+      <c r="B61" s="374"/>
+      <c r="C61" s="374"/>
+      <c r="D61" s="374"/>
+      <c r="E61" s="374"/>
+      <c r="F61" s="374"/>
+      <c r="G61" s="374"/>
+      <c r="H61" s="374"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="365" t="s">
-        <v>667</v>
-      </c>
-      <c r="B62" s="392" t="str">
+      <c r="A62" s="367" t="s">
+        <v>668</v>
+      </c>
+      <c r="B62" s="394" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="392"/>
-      <c r="D62" s="392"/>
-      <c r="E62" s="392"/>
-      <c r="F62" s="392"/>
-      <c r="G62" s="392"/>
-      <c r="H62" s="392"/>
+      <c r="C62" s="394"/>
+      <c r="D62" s="394"/>
+      <c r="E62" s="394"/>
+      <c r="F62" s="394"/>
+      <c r="G62" s="394"/>
+      <c r="H62" s="394"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="365" t="s">
-        <v>668</v>
-      </c>
-      <c r="B63" s="392"/>
-      <c r="C63" s="392"/>
-      <c r="D63" s="392"/>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="392"/>
-      <c r="H63" s="392"/>
+      <c r="A63" s="367" t="s">
+        <v>669</v>
+      </c>
+      <c r="B63" s="394"/>
+      <c r="C63" s="394"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="394"/>
+      <c r="F63" s="394"/>
+      <c r="G63" s="394"/>
+      <c r="H63" s="394"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="365" t="s">
-        <v>669</v>
+      <c r="A64" s="367" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="365" t="s">
-        <v>670</v>
+      <c r="A65" s="367" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="365" t="s">
-        <v>671</v>
+      <c r="A66" s="367" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="365" t="s">
-        <v>672</v>
+      <c r="A67" s="367" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="365" t="s">
-        <v>673</v>
+      <c r="A68" s="367" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="365" t="s">
-        <v>674</v>
+      <c r="A69" s="367" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="365" t="s">
-        <v>675</v>
+      <c r="A70" s="367" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="365" t="s">
-        <v>676</v>
+      <c r="A71" s="367" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="365" t="s">
-        <v>677</v>
+      <c r="A72" s="367" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="365" t="s">
-        <v>678</v>
+      <c r="A73" s="367" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="365" t="s">
-        <v>679</v>
+      <c r="A74" s="367" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="365" t="s">
-        <v>680</v>
+      <c r="A75" s="367" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="365" t="s">
-        <v>681</v>
+      <c r="A76" s="367" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="365" t="s">
-        <v>682</v>
+      <c r="A77" s="367" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="365" t="s">
-        <v>683</v>
+      <c r="A78" s="367" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="365" t="s">
-        <v>684</v>
+      <c r="A79" s="367" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="365" t="s">
-        <v>685</v>
+      <c r="A80" s="367" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="365" t="s">
-        <v>686</v>
+      <c r="A81" s="367" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="365" t="s">
-        <v>687</v>
+      <c r="A82" s="367" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="365" t="s">
-        <v>688</v>
+      <c r="A83" s="367" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="365" t="s">
-        <v>689</v>
+      <c r="A84" s="367" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="365" t="s">
-        <v>690</v>
+      <c r="A85" s="367" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="365" t="s">
-        <v>691</v>
+      <c r="A86" s="367" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="365" t="s">
-        <v>692</v>
+      <c r="A87" s="367" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="365" t="s">
-        <v>693</v>
+      <c r="A88" s="367" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="365" t="s">
-        <v>694</v>
+      <c r="A89" s="367" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="365" t="s">
-        <v>695</v>
+      <c r="A90" s="367" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="365" t="s">
-        <v>696</v>
+      <c r="A91" s="367" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="365" t="s">
-        <v>697</v>
+      <c r="A92" s="367" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="365" t="s">
-        <v>698</v>
+      <c r="A93" s="367" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="365" t="s">
-        <v>699</v>
+      <c r="A94" s="367" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="365" t="s">
-        <v>700</v>
+      <c r="A95" s="367" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="365" t="s">
-        <v>701</v>
+      <c r="A96" s="367" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="365" t="s">
-        <v>702</v>
+      <c r="A97" s="367" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="365" t="s">
-        <v>703</v>
+      <c r="A98" s="367" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="365" t="s">
-        <v>704</v>
+      <c r="A99" s="367" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="365" t="s">
-        <v>705</v>
+      <c r="A100" s="367" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="365" t="s">
-        <v>706</v>
+      <c r="A101" s="367" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="365" t="s">
-        <v>707</v>
+      <c r="A102" s="367" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="365" t="s">
-        <v>708</v>
+      <c r="A103" s="367" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="365" t="s">
-        <v>709</v>
+      <c r="A104" s="367" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="365" t="s">
-        <v>710</v>
+      <c r="A105" s="367" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="365" t="s">
-        <v>711</v>
+      <c r="A106" s="367" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="365" t="s">
-        <v>712</v>
+      <c r="A107" s="367" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="365" t="s">
-        <v>713</v>
+      <c r="A108" s="367" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="365" t="s">
-        <v>714</v>
+      <c r="A109" s="367" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="365" t="s">
-        <v>715</v>
+      <c r="A110" s="367" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="365" t="s">
-        <v>716</v>
+      <c r="A111" s="367" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="365" t="s">
-        <v>717</v>
+      <c r="A112" s="367" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="365" t="s">
-        <v>718</v>
+      <c r="A113" s="367" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="365" t="s">
-        <v>719</v>
+      <c r="A114" s="367" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="365" t="s">
-        <v>720</v>
+      <c r="A115" s="367" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="365" t="s">
-        <v>721</v>
+      <c r="A116" s="367" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="365" t="s">
-        <v>722</v>
+      <c r="A117" s="367" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="365" t="s">
-        <v>723</v>
+      <c r="A118" s="367" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="365" t="s">
-        <v>724</v>
+      <c r="A119" s="367" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="365" t="s">
-        <v>725</v>
+      <c r="A120" s="367" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="365" t="s">
-        <v>726</v>
+      <c r="A121" s="367" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="365" t="s">
-        <v>727</v>
+      <c r="A122" s="367" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="365" t="s">
-        <v>728</v>
+      <c r="A123" s="367" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="365" t="s">
-        <v>729</v>
+      <c r="A124" s="367" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="365" t="s">
-        <v>730</v>
+      <c r="A125" s="367" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="365" t="s">
-        <v>731</v>
+      <c r="A126" s="367" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="365" t="s">
-        <v>732</v>
+      <c r="A127" s="367" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="365" t="s">
-        <v>733</v>
+      <c r="A128" s="367" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="365" t="s">
-        <v>734</v>
+      <c r="A129" s="367" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="365" t="s">
-        <v>735</v>
+      <c r="A130" s="367" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="365" t="s">
-        <v>736</v>
+      <c r="A131" s="367" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="365" t="s">
-        <v>737</v>
+      <c r="A132" s="367" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="365" t="s">
-        <v>738</v>
+      <c r="A133" s="367" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="365" t="s">
-        <v>739</v>
+      <c r="A134" s="367" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="365" t="s">
-        <v>740</v>
+      <c r="A135" s="367" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="365" t="s">
-        <v>741</v>
+      <c r="A136" s="367" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="365" t="s">
-        <v>742</v>
+      <c r="A137" s="367" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="365" t="s">
-        <v>743</v>
+      <c r="A138" s="367" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="365" t="s">
-        <v>744</v>
+      <c r="A139" s="367" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="365" t="s">
-        <v>745</v>
+      <c r="A140" s="367" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Krav för E-talet för en ny byggnad</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;</t>
+    <t xml:space="preserve">≤</t>
   </si>
   <si>
     <t xml:space="preserve">Certifikatet upprättat av:</t>
@@ -2063,6 +2063,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -2074,6 +2075,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -3179,7 +3181,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3491,21 +3493,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF339966"/>
       <name val="Arial"/>
@@ -3819,7 +3806,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="394">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3956,9 +3943,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
@@ -5016,15 +5003,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5148,7 +5131,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5220,11 +5203,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5240,11 +5223,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5260,7 +5243,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7775,9 +7758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232920</xdr:colOff>
+      <xdr:colOff>232560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7791,7 +7774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="743040" cy="199800"/>
+          <a:ext cx="742680" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7812,9 +7795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
+      <xdr:colOff>132480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7828,7 +7811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1086480" cy="199800"/>
+          <a:ext cx="1086120" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7849,9 +7832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7865,7 +7848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1393200" cy="199800"/>
+          <a:ext cx="1392840" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7886,9 +7869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7902,7 +7885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1717200" cy="199800"/>
+          <a:ext cx="1716840" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7923,9 +7906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7939,7 +7922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2024280" cy="212760"/>
+          <a:ext cx="2023920" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7960,9 +7943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7976,7 +7959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2360520" cy="199800"/>
+          <a:ext cx="2360160" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7997,9 +7980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>248400</xdr:rowOff>
+      <xdr:rowOff>248040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8009,7 +7992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2673360" cy="198720"/>
+          <a:ext cx="2673000" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8378,9 +8361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8390,7 +8373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6972480" cy="10494000"/>
+          <a:ext cx="6972120" cy="10493640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8519,8 +8502,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9072,7 +9055,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="0"/>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="34" t="str">
         <f aca="false">A9</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
@@ -9097,7 +9080,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
@@ -10040,8 +10023,9 @@
       <c r="L52" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="K14:O15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:N25"/>
     <mergeCell ref="D26:E26"/>
@@ -16210,7 +16194,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -16218,8 +16202,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="97" width="49.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="98" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="98" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="98" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="98" width="2.31"/>
@@ -16366,22 +16350,22 @@
         <v>405</v>
       </c>
       <c r="B7" s="105"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="300" t="str">
+      <c r="D7" s="299" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
-      <c r="E7" s="301" t="s">
+      <c r="E7" s="300" t="s">
         <v>406</v>
       </c>
       <c r="F7" s="111"/>
-      <c r="G7" s="302"/>
+      <c r="G7" s="301"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
       <c r="J7" s="111"/>
-      <c r="K7" s="303"/>
+      <c r="K7" s="302"/>
       <c r="L7" s="113"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16418,22 +16402,22 @@
       <c r="A10" s="292" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="305" t="s">
+      <c r="B10" s="303"/>
+      <c r="C10" s="304" t="s">
         <v>410</v>
       </c>
-      <c r="D10" s="306"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="308"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="310" t="s">
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="309" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="310" t="s">
+      <c r="J10" s="309" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="310"/>
+      <c r="K10" s="309"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
       <c r="AKS10" s="0"/>
@@ -16489,12 +16473,12 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="311"/>
+      <c r="F11" s="310"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="312"/>
+      <c r="H11" s="311"/>
       <c r="I11" s="123"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="312"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="311"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
@@ -16506,18 +16490,18 @@
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
-      <c r="F12" s="314"/>
-      <c r="G12" s="315"/>
-      <c r="H12" s="316"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="315"/>
       <c r="I12" s="240" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="317" t="str">
+      <c r="J12" s="316" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="318"/>
+      <c r="K12" s="317"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="97" t="s">
@@ -16527,12 +16511,12 @@
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="315"/>
-      <c r="H13" s="316"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="315"/>
       <c r="I13" s="240"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="318"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="317"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="97" t="s">
@@ -16544,18 +16528,18 @@
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="108"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="316"/>
+      <c r="F14" s="313"/>
+      <c r="G14" s="314"/>
+      <c r="H14" s="315"/>
       <c r="I14" s="240" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="317" t="str">
+      <c r="J14" s="316" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="318"/>
+      <c r="K14" s="317"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
@@ -16565,73 +16549,73 @@
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
-      <c r="F15" s="314"/>
-      <c r="G15" s="315"/>
-      <c r="H15" s="316"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="315"/>
       <c r="I15" s="240"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="318"/>
+      <c r="J15" s="316"/>
+      <c r="K15" s="317"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
         <v>418</v>
       </c>
       <c r="B16" s="105"/>
-      <c r="C16" s="319" t="s">
+      <c r="C16" s="318" t="s">
         <v>419</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="315"/>
-      <c r="H16" s="316"/>
+      <c r="F16" s="313"/>
+      <c r="G16" s="314"/>
+      <c r="H16" s="315"/>
       <c r="I16" s="240" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J16" s="317" t="str">
+      <c r="J16" s="316" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="318"/>
+      <c r="K16" s="317"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="97" t="s">
         <v>420</v>
       </c>
       <c r="B17" s="105"/>
-      <c r="C17" s="319" t="s">
+      <c r="C17" s="318" t="s">
         <v>421</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="315"/>
-      <c r="H17" s="316"/>
+      <c r="F17" s="313"/>
+      <c r="G17" s="314"/>
+      <c r="H17" s="315"/>
       <c r="I17" s="240" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J17" s="317" t="str">
+      <c r="J17" s="316" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="318"/>
+      <c r="K17" s="317"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
         <v>422</v>
       </c>
       <c r="B18" s="105"/>
-      <c r="C18" s="319"/>
+      <c r="C18" s="318"/>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
-      <c r="F18" s="314"/>
-      <c r="G18" s="315"/>
-      <c r="H18" s="314"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="314"/>
+      <c r="H18" s="313"/>
       <c r="I18" s="240"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="318"/>
+      <c r="J18" s="316"/>
+      <c r="K18" s="317"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="97" t="s">
@@ -16650,53 +16634,53 @@
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J19" s="317" t="str">
+      <c r="J19" s="316" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="318"/>
+      <c r="K19" s="317"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
         <v>424</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="320"/>
-      <c r="H20" s="320"/>
-      <c r="I20" s="321"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="323"/>
+      <c r="C20" s="319"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="320"/>
+      <c r="J20" s="321"/>
+      <c r="K20" s="322"/>
     </row>
     <row r="21" s="297" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="B21" s="304"/>
-      <c r="C21" s="305" t="s">
+      <c r="B21" s="303"/>
+      <c r="C21" s="304" t="s">
         <v>426</v>
       </c>
-      <c r="D21" s="305"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="324" t="s">
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="323" t="s">
         <v>427</v>
       </c>
-      <c r="G21" s="325" t="s">
+      <c r="G21" s="324" t="s">
         <v>428</v>
       </c>
-      <c r="H21" s="324" t="s">
+      <c r="H21" s="323" t="s">
         <v>429</v>
       </c>
-      <c r="I21" s="325" t="s">
+      <c r="I21" s="324" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="325" t="s">
+      <c r="J21" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="325"/>
+      <c r="K21" s="324"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
       <c r="AKS21" s="0"/>
@@ -16749,15 +16733,15 @@
         <v>430</v>
       </c>
       <c r="B22" s="99"/>
-      <c r="C22" s="326"/>
-      <c r="D22" s="326"/>
-      <c r="E22" s="326"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="328"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="331"/>
-      <c r="K22" s="332"/>
+      <c r="C22" s="325"/>
+      <c r="D22" s="325"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="326"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="329"/>
+      <c r="J22" s="330"/>
+      <c r="K22" s="331"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
@@ -16773,21 +16757,21 @@
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G23" s="333" t="s">
+      <c r="G23" s="332" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="334" t="n">
+      <c r="H23" s="333" t="n">
         <v>10</v>
       </c>
-      <c r="I23" s="317" t="str">
+      <c r="I23" s="316" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J23" s="317" t="str">
+      <c r="J23" s="316" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K23" s="318"/>
+      <c r="K23" s="317"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
@@ -16803,21 +16787,21 @@
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G24" s="333" t="s">
+      <c r="G24" s="332" t="s">
         <v>436</v>
       </c>
-      <c r="H24" s="334" t="n">
+      <c r="H24" s="333" t="n">
         <v>1300</v>
       </c>
-      <c r="I24" s="317" t="str">
+      <c r="I24" s="316" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J24" s="317" t="str">
+      <c r="J24" s="316" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K24" s="318"/>
+      <c r="K24" s="317"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
@@ -16833,21 +16817,21 @@
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G25" s="333" t="s">
+      <c r="G25" s="332" t="s">
         <v>436</v>
       </c>
-      <c r="H25" s="334" t="n">
+      <c r="H25" s="333" t="n">
         <v>1700</v>
       </c>
-      <c r="I25" s="317" t="str">
+      <c r="I25" s="316" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J25" s="317" t="str">
+      <c r="J25" s="316" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K25" s="318"/>
+      <c r="K25" s="317"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
@@ -16863,38 +16847,38 @@
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G26" s="333" t="s">
+      <c r="G26" s="332" t="s">
         <v>441</v>
       </c>
-      <c r="H26" s="334" t="n">
+      <c r="H26" s="333" t="n">
         <v>4.7</v>
       </c>
-      <c r="I26" s="317" t="str">
+      <c r="I26" s="316" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J26" s="317" t="str">
+      <c r="J26" s="316" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="318"/>
+      <c r="K26" s="317"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
         <v>442</v>
       </c>
       <c r="B27" s="105"/>
-      <c r="C27" s="335" t="str">
+      <c r="C27" s="334" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="D27" s="335"/>
-      <c r="E27" s="335"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="334"/>
       <c r="F27" s="240" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G27" s="336" t="str">
+      <c r="G27" s="335" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
@@ -16906,28 +16890,28 @@
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J27" s="317" t="str">
+      <c r="J27" s="316" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K27" s="337"/>
+      <c r="K27" s="336"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
         <v>443</v>
       </c>
       <c r="B28" s="105"/>
-      <c r="C28" s="335" t="str">
+      <c r="C28" s="334" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="D28" s="335"/>
-      <c r="E28" s="335"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="334"/>
       <c r="F28" s="240" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G28" s="336" t="str">
+      <c r="G28" s="335" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
@@ -16939,132 +16923,132 @@
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J28" s="317" t="str">
+      <c r="J28" s="316" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K28" s="337"/>
+      <c r="K28" s="336"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
         <v>444</v>
       </c>
       <c r="B29" s="105"/>
-      <c r="C29" s="338" t="s">
+      <c r="C29" s="337" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
+      <c r="D29" s="337"/>
+      <c r="E29" s="337"/>
       <c r="F29" s="240"/>
-      <c r="G29" s="339"/>
+      <c r="G29" s="338"/>
       <c r="H29" s="209"/>
       <c r="I29" s="128"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="318"/>
+      <c r="J29" s="316"/>
+      <c r="K29" s="317"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
         <v>446</v>
       </c>
       <c r="B30" s="105"/>
-      <c r="C30" s="338"/>
-      <c r="D30" s="338"/>
-      <c r="E30" s="338"/>
+      <c r="C30" s="337"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="337"/>
       <c r="F30" s="240"/>
-      <c r="G30" s="339"/>
+      <c r="G30" s="338"/>
       <c r="H30" s="209"/>
       <c r="I30" s="128"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="318"/>
+      <c r="J30" s="316"/>
+      <c r="K30" s="317"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
         <v>447</v>
       </c>
       <c r="B31" s="105"/>
-      <c r="C31" s="338"/>
-      <c r="D31" s="338"/>
-      <c r="E31" s="338"/>
+      <c r="C31" s="337"/>
+      <c r="D31" s="337"/>
+      <c r="E31" s="337"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="339"/>
+      <c r="G31" s="338"/>
       <c r="H31" s="209"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="341"/>
-      <c r="K31" s="318"/>
+      <c r="I31" s="339"/>
+      <c r="J31" s="340"/>
+      <c r="K31" s="317"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
         <v>448</v>
       </c>
       <c r="B32" s="105"/>
-      <c r="C32" s="338"/>
-      <c r="D32" s="338"/>
-      <c r="E32" s="338"/>
+      <c r="C32" s="337"/>
+      <c r="D32" s="337"/>
+      <c r="E32" s="337"/>
       <c r="F32" s="209"/>
-      <c r="G32" s="339"/>
+      <c r="G32" s="338"/>
       <c r="H32" s="209"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="341"/>
-      <c r="K32" s="318"/>
+      <c r="I32" s="339"/>
+      <c r="J32" s="340"/>
+      <c r="K32" s="317"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="97" t="s">
         <v>449</v>
       </c>
       <c r="B33" s="105"/>
-      <c r="C33" s="342"/>
-      <c r="D33" s="342"/>
-      <c r="E33" s="342"/>
+      <c r="C33" s="341"/>
+      <c r="D33" s="341"/>
+      <c r="E33" s="341"/>
       <c r="F33" s="209"/>
-      <c r="G33" s="339"/>
+      <c r="G33" s="338"/>
       <c r="H33" s="209"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="341"/>
-      <c r="K33" s="318"/>
+      <c r="I33" s="339"/>
+      <c r="J33" s="340"/>
+      <c r="K33" s="317"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
         <v>450</v>
       </c>
       <c r="B34" s="114"/>
-      <c r="C34" s="343"/>
-      <c r="D34" s="343"/>
-      <c r="E34" s="343"/>
+      <c r="C34" s="342"/>
+      <c r="D34" s="342"/>
+      <c r="E34" s="342"/>
       <c r="F34" s="214"/>
-      <c r="G34" s="344"/>
+      <c r="G34" s="343"/>
       <c r="H34" s="214"/>
-      <c r="I34" s="345"/>
-      <c r="J34" s="346"/>
-      <c r="K34" s="323"/>
+      <c r="I34" s="344"/>
+      <c r="J34" s="345"/>
+      <c r="K34" s="322"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
         <v>451</v>
       </c>
       <c r="B35" s="105"/>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="304" t="s">
         <v>452</v>
       </c>
-      <c r="D35" s="305"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="314"/>
-      <c r="G35" s="315"/>
-      <c r="H35" s="314"/>
-      <c r="I35" s="347"/>
-      <c r="J35" s="348"/>
-      <c r="K35" s="318"/>
+      <c r="D35" s="304"/>
+      <c r="E35" s="304"/>
+      <c r="F35" s="313"/>
+      <c r="G35" s="314"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="346"/>
+      <c r="J35" s="347"/>
+      <c r="K35" s="317"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
         <v>453</v>
       </c>
       <c r="B36" s="105"/>
-      <c r="C36" s="305"/>
-      <c r="D36" s="305"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="314"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="314"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="304"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="314"/>
+      <c r="H36" s="313"/>
       <c r="I36" s="120" t="s">
         <v>59</v>
       </c>
@@ -17078,15 +17062,15 @@
         <v>454</v>
       </c>
       <c r="B37" s="99"/>
-      <c r="C37" s="349"/>
-      <c r="D37" s="349"/>
-      <c r="E37" s="349"/>
-      <c r="F37" s="350"/>
-      <c r="G37" s="351"/>
-      <c r="H37" s="351"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="353"/>
-      <c r="K37" s="354"/>
+      <c r="C37" s="348"/>
+      <c r="D37" s="348"/>
+      <c r="E37" s="348"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="350"/>
+      <c r="H37" s="350"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="352"/>
+      <c r="K37" s="353"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
@@ -17098,18 +17082,18 @@
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="355"/>
-      <c r="G38" s="356"/>
-      <c r="H38" s="356"/>
+      <c r="F38" s="354"/>
+      <c r="G38" s="355"/>
+      <c r="H38" s="355"/>
       <c r="I38" s="240" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J38" s="317" t="str">
+      <c r="J38" s="316" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K38" s="318"/>
+      <c r="K38" s="317"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
@@ -17119,12 +17103,12 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="356"/>
-      <c r="H39" s="356"/>
-      <c r="I39" s="357"/>
-      <c r="J39" s="358"/>
-      <c r="K39" s="318"/>
+      <c r="F39" s="354"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="356"/>
+      <c r="J39" s="357"/>
+      <c r="K39" s="317"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
@@ -17136,18 +17120,18 @@
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="356"/>
-      <c r="H40" s="356"/>
+      <c r="F40" s="354"/>
+      <c r="G40" s="355"/>
+      <c r="H40" s="355"/>
       <c r="I40" s="240" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J40" s="359" t="str">
+      <c r="J40" s="358" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K40" s="318"/>
+      <c r="K40" s="317"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
@@ -17157,12 +17141,12 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
+      <c r="F41" s="354"/>
+      <c r="G41" s="355"/>
+      <c r="H41" s="355"/>
       <c r="I41" s="240"/>
-      <c r="J41" s="359"/>
-      <c r="K41" s="318"/>
+      <c r="J41" s="358"/>
+      <c r="K41" s="317"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
@@ -17174,18 +17158,18 @@
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="356"/>
-      <c r="H42" s="356"/>
+      <c r="F42" s="354"/>
+      <c r="G42" s="355"/>
+      <c r="H42" s="355"/>
       <c r="I42" s="240" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J42" s="317" t="str">
+      <c r="J42" s="316" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K42" s="318"/>
+      <c r="K42" s="317"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
@@ -17195,12 +17179,12 @@
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="356"/>
-      <c r="H43" s="356"/>
+      <c r="F43" s="354"/>
+      <c r="G43" s="355"/>
+      <c r="H43" s="355"/>
       <c r="I43" s="240"/>
-      <c r="J43" s="359"/>
-      <c r="K43" s="318"/>
+      <c r="J43" s="358"/>
+      <c r="K43" s="317"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
@@ -17212,18 +17196,18 @@
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="355"/>
-      <c r="G44" s="356"/>
-      <c r="H44" s="356"/>
+      <c r="F44" s="354"/>
+      <c r="G44" s="355"/>
+      <c r="H44" s="355"/>
       <c r="I44" s="240" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J44" s="317" t="str">
+      <c r="J44" s="316" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K44" s="318"/>
+      <c r="K44" s="317"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
@@ -17233,12 +17217,12 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="356"/>
-      <c r="H45" s="356"/>
+      <c r="F45" s="354"/>
+      <c r="G45" s="355"/>
+      <c r="H45" s="355"/>
       <c r="I45" s="240"/>
-      <c r="J45" s="359"/>
-      <c r="K45" s="318"/>
+      <c r="J45" s="358"/>
+      <c r="K45" s="317"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="97" t="s">
@@ -17253,29 +17237,29 @@
       <c r="F46" s="5"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
-      <c r="I46" s="317" t="str">
+      <c r="I46" s="316" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J46" s="317" t="str">
+      <c r="J46" s="316" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K46" s="360"/>
+      <c r="K46" s="359"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="97" t="s">
         <v>467</v>
       </c>
       <c r="B47" s="114"/>
-      <c r="C47" s="361"/>
-      <c r="D47" s="361"/>
-      <c r="E47" s="361"/>
+      <c r="C47" s="360"/>
+      <c r="D47" s="360"/>
+      <c r="E47" s="360"/>
       <c r="F47" s="115"/>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="363"/>
-      <c r="J47" s="362"/>
+      <c r="G47" s="361"/>
+      <c r="H47" s="361"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="361"/>
       <c r="K47" s="154"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17283,126 +17267,126 @@
         <v>468</v>
       </c>
       <c r="B48" s="99"/>
-      <c r="C48" s="364" t="s">
+      <c r="C48" s="363" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="364"/>
-      <c r="E48" s="364"/>
-      <c r="F48" s="364"/>
-      <c r="G48" s="364"/>
-      <c r="H48" s="364"/>
-      <c r="I48" s="364"/>
-      <c r="J48" s="364"/>
-      <c r="K48" s="364"/>
+      <c r="D48" s="363"/>
+      <c r="E48" s="363"/>
+      <c r="F48" s="363"/>
+      <c r="G48" s="363"/>
+      <c r="H48" s="363"/>
+      <c r="I48" s="363"/>
+      <c r="J48" s="363"/>
+      <c r="K48" s="363"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="97" t="s">
         <v>470</v>
       </c>
       <c r="B49" s="105"/>
-      <c r="C49" s="364"/>
-      <c r="D49" s="364"/>
-      <c r="E49" s="364"/>
-      <c r="F49" s="364"/>
-      <c r="G49" s="364"/>
-      <c r="H49" s="364"/>
-      <c r="I49" s="364"/>
-      <c r="J49" s="364"/>
-      <c r="K49" s="364"/>
+      <c r="C49" s="363"/>
+      <c r="D49" s="363"/>
+      <c r="E49" s="363"/>
+      <c r="F49" s="363"/>
+      <c r="G49" s="363"/>
+      <c r="H49" s="363"/>
+      <c r="I49" s="363"/>
+      <c r="J49" s="363"/>
+      <c r="K49" s="363"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="97" t="s">
         <v>471</v>
       </c>
       <c r="B50" s="105"/>
-      <c r="C50" s="364"/>
-      <c r="D50" s="364"/>
-      <c r="E50" s="364"/>
-      <c r="F50" s="364"/>
-      <c r="G50" s="364"/>
-      <c r="H50" s="364"/>
-      <c r="I50" s="364"/>
-      <c r="J50" s="364"/>
-      <c r="K50" s="364"/>
+      <c r="C50" s="363"/>
+      <c r="D50" s="363"/>
+      <c r="E50" s="363"/>
+      <c r="F50" s="363"/>
+      <c r="G50" s="363"/>
+      <c r="H50" s="363"/>
+      <c r="I50" s="363"/>
+      <c r="J50" s="363"/>
+      <c r="K50" s="363"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="97" t="s">
         <v>472</v>
       </c>
       <c r="B51" s="105"/>
-      <c r="C51" s="364"/>
-      <c r="D51" s="364"/>
-      <c r="E51" s="364"/>
-      <c r="F51" s="364"/>
-      <c r="G51" s="364"/>
-      <c r="H51" s="364"/>
-      <c r="I51" s="364"/>
-      <c r="J51" s="364"/>
-      <c r="K51" s="364"/>
+      <c r="C51" s="363"/>
+      <c r="D51" s="363"/>
+      <c r="E51" s="363"/>
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="I51" s="363"/>
+      <c r="J51" s="363"/>
+      <c r="K51" s="363"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="97" t="s">
         <v>473</v>
       </c>
       <c r="B52" s="105"/>
-      <c r="C52" s="364"/>
-      <c r="D52" s="364"/>
-      <c r="E52" s="364"/>
-      <c r="F52" s="364"/>
-      <c r="G52" s="364"/>
-      <c r="H52" s="364"/>
-      <c r="I52" s="364"/>
-      <c r="J52" s="364"/>
-      <c r="K52" s="364"/>
+      <c r="C52" s="363"/>
+      <c r="D52" s="363"/>
+      <c r="E52" s="363"/>
+      <c r="F52" s="363"/>
+      <c r="G52" s="363"/>
+      <c r="H52" s="363"/>
+      <c r="I52" s="363"/>
+      <c r="J52" s="363"/>
+      <c r="K52" s="363"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="97" t="s">
         <v>474</v>
       </c>
       <c r="B53" s="152"/>
-      <c r="C53" s="364"/>
-      <c r="D53" s="364"/>
-      <c r="E53" s="364"/>
-      <c r="F53" s="364"/>
-      <c r="G53" s="364"/>
-      <c r="H53" s="364"/>
-      <c r="I53" s="364"/>
-      <c r="J53" s="364"/>
-      <c r="K53" s="364"/>
-      <c r="L53" s="365"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="363"/>
+      <c r="E53" s="363"/>
+      <c r="F53" s="363"/>
+      <c r="G53" s="363"/>
+      <c r="H53" s="363"/>
+      <c r="I53" s="363"/>
+      <c r="J53" s="363"/>
+      <c r="K53" s="363"/>
+      <c r="L53" s="364"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="97" t="s">
         <v>475</v>
       </c>
-      <c r="B54" s="366" t="str">
+      <c r="B54" s="365" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
         <v>Certifikatbeteckning: [:id], 5/8</v>
       </c>
-      <c r="C54" s="366"/>
-      <c r="D54" s="366"/>
-      <c r="E54" s="366"/>
-      <c r="F54" s="366"/>
-      <c r="G54" s="366"/>
-      <c r="H54" s="366"/>
-      <c r="I54" s="366"/>
-      <c r="J54" s="366"/>
-      <c r="K54" s="366"/>
+      <c r="C54" s="365"/>
+      <c r="D54" s="365"/>
+      <c r="E54" s="365"/>
+      <c r="F54" s="365"/>
+      <c r="G54" s="365"/>
+      <c r="H54" s="365"/>
+      <c r="I54" s="365"/>
+      <c r="J54" s="365"/>
+      <c r="K54" s="365"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="97" t="s">
         <v>476</v>
       </c>
-      <c r="B55" s="366"/>
-      <c r="C55" s="366"/>
-      <c r="D55" s="366"/>
-      <c r="E55" s="366"/>
-      <c r="F55" s="366"/>
-      <c r="G55" s="366"/>
-      <c r="H55" s="366"/>
-      <c r="I55" s="366"/>
-      <c r="J55" s="366"/>
-      <c r="K55" s="366"/>
+      <c r="B55" s="365"/>
+      <c r="C55" s="365"/>
+      <c r="D55" s="365"/>
+      <c r="E55" s="365"/>
+      <c r="F55" s="365"/>
+      <c r="G55" s="365"/>
+      <c r="H55" s="365"/>
+      <c r="I55" s="365"/>
+      <c r="J55" s="365"/>
+      <c r="K55" s="365"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="97" t="s">
@@ -17959,7 +17943,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -17972,17 +17956,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="369" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="368" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="368" t="s">
+      <c r="B2" s="367" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="368"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -18018,162 +18002,162 @@
       <c r="A3" s="166" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="369" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="366" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="371" t="s">
+      <c r="B4" s="370" t="s">
         <v>493</v>
       </c>
       <c r="C4" s="102"/>
-      <c r="D4" s="372"/>
-      <c r="E4" s="372"/>
-      <c r="F4" s="373"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="372"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="366" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="374" t="str">
+      <c r="B5" s="373" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="367" t="s">
+      <c r="A6" s="366" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="374"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="367" t="s">
+      <c r="A7" s="366" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="374"/>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="374"/>
-      <c r="F7" s="374"/>
+      <c r="B7" s="373"/>
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="367" t="s">
+      <c r="A8" s="366" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="374"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
+      <c r="B8" s="373"/>
+      <c r="C8" s="373"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="373"/>
+      <c r="F8" s="373"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="367" t="s">
+      <c r="A9" s="366" t="s">
         <v>498</v>
       </c>
-      <c r="B9" s="374"/>
-      <c r="C9" s="374"/>
-      <c r="D9" s="374"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
+      <c r="B9" s="373"/>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
+      <c r="E9" s="373"/>
+      <c r="F9" s="373"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="367" t="s">
+      <c r="A10" s="366" t="s">
         <v>499</v>
       </c>
-      <c r="B10" s="374"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="374"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
+      <c r="B10" s="373"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="373"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="375" t="s">
+      <c r="B11" s="374" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="375"/>
-      <c r="D11" s="375"/>
-      <c r="E11" s="375"/>
-      <c r="F11" s="375"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="374"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="376" t="n">
+      <c r="B12" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="377" t="str">
+      <c r="C12" s="376" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D12" s="377"/>
-      <c r="E12" s="377"/>
-      <c r="F12" s="377"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="376"/>
+      <c r="F12" s="376"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
         <v>503</v>
       </c>
-      <c r="B13" s="376" t="n">
+      <c r="B13" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="377" t="str">
+      <c r="C13" s="376" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D13" s="377"/>
-      <c r="E13" s="377"/>
-      <c r="F13" s="377"/>
+      <c r="D13" s="376"/>
+      <c r="E13" s="376"/>
+      <c r="F13" s="376"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="376" t="n">
+      <c r="B14" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="377" t="str">
+      <c r="C14" s="376" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
+      <c r="D14" s="376"/>
+      <c r="E14" s="376"/>
+      <c r="F14" s="376"/>
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
         <v>505</v>
       </c>
-      <c r="B15" s="378"/>
-      <c r="C15" s="379" t="s">
+      <c r="B15" s="377"/>
+      <c r="C15" s="378" t="s">
         <v>506</v>
       </c>
-      <c r="D15" s="379" t="s">
+      <c r="D15" s="378" t="s">
         <v>507</v>
       </c>
-      <c r="E15" s="379" t="s">
+      <c r="E15" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F15" s="380" t="s">
+      <c r="F15" s="379" t="s">
         <v>509</v>
       </c>
     </row>
@@ -18181,7 +18165,7 @@
       <c r="A16" s="166" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="381"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="120" t="s">
         <v>59</v>
       </c>
@@ -18199,22 +18183,22 @@
       <c r="A17" s="166" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="376" t="n">
+      <c r="B17" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="382" t="str">
+      <c r="C17" s="381" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D17" s="382" t="str">
+      <c r="D17" s="381" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E17" s="382" t="str">
+      <c r="E17" s="381" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F17" s="382" t="str">
+      <c r="F17" s="381" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -18223,22 +18207,22 @@
       <c r="A18" s="166" t="s">
         <v>512</v>
       </c>
-      <c r="B18" s="376" t="n">
+      <c r="B18" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="382" t="str">
+      <c r="C18" s="381" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D18" s="382" t="str">
+      <c r="D18" s="381" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E18" s="382" t="str">
+      <c r="E18" s="381" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F18" s="382" t="str">
+      <c r="F18" s="381" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -18247,22 +18231,22 @@
       <c r="A19" s="166" t="s">
         <v>513</v>
       </c>
-      <c r="B19" s="376" t="n">
+      <c r="B19" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="382" t="str">
+      <c r="C19" s="381" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D19" s="382" t="str">
+      <c r="D19" s="381" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E19" s="382" t="str">
+      <c r="E19" s="381" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F19" s="382" t="str">
+      <c r="F19" s="381" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -18271,149 +18255,149 @@
       <c r="A20" s="166" t="s">
         <v>514</v>
       </c>
-      <c r="B20" s="383" t="s">
+      <c r="B20" s="382" t="s">
         <v>515</v>
       </c>
       <c r="C20" s="102"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
-      <c r="F20" s="384"/>
+      <c r="D20" s="371"/>
+      <c r="E20" s="371"/>
+      <c r="F20" s="383"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
         <v>516</v>
       </c>
-      <c r="B21" s="374" t="str">
+      <c r="B21" s="373" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
         <v>517</v>
       </c>
-      <c r="B22" s="374"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
         <v>518</v>
       </c>
-      <c r="B23" s="374"/>
-      <c r="C23" s="374"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="373"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
         <v>519</v>
       </c>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
         <v>520</v>
       </c>
-      <c r="B25" s="374"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
+      <c r="B25" s="373"/>
+      <c r="C25" s="373"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
         <v>521</v>
       </c>
-      <c r="B26" s="374"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
+      <c r="B26" s="373"/>
+      <c r="C26" s="373"/>
+      <c r="D26" s="373"/>
+      <c r="E26" s="373"/>
+      <c r="F26" s="373"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="375" t="s">
+      <c r="B27" s="374" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="375"/>
-      <c r="D27" s="375"/>
-      <c r="E27" s="375"/>
-      <c r="F27" s="375"/>
+      <c r="C27" s="374"/>
+      <c r="D27" s="374"/>
+      <c r="E27" s="374"/>
+      <c r="F27" s="374"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
         <v>523</v>
       </c>
-      <c r="B28" s="376" t="n">
+      <c r="B28" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="377" t="str">
+      <c r="C28" s="376" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="377"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="377"/>
+      <c r="D28" s="376"/>
+      <c r="E28" s="376"/>
+      <c r="F28" s="376"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
         <v>524</v>
       </c>
-      <c r="B29" s="376" t="n">
+      <c r="B29" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="377" t="str">
+      <c r="C29" s="376" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="377"/>
-      <c r="E29" s="377"/>
-      <c r="F29" s="377"/>
+      <c r="D29" s="376"/>
+      <c r="E29" s="376"/>
+      <c r="F29" s="376"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
         <v>525</v>
       </c>
-      <c r="B30" s="376" t="n">
+      <c r="B30" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="377" t="str">
+      <c r="C30" s="376" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="377"/>
-      <c r="F30" s="377"/>
+      <c r="D30" s="376"/>
+      <c r="E30" s="376"/>
+      <c r="F30" s="376"/>
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
         <v>526</v>
       </c>
-      <c r="B31" s="385"/>
-      <c r="C31" s="379" t="s">
+      <c r="B31" s="384"/>
+      <c r="C31" s="378" t="s">
         <v>506</v>
       </c>
-      <c r="D31" s="379" t="s">
+      <c r="D31" s="378" t="s">
         <v>507</v>
       </c>
-      <c r="E31" s="379" t="s">
+      <c r="E31" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F31" s="380" t="s">
+      <c r="F31" s="379" t="s">
         <v>509</v>
       </c>
     </row>
@@ -18421,7 +18405,7 @@
       <c r="A32" s="166" t="s">
         <v>527</v>
       </c>
-      <c r="B32" s="385"/>
+      <c r="B32" s="384"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -18439,22 +18423,22 @@
       <c r="A33" s="166" t="s">
         <v>528</v>
       </c>
-      <c r="B33" s="376" t="n">
+      <c r="B33" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="382" t="str">
+      <c r="C33" s="381" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="382" t="str">
+      <c r="D33" s="381" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="382" t="str">
+      <c r="E33" s="381" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="382" t="str">
+      <c r="F33" s="381" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -18463,22 +18447,22 @@
       <c r="A34" s="166" t="s">
         <v>529</v>
       </c>
-      <c r="B34" s="376" t="n">
+      <c r="B34" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="382" t="str">
+      <c r="C34" s="381" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="382" t="str">
+      <c r="D34" s="381" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="382" t="str">
+      <c r="E34" s="381" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="382" t="str">
+      <c r="F34" s="381" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -18487,22 +18471,22 @@
       <c r="A35" s="166" t="s">
         <v>530</v>
       </c>
-      <c r="B35" s="376" t="n">
+      <c r="B35" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="382" t="str">
+      <c r="C35" s="381" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="382" t="str">
+      <c r="D35" s="381" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="382" t="str">
+      <c r="E35" s="381" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="382" t="str">
+      <c r="F35" s="381" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -18511,149 +18495,149 @@
       <c r="A36" s="166" t="s">
         <v>531</v>
       </c>
-      <c r="B36" s="383" t="s">
+      <c r="B36" s="382" t="s">
         <v>532</v>
       </c>
-      <c r="C36" s="386"/>
+      <c r="C36" s="385"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="384"/>
+      <c r="F36" s="383"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
         <v>533</v>
       </c>
-      <c r="B37" s="374" t="str">
+      <c r="B37" s="373" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="C37" s="374"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="373"/>
+      <c r="E37" s="373"/>
+      <c r="F37" s="373"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
         <v>534</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
+      <c r="B38" s="373"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="373"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="373"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
         <v>535</v>
       </c>
-      <c r="B39" s="374"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
+      <c r="B39" s="373"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="373"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="373"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
         <v>536</v>
       </c>
-      <c r="B40" s="374"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="374"/>
-      <c r="F40" s="374"/>
+      <c r="B40" s="373"/>
+      <c r="C40" s="373"/>
+      <c r="D40" s="373"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="373"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
         <v>537</v>
       </c>
-      <c r="B41" s="374"/>
-      <c r="C41" s="374"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="374"/>
-      <c r="F41" s="374"/>
+      <c r="B41" s="373"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="373"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
         <v>538</v>
       </c>
-      <c r="B42" s="374"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="374"/>
+      <c r="B42" s="373"/>
+      <c r="C42" s="373"/>
+      <c r="D42" s="373"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="373"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
         <v>539</v>
       </c>
-      <c r="B43" s="375" t="s">
+      <c r="B43" s="374" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="375"/>
-      <c r="D43" s="375"/>
-      <c r="E43" s="375"/>
-      <c r="F43" s="375"/>
+      <c r="C43" s="374"/>
+      <c r="D43" s="374"/>
+      <c r="E43" s="374"/>
+      <c r="F43" s="374"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="B44" s="376" t="n">
+      <c r="B44" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="377" t="str">
+      <c r="C44" s="376" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D44" s="377"/>
-      <c r="E44" s="377"/>
-      <c r="F44" s="377"/>
+      <c r="D44" s="376"/>
+      <c r="E44" s="376"/>
+      <c r="F44" s="376"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
         <v>541</v>
       </c>
-      <c r="B45" s="376" t="n">
+      <c r="B45" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="377" t="str">
+      <c r="C45" s="376" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D45" s="377"/>
-      <c r="E45" s="377"/>
-      <c r="F45" s="377"/>
+      <c r="D45" s="376"/>
+      <c r="E45" s="376"/>
+      <c r="F45" s="376"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="376" t="n">
+      <c r="B46" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="377" t="str">
+      <c r="C46" s="376" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D46" s="377"/>
-      <c r="E46" s="377"/>
-      <c r="F46" s="377"/>
+      <c r="D46" s="376"/>
+      <c r="E46" s="376"/>
+      <c r="F46" s="376"/>
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
         <v>543</v>
       </c>
-      <c r="B47" s="385"/>
-      <c r="C47" s="379" t="s">
+      <c r="B47" s="384"/>
+      <c r="C47" s="378" t="s">
         <v>506</v>
       </c>
-      <c r="D47" s="379" t="s">
+      <c r="D47" s="378" t="s">
         <v>507</v>
       </c>
-      <c r="E47" s="379" t="s">
+      <c r="E47" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F47" s="380" t="s">
+      <c r="F47" s="379" t="s">
         <v>509</v>
       </c>
     </row>
@@ -18661,7 +18645,7 @@
       <c r="A48" s="166" t="s">
         <v>544</v>
       </c>
-      <c r="B48" s="385"/>
+      <c r="B48" s="384"/>
       <c r="C48" s="120" t="s">
         <v>59</v>
       </c>
@@ -18679,22 +18663,22 @@
       <c r="A49" s="166" t="s">
         <v>545</v>
       </c>
-      <c r="B49" s="376" t="n">
+      <c r="B49" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="382" t="str">
+      <c r="C49" s="381" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D49" s="382" t="str">
+      <c r="D49" s="381" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E49" s="382" t="str">
+      <c r="E49" s="381" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F49" s="382" t="str">
+      <c r="F49" s="381" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -18703,22 +18687,22 @@
       <c r="A50" s="166" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="376" t="n">
+      <c r="B50" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="382" t="str">
+      <c r="C50" s="381" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D50" s="382" t="str">
+      <c r="D50" s="381" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E50" s="382" t="str">
+      <c r="E50" s="381" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F50" s="382" t="str">
+      <c r="F50" s="381" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -18727,28 +18711,28 @@
       <c r="A51" s="166" t="s">
         <v>547</v>
       </c>
-      <c r="B51" s="376" t="n">
+      <c r="B51" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="382" t="str">
+      <c r="C51" s="381" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D51" s="382" t="str">
+      <c r="D51" s="381" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E51" s="382" t="str">
+      <c r="E51" s="381" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F51" s="382" t="str">
+      <c r="F51" s="381" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="367" t="s">
+      <c r="A52" s="366" t="s">
         <v>548</v>
       </c>
       <c r="B52" s="291" t="str">
@@ -18761,48 +18745,48 @@
       <c r="F52" s="291"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="367" t="s">
+      <c r="A53" s="366" t="s">
         <v>549</v>
       </c>
-      <c r="B53" s="387"/>
+      <c r="B53" s="386"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="367" t="s">
+      <c r="A54" s="366" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="367" t="s">
+      <c r="A55" s="366" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="367" t="s">
+      <c r="A56" s="366" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="367" t="s">
+      <c r="A57" s="366" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="367" t="s">
+      <c r="A58" s="366" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="367" t="s">
+      <c r="A59" s="366" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="367" t="s">
+      <c r="A60" s="366" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="367" t="s">
+      <c r="A61" s="366" t="s">
         <v>557</v>
       </c>
     </row>
@@ -18942,7 +18926,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -18956,164 +18940,164 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="370" t="s">
         <v>559</v>
       </c>
       <c r="C2" s="102"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="373"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="372"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="366" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="374" t="str">
+      <c r="B3" s="373" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="366" t="s">
         <v>561</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="366" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="374"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
+      <c r="B5" s="373"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="367" t="s">
+      <c r="A6" s="366" t="s">
         <v>563</v>
       </c>
-      <c r="B6" s="374"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="367" t="s">
+      <c r="A7" s="366" t="s">
         <v>564</v>
       </c>
-      <c r="B7" s="374"/>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="374"/>
-      <c r="F7" s="374"/>
+      <c r="B7" s="373"/>
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="367" t="s">
+      <c r="A8" s="366" t="s">
         <v>565</v>
       </c>
-      <c r="B8" s="374"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
+      <c r="B8" s="373"/>
+      <c r="C8" s="373"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="373"/>
+      <c r="F8" s="373"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="367" t="s">
+      <c r="A9" s="366" t="s">
         <v>566</v>
       </c>
-      <c r="B9" s="374"/>
-      <c r="C9" s="374"/>
-      <c r="D9" s="374"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
+      <c r="B9" s="373"/>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
+      <c r="E9" s="373"/>
+      <c r="F9" s="373"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
         <v>567</v>
       </c>
-      <c r="B10" s="388" t="s">
+      <c r="B10" s="387" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="387"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="387"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="B11" s="376" t="n">
+      <c r="B11" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="389" t="str">
+      <c r="C11" s="388" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="389"/>
+      <c r="D11" s="388"/>
+      <c r="E11" s="388"/>
+      <c r="F11" s="388"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
         <v>569</v>
       </c>
-      <c r="B12" s="376" t="n">
+      <c r="B12" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="389" t="str">
+      <c r="C12" s="388" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="389"/>
+      <c r="D12" s="388"/>
+      <c r="E12" s="388"/>
+      <c r="F12" s="388"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
         <v>570</v>
       </c>
-      <c r="B13" s="376" t="n">
+      <c r="B13" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="389" t="str">
+      <c r="C13" s="388" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="389"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="388"/>
+      <c r="F13" s="388"/>
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
         <v>571</v>
       </c>
-      <c r="B14" s="385"/>
-      <c r="C14" s="379" t="s">
+      <c r="B14" s="384"/>
+      <c r="C14" s="378" t="s">
         <v>506</v>
       </c>
-      <c r="D14" s="379" t="s">
+      <c r="D14" s="378" t="s">
         <v>507</v>
       </c>
-      <c r="E14" s="379" t="s">
+      <c r="E14" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F14" s="380" t="s">
+      <c r="F14" s="379" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19121,7 +19105,7 @@
       <c r="A15" s="166" t="s">
         <v>572</v>
       </c>
-      <c r="B15" s="385"/>
+      <c r="B15" s="384"/>
       <c r="C15" s="120" t="s">
         <v>59</v>
       </c>
@@ -19139,22 +19123,22 @@
       <c r="A16" s="166" t="s">
         <v>573</v>
       </c>
-      <c r="B16" s="376" t="n">
+      <c r="B16" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="382" t="str">
+      <c r="C16" s="381" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D16" s="382" t="str">
+      <c r="D16" s="381" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E16" s="382" t="str">
+      <c r="E16" s="381" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F16" s="382" t="str">
+      <c r="F16" s="381" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -19163,22 +19147,22 @@
       <c r="A17" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="B17" s="376" t="n">
+      <c r="B17" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="382" t="str">
+      <c r="C17" s="381" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D17" s="382" t="str">
+      <c r="D17" s="381" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E17" s="382" t="str">
+      <c r="E17" s="381" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F17" s="382" t="str">
+      <c r="F17" s="381" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -19187,22 +19171,22 @@
       <c r="A18" s="166" t="s">
         <v>575</v>
       </c>
-      <c r="B18" s="376" t="n">
+      <c r="B18" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="382" t="str">
+      <c r="C18" s="381" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D18" s="382" t="str">
+      <c r="D18" s="381" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E18" s="382" t="str">
+      <c r="E18" s="381" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F18" s="382" t="str">
+      <c r="F18" s="381" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -19211,159 +19195,159 @@
       <c r="A19" s="166" t="s">
         <v>576</v>
       </c>
-      <c r="B19" s="383" t="s">
+      <c r="B19" s="382" t="s">
         <v>577</v>
       </c>
-      <c r="C19" s="386"/>
+      <c r="C19" s="385"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="384"/>
+      <c r="F19" s="383"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
         <v>578</v>
       </c>
-      <c r="B20" s="374" t="str">
+      <c r="B20" s="373" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="C20" s="374"/>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="373"/>
+      <c r="F20" s="373"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="374"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
+      <c r="B21" s="373"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
         <v>580</v>
       </c>
-      <c r="B22" s="374"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
         <v>581</v>
       </c>
-      <c r="B23" s="374"/>
-      <c r="C23" s="374"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="373"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
         <v>582</v>
       </c>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
         <v>583</v>
       </c>
-      <c r="B25" s="374"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
+      <c r="B25" s="373"/>
+      <c r="C25" s="373"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
         <v>584</v>
       </c>
-      <c r="B26" s="374"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
+      <c r="B26" s="373"/>
+      <c r="C26" s="373"/>
+      <c r="D26" s="373"/>
+      <c r="E26" s="373"/>
+      <c r="F26" s="373"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
         <v>585</v>
       </c>
-      <c r="B27" s="388" t="s">
+      <c r="B27" s="387" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="388"/>
-      <c r="D27" s="388"/>
-      <c r="E27" s="388"/>
-      <c r="F27" s="388"/>
+      <c r="C27" s="387"/>
+      <c r="D27" s="387"/>
+      <c r="E27" s="387"/>
+      <c r="F27" s="387"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
         <v>586</v>
       </c>
-      <c r="B28" s="376" t="n">
+      <c r="B28" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="389" t="str">
+      <c r="C28" s="388" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="389"/>
-      <c r="E28" s="389"/>
-      <c r="F28" s="389"/>
+      <c r="D28" s="388"/>
+      <c r="E28" s="388"/>
+      <c r="F28" s="388"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
         <v>587</v>
       </c>
-      <c r="B29" s="376" t="n">
+      <c r="B29" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="389" t="str">
+      <c r="C29" s="388" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="389"/>
-      <c r="E29" s="389"/>
-      <c r="F29" s="389"/>
+      <c r="D29" s="388"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="388"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
         <v>588</v>
       </c>
-      <c r="B30" s="376" t="n">
+      <c r="B30" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="389" t="str">
+      <c r="C30" s="388" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="389"/>
-      <c r="E30" s="389"/>
-      <c r="F30" s="389"/>
+      <c r="D30" s="388"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="388"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
         <v>589</v>
       </c>
-      <c r="B31" s="385"/>
-      <c r="C31" s="379" t="s">
+      <c r="B31" s="384"/>
+      <c r="C31" s="378" t="s">
         <v>506</v>
       </c>
-      <c r="D31" s="379" t="s">
+      <c r="D31" s="378" t="s">
         <v>507</v>
       </c>
-      <c r="E31" s="379" t="s">
+      <c r="E31" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F31" s="380" t="s">
+      <c r="F31" s="379" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19371,7 +19355,7 @@
       <c r="A32" s="166" t="s">
         <v>590</v>
       </c>
-      <c r="B32" s="385"/>
+      <c r="B32" s="384"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -19389,22 +19373,22 @@
       <c r="A33" s="166" t="s">
         <v>591</v>
       </c>
-      <c r="B33" s="376" t="n">
+      <c r="B33" s="375" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="382" t="str">
+      <c r="C33" s="381" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="382" t="str">
+      <c r="D33" s="381" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="382" t="str">
+      <c r="E33" s="381" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="382" t="str">
+      <c r="F33" s="381" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -19413,22 +19397,22 @@
       <c r="A34" s="166" t="s">
         <v>592</v>
       </c>
-      <c r="B34" s="376" t="n">
+      <c r="B34" s="375" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="382" t="str">
+      <c r="C34" s="381" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="382" t="str">
+      <c r="D34" s="381" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="382" t="str">
+      <c r="E34" s="381" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="382" t="str">
+      <c r="F34" s="381" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -19437,22 +19421,22 @@
       <c r="A35" s="166" t="s">
         <v>593</v>
       </c>
-      <c r="B35" s="376" t="n">
+      <c r="B35" s="375" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="382" t="str">
+      <c r="C35" s="381" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="382" t="str">
+      <c r="D35" s="381" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="382" t="str">
+      <c r="E35" s="381" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="382" t="str">
+      <c r="F35" s="381" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -19461,163 +19445,163 @@
       <c r="A36" s="166" t="s">
         <v>594</v>
       </c>
-      <c r="B36" s="390" t="s">
+      <c r="B36" s="389" t="s">
         <v>595</v>
       </c>
-      <c r="C36" s="390"/>
-      <c r="D36" s="390"/>
-      <c r="E36" s="390"/>
-      <c r="F36" s="390"/>
+      <c r="C36" s="389"/>
+      <c r="D36" s="389"/>
+      <c r="E36" s="389"/>
+      <c r="F36" s="389"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
         <v>596</v>
       </c>
-      <c r="B37" s="374" t="str">
+      <c r="B37" s="373" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="C37" s="374"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="373"/>
+      <c r="E37" s="373"/>
+      <c r="F37" s="373"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
+      <c r="B38" s="373"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="373"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="373"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
         <v>598</v>
       </c>
-      <c r="B39" s="374"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
+      <c r="B39" s="373"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="373"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="373"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
         <v>599</v>
       </c>
-      <c r="B40" s="374"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="374"/>
-      <c r="F40" s="374"/>
+      <c r="B40" s="373"/>
+      <c r="C40" s="373"/>
+      <c r="D40" s="373"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="373"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
         <v>600</v>
       </c>
-      <c r="B41" s="374"/>
-      <c r="C41" s="374"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="374"/>
-      <c r="F41" s="374"/>
+      <c r="B41" s="373"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="373"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
         <v>601</v>
       </c>
-      <c r="B42" s="374"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="374"/>
+      <c r="B42" s="373"/>
+      <c r="C42" s="373"/>
+      <c r="D42" s="373"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="373"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
         <v>602</v>
       </c>
-      <c r="B43" s="374"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="374"/>
-      <c r="E43" s="374"/>
-      <c r="F43" s="374"/>
+      <c r="B43" s="373"/>
+      <c r="C43" s="373"/>
+      <c r="D43" s="373"/>
+      <c r="E43" s="373"/>
+      <c r="F43" s="373"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
         <v>603</v>
       </c>
-      <c r="B44" s="374"/>
-      <c r="C44" s="374"/>
-      <c r="D44" s="374"/>
-      <c r="E44" s="374"/>
-      <c r="F44" s="374"/>
+      <c r="B44" s="373"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="373"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="373"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
         <v>604</v>
       </c>
-      <c r="B45" s="374"/>
-      <c r="C45" s="374"/>
-      <c r="D45" s="374"/>
-      <c r="E45" s="374"/>
-      <c r="F45" s="374"/>
+      <c r="B45" s="373"/>
+      <c r="C45" s="373"/>
+      <c r="D45" s="373"/>
+      <c r="E45" s="373"/>
+      <c r="F45" s="373"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166"/>
-      <c r="B46" s="374"/>
-      <c r="C46" s="374"/>
-      <c r="D46" s="374"/>
-      <c r="E46" s="374"/>
-      <c r="F46" s="374"/>
+      <c r="B46" s="373"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="373"/>
+      <c r="E46" s="373"/>
+      <c r="F46" s="373"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166"/>
-      <c r="B47" s="374"/>
-      <c r="C47" s="374"/>
-      <c r="D47" s="374"/>
-      <c r="E47" s="374"/>
-      <c r="F47" s="374"/>
+      <c r="B47" s="373"/>
+      <c r="C47" s="373"/>
+      <c r="D47" s="373"/>
+      <c r="E47" s="373"/>
+      <c r="F47" s="373"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="166"/>
-      <c r="B48" s="374"/>
-      <c r="C48" s="374"/>
-      <c r="D48" s="374"/>
-      <c r="E48" s="374"/>
-      <c r="F48" s="374"/>
+      <c r="B48" s="373"/>
+      <c r="C48" s="373"/>
+      <c r="D48" s="373"/>
+      <c r="E48" s="373"/>
+      <c r="F48" s="373"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166"/>
-      <c r="B49" s="374"/>
-      <c r="C49" s="374"/>
-      <c r="D49" s="374"/>
-      <c r="E49" s="374"/>
-      <c r="F49" s="374"/>
+      <c r="B49" s="373"/>
+      <c r="C49" s="373"/>
+      <c r="D49" s="373"/>
+      <c r="E49" s="373"/>
+      <c r="F49" s="373"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166"/>
-      <c r="B50" s="374"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="374"/>
-      <c r="E50" s="374"/>
-      <c r="F50" s="374"/>
+      <c r="B50" s="373"/>
+      <c r="C50" s="373"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="373"/>
+      <c r="F50" s="373"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166"/>
-      <c r="B51" s="374"/>
-      <c r="C51" s="374"/>
-      <c r="D51" s="374"/>
-      <c r="E51" s="374"/>
-      <c r="F51" s="374"/>
+      <c r="B51" s="373"/>
+      <c r="C51" s="373"/>
+      <c r="D51" s="373"/>
+      <c r="E51" s="373"/>
+      <c r="F51" s="373"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="371" t="s">
+      <c r="B52" s="370" t="s">
         <v>605</v>
       </c>
       <c r="C52" s="102"/>
-      <c r="D52" s="372"/>
-      <c r="E52" s="372"/>
-      <c r="F52" s="373"/>
+      <c r="D52" s="371"/>
+      <c r="E52" s="371"/>
+      <c r="F52" s="372"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166"/>
@@ -19625,51 +19609,51 @@
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="391"/>
+      <c r="F53" s="390"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
-      <c r="B54" s="333" t="s">
+      <c r="B54" s="332" t="s">
         <v>606</v>
       </c>
-      <c r="C54" s="333"/>
-      <c r="D54" s="333"/>
-      <c r="E54" s="333"/>
-      <c r="F54" s="333"/>
+      <c r="C54" s="332"/>
+      <c r="D54" s="332"/>
+      <c r="E54" s="332"/>
+      <c r="F54" s="332"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
-      <c r="B55" s="392" t="str">
+      <c r="B55" s="391" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="C55" s="392"/>
-      <c r="D55" s="392"/>
-      <c r="E55" s="392"/>
-      <c r="F55" s="392"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="391"/>
+      <c r="E55" s="391"/>
+      <c r="F55" s="391"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
-      <c r="B56" s="392"/>
-      <c r="C56" s="392"/>
-      <c r="D56" s="392"/>
-      <c r="E56" s="392"/>
-      <c r="F56" s="392"/>
+      <c r="B56" s="391"/>
+      <c r="C56" s="391"/>
+      <c r="D56" s="391"/>
+      <c r="E56" s="391"/>
+      <c r="F56" s="391"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
-      <c r="B57" s="392"/>
-      <c r="C57" s="392"/>
-      <c r="D57" s="392"/>
-      <c r="E57" s="392"/>
-      <c r="F57" s="392"/>
+      <c r="B57" s="391"/>
+      <c r="C57" s="391"/>
+      <c r="D57" s="391"/>
+      <c r="E57" s="391"/>
+      <c r="F57" s="391"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="392"/>
-      <c r="C58" s="392"/>
-      <c r="D58" s="392"/>
-      <c r="E58" s="392"/>
-      <c r="F58" s="392"/>
+      <c r="B58" s="391"/>
+      <c r="C58" s="391"/>
+      <c r="D58" s="391"/>
+      <c r="E58" s="391"/>
+      <c r="F58" s="391"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="291" t="str">
@@ -19682,7 +19666,7 @@
       <c r="F59" s="291"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="387"/>
+      <c r="B60" s="386"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -19797,7 +19781,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="3" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="1.12"/>
@@ -19814,1138 +19798,1138 @@
       <c r="A2" s="166" t="s">
         <v>607</v>
       </c>
-      <c r="B2" s="393" t="s">
+      <c r="B2" s="392" t="s">
         <v>608</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="366" t="s">
         <v>609</v>
       </c>
-      <c r="B3" s="374" t="str">
+      <c r="B3" s="373" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="374"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="366" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="366" t="s">
         <v>611</v>
       </c>
-      <c r="B5" s="374"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374"/>
+      <c r="B5" s="373"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="373"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="367" t="s">
+      <c r="A6" s="366" t="s">
         <v>612</v>
       </c>
-      <c r="B6" s="374"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="367" t="s">
+      <c r="A7" s="366" t="s">
         <v>613</v>
       </c>
-      <c r="B7" s="374"/>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="374"/>
-      <c r="F7" s="374"/>
-      <c r="G7" s="374"/>
-      <c r="H7" s="374"/>
+      <c r="B7" s="373"/>
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="373"/>
+      <c r="H7" s="373"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="367" t="s">
+      <c r="A8" s="366" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="374"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="374"/>
-      <c r="H8" s="374"/>
+      <c r="B8" s="373"/>
+      <c r="C8" s="373"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="373"/>
+      <c r="F8" s="373"/>
+      <c r="G8" s="373"/>
+      <c r="H8" s="373"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="367" t="s">
+      <c r="A9" s="366" t="s">
         <v>615</v>
       </c>
-      <c r="B9" s="374"/>
-      <c r="C9" s="374"/>
-      <c r="D9" s="374"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="374"/>
-      <c r="H9" s="374"/>
+      <c r="B9" s="373"/>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
+      <c r="E9" s="373"/>
+      <c r="F9" s="373"/>
+      <c r="G9" s="373"/>
+      <c r="H9" s="373"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="367" t="s">
+      <c r="A10" s="366" t="s">
         <v>616</v>
       </c>
-      <c r="B10" s="374"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="374"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="374"/>
+      <c r="B10" s="373"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="373"/>
+      <c r="G10" s="373"/>
+      <c r="H10" s="373"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="367" t="s">
+      <c r="A11" s="366" t="s">
         <v>617</v>
       </c>
-      <c r="B11" s="374"/>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="374"/>
-      <c r="G11" s="374"/>
-      <c r="H11" s="374"/>
+      <c r="B11" s="373"/>
+      <c r="C11" s="373"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="373"/>
+      <c r="F11" s="373"/>
+      <c r="G11" s="373"/>
+      <c r="H11" s="373"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="367" t="s">
+      <c r="A12" s="366" t="s">
         <v>618</v>
       </c>
-      <c r="B12" s="374"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374"/>
+      <c r="B12" s="373"/>
+      <c r="C12" s="373"/>
+      <c r="D12" s="373"/>
+      <c r="E12" s="373"/>
+      <c r="F12" s="373"/>
+      <c r="G12" s="373"/>
+      <c r="H12" s="373"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="367" t="s">
+      <c r="A13" s="366" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="374"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374"/>
+      <c r="B13" s="373"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="373"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="366" t="s">
         <v>620</v>
       </c>
-      <c r="B14" s="374"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="374"/>
+      <c r="B14" s="373"/>
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="373"/>
+      <c r="F14" s="373"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="373"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="367" t="s">
+      <c r="A15" s="366" t="s">
         <v>621</v>
       </c>
-      <c r="B15" s="374"/>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
+      <c r="B15" s="373"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="373"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="366" t="s">
         <v>622</v>
       </c>
-      <c r="B16" s="374"/>
-      <c r="C16" s="374"/>
-      <c r="D16" s="374"/>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="374"/>
-      <c r="H16" s="374"/>
+      <c r="B16" s="373"/>
+      <c r="C16" s="373"/>
+      <c r="D16" s="373"/>
+      <c r="E16" s="373"/>
+      <c r="F16" s="373"/>
+      <c r="G16" s="373"/>
+      <c r="H16" s="373"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="366" t="s">
         <v>623</v>
       </c>
-      <c r="B17" s="374"/>
-      <c r="C17" s="374"/>
-      <c r="D17" s="374"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="374"/>
+      <c r="B17" s="373"/>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="373"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="367" t="s">
+      <c r="A18" s="366" t="s">
         <v>624</v>
       </c>
-      <c r="B18" s="374"/>
-      <c r="C18" s="374"/>
-      <c r="D18" s="374"/>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374"/>
-      <c r="H18" s="374"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="373"/>
+      <c r="D18" s="373"/>
+      <c r="E18" s="373"/>
+      <c r="F18" s="373"/>
+      <c r="G18" s="373"/>
+      <c r="H18" s="373"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="367" t="s">
+      <c r="A19" s="366" t="s">
         <v>625</v>
       </c>
-      <c r="B19" s="374"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
-      <c r="H19" s="374"/>
+      <c r="B19" s="373"/>
+      <c r="C19" s="373"/>
+      <c r="D19" s="373"/>
+      <c r="E19" s="373"/>
+      <c r="F19" s="373"/>
+      <c r="G19" s="373"/>
+      <c r="H19" s="373"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="367" t="s">
+      <c r="A20" s="366" t="s">
         <v>626</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="374"/>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
+      <c r="B20" s="373"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="373"/>
+      <c r="F20" s="373"/>
+      <c r="G20" s="373"/>
+      <c r="H20" s="373"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="367" t="s">
+      <c r="A21" s="366" t="s">
         <v>627</v>
       </c>
-      <c r="B21" s="374"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
+      <c r="B21" s="373"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
+      <c r="G21" s="373"/>
+      <c r="H21" s="373"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="367" t="s">
+      <c r="A22" s="366" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="374"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="373"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="366" t="s">
         <v>629</v>
       </c>
-      <c r="B23" s="374"/>
-      <c r="C23" s="374"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="374"/>
-      <c r="H23" s="374"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="373"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="373"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="367" t="s">
+      <c r="A24" s="366" t="s">
         <v>630</v>
       </c>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="373"/>
+      <c r="H24" s="373"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="367" t="s">
+      <c r="A25" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="B25" s="374"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
-      <c r="G25" s="374"/>
-      <c r="H25" s="374"/>
+      <c r="B25" s="373"/>
+      <c r="C25" s="373"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="373"/>
+      <c r="H25" s="373"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="367" t="s">
+      <c r="A26" s="366" t="s">
         <v>632</v>
       </c>
-      <c r="B26" s="374"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="374"/>
+      <c r="B26" s="373"/>
+      <c r="C26" s="373"/>
+      <c r="D26" s="373"/>
+      <c r="E26" s="373"/>
+      <c r="F26" s="373"/>
+      <c r="G26" s="373"/>
+      <c r="H26" s="373"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="367" t="s">
+      <c r="A27" s="366" t="s">
         <v>633</v>
       </c>
-      <c r="B27" s="374"/>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="374"/>
-      <c r="F27" s="374"/>
-      <c r="G27" s="374"/>
-      <c r="H27" s="374"/>
+      <c r="B27" s="373"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="373"/>
+      <c r="E27" s="373"/>
+      <c r="F27" s="373"/>
+      <c r="G27" s="373"/>
+      <c r="H27" s="373"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="367" t="s">
+      <c r="A28" s="366" t="s">
         <v>634</v>
       </c>
-      <c r="B28" s="374"/>
-      <c r="C28" s="374"/>
-      <c r="D28" s="374"/>
-      <c r="E28" s="374"/>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="374"/>
+      <c r="B28" s="373"/>
+      <c r="C28" s="373"/>
+      <c r="D28" s="373"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="373"/>
+      <c r="G28" s="373"/>
+      <c r="H28" s="373"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="367" t="s">
+      <c r="A29" s="366" t="s">
         <v>635</v>
       </c>
-      <c r="B29" s="374"/>
-      <c r="C29" s="374"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="374"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="374"/>
-      <c r="H29" s="374"/>
+      <c r="B29" s="373"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="373"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="367" t="s">
+      <c r="A30" s="366" t="s">
         <v>636</v>
       </c>
-      <c r="B30" s="374"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="374"/>
-      <c r="E30" s="374"/>
-      <c r="F30" s="374"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
+      <c r="B30" s="373"/>
+      <c r="C30" s="373"/>
+      <c r="D30" s="373"/>
+      <c r="E30" s="373"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="373"/>
+      <c r="H30" s="373"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="367" t="s">
+      <c r="A31" s="366" t="s">
         <v>637</v>
       </c>
-      <c r="B31" s="374"/>
-      <c r="C31" s="374"/>
-      <c r="D31" s="374"/>
-      <c r="E31" s="374"/>
-      <c r="F31" s="374"/>
-      <c r="G31" s="374"/>
-      <c r="H31" s="374"/>
+      <c r="B31" s="373"/>
+      <c r="C31" s="373"/>
+      <c r="D31" s="373"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="373"/>
+      <c r="H31" s="373"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="367" t="s">
+      <c r="A32" s="366" t="s">
         <v>638</v>
       </c>
-      <c r="B32" s="374"/>
-      <c r="C32" s="374"/>
-      <c r="D32" s="374"/>
-      <c r="E32" s="374"/>
-      <c r="F32" s="374"/>
-      <c r="G32" s="374"/>
-      <c r="H32" s="374"/>
+      <c r="B32" s="373"/>
+      <c r="C32" s="373"/>
+      <c r="D32" s="373"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="373"/>
+      <c r="H32" s="373"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="367" t="s">
+      <c r="A33" s="366" t="s">
         <v>639</v>
       </c>
-      <c r="B33" s="374"/>
-      <c r="C33" s="374"/>
-      <c r="D33" s="374"/>
-      <c r="E33" s="374"/>
-      <c r="F33" s="374"/>
-      <c r="G33" s="374"/>
-      <c r="H33" s="374"/>
+      <c r="B33" s="373"/>
+      <c r="C33" s="373"/>
+      <c r="D33" s="373"/>
+      <c r="E33" s="373"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="373"/>
+      <c r="H33" s="373"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="366" t="s">
         <v>640</v>
       </c>
-      <c r="B34" s="374"/>
-      <c r="C34" s="374"/>
-      <c r="D34" s="374"/>
-      <c r="E34" s="374"/>
-      <c r="F34" s="374"/>
-      <c r="G34" s="374"/>
-      <c r="H34" s="374"/>
+      <c r="B34" s="373"/>
+      <c r="C34" s="373"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="373"/>
+      <c r="F34" s="373"/>
+      <c r="G34" s="373"/>
+      <c r="H34" s="373"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="367" t="s">
+      <c r="A35" s="366" t="s">
         <v>641</v>
       </c>
-      <c r="B35" s="374"/>
-      <c r="C35" s="374"/>
-      <c r="D35" s="374"/>
-      <c r="E35" s="374"/>
-      <c r="F35" s="374"/>
-      <c r="G35" s="374"/>
-      <c r="H35" s="374"/>
+      <c r="B35" s="373"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="373"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="367" t="s">
+      <c r="A36" s="366" t="s">
         <v>642</v>
       </c>
-      <c r="B36" s="374"/>
-      <c r="C36" s="374"/>
-      <c r="D36" s="374"/>
-      <c r="E36" s="374"/>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="374"/>
+      <c r="B36" s="373"/>
+      <c r="C36" s="373"/>
+      <c r="D36" s="373"/>
+      <c r="E36" s="373"/>
+      <c r="F36" s="373"/>
+      <c r="G36" s="373"/>
+      <c r="H36" s="373"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="367" t="s">
+      <c r="A37" s="366" t="s">
         <v>643</v>
       </c>
-      <c r="B37" s="374"/>
-      <c r="C37" s="374"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
+      <c r="B37" s="373"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="373"/>
+      <c r="E37" s="373"/>
+      <c r="F37" s="373"/>
+      <c r="G37" s="373"/>
+      <c r="H37" s="373"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="367" t="s">
+      <c r="A38" s="366" t="s">
         <v>644</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
-      <c r="G38" s="374"/>
-      <c r="H38" s="374"/>
+      <c r="B38" s="373"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="373"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="373"/>
+      <c r="G38" s="373"/>
+      <c r="H38" s="373"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="367" t="s">
+      <c r="A39" s="366" t="s">
         <v>645</v>
       </c>
-      <c r="B39" s="374"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
+      <c r="B39" s="373"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="373"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="373"/>
+      <c r="G39" s="373"/>
+      <c r="H39" s="373"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="367" t="s">
+      <c r="A40" s="366" t="s">
         <v>646</v>
       </c>
-      <c r="B40" s="374"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="374"/>
-      <c r="F40" s="374"/>
-      <c r="G40" s="374"/>
-      <c r="H40" s="374"/>
+      <c r="B40" s="373"/>
+      <c r="C40" s="373"/>
+      <c r="D40" s="373"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="373"/>
+      <c r="G40" s="373"/>
+      <c r="H40" s="373"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="367" t="s">
+      <c r="A41" s="366" t="s">
         <v>647</v>
       </c>
-      <c r="B41" s="374"/>
-      <c r="C41" s="374"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="374"/>
-      <c r="F41" s="374"/>
-      <c r="G41" s="374"/>
-      <c r="H41" s="374"/>
+      <c r="B41" s="373"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="373"/>
+      <c r="G41" s="373"/>
+      <c r="H41" s="373"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="367" t="s">
+      <c r="A42" s="366" t="s">
         <v>648</v>
       </c>
-      <c r="B42" s="374"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="374"/>
-      <c r="G42" s="374"/>
-      <c r="H42" s="374"/>
+      <c r="B42" s="373"/>
+      <c r="C42" s="373"/>
+      <c r="D42" s="373"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="373"/>
+      <c r="G42" s="373"/>
+      <c r="H42" s="373"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="367" t="s">
+      <c r="A43" s="366" t="s">
         <v>649</v>
       </c>
-      <c r="B43" s="374"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="374"/>
-      <c r="E43" s="374"/>
-      <c r="F43" s="374"/>
-      <c r="G43" s="374"/>
-      <c r="H43" s="374"/>
+      <c r="B43" s="373"/>
+      <c r="C43" s="373"/>
+      <c r="D43" s="373"/>
+      <c r="E43" s="373"/>
+      <c r="F43" s="373"/>
+      <c r="G43" s="373"/>
+      <c r="H43" s="373"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="367" t="s">
+      <c r="A44" s="366" t="s">
         <v>650</v>
       </c>
-      <c r="B44" s="374"/>
-      <c r="C44" s="374"/>
-      <c r="D44" s="374"/>
-      <c r="E44" s="374"/>
-      <c r="F44" s="374"/>
-      <c r="G44" s="374"/>
-      <c r="H44" s="374"/>
+      <c r="B44" s="373"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="373"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="373"/>
+      <c r="G44" s="373"/>
+      <c r="H44" s="373"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="367" t="s">
+      <c r="A45" s="366" t="s">
         <v>651</v>
       </c>
-      <c r="B45" s="374"/>
-      <c r="C45" s="374"/>
-      <c r="D45" s="374"/>
-      <c r="E45" s="374"/>
-      <c r="F45" s="374"/>
-      <c r="G45" s="374"/>
-      <c r="H45" s="374"/>
+      <c r="B45" s="373"/>
+      <c r="C45" s="373"/>
+      <c r="D45" s="373"/>
+      <c r="E45" s="373"/>
+      <c r="F45" s="373"/>
+      <c r="G45" s="373"/>
+      <c r="H45" s="373"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="367" t="s">
+      <c r="A46" s="366" t="s">
         <v>652</v>
       </c>
-      <c r="B46" s="374"/>
-      <c r="C46" s="374"/>
-      <c r="D46" s="374"/>
-      <c r="E46" s="374"/>
-      <c r="F46" s="374"/>
-      <c r="G46" s="374"/>
-      <c r="H46" s="374"/>
+      <c r="B46" s="373"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="373"/>
+      <c r="E46" s="373"/>
+      <c r="F46" s="373"/>
+      <c r="G46" s="373"/>
+      <c r="H46" s="373"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="367" t="s">
+      <c r="A47" s="366" t="s">
         <v>653</v>
       </c>
-      <c r="B47" s="374"/>
-      <c r="C47" s="374"/>
-      <c r="D47" s="374"/>
-      <c r="E47" s="374"/>
-      <c r="F47" s="374"/>
-      <c r="G47" s="374"/>
-      <c r="H47" s="374"/>
+      <c r="B47" s="373"/>
+      <c r="C47" s="373"/>
+      <c r="D47" s="373"/>
+      <c r="E47" s="373"/>
+      <c r="F47" s="373"/>
+      <c r="G47" s="373"/>
+      <c r="H47" s="373"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="367" t="s">
+      <c r="A48" s="366" t="s">
         <v>654</v>
       </c>
-      <c r="B48" s="374"/>
-      <c r="C48" s="374"/>
-      <c r="D48" s="374"/>
-      <c r="E48" s="374"/>
-      <c r="F48" s="374"/>
-      <c r="G48" s="374"/>
-      <c r="H48" s="374"/>
+      <c r="B48" s="373"/>
+      <c r="C48" s="373"/>
+      <c r="D48" s="373"/>
+      <c r="E48" s="373"/>
+      <c r="F48" s="373"/>
+      <c r="G48" s="373"/>
+      <c r="H48" s="373"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="367" t="s">
+      <c r="A49" s="366" t="s">
         <v>655</v>
       </c>
-      <c r="B49" s="374"/>
-      <c r="C49" s="374"/>
-      <c r="D49" s="374"/>
-      <c r="E49" s="374"/>
-      <c r="F49" s="374"/>
-      <c r="G49" s="374"/>
-      <c r="H49" s="374"/>
+      <c r="B49" s="373"/>
+      <c r="C49" s="373"/>
+      <c r="D49" s="373"/>
+      <c r="E49" s="373"/>
+      <c r="F49" s="373"/>
+      <c r="G49" s="373"/>
+      <c r="H49" s="373"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="367" t="s">
+      <c r="A50" s="366" t="s">
         <v>656</v>
       </c>
-      <c r="B50" s="374"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="374"/>
-      <c r="E50" s="374"/>
-      <c r="F50" s="374"/>
-      <c r="G50" s="374"/>
-      <c r="H50" s="374"/>
+      <c r="B50" s="373"/>
+      <c r="C50" s="373"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="373"/>
+      <c r="F50" s="373"/>
+      <c r="G50" s="373"/>
+      <c r="H50" s="373"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="367" t="s">
+      <c r="A51" s="366" t="s">
         <v>657</v>
       </c>
-      <c r="B51" s="374"/>
-      <c r="C51" s="374"/>
-      <c r="D51" s="374"/>
-      <c r="E51" s="374"/>
-      <c r="F51" s="374"/>
-      <c r="G51" s="374"/>
-      <c r="H51" s="374"/>
+      <c r="B51" s="373"/>
+      <c r="C51" s="373"/>
+      <c r="D51" s="373"/>
+      <c r="E51" s="373"/>
+      <c r="F51" s="373"/>
+      <c r="G51" s="373"/>
+      <c r="H51" s="373"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="367" t="s">
+      <c r="A52" s="366" t="s">
         <v>658</v>
       </c>
-      <c r="B52" s="374"/>
-      <c r="C52" s="374"/>
-      <c r="D52" s="374"/>
-      <c r="E52" s="374"/>
-      <c r="F52" s="374"/>
-      <c r="G52" s="374"/>
-      <c r="H52" s="374"/>
+      <c r="B52" s="373"/>
+      <c r="C52" s="373"/>
+      <c r="D52" s="373"/>
+      <c r="E52" s="373"/>
+      <c r="F52" s="373"/>
+      <c r="G52" s="373"/>
+      <c r="H52" s="373"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="367" t="s">
+      <c r="A53" s="366" t="s">
         <v>659</v>
       </c>
-      <c r="B53" s="374"/>
-      <c r="C53" s="374"/>
-      <c r="D53" s="374"/>
-      <c r="E53" s="374"/>
-      <c r="F53" s="374"/>
-      <c r="G53" s="374"/>
-      <c r="H53" s="374"/>
+      <c r="B53" s="373"/>
+      <c r="C53" s="373"/>
+      <c r="D53" s="373"/>
+      <c r="E53" s="373"/>
+      <c r="F53" s="373"/>
+      <c r="G53" s="373"/>
+      <c r="H53" s="373"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="367" t="s">
+      <c r="A54" s="366" t="s">
         <v>660</v>
       </c>
-      <c r="B54" s="374"/>
-      <c r="C54" s="374"/>
-      <c r="D54" s="374"/>
-      <c r="E54" s="374"/>
-      <c r="F54" s="374"/>
-      <c r="G54" s="374"/>
-      <c r="H54" s="374"/>
+      <c r="B54" s="373"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="373"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="367" t="s">
+      <c r="A55" s="366" t="s">
         <v>661</v>
       </c>
-      <c r="B55" s="374"/>
-      <c r="C55" s="374"/>
-      <c r="D55" s="374"/>
-      <c r="E55" s="374"/>
-      <c r="F55" s="374"/>
-      <c r="G55" s="374"/>
-      <c r="H55" s="374"/>
+      <c r="B55" s="373"/>
+      <c r="C55" s="373"/>
+      <c r="D55" s="373"/>
+      <c r="E55" s="373"/>
+      <c r="F55" s="373"/>
+      <c r="G55" s="373"/>
+      <c r="H55" s="373"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="367" t="s">
+      <c r="A56" s="366" t="s">
         <v>662</v>
       </c>
-      <c r="B56" s="374"/>
-      <c r="C56" s="374"/>
-      <c r="D56" s="374"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="374"/>
-      <c r="G56" s="374"/>
-      <c r="H56" s="374"/>
+      <c r="B56" s="373"/>
+      <c r="C56" s="373"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="373"/>
+      <c r="F56" s="373"/>
+      <c r="G56" s="373"/>
+      <c r="H56" s="373"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="367" t="s">
+      <c r="A57" s="366" t="s">
         <v>663</v>
       </c>
-      <c r="B57" s="374"/>
-      <c r="C57" s="374"/>
-      <c r="D57" s="374"/>
-      <c r="E57" s="374"/>
-      <c r="F57" s="374"/>
-      <c r="G57" s="374"/>
-      <c r="H57" s="374"/>
+      <c r="B57" s="373"/>
+      <c r="C57" s="373"/>
+      <c r="D57" s="373"/>
+      <c r="E57" s="373"/>
+      <c r="F57" s="373"/>
+      <c r="G57" s="373"/>
+      <c r="H57" s="373"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="367" t="s">
+      <c r="A58" s="366" t="s">
         <v>664</v>
       </c>
-      <c r="B58" s="374"/>
-      <c r="C58" s="374"/>
-      <c r="D58" s="374"/>
-      <c r="E58" s="374"/>
-      <c r="F58" s="374"/>
-      <c r="G58" s="374"/>
-      <c r="H58" s="374"/>
+      <c r="B58" s="373"/>
+      <c r="C58" s="373"/>
+      <c r="D58" s="373"/>
+      <c r="E58" s="373"/>
+      <c r="F58" s="373"/>
+      <c r="G58" s="373"/>
+      <c r="H58" s="373"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="367" t="s">
+      <c r="A59" s="366" t="s">
         <v>665</v>
       </c>
-      <c r="B59" s="374"/>
-      <c r="C59" s="374"/>
-      <c r="D59" s="374"/>
-      <c r="E59" s="374"/>
-      <c r="F59" s="374"/>
-      <c r="G59" s="374"/>
-      <c r="H59" s="374"/>
+      <c r="B59" s="373"/>
+      <c r="C59" s="373"/>
+      <c r="D59" s="373"/>
+      <c r="E59" s="373"/>
+      <c r="F59" s="373"/>
+      <c r="G59" s="373"/>
+      <c r="H59" s="373"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="367" t="s">
+      <c r="A60" s="366" t="s">
         <v>666</v>
       </c>
-      <c r="B60" s="374"/>
-      <c r="C60" s="374"/>
-      <c r="D60" s="374"/>
-      <c r="E60" s="374"/>
-      <c r="F60" s="374"/>
-      <c r="G60" s="374"/>
-      <c r="H60" s="374"/>
+      <c r="B60" s="373"/>
+      <c r="C60" s="373"/>
+      <c r="D60" s="373"/>
+      <c r="E60" s="373"/>
+      <c r="F60" s="373"/>
+      <c r="G60" s="373"/>
+      <c r="H60" s="373"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="367" t="s">
+      <c r="A61" s="366" t="s">
         <v>667</v>
       </c>
-      <c r="B61" s="374"/>
-      <c r="C61" s="374"/>
-      <c r="D61" s="374"/>
-      <c r="E61" s="374"/>
-      <c r="F61" s="374"/>
-      <c r="G61" s="374"/>
-      <c r="H61" s="374"/>
+      <c r="B61" s="373"/>
+      <c r="C61" s="373"/>
+      <c r="D61" s="373"/>
+      <c r="E61" s="373"/>
+      <c r="F61" s="373"/>
+      <c r="G61" s="373"/>
+      <c r="H61" s="373"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="367" t="s">
+      <c r="A62" s="366" t="s">
         <v>668</v>
       </c>
-      <c r="B62" s="394" t="str">
+      <c r="B62" s="393" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="394"/>
-      <c r="D62" s="394"/>
-      <c r="E62" s="394"/>
-      <c r="F62" s="394"/>
-      <c r="G62" s="394"/>
-      <c r="H62" s="394"/>
+      <c r="C62" s="393"/>
+      <c r="D62" s="393"/>
+      <c r="E62" s="393"/>
+      <c r="F62" s="393"/>
+      <c r="G62" s="393"/>
+      <c r="H62" s="393"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="367" t="s">
+      <c r="A63" s="366" t="s">
         <v>669</v>
       </c>
-      <c r="B63" s="394"/>
-      <c r="C63" s="394"/>
-      <c r="D63" s="394"/>
-      <c r="E63" s="394"/>
-      <c r="F63" s="394"/>
-      <c r="G63" s="394"/>
-      <c r="H63" s="394"/>
+      <c r="B63" s="393"/>
+      <c r="C63" s="393"/>
+      <c r="D63" s="393"/>
+      <c r="E63" s="393"/>
+      <c r="F63" s="393"/>
+      <c r="G63" s="393"/>
+      <c r="H63" s="393"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="367" t="s">
+      <c r="A64" s="366" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="367" t="s">
+      <c r="A65" s="366" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="367" t="s">
+      <c r="A66" s="366" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="367" t="s">
+      <c r="A67" s="366" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="367" t="s">
+      <c r="A68" s="366" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="367" t="s">
+      <c r="A69" s="366" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="367" t="s">
+      <c r="A70" s="366" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="367" t="s">
+      <c r="A71" s="366" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="367" t="s">
+      <c r="A72" s="366" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="367" t="s">
+      <c r="A73" s="366" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="367" t="s">
+      <c r="A74" s="366" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="367" t="s">
+      <c r="A75" s="366" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="367" t="s">
+      <c r="A76" s="366" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="367" t="s">
+      <c r="A77" s="366" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="367" t="s">
+      <c r="A78" s="366" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="367" t="s">
+      <c r="A79" s="366" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="367" t="s">
+      <c r="A80" s="366" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="367" t="s">
+      <c r="A81" s="366" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="367" t="s">
+      <c r="A82" s="366" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="367" t="s">
+      <c r="A83" s="366" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="367" t="s">
+      <c r="A84" s="366" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="367" t="s">
+      <c r="A85" s="366" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="367" t="s">
+      <c r="A86" s="366" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="367" t="s">
+      <c r="A87" s="366" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="367" t="s">
+      <c r="A88" s="366" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="367" t="s">
+      <c r="A89" s="366" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="367" t="s">
+      <c r="A90" s="366" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="367" t="s">
+      <c r="A91" s="366" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="367" t="s">
+      <c r="A92" s="366" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="367" t="s">
+      <c r="A93" s="366" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="367" t="s">
+      <c r="A94" s="366" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="367" t="s">
+      <c r="A95" s="366" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="367" t="s">
+      <c r="A96" s="366" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="367" t="s">
+      <c r="A97" s="366" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="367" t="s">
+      <c r="A98" s="366" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="367" t="s">
+      <c r="A99" s="366" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="367" t="s">
+      <c r="A100" s="366" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="367" t="s">
+      <c r="A101" s="366" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="367" t="s">
+      <c r="A102" s="366" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="367" t="s">
+      <c r="A103" s="366" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="367" t="s">
+      <c r="A104" s="366" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="367" t="s">
+      <c r="A105" s="366" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="367" t="s">
+      <c r="A106" s="366" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="367" t="s">
+      <c r="A107" s="366" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="367" t="s">
+      <c r="A108" s="366" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="367" t="s">
+      <c r="A109" s="366" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="367" t="s">
+      <c r="A110" s="366" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="367" t="s">
+      <c r="A111" s="366" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="367" t="s">
+      <c r="A112" s="366" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="367" t="s">
+      <c r="A113" s="366" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="367" t="s">
+      <c r="A114" s="366" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="367" t="s">
+      <c r="A115" s="366" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="367" t="s">
+      <c r="A116" s="366" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="367" t="s">
+      <c r="A117" s="366" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="367" t="s">
+      <c r="A118" s="366" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="367" t="s">
+      <c r="A119" s="366" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="367" t="s">
+      <c r="A120" s="366" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="367" t="s">
+      <c r="A121" s="366" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="367" t="s">
+      <c r="A122" s="366" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="367" t="s">
+      <c r="A123" s="366" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="367" t="s">
+      <c r="A124" s="366" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="367" t="s">
+      <c r="A125" s="366" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="367" t="s">
+      <c r="A126" s="366" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="367" t="s">
+      <c r="A127" s="366" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="367" t="s">
+      <c r="A128" s="366" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="367" t="s">
+      <c r="A129" s="366" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="367" t="s">
+      <c r="A130" s="366" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="367" t="s">
+      <c r="A131" s="366" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="367" t="s">
+      <c r="A132" s="366" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="367" t="s">
+      <c r="A133" s="366" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="367" t="s">
+      <c r="A134" s="366" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="367" t="s">
+      <c r="A135" s="366" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="367" t="s">
+      <c r="A136" s="366" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="367" t="s">
+      <c r="A137" s="366" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="367" t="s">
+      <c r="A138" s="366" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="367" t="s">
+      <c r="A139" s="366" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="367" t="s">
+      <c r="A140" s="366" t="s">
         <v>746</v>
       </c>
     </row>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,24 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="777">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -1606,16 +1605,16 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO aurinkosähkö</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO aurinkolämpö</t>
+    <t xml:space="preserve">Solel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvärme</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 0 :ostoenergia-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO tuulisähkö</t>
+    <t xml:space="preserve">Vindel</t>
   </si>
   <si>
     <t xml:space="preserve">TODO Lämpöpumpun lämmönlähteestä ottama energia</t>
@@ -2786,12 +2785,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
   </si>
   <si>
@@ -2816,12 +2815,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
   </si>
   <si>
@@ -2846,87 +2845,404 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+    <t xml:space="preserve">Kuukausitason erittely ympäristöstä olevasta energiasta otetun energian määrästä</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Sähköenergiantuotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lämpöenergiantuotto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Energiankulutus</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyödynnetty osuus</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :lampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">Månad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh/kk</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :sahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Muu sähkö</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lämpöpumppu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muu lämpö</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :lampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">Januari</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Februari</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Mars</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muusahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">Maj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juni</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+    <t xml:space="preserve">Juli</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Augusti</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :lampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :sahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Oktober</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :lampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Totalt</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muusahko]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7.5"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Energiankulutukseen merkitään se osuus rakennuksen energiankulutuksesta, jonka määrää voidaan vähentää ympäristössä olevasta energiasta otetulla energialla.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiatodistuksen laatimisessa käytettyjä lähtötietoja</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lämpökapasiteetti Crak ominaisarvo C </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rak omin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Wh/m²K</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakennuksen ilmatilavuus V, m³</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :lampo]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tuloilman sisäänpuhalluslämpötila T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, °C</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :sahko]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lämpöpumpun tuotto-osuus tilojen lämpöenergian tarpeesta Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lämmitys, tilat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :lampo]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lämpöpumpun tuotto-osuus käyttöveden lämpöenergian tarpeesta Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lämmitys, lkv</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lämmönjakelujärjestelmän lämpöhäviöt lämmittämättömään tilaan Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jakelu, ulos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, kWh/a</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</t>
   </si>
   <si>
@@ -2936,12 +3252,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
   </si>
   <si>
@@ -2966,12 +3282,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
   </si>
   <si>
@@ -2996,12 +3312,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3026,12 +3342,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3056,12 +3372,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3086,12 +3402,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3116,12 +3432,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3134,34 +3450,31 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3494,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3514,6 +3827,81 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7.5"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3806,7 +4194,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="430">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3943,7 +4331,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5375,11 +5763,155 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7677,6 +8209,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -7758,9 +8295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:colOff>232200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7774,7 +8311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="742680" cy="199440"/>
+          <a:ext cx="742320" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7795,9 +8332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7811,7 +8348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1086120" cy="199440"/>
+          <a:ext cx="1085760" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7832,9 +8369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7848,7 +8385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1392840" cy="199440"/>
+          <a:ext cx="1392480" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7869,9 +8406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>329400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7885,7 +8422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1716840" cy="199440"/>
+          <a:ext cx="1716480" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7906,9 +8443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
+      <xdr:colOff>202680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7922,7 +8459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2023920" cy="212400"/>
+          <a:ext cx="2023560" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7943,9 +8480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7959,7 +8496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2360160" cy="199440"/>
+          <a:ext cx="2359800" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7980,9 +8517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86400</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>248040</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7992,7 +8529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2673000" cy="198360"/>
+          <a:ext cx="2672640" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8361,9 +8898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8373,7 +8910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6972120" cy="10493640"/>
+          <a:ext cx="6971760" cy="10493280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8502,7 +9039,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -12355,7 +12892,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -14223,63 +14760,63 @@
   </conditionalFormatting>
   <dataValidations count="15">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="custom">
-      <formula1>OR(ISNUMBER(B50),B50="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E10" type="none">
-      <formula1>OR(ISNUMBER(E12),E12="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11 E13:E14" type="none">
-      <formula1>OR(ISNUMBER(E13),E13="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15" type="none">
-      <formula1>OR(ISNUMBER(F17),F17="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G15" type="none">
-      <formula1>OR(ISNUMBER(G17),G17="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19:D21 E20 D22:D26" type="none">
-      <formula1>OR(ISNUMBER(D21),D21="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E19:F19 F20:F26 E21:E26" type="none">
-      <formula1>OR(ISNUMBER(E21),E21="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D33:F33" type="none">
-      <formula1>OR(ISNUMBER(E35),E35="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D34:E34" type="none">
-      <formula1>OR(ISNUMBER(E36),E36="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D35:E35" type="none">
-      <formula1>OR(ISNUMBER(E37),E37="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G33" type="none">
-      <formula1>OR(ISNUMBER(G35),G35="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E36" type="none">
-      <formula1>OR(ISNUMBER(E38),E38="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D43:G44" type="none">
-      <formula1>OR(ISNUMBER(D7),D7="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D50:E51" type="none">
-      <formula1>OR(ISNUMBER(D14),D14="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D55:E55 D59:E59 D63:G65" type="none">
-      <formula1>OR(ISNUMBER(D27),D27="*")</formula1>
+      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -14300,8 +14837,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14782,7 +15319,7 @@
       <c r="F27" s="195"/>
       <c r="G27" s="203"/>
     </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
         <v>86</v>
       </c>
@@ -14801,7 +15338,7 @@
       </c>
       <c r="G28" s="279"/>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
         <v>89</v>
       </c>
@@ -14820,7 +15357,7 @@
       </c>
       <c r="G29" s="279"/>
     </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
         <v>298</v>
       </c>
@@ -16202,8 +16739,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="97" width="49.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="98" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="98" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="98" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="98" width="2.31"/>
@@ -18920,8 +19457,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19773,20 +20310,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="3" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="1.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="994" min="10" style="3" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="995" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="3" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="1.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="15" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1000" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19794,1163 +20332,1978 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
         <v>607</v>
       </c>
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="392"/>
+      <c r="C2" s="393" t="s">
         <v>608</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="366" t="s">
         <v>609</v>
       </c>
-      <c r="B3" s="373" t="str">
+      <c r="B3" s="357"/>
+      <c r="C3" s="394" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="366" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="373"/>
-      <c r="C4" s="373"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
-      <c r="G4" s="373"/>
-      <c r="H4" s="373"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="357"/>
+      <c r="C4" s="394"/>
+      <c r="D4" s="394"/>
+      <c r="E4" s="394"/>
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="394"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="366" t="s">
         <v>611</v>
       </c>
-      <c r="B5" s="373"/>
-      <c r="C5" s="373"/>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
-      <c r="G5" s="373"/>
-      <c r="H5" s="373"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="357"/>
+      <c r="C5" s="394"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="394"/>
+      <c r="G5" s="394"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="394"/>
+      <c r="J5" s="394"/>
+      <c r="K5" s="394"/>
+      <c r="L5" s="394"/>
+      <c r="M5" s="394"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="366" t="s">
         <v>612</v>
       </c>
-      <c r="B6" s="373"/>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="357"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="394"/>
+      <c r="E6" s="394"/>
+      <c r="F6" s="394"/>
+      <c r="G6" s="394"/>
+      <c r="H6" s="394"/>
+      <c r="I6" s="394"/>
+      <c r="J6" s="394"/>
+      <c r="K6" s="394"/>
+      <c r="L6" s="394"/>
+      <c r="M6" s="394"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="366" t="s">
         <v>613</v>
       </c>
-      <c r="B7" s="373"/>
-      <c r="C7" s="373"/>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
-      <c r="G7" s="373"/>
-      <c r="H7" s="373"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="357"/>
+      <c r="C7" s="394"/>
+      <c r="D7" s="394"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="394"/>
+      <c r="G7" s="394"/>
+      <c r="H7" s="394"/>
+      <c r="I7" s="394"/>
+      <c r="J7" s="394"/>
+      <c r="K7" s="394"/>
+      <c r="L7" s="394"/>
+      <c r="M7" s="394"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="231"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="366" t="s">
         <v>614</v>
       </c>
-      <c r="B8" s="373"/>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="373"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="373"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="357"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="394"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="394"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="394"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="366" t="s">
         <v>615</v>
       </c>
-      <c r="B9" s="373"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="373"/>
-      <c r="G9" s="373"/>
-      <c r="H9" s="373"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="357"/>
+      <c r="C9" s="394"/>
+      <c r="D9" s="394"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="394"/>
+      <c r="G9" s="394"/>
+      <c r="H9" s="394"/>
+      <c r="I9" s="394"/>
+      <c r="J9" s="394"/>
+      <c r="K9" s="394"/>
+      <c r="L9" s="394"/>
+      <c r="M9" s="394"/>
+      <c r="P9" s="231"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="366" t="s">
         <v>616</v>
       </c>
-      <c r="B10" s="373"/>
-      <c r="C10" s="373"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="373"/>
-      <c r="G10" s="373"/>
-      <c r="H10" s="373"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="357"/>
+      <c r="C10" s="394"/>
+      <c r="D10" s="394"/>
+      <c r="E10" s="394"/>
+      <c r="F10" s="394"/>
+      <c r="G10" s="394"/>
+      <c r="H10" s="394"/>
+      <c r="I10" s="394"/>
+      <c r="J10" s="394"/>
+      <c r="K10" s="394"/>
+      <c r="L10" s="394"/>
+      <c r="M10" s="394"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="366" t="s">
         <v>617</v>
       </c>
-      <c r="B11" s="373"/>
-      <c r="C11" s="373"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="373"/>
-      <c r="F11" s="373"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="373"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="357"/>
+      <c r="C11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="394"/>
+      <c r="F11" s="394"/>
+      <c r="G11" s="394"/>
+      <c r="H11" s="394"/>
+      <c r="I11" s="394"/>
+      <c r="J11" s="394"/>
+      <c r="K11" s="394"/>
+      <c r="L11" s="394"/>
+      <c r="M11" s="394"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="366" t="s">
         <v>618</v>
       </c>
-      <c r="B12" s="373"/>
-      <c r="C12" s="373"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="373"/>
-      <c r="F12" s="373"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="373"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="357"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="394"/>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="394"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="366" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="357"/>
+      <c r="C13" s="394"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="394"/>
+      <c r="G13" s="394"/>
+      <c r="H13" s="394"/>
+      <c r="I13" s="394"/>
+      <c r="J13" s="394"/>
+      <c r="K13" s="394"/>
+      <c r="L13" s="394"/>
+      <c r="M13" s="394"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="366" t="s">
         <v>620</v>
       </c>
-      <c r="B14" s="373"/>
-      <c r="C14" s="373"/>
-      <c r="D14" s="373"/>
-      <c r="E14" s="373"/>
-      <c r="F14" s="373"/>
-      <c r="G14" s="373"/>
-      <c r="H14" s="373"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="357"/>
+      <c r="C14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="394"/>
+      <c r="G14" s="394"/>
+      <c r="H14" s="394"/>
+      <c r="I14" s="394"/>
+      <c r="J14" s="394"/>
+      <c r="K14" s="394"/>
+      <c r="L14" s="394"/>
+      <c r="M14" s="394"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="366" t="s">
         <v>621</v>
       </c>
-      <c r="B15" s="373"/>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="373"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="357"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="394"/>
+      <c r="G15" s="394"/>
+      <c r="H15" s="394"/>
+      <c r="I15" s="394"/>
+      <c r="J15" s="394"/>
+      <c r="K15" s="394"/>
+      <c r="L15" s="394"/>
+      <c r="M15" s="394"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="366" t="s">
         <v>622</v>
       </c>
-      <c r="B16" s="373"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="373"/>
-      <c r="F16" s="373"/>
-      <c r="G16" s="373"/>
-      <c r="H16" s="373"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="357"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="394"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="394"/>
+      <c r="K16" s="394"/>
+      <c r="L16" s="394"/>
+      <c r="M16" s="394"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="366" t="s">
         <v>623</v>
       </c>
-      <c r="B17" s="373"/>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="357"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="394"/>
+      <c r="L17" s="394"/>
+      <c r="M17" s="394"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="366" t="s">
         <v>624</v>
       </c>
-      <c r="B18" s="373"/>
-      <c r="C18" s="373"/>
-      <c r="D18" s="373"/>
-      <c r="E18" s="373"/>
-      <c r="F18" s="373"/>
-      <c r="G18" s="373"/>
-      <c r="H18" s="373"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="357"/>
+      <c r="C18" s="394"/>
+      <c r="D18" s="394"/>
+      <c r="E18" s="394"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="394"/>
+      <c r="I18" s="394"/>
+      <c r="J18" s="394"/>
+      <c r="K18" s="394"/>
+      <c r="L18" s="394"/>
+      <c r="M18" s="394"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="366" t="s">
         <v>625</v>
       </c>
-      <c r="B19" s="373"/>
-      <c r="C19" s="373"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="373"/>
-      <c r="F19" s="373"/>
-      <c r="G19" s="373"/>
-      <c r="H19" s="373"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="357"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="394"/>
+      <c r="E19" s="394"/>
+      <c r="F19" s="394"/>
+      <c r="G19" s="394"/>
+      <c r="H19" s="394"/>
+      <c r="I19" s="394"/>
+      <c r="J19" s="394"/>
+      <c r="K19" s="394"/>
+      <c r="L19" s="394"/>
+      <c r="M19" s="394"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="366" t="s">
         <v>626</v>
       </c>
-      <c r="B20" s="373"/>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="373"/>
-      <c r="F20" s="373"/>
-      <c r="G20" s="373"/>
-      <c r="H20" s="373"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="357"/>
+      <c r="C20" s="394"/>
+      <c r="D20" s="394"/>
+      <c r="E20" s="394"/>
+      <c r="F20" s="394"/>
+      <c r="G20" s="394"/>
+      <c r="H20" s="394"/>
+      <c r="I20" s="394"/>
+      <c r="J20" s="394"/>
+      <c r="K20" s="394"/>
+      <c r="L20" s="394"/>
+      <c r="M20" s="394"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="366" t="s">
         <v>627</v>
       </c>
-      <c r="B21" s="373"/>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="373"/>
-      <c r="G21" s="373"/>
-      <c r="H21" s="373"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="357"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="394"/>
+      <c r="G21" s="394"/>
+      <c r="H21" s="394"/>
+      <c r="I21" s="394"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="394"/>
+      <c r="L21" s="394"/>
+      <c r="M21" s="394"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="366" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="373"/>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="373"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="357"/>
+      <c r="C22" s="394"/>
+      <c r="D22" s="394"/>
+      <c r="E22" s="394"/>
+      <c r="F22" s="394"/>
+      <c r="G22" s="394"/>
+      <c r="H22" s="394"/>
+      <c r="I22" s="394"/>
+      <c r="J22" s="394"/>
+      <c r="K22" s="394"/>
+      <c r="L22" s="394"/>
+      <c r="M22" s="394"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="366" t="s">
         <v>629</v>
       </c>
-      <c r="B23" s="373"/>
-      <c r="C23" s="373"/>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="373"/>
-      <c r="G23" s="373"/>
-      <c r="H23" s="373"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="357"/>
+      <c r="C23" s="394"/>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="394"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
+      <c r="K23" s="394"/>
+      <c r="L23" s="394"/>
+      <c r="M23" s="394"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="366" t="s">
         <v>630</v>
       </c>
-      <c r="B24" s="373"/>
-      <c r="C24" s="373"/>
-      <c r="D24" s="373"/>
-      <c r="E24" s="373"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="373"/>
-      <c r="H24" s="373"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="357"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="394"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="394"/>
+      <c r="G24" s="394"/>
+      <c r="H24" s="394"/>
+      <c r="I24" s="394"/>
+      <c r="J24" s="394"/>
+      <c r="K24" s="394"/>
+      <c r="L24" s="394"/>
+      <c r="M24" s="394"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="B25" s="373"/>
-      <c r="C25" s="373"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="373"/>
-      <c r="H25" s="373"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="357"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="394"/>
+      <c r="G25" s="394"/>
+      <c r="H25" s="394"/>
+      <c r="I25" s="394"/>
+      <c r="J25" s="394"/>
+      <c r="K25" s="394"/>
+      <c r="L25" s="394"/>
+      <c r="M25" s="394"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="366" t="s">
         <v>632</v>
       </c>
-      <c r="B26" s="373"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
-      <c r="G26" s="373"/>
-      <c r="H26" s="373"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="357"/>
+      <c r="C26" s="394"/>
+      <c r="D26" s="394"/>
+      <c r="E26" s="394"/>
+      <c r="F26" s="394"/>
+      <c r="G26" s="394"/>
+      <c r="H26" s="394"/>
+      <c r="I26" s="394"/>
+      <c r="J26" s="394"/>
+      <c r="K26" s="394"/>
+      <c r="L26" s="394"/>
+      <c r="M26" s="394"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="366" t="s">
         <v>633</v>
       </c>
-      <c r="B27" s="373"/>
-      <c r="C27" s="373"/>
-      <c r="D27" s="373"/>
-      <c r="E27" s="373"/>
-      <c r="F27" s="373"/>
-      <c r="G27" s="373"/>
-      <c r="H27" s="373"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="357"/>
+      <c r="C27" s="394"/>
+      <c r="D27" s="394"/>
+      <c r="E27" s="394"/>
+      <c r="F27" s="394"/>
+      <c r="G27" s="394"/>
+      <c r="H27" s="394"/>
+      <c r="I27" s="394"/>
+      <c r="J27" s="394"/>
+      <c r="K27" s="394"/>
+      <c r="L27" s="394"/>
+      <c r="M27" s="394"/>
+      <c r="Q27" s="231"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="366" t="s">
         <v>634</v>
       </c>
-      <c r="B28" s="373"/>
-      <c r="C28" s="373"/>
-      <c r="D28" s="373"/>
-      <c r="E28" s="373"/>
-      <c r="F28" s="373"/>
-      <c r="G28" s="373"/>
-      <c r="H28" s="373"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="357"/>
+      <c r="C28" s="394"/>
+      <c r="D28" s="394"/>
+      <c r="E28" s="394"/>
+      <c r="F28" s="394"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="394"/>
+      <c r="I28" s="394"/>
+      <c r="J28" s="394"/>
+      <c r="K28" s="394"/>
+      <c r="L28" s="394"/>
+      <c r="M28" s="394"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="366" t="s">
         <v>635</v>
       </c>
-      <c r="B29" s="373"/>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="373"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="357"/>
+      <c r="C29" s="394"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="394"/>
+      <c r="F29" s="394"/>
+      <c r="G29" s="394"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="394"/>
+      <c r="J29" s="394"/>
+      <c r="K29" s="394"/>
+      <c r="L29" s="394"/>
+      <c r="M29" s="394"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="366" t="s">
         <v>636</v>
       </c>
-      <c r="B30" s="373"/>
-      <c r="C30" s="373"/>
-      <c r="D30" s="373"/>
-      <c r="E30" s="373"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="373"/>
-      <c r="H30" s="373"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="357"/>
+      <c r="C30" s="394"/>
+      <c r="D30" s="394"/>
+      <c r="E30" s="394"/>
+      <c r="F30" s="394"/>
+      <c r="G30" s="394"/>
+      <c r="H30" s="394"/>
+      <c r="I30" s="394"/>
+      <c r="J30" s="394"/>
+      <c r="K30" s="394"/>
+      <c r="L30" s="394"/>
+      <c r="M30" s="394"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="366" t="s">
         <v>637</v>
       </c>
-      <c r="B31" s="373"/>
-      <c r="C31" s="373"/>
-      <c r="D31" s="373"/>
-      <c r="E31" s="373"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="373"/>
-      <c r="H31" s="373"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="357"/>
+      <c r="C31" s="394"/>
+      <c r="D31" s="394"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="394"/>
+      <c r="G31" s="394"/>
+      <c r="H31" s="394"/>
+      <c r="I31" s="394"/>
+      <c r="J31" s="394"/>
+      <c r="K31" s="394"/>
+      <c r="L31" s="394"/>
+      <c r="M31" s="394"/>
+      <c r="P31" s="231"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="366" t="s">
         <v>638</v>
       </c>
-      <c r="B32" s="373"/>
-      <c r="C32" s="373"/>
-      <c r="D32" s="373"/>
-      <c r="E32" s="373"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="373"/>
-      <c r="H32" s="373"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="357"/>
+      <c r="C32" s="394"/>
+      <c r="D32" s="394"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="394"/>
+      <c r="G32" s="394"/>
+      <c r="H32" s="394"/>
+      <c r="I32" s="394"/>
+      <c r="J32" s="394"/>
+      <c r="K32" s="394"/>
+      <c r="L32" s="394"/>
+      <c r="M32" s="394"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="366" t="s">
         <v>639</v>
       </c>
-      <c r="B33" s="373"/>
-      <c r="C33" s="373"/>
-      <c r="D33" s="373"/>
-      <c r="E33" s="373"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="373"/>
-      <c r="H33" s="373"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="357"/>
+      <c r="C33" s="394"/>
+      <c r="D33" s="394"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="394"/>
+      <c r="G33" s="394"/>
+      <c r="H33" s="394"/>
+      <c r="I33" s="394"/>
+      <c r="J33" s="394"/>
+      <c r="K33" s="394"/>
+      <c r="L33" s="394"/>
+      <c r="M33" s="394"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="366" t="s">
         <v>640</v>
       </c>
-      <c r="B34" s="373"/>
-      <c r="C34" s="373"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="373"/>
-      <c r="F34" s="373"/>
-      <c r="G34" s="373"/>
-      <c r="H34" s="373"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="357"/>
+      <c r="C34" s="394"/>
+      <c r="D34" s="394"/>
+      <c r="E34" s="394"/>
+      <c r="F34" s="394"/>
+      <c r="G34" s="394"/>
+      <c r="H34" s="394"/>
+      <c r="I34" s="394"/>
+      <c r="J34" s="394"/>
+      <c r="K34" s="394"/>
+      <c r="L34" s="394"/>
+      <c r="M34" s="394"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="366" t="s">
         <v>641</v>
       </c>
-      <c r="B35" s="373"/>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="373"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="357"/>
+      <c r="C35" s="394"/>
+      <c r="D35" s="394"/>
+      <c r="E35" s="394"/>
+      <c r="F35" s="394"/>
+      <c r="G35" s="394"/>
+      <c r="H35" s="394"/>
+      <c r="I35" s="394"/>
+      <c r="J35" s="394"/>
+      <c r="K35" s="394"/>
+      <c r="L35" s="394"/>
+      <c r="M35" s="394"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="366" t="s">
         <v>642</v>
       </c>
-      <c r="B36" s="373"/>
-      <c r="C36" s="373"/>
-      <c r="D36" s="373"/>
-      <c r="E36" s="373"/>
-      <c r="F36" s="373"/>
-      <c r="G36" s="373"/>
-      <c r="H36" s="373"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="395"/>
+      <c r="C36" s="396" t="s">
+        <v>643</v>
+      </c>
+      <c r="D36" s="397"/>
+      <c r="E36" s="397"/>
+      <c r="F36" s="397"/>
+      <c r="G36" s="397"/>
+      <c r="H36" s="397"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="397"/>
+      <c r="M36" s="398"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="366" t="s">
-        <v>643</v>
-      </c>
-      <c r="B37" s="373"/>
-      <c r="C37" s="373"/>
-      <c r="D37" s="373"/>
-      <c r="E37" s="373"/>
-      <c r="F37" s="373"/>
-      <c r="G37" s="373"/>
-      <c r="H37" s="373"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>644</v>
+      </c>
+      <c r="B37" s="399"/>
+      <c r="C37" s="400"/>
+      <c r="D37" s="401" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" s="401"/>
+      <c r="F37" s="401"/>
+      <c r="G37" s="402" t="s">
+        <v>646</v>
+      </c>
+      <c r="H37" s="402"/>
+      <c r="I37" s="402"/>
+      <c r="J37" s="402" t="s">
+        <v>647</v>
+      </c>
+      <c r="K37" s="402"/>
+      <c r="L37" s="402" t="s">
+        <v>648</v>
+      </c>
+      <c r="M37" s="402"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="366" t="s">
-        <v>644</v>
-      </c>
-      <c r="B38" s="373"/>
-      <c r="C38" s="373"/>
-      <c r="D38" s="373"/>
-      <c r="E38" s="373"/>
-      <c r="F38" s="373"/>
-      <c r="G38" s="373"/>
-      <c r="H38" s="373"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>649</v>
+      </c>
+      <c r="B38" s="403"/>
+      <c r="C38" s="404" t="s">
+        <v>650</v>
+      </c>
+      <c r="D38" s="405" t="s">
+        <v>651</v>
+      </c>
+      <c r="E38" s="405"/>
+      <c r="F38" s="405"/>
+      <c r="G38" s="406" t="s">
+        <v>651</v>
+      </c>
+      <c r="H38" s="406"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="406" t="s">
+        <v>651</v>
+      </c>
+      <c r="K38" s="406"/>
+      <c r="L38" s="406" t="s">
+        <v>651</v>
+      </c>
+      <c r="M38" s="406"/>
+    </row>
+    <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="366" t="s">
-        <v>645</v>
-      </c>
-      <c r="B39" s="373"/>
-      <c r="C39" s="373"/>
-      <c r="D39" s="373"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="373"/>
-      <c r="G39" s="373"/>
-      <c r="H39" s="373"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652</v>
+      </c>
+      <c r="B39" s="407"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="409" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="410" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="410" t="s">
+        <v>653</v>
+      </c>
+      <c r="G39" s="410" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" s="410" t="s">
+        <v>654</v>
+      </c>
+      <c r="I39" s="410" t="s">
+        <v>655</v>
+      </c>
+      <c r="J39" s="410" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" s="410" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" s="410" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" s="410" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="366" t="s">
-        <v>646</v>
-      </c>
-      <c r="B40" s="373"/>
-      <c r="C40" s="373"/>
-      <c r="D40" s="373"/>
-      <c r="E40" s="373"/>
-      <c r="F40" s="373"/>
-      <c r="G40" s="373"/>
-      <c r="H40" s="373"/>
-    </row>
-    <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>656</v>
+      </c>
+      <c r="B40" s="411"/>
+      <c r="C40" s="412" t="s">
+        <v>657</v>
+      </c>
+      <c r="D40" s="413" t="str">
+        <f aca="false">A11</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E40" s="413" t="str">
+        <f aca="false">A12</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F40" s="413" t="str">
+        <f aca="false">A13</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :muusahko]</v>
+      </c>
+      <c r="G40" s="413" t="str">
+        <f aca="false">A14</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H40" s="413" t="str">
+        <f aca="false">A15</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I40" s="413" t="str">
+        <f aca="false">A16</f>
+        <v>[:tulokset :kuukausierittely 0 :tuotto :muulampo]</v>
+      </c>
+      <c r="J40" s="413" t="str">
+        <f aca="false">A17</f>
+        <v>[:tulokset :kuukausierittely 0 :kulutus :sahko]</v>
+      </c>
+      <c r="K40" s="413" t="str">
+        <f aca="false">A18</f>
+        <v>[:tulokset :kuukausierittely 0 :kulutus :lampo]</v>
+      </c>
+      <c r="L40" s="413" t="str">
+        <f aca="false">A19</f>
+        <v>[:tulokset :kuukausierittely 0 :hyoty :sahko]</v>
+      </c>
+      <c r="M40" s="413" t="str">
+        <f aca="false">A20</f>
+        <v>[:tulokset :kuukausierittely 0 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="366" t="s">
-        <v>647</v>
-      </c>
-      <c r="B41" s="373"/>
-      <c r="C41" s="373"/>
-      <c r="D41" s="373"/>
-      <c r="E41" s="373"/>
-      <c r="F41" s="373"/>
-      <c r="G41" s="373"/>
-      <c r="H41" s="373"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>658</v>
+      </c>
+      <c r="B41" s="411"/>
+      <c r="C41" s="412" t="s">
+        <v>659</v>
+      </c>
+      <c r="D41" s="413" t="str">
+        <f aca="false">A21</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E41" s="413" t="str">
+        <f aca="false">A22</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F41" s="413" t="str">
+        <f aca="false">A23</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :muusahko]</v>
+      </c>
+      <c r="G41" s="413" t="str">
+        <f aca="false">A24</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H41" s="413" t="str">
+        <f aca="false">A25</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I41" s="413" t="str">
+        <f aca="false">A26</f>
+        <v>[:tulokset :kuukausierittely 1 :tuotto :muulampo]</v>
+      </c>
+      <c r="J41" s="413" t="str">
+        <f aca="false">A27</f>
+        <v>[:tulokset :kuukausierittely 1 :kulutus :sahko]</v>
+      </c>
+      <c r="K41" s="413" t="str">
+        <f aca="false">A28</f>
+        <v>[:tulokset :kuukausierittely 1 :kulutus :lampo]</v>
+      </c>
+      <c r="L41" s="413" t="str">
+        <f aca="false">A29</f>
+        <v>[:tulokset :kuukausierittely 1 :hyoty :sahko]</v>
+      </c>
+      <c r="M41" s="413" t="str">
+        <f aca="false">A30</f>
+        <v>[:tulokset :kuukausierittely 1 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="366" t="s">
-        <v>648</v>
-      </c>
-      <c r="B42" s="373"/>
-      <c r="C42" s="373"/>
-      <c r="D42" s="373"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="373"/>
-      <c r="G42" s="373"/>
-      <c r="H42" s="373"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+      <c r="B42" s="411"/>
+      <c r="C42" s="412" t="s">
+        <v>661</v>
+      </c>
+      <c r="D42" s="413" t="str">
+        <f aca="false">A31</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E42" s="413" t="str">
+        <f aca="false">A32</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F42" s="413" t="str">
+        <f aca="false">A33</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :muusahko]</v>
+      </c>
+      <c r="G42" s="413" t="str">
+        <f aca="false">A34</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H42" s="413" t="str">
+        <f aca="false">A35</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I42" s="413" t="str">
+        <f aca="false">A36</f>
+        <v>[:tulokset :kuukausierittely 2 :tuotto :muulampo]</v>
+      </c>
+      <c r="J42" s="413" t="str">
+        <f aca="false">A37</f>
+        <v>[:tulokset :kuukausierittely 2 :kulutus :sahko]</v>
+      </c>
+      <c r="K42" s="413" t="str">
+        <f aca="false">A38</f>
+        <v>[:tulokset :kuukausierittely 2 :kulutus :lampo]</v>
+      </c>
+      <c r="L42" s="413" t="str">
+        <f aca="false">A39</f>
+        <v>[:tulokset :kuukausierittely 2 :hyoty :sahko]</v>
+      </c>
+      <c r="M42" s="413" t="str">
+        <f aca="false">A40</f>
+        <v>[:tulokset :kuukausierittely 2 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="366" t="s">
-        <v>649</v>
-      </c>
-      <c r="B43" s="373"/>
-      <c r="C43" s="373"/>
-      <c r="D43" s="373"/>
-      <c r="E43" s="373"/>
-      <c r="F43" s="373"/>
-      <c r="G43" s="373"/>
-      <c r="H43" s="373"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>662</v>
+      </c>
+      <c r="B43" s="411"/>
+      <c r="C43" s="412" t="s">
+        <v>663</v>
+      </c>
+      <c r="D43" s="413" t="str">
+        <f aca="false">A41</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E43" s="413" t="str">
+        <f aca="false">A42</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F43" s="413" t="str">
+        <f aca="false">A43</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :muusahko]</v>
+      </c>
+      <c r="G43" s="413" t="str">
+        <f aca="false">A44</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H43" s="413" t="str">
+        <f aca="false">A45</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I43" s="413" t="str">
+        <f aca="false">A46</f>
+        <v>[:tulokset :kuukausierittely 3 :tuotto :muulampo]</v>
+      </c>
+      <c r="J43" s="413" t="str">
+        <f aca="false">A47</f>
+        <v>[:tulokset :kuukausierittely 3 :kulutus :sahko]</v>
+      </c>
+      <c r="K43" s="413" t="str">
+        <f aca="false">A48</f>
+        <v>[:tulokset :kuukausierittely 3 :kulutus :lampo]</v>
+      </c>
+      <c r="L43" s="413" t="str">
+        <f aca="false">A49</f>
+        <v>[:tulokset :kuukausierittely 3 :hyoty :sahko]</v>
+      </c>
+      <c r="M43" s="413" t="str">
+        <f aca="false">A50</f>
+        <v>[:tulokset :kuukausierittely 3 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="366" t="s">
-        <v>650</v>
-      </c>
-      <c r="B44" s="373"/>
-      <c r="C44" s="373"/>
-      <c r="D44" s="373"/>
-      <c r="E44" s="373"/>
-      <c r="F44" s="373"/>
-      <c r="G44" s="373"/>
-      <c r="H44" s="373"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>664</v>
+      </c>
+      <c r="B44" s="411"/>
+      <c r="C44" s="412" t="s">
+        <v>665</v>
+      </c>
+      <c r="D44" s="413" t="str">
+        <f aca="false">A51</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E44" s="413" t="str">
+        <f aca="false">A52</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F44" s="413" t="str">
+        <f aca="false">A53</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :muusahko]</v>
+      </c>
+      <c r="G44" s="413" t="str">
+        <f aca="false">A54</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H44" s="413" t="str">
+        <f aca="false">A55</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I44" s="413" t="str">
+        <f aca="false">A56</f>
+        <v>[:tulokset :kuukausierittely 4 :tuotto :muulampo]</v>
+      </c>
+      <c r="J44" s="413" t="str">
+        <f aca="false">A57</f>
+        <v>[:tulokset :kuukausierittely 4 :kulutus :sahko]</v>
+      </c>
+      <c r="K44" s="413" t="str">
+        <f aca="false">A58</f>
+        <v>[:tulokset :kuukausierittely 4 :kulutus :lampo]</v>
+      </c>
+      <c r="L44" s="413" t="str">
+        <f aca="false">A59</f>
+        <v>[:tulokset :kuukausierittely 4 :hyoty :sahko]</v>
+      </c>
+      <c r="M44" s="413" t="str">
+        <f aca="false">A60</f>
+        <v>[:tulokset :kuukausierittely 4 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="366" t="s">
-        <v>651</v>
-      </c>
-      <c r="B45" s="373"/>
-      <c r="C45" s="373"/>
-      <c r="D45" s="373"/>
-      <c r="E45" s="373"/>
-      <c r="F45" s="373"/>
-      <c r="G45" s="373"/>
-      <c r="H45" s="373"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+      <c r="B45" s="411"/>
+      <c r="C45" s="412" t="s">
+        <v>667</v>
+      </c>
+      <c r="D45" s="413" t="str">
+        <f aca="false">A61</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E45" s="413" t="str">
+        <f aca="false">A62</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F45" s="413" t="str">
+        <f aca="false">A63</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :muusahko]</v>
+      </c>
+      <c r="G45" s="413" t="str">
+        <f aca="false">A64</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H45" s="413" t="str">
+        <f aca="false">A65</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I45" s="413" t="str">
+        <f aca="false">A66</f>
+        <v>[:tulokset :kuukausierittely 5 :tuotto :muulampo]</v>
+      </c>
+      <c r="J45" s="413" t="str">
+        <f aca="false">A67</f>
+        <v>[:tulokset :kuukausierittely 5 :kulutus :sahko]</v>
+      </c>
+      <c r="K45" s="413" t="str">
+        <f aca="false">A68</f>
+        <v>[:tulokset :kuukausierittely 5 :kulutus :lampo]</v>
+      </c>
+      <c r="L45" s="413" t="str">
+        <f aca="false">A69</f>
+        <v>[:tulokset :kuukausierittely 5 :hyoty :sahko]</v>
+      </c>
+      <c r="M45" s="413" t="str">
+        <f aca="false">A70</f>
+        <v>[:tulokset :kuukausierittely 5 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="366" t="s">
-        <v>652</v>
-      </c>
-      <c r="B46" s="373"/>
-      <c r="C46" s="373"/>
-      <c r="D46" s="373"/>
-      <c r="E46" s="373"/>
-      <c r="F46" s="373"/>
-      <c r="G46" s="373"/>
-      <c r="H46" s="373"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>668</v>
+      </c>
+      <c r="B46" s="411"/>
+      <c r="C46" s="412" t="s">
+        <v>669</v>
+      </c>
+      <c r="D46" s="413" t="str">
+        <f aca="false">A71</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E46" s="413" t="str">
+        <f aca="false">A72</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F46" s="413" t="str">
+        <f aca="false">A73</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :muusahko]</v>
+      </c>
+      <c r="G46" s="413" t="str">
+        <f aca="false">A74</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H46" s="413" t="str">
+        <f aca="false">A75</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I46" s="413" t="str">
+        <f aca="false">A76</f>
+        <v>[:tulokset :kuukausierittely 6 :tuotto :muulampo]</v>
+      </c>
+      <c r="J46" s="413" t="str">
+        <f aca="false">A77</f>
+        <v>[:tulokset :kuukausierittely 6 :kulutus :sahko]</v>
+      </c>
+      <c r="K46" s="413" t="str">
+        <f aca="false">A78</f>
+        <v>[:tulokset :kuukausierittely 6 :kulutus :lampo]</v>
+      </c>
+      <c r="L46" s="413" t="str">
+        <f aca="false">A79</f>
+        <v>[:tulokset :kuukausierittely 6 :hyoty :sahko]</v>
+      </c>
+      <c r="M46" s="413" t="str">
+        <f aca="false">A80</f>
+        <v>[:tulokset :kuukausierittely 6 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="366" t="s">
-        <v>653</v>
-      </c>
-      <c r="B47" s="373"/>
-      <c r="C47" s="373"/>
-      <c r="D47" s="373"/>
-      <c r="E47" s="373"/>
-      <c r="F47" s="373"/>
-      <c r="G47" s="373"/>
-      <c r="H47" s="373"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+      <c r="B47" s="411"/>
+      <c r="C47" s="412" t="s">
+        <v>671</v>
+      </c>
+      <c r="D47" s="413" t="str">
+        <f aca="false">A81</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E47" s="413" t="str">
+        <f aca="false">A82</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F47" s="413" t="str">
+        <f aca="false">A83</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :muusahko]</v>
+      </c>
+      <c r="G47" s="413" t="str">
+        <f aca="false">A84</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H47" s="413" t="str">
+        <f aca="false">A85</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I47" s="413" t="str">
+        <f aca="false">A86</f>
+        <v>[:tulokset :kuukausierittely 7 :tuotto :muulampo]</v>
+      </c>
+      <c r="J47" s="413" t="str">
+        <f aca="false">A87</f>
+        <v>[:tulokset :kuukausierittely 7 :kulutus :sahko]</v>
+      </c>
+      <c r="K47" s="413" t="str">
+        <f aca="false">A88</f>
+        <v>[:tulokset :kuukausierittely 7 :kulutus :lampo]</v>
+      </c>
+      <c r="L47" s="413" t="str">
+        <f aca="false">A89</f>
+        <v>[:tulokset :kuukausierittely 7 :hyoty :sahko]</v>
+      </c>
+      <c r="M47" s="413" t="str">
+        <f aca="false">A90</f>
+        <v>[:tulokset :kuukausierittely 7 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="366" t="s">
-        <v>654</v>
-      </c>
-      <c r="B48" s="373"/>
-      <c r="C48" s="373"/>
-      <c r="D48" s="373"/>
-      <c r="E48" s="373"/>
-      <c r="F48" s="373"/>
-      <c r="G48" s="373"/>
-      <c r="H48" s="373"/>
-    </row>
-    <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+      <c r="B48" s="411"/>
+      <c r="C48" s="412" t="s">
+        <v>673</v>
+      </c>
+      <c r="D48" s="413" t="str">
+        <f aca="false">A91</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E48" s="413" t="str">
+        <f aca="false">A92</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F48" s="413" t="str">
+        <f aca="false">A93</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :muusahko]</v>
+      </c>
+      <c r="G48" s="413" t="str">
+        <f aca="false">A94</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H48" s="413" t="str">
+        <f aca="false">A95</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I48" s="413" t="str">
+        <f aca="false">A96</f>
+        <v>[:tulokset :kuukausierittely 8 :tuotto :muulampo]</v>
+      </c>
+      <c r="J48" s="413" t="str">
+        <f aca="false">A97</f>
+        <v>[:tulokset :kuukausierittely 8 :kulutus :sahko]</v>
+      </c>
+      <c r="K48" s="413" t="str">
+        <f aca="false">A98</f>
+        <v>[:tulokset :kuukausierittely 8 :kulutus :lampo]</v>
+      </c>
+      <c r="L48" s="413" t="str">
+        <f aca="false">A99</f>
+        <v>[:tulokset :kuukausierittely 8 :hyoty :sahko]</v>
+      </c>
+      <c r="M48" s="413" t="str">
+        <f aca="false">A100</f>
+        <v>[:tulokset :kuukausierittely 8 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="366" t="s">
-        <v>655</v>
-      </c>
-      <c r="B49" s="373"/>
-      <c r="C49" s="373"/>
-      <c r="D49" s="373"/>
-      <c r="E49" s="373"/>
-      <c r="F49" s="373"/>
-      <c r="G49" s="373"/>
-      <c r="H49" s="373"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>674</v>
+      </c>
+      <c r="B49" s="411"/>
+      <c r="C49" s="412" t="s">
+        <v>675</v>
+      </c>
+      <c r="D49" s="413" t="str">
+        <f aca="false">A101</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E49" s="413" t="str">
+        <f aca="false">A102</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F49" s="413" t="str">
+        <f aca="false">A103</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :muusahko]</v>
+      </c>
+      <c r="G49" s="413" t="str">
+        <f aca="false">A104</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H49" s="413" t="str">
+        <f aca="false">A105</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I49" s="413" t="str">
+        <f aca="false">A106</f>
+        <v>[:tulokset :kuukausierittely 9 :tuotto :muulampo]</v>
+      </c>
+      <c r="J49" s="413" t="str">
+        <f aca="false">A107</f>
+        <v>[:tulokset :kuukausierittely 9 :kulutus :sahko]</v>
+      </c>
+      <c r="K49" s="413" t="str">
+        <f aca="false">A108</f>
+        <v>[:tulokset :kuukausierittely 9 :kulutus :lampo]</v>
+      </c>
+      <c r="L49" s="413" t="str">
+        <f aca="false">A109</f>
+        <v>[:tulokset :kuukausierittely 9 :hyoty :sahko]</v>
+      </c>
+      <c r="M49" s="413" t="str">
+        <f aca="false">A110</f>
+        <v>[:tulokset :kuukausierittely 9 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="366" t="s">
-        <v>656</v>
-      </c>
-      <c r="B50" s="373"/>
-      <c r="C50" s="373"/>
-      <c r="D50" s="373"/>
-      <c r="E50" s="373"/>
-      <c r="F50" s="373"/>
-      <c r="G50" s="373"/>
-      <c r="H50" s="373"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>676</v>
+      </c>
+      <c r="B50" s="411"/>
+      <c r="C50" s="412" t="s">
+        <v>677</v>
+      </c>
+      <c r="D50" s="413" t="str">
+        <f aca="false">A111</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E50" s="413" t="str">
+        <f aca="false">A112</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F50" s="413" t="str">
+        <f aca="false">A113</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :muusahko]</v>
+      </c>
+      <c r="G50" s="413" t="str">
+        <f aca="false">A114</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H50" s="413" t="str">
+        <f aca="false">A115</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I50" s="413" t="str">
+        <f aca="false">A116</f>
+        <v>[:tulokset :kuukausierittely 10 :tuotto :muulampo]</v>
+      </c>
+      <c r="J50" s="413" t="str">
+        <f aca="false">A117</f>
+        <v>[:tulokset :kuukausierittely 10 :kulutus :sahko]</v>
+      </c>
+      <c r="K50" s="413" t="str">
+        <f aca="false">A118</f>
+        <v>[:tulokset :kuukausierittely 10 :kulutus :lampo]</v>
+      </c>
+      <c r="L50" s="413" t="str">
+        <f aca="false">A119</f>
+        <v>[:tulokset :kuukausierittely 10 :hyoty :sahko]</v>
+      </c>
+      <c r="M50" s="413" t="str">
+        <f aca="false">A120</f>
+        <v>[:tulokset :kuukausierittely 10 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="366" t="s">
-        <v>657</v>
-      </c>
-      <c r="B51" s="373"/>
-      <c r="C51" s="373"/>
-      <c r="D51" s="373"/>
-      <c r="E51" s="373"/>
-      <c r="F51" s="373"/>
-      <c r="G51" s="373"/>
-      <c r="H51" s="373"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+      <c r="B51" s="411"/>
+      <c r="C51" s="412" t="s">
+        <v>679</v>
+      </c>
+      <c r="D51" s="413" t="str">
+        <f aca="false">A121</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E51" s="413" t="str">
+        <f aca="false">A122</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F51" s="413" t="str">
+        <f aca="false">A123</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :muusahko]</v>
+      </c>
+      <c r="G51" s="413" t="str">
+        <f aca="false">A124</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H51" s="413" t="str">
+        <f aca="false">A125</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I51" s="413" t="str">
+        <f aca="false">A126</f>
+        <v>[:tulokset :kuukausierittely 11 :tuotto :muulampo]</v>
+      </c>
+      <c r="J51" s="413" t="str">
+        <f aca="false">A127</f>
+        <v>[:tulokset :kuukausierittely 11 :kulutus :sahko]</v>
+      </c>
+      <c r="K51" s="413" t="str">
+        <f aca="false">A128</f>
+        <v>[:tulokset :kuukausierittely 11 :kulutus :lampo]</v>
+      </c>
+      <c r="L51" s="413" t="str">
+        <f aca="false">A129</f>
+        <v>[:tulokset :kuukausierittely 11 :hyoty :sahko]</v>
+      </c>
+      <c r="M51" s="413" t="str">
+        <f aca="false">A130</f>
+        <v>[:tulokset :kuukausierittely 11 :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="366" t="s">
-        <v>658</v>
-      </c>
-      <c r="B52" s="373"/>
-      <c r="C52" s="373"/>
-      <c r="D52" s="373"/>
-      <c r="E52" s="373"/>
-      <c r="F52" s="373"/>
-      <c r="G52" s="373"/>
-      <c r="H52" s="373"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+      <c r="B52" s="411"/>
+      <c r="C52" s="414" t="s">
+        <v>681</v>
+      </c>
+      <c r="D52" s="415" t="str">
+        <f aca="false">A131</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</v>
+      </c>
+      <c r="E52" s="415" t="str">
+        <f aca="false">A132</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</v>
+      </c>
+      <c r="F52" s="415" t="str">
+        <f aca="false">A133</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
+      </c>
+      <c r="G52" s="415" t="str">
+        <f aca="false">A134</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</v>
+      </c>
+      <c r="H52" s="415" t="str">
+        <f aca="false">A135</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</v>
+      </c>
+      <c r="I52" s="415" t="str">
+        <f aca="false">A136</f>
+        <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
+      </c>
+      <c r="J52" s="415" t="str">
+        <f aca="false">A137</f>
+        <v>[:tulokset :kuukausierittely-summat :kulutus :sahko]</v>
+      </c>
+      <c r="K52" s="415" t="str">
+        <f aca="false">A138</f>
+        <v>[:tulokset :kuukausierittely-summat :kulutus :lampo]</v>
+      </c>
+      <c r="L52" s="415" t="str">
+        <f aca="false">A139</f>
+        <v>[:tulokset :kuukausierittely-summat :hyoty :sahko]</v>
+      </c>
+      <c r="M52" s="415" t="str">
+        <f aca="false">A140</f>
+        <v>[:tulokset :kuukausierittely-summat :hyoty :lampo]</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="366" t="s">
-        <v>659</v>
-      </c>
-      <c r="B53" s="373"/>
-      <c r="C53" s="373"/>
-      <c r="D53" s="373"/>
-      <c r="E53" s="373"/>
-      <c r="F53" s="373"/>
-      <c r="G53" s="373"/>
-      <c r="H53" s="373"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>682</v>
+      </c>
+      <c r="B53" s="399"/>
+      <c r="C53" s="416" t="s">
+        <v>683</v>
+      </c>
+      <c r="D53" s="416"/>
+      <c r="E53" s="416"/>
+      <c r="F53" s="416"/>
+      <c r="G53" s="416"/>
+      <c r="H53" s="416"/>
+      <c r="I53" s="416"/>
+      <c r="J53" s="416"/>
+      <c r="K53" s="416"/>
+      <c r="L53" s="416"/>
+      <c r="M53" s="416"/>
+    </row>
+    <row r="54" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="366" t="s">
-        <v>660</v>
-      </c>
-      <c r="B54" s="373"/>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="373"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+      <c r="B54" s="399"/>
+      <c r="C54" s="417"/>
+      <c r="D54" s="417"/>
+      <c r="E54" s="417"/>
+      <c r="F54" s="417"/>
+      <c r="G54" s="417"/>
+      <c r="H54" s="417"/>
+      <c r="I54" s="417"/>
+      <c r="J54" s="417"/>
+      <c r="K54" s="417"/>
+      <c r="L54" s="417"/>
+      <c r="M54" s="400"/>
+    </row>
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="366" t="s">
-        <v>661</v>
-      </c>
-      <c r="B55" s="373"/>
-      <c r="C55" s="373"/>
-      <c r="D55" s="373"/>
-      <c r="E55" s="373"/>
-      <c r="F55" s="373"/>
-      <c r="G55" s="373"/>
-      <c r="H55" s="373"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>685</v>
+      </c>
+      <c r="B55" s="418"/>
+      <c r="C55" s="419" t="s">
+        <v>686</v>
+      </c>
+      <c r="D55" s="419"/>
+      <c r="E55" s="419"/>
+      <c r="F55" s="419"/>
+      <c r="G55" s="419"/>
+      <c r="H55" s="419"/>
+      <c r="I55" s="419"/>
+      <c r="J55" s="419"/>
+      <c r="K55" s="419"/>
+      <c r="L55" s="419"/>
+      <c r="M55" s="419"/>
+    </row>
+    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="366" t="s">
-        <v>662</v>
-      </c>
-      <c r="B56" s="373"/>
-      <c r="C56" s="373"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="373"/>
-      <c r="F56" s="373"/>
-      <c r="G56" s="373"/>
-      <c r="H56" s="373"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+      <c r="B56" s="420"/>
+      <c r="C56" s="421" t="s">
+        <v>688</v>
+      </c>
+      <c r="D56" s="421"/>
+      <c r="E56" s="421"/>
+      <c r="F56" s="421"/>
+      <c r="G56" s="421"/>
+      <c r="H56" s="421"/>
+      <c r="I56" s="421"/>
+      <c r="J56" s="422" t="str">
+        <f aca="false">A4</f>
+        <v>[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</v>
+      </c>
+      <c r="K56" s="423"/>
+      <c r="L56" s="423"/>
+      <c r="M56" s="424"/>
+    </row>
+    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="366" t="s">
-        <v>663</v>
-      </c>
-      <c r="B57" s="373"/>
-      <c r="C57" s="373"/>
-      <c r="D57" s="373"/>
-      <c r="E57" s="373"/>
-      <c r="F57" s="373"/>
-      <c r="G57" s="373"/>
-      <c r="H57" s="373"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689</v>
+      </c>
+      <c r="B57" s="420"/>
+      <c r="C57" s="421" t="s">
+        <v>690</v>
+      </c>
+      <c r="D57" s="421"/>
+      <c r="E57" s="421"/>
+      <c r="F57" s="421"/>
+      <c r="G57" s="421"/>
+      <c r="H57" s="421"/>
+      <c r="I57" s="421"/>
+      <c r="J57" s="422" t="str">
+        <f aca="false">A5</f>
+        <v>[:lahtotiedot :rakennusvaippa :ilmatilavuus]</v>
+      </c>
+      <c r="K57" s="423"/>
+      <c r="L57" s="423"/>
+      <c r="M57" s="424"/>
+    </row>
+    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="366" t="s">
-        <v>664</v>
-      </c>
-      <c r="B58" s="373"/>
-      <c r="C58" s="373"/>
-      <c r="D58" s="373"/>
-      <c r="E58" s="373"/>
-      <c r="F58" s="373"/>
-      <c r="G58" s="373"/>
-      <c r="H58" s="373"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>691</v>
+      </c>
+      <c r="B58" s="420"/>
+      <c r="C58" s="421" t="s">
+        <v>692</v>
+      </c>
+      <c r="D58" s="421"/>
+      <c r="E58" s="421"/>
+      <c r="F58" s="421"/>
+      <c r="G58" s="421"/>
+      <c r="H58" s="421"/>
+      <c r="I58" s="421"/>
+      <c r="J58" s="422" t="str">
+        <f aca="false">A6</f>
+        <v>[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</v>
+      </c>
+      <c r="K58" s="423"/>
+      <c r="L58" s="423"/>
+      <c r="M58" s="424"/>
+    </row>
+    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="366" t="s">
-        <v>665</v>
-      </c>
-      <c r="B59" s="373"/>
-      <c r="C59" s="373"/>
-      <c r="D59" s="373"/>
-      <c r="E59" s="373"/>
-      <c r="F59" s="373"/>
-      <c r="G59" s="373"/>
-      <c r="H59" s="373"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+      <c r="B59" s="420"/>
+      <c r="C59" s="421" t="s">
+        <v>694</v>
+      </c>
+      <c r="D59" s="421"/>
+      <c r="E59" s="421"/>
+      <c r="F59" s="421"/>
+      <c r="G59" s="421"/>
+      <c r="H59" s="421"/>
+      <c r="I59" s="421"/>
+      <c r="J59" s="422" t="str">
+        <f aca="false">A7</f>
+        <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</v>
+      </c>
+      <c r="K59" s="423"/>
+      <c r="L59" s="423"/>
+      <c r="M59" s="424"/>
+    </row>
+    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="366" t="s">
-        <v>666</v>
-      </c>
-      <c r="B60" s="373"/>
-      <c r="C60" s="373"/>
-      <c r="D60" s="373"/>
-      <c r="E60" s="373"/>
-      <c r="F60" s="373"/>
-      <c r="G60" s="373"/>
-      <c r="H60" s="373"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>695</v>
+      </c>
+      <c r="B60" s="420"/>
+      <c r="C60" s="421" t="s">
+        <v>696</v>
+      </c>
+      <c r="D60" s="421"/>
+      <c r="E60" s="421"/>
+      <c r="F60" s="421"/>
+      <c r="G60" s="421"/>
+      <c r="H60" s="421"/>
+      <c r="I60" s="421"/>
+      <c r="J60" s="422" t="str">
+        <f aca="false">A8</f>
+        <v>[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</v>
+      </c>
+      <c r="K60" s="423"/>
+      <c r="L60" s="423"/>
+      <c r="M60" s="424"/>
+    </row>
+    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="366" t="s">
-        <v>667</v>
-      </c>
-      <c r="B61" s="373"/>
-      <c r="C61" s="373"/>
-      <c r="D61" s="373"/>
-      <c r="E61" s="373"/>
-      <c r="F61" s="373"/>
-      <c r="G61" s="373"/>
-      <c r="H61" s="373"/>
+        <v>697</v>
+      </c>
+      <c r="B61" s="403"/>
+      <c r="C61" s="425" t="s">
+        <v>698</v>
+      </c>
+      <c r="D61" s="425"/>
+      <c r="E61" s="425"/>
+      <c r="F61" s="425"/>
+      <c r="G61" s="425"/>
+      <c r="H61" s="425"/>
+      <c r="I61" s="425"/>
+      <c r="J61" s="426" t="str">
+        <f aca="false">A9</f>
+        <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</v>
+      </c>
+      <c r="K61" s="427"/>
+      <c r="L61" s="427"/>
+      <c r="M61" s="428"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="366" t="s">
-        <v>668</v>
-      </c>
-      <c r="B62" s="393" t="str">
+        <v>699</v>
+      </c>
+      <c r="B62" s="429" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="393"/>
-      <c r="D62" s="393"/>
-      <c r="E62" s="393"/>
-      <c r="F62" s="393"/>
-      <c r="G62" s="393"/>
-      <c r="H62" s="393"/>
+      <c r="C62" s="429"/>
+      <c r="D62" s="429"/>
+      <c r="E62" s="429"/>
+      <c r="F62" s="429"/>
+      <c r="G62" s="429"/>
+      <c r="H62" s="429"/>
+      <c r="I62" s="429"/>
+      <c r="J62" s="429"/>
+      <c r="K62" s="429"/>
+      <c r="L62" s="429"/>
+      <c r="M62" s="429"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="366" t="s">
-        <v>669</v>
-      </c>
-      <c r="B63" s="393"/>
-      <c r="C63" s="393"/>
-      <c r="D63" s="393"/>
-      <c r="E63" s="393"/>
-      <c r="F63" s="393"/>
-      <c r="G63" s="393"/>
-      <c r="H63" s="393"/>
+        <v>700</v>
+      </c>
+      <c r="B63" s="429"/>
+      <c r="C63" s="429"/>
+      <c r="D63" s="429"/>
+      <c r="E63" s="429"/>
+      <c r="F63" s="429"/>
+      <c r="G63" s="429"/>
+      <c r="H63" s="429"/>
+      <c r="I63" s="429"/>
+      <c r="J63" s="429"/>
+      <c r="K63" s="429"/>
+      <c r="L63" s="429"/>
+      <c r="M63" s="429"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="366" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="366" t="s">
-        <v>671</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="366" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="366" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="366" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="366" t="s">
-        <v>675</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="366" t="s">
-        <v>676</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="366" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="366" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="366" t="s">
-        <v>679</v>
+        <v>710</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="366" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="366" t="s">
-        <v>681</v>
+        <v>712</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="366" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="366" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="366" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="366" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="366" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="366" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="366" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="366" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="366" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="366" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="366" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="366" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="366" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="366" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="366" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="366" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="366" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="366" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="366" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="366" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="366" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="366" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="366" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="366" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="366" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="366" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="366" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="366" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="366" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="366" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="366" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="366" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="366" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="366" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="366" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="366" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="366" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="366" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="366" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="366" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="366" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="366" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="366" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="366" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="366" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="366" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="366" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="366" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="366" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="366" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="366" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="366" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="366" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="366" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="366" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="366" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="366" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="366" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="366" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="366" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="366" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="366" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="366" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="366" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="366" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H61"/>
-    <mergeCell ref="B62:H63"/>
+  <mergeCells count="19">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C55:M55"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="B62:M63"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:AMJ2 A3:AMJ1048576">
+  <conditionalFormatting sqref="B62:AMJ1048576 B2:C2 N2:AMJ61 B55:M61 D40:M51 B38:B39 B36 A3:A1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.709722222222222" right="0.709722222222222" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="780">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -334,19 +334,19 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO uusiutuva polttoaine</t>
+    <t xml:space="preserve">förrnybara bränslen</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO fossiilinen polttoaine</t>
+    <t xml:space="preserve">fossila bränslen</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO kaukojäähdytys</t>
+    <t xml:space="preserve">fjärrkyla</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</t>
@@ -1572,7 +1572,16 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO fossiilinen polttoaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO kaukojäähdytys</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO uusiutuva polttoaine</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALT</t>
@@ -2180,7 +2189,7 @@
     <t xml:space="preserve">Lätt brännolja</t>
   </si>
   <si>
-    <t xml:space="preserve">litra</t>
+    <t xml:space="preserve">liter</t>
   </si>
   <si>
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus]</t>
@@ -2197,7 +2206,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">pino-m</t>
+      <t xml:space="preserve">trav-m</t>
     </r>
     <r>
       <rPr>
@@ -2872,7 +2881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Energiankulutus</t>
+      <t xml:space="preserve">Energiförbrukning</t>
     </r>
     <r>
       <rPr>
@@ -4194,7 +4203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="431">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4775,7 +4784,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4787,7 +4796,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4919,7 +4928,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5095,6 +5104,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -5771,7 +5784,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5911,7 +5924,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8295,9 +8308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>231840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8311,7 +8324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="742320" cy="199080"/>
+          <a:ext cx="741960" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8332,9 +8345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>131760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8348,7 +8361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1085760" cy="199080"/>
+          <a:ext cx="1085400" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8369,9 +8382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8385,7 +8398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1392480" cy="199080"/>
+          <a:ext cx="1392120" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8406,9 +8419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>329400</xdr:colOff>
+      <xdr:colOff>329040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8422,7 +8435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1716480" cy="199080"/>
+          <a:ext cx="1716120" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8443,9 +8456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>259560</xdr:rowOff>
+      <xdr:rowOff>259200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8459,7 +8472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2023560" cy="212040"/>
+          <a:ext cx="2023200" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8480,9 +8493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8496,7 +8509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2359800" cy="199080"/>
+          <a:ext cx="2359440" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8517,9 +8530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>247680</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8529,7 +8542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2672640" cy="198000"/>
+          <a:ext cx="2672280" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8898,9 +8911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8910,7 +8923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6971760" cy="10493280"/>
+          <a:ext cx="6971400" cy="10492920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9039,7 +9052,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -10679,8 +10692,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12892,8 +12905,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13759,19 +13772,19 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="171"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="225" t="s">
+      <c r="C42" s="225"/>
+      <c r="D42" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="225" t="s">
+      <c r="E42" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="225" t="s">
+      <c r="F42" s="226" t="s">
         <v>61</v>
       </c>
       <c r="G42" s="121" t="s">
@@ -13786,11 +13799,11 @@
       <c r="C43" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="226" t="str">
+      <c r="D43" s="227" t="str">
         <f aca="false">A66</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</v>
       </c>
-      <c r="E43" s="226" t="str">
+      <c r="E43" s="227" t="str">
         <f aca="false">A67</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</v>
       </c>
@@ -13811,11 +13824,11 @@
       <c r="C44" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="226" t="str">
+      <c r="D44" s="227" t="str">
         <f aca="false">A70</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</v>
       </c>
-      <c r="E44" s="226" t="str">
+      <c r="E44" s="227" t="str">
         <f aca="false">A71</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</v>
       </c>
@@ -13833,20 +13846,20 @@
         <v>213</v>
       </c>
       <c r="B45" s="171"/>
-      <c r="C45" s="227" t="s">
+      <c r="C45" s="228" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="228"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="229"/>
+      <c r="G45" s="229"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
         <v>215</v>
       </c>
       <c r="B46" s="171"/>
-      <c r="C46" s="227" t="s">
+      <c r="C46" s="228" t="s">
         <v>216</v>
       </c>
       <c r="D46" s="172"/>
@@ -13859,12 +13872,12 @@
         <v>217</v>
       </c>
       <c r="B47" s="171"/>
-      <c r="C47" s="229"/>
-      <c r="D47" s="229"/>
-      <c r="E47" s="229"/>
-      <c r="F47" s="229"/>
-      <c r="G47" s="230"/>
-      <c r="J47" s="231"/>
+      <c r="C47" s="230"/>
+      <c r="D47" s="230"/>
+      <c r="E47" s="230"/>
+      <c r="F47" s="230"/>
+      <c r="G47" s="231"/>
+      <c r="J47" s="232"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
@@ -13878,7 +13891,7 @@
       <c r="E48" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="F48" s="232"/>
+      <c r="F48" s="233"/>
       <c r="G48" s="203"/>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13893,7 +13906,7 @@
       <c r="E49" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="232"/>
+      <c r="F49" s="233"/>
       <c r="G49" s="203"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13912,7 +13925,7 @@
         <f aca="false">A75</f>
         <v>[:lahtotiedot :lammitys :takka :tuotto]</v>
       </c>
-      <c r="F50" s="232"/>
+      <c r="F50" s="233"/>
       <c r="G50" s="203"/>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,7 +13944,7 @@
         <f aca="false">A77</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
-      <c r="F51" s="232"/>
+      <c r="F51" s="233"/>
       <c r="G51" s="203"/>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13953,7 +13966,7 @@
       </c>
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
-      <c r="D53" s="233" t="s">
+      <c r="D53" s="234" t="s">
         <v>229</v>
       </c>
       <c r="E53" s="206"/>
@@ -13966,10 +13979,10 @@
       </c>
       <c r="B54" s="171"/>
       <c r="C54" s="185"/>
-      <c r="D54" s="234" t="s">
+      <c r="D54" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="234"/>
+      <c r="E54" s="235"/>
       <c r="F54" s="206"/>
       <c r="G54" s="203"/>
     </row>
@@ -13985,7 +13998,7 @@
         <f aca="false">A78</f>
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
-      <c r="E55" s="235"/>
+      <c r="E55" s="236"/>
       <c r="F55" s="206"/>
       <c r="G55" s="203"/>
     </row>
@@ -14008,10 +14021,10 @@
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="202"/>
-      <c r="D57" s="236" t="s">
+      <c r="D57" s="237" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="237" t="s">
+      <c r="E57" s="238" t="s">
         <v>235</v>
       </c>
       <c r="F57" s="202"/>
@@ -14023,7 +14036,7 @@
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="185"/>
-      <c r="D58" s="238" t="s">
+      <c r="D58" s="239" t="s">
         <v>237</v>
       </c>
       <c r="E58" s="194" t="s">
@@ -14040,15 +14053,15 @@
       <c r="C59" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="239" t="str">
+      <c r="D59" s="240" t="str">
         <f aca="false">A79</f>
         <v>[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</v>
       </c>
-      <c r="E59" s="240" t="str">
+      <c r="E59" s="241" t="str">
         <f aca="false">A80</f>
         <v>[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</v>
       </c>
-      <c r="F59" s="241"/>
+      <c r="F59" s="242"/>
       <c r="G59" s="203"/>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14062,7 +14075,7 @@
       <c r="D60" s="170"/>
       <c r="E60" s="170"/>
       <c r="F60" s="170"/>
-      <c r="G60" s="242"/>
+      <c r="G60" s="243"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
@@ -14076,7 +14089,7 @@
       <c r="E61" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="F61" s="232" t="s">
+      <c r="F61" s="233" t="s">
         <v>244</v>
       </c>
       <c r="G61" s="195" t="s">
@@ -14095,7 +14108,7 @@
       <c r="E62" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="F62" s="238" t="s">
+      <c r="F62" s="239" t="s">
         <v>247</v>
       </c>
       <c r="G62" s="121" t="s">
@@ -14116,7 +14129,7 @@
         <f aca="false">A82</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
       </c>
-      <c r="F63" s="243" t="str">
+      <c r="F63" s="244" t="str">
         <f aca="false">A83</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
       </c>
@@ -14135,11 +14148,11 @@
         <f aca="false">A85</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
       </c>
-      <c r="E64" s="243" t="str">
+      <c r="E64" s="244" t="str">
         <f aca="false">A86</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
       </c>
-      <c r="F64" s="243" t="str">
+      <c r="F64" s="244" t="str">
         <f aca="false">A87</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
       </c>
@@ -14152,9 +14165,9 @@
       <c r="A65" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="244"/>
+      <c r="B65" s="245"/>
       <c r="C65" s="183"/>
-      <c r="D65" s="245" t="str">
+      <c r="D65" s="246" t="str">
         <f aca="false">A89</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
       </c>
@@ -14162,7 +14175,7 @@
         <f aca="false">A90</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
       </c>
-      <c r="F65" s="246" t="str">
+      <c r="F65" s="247" t="str">
         <f aca="false">A91</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
       </c>
@@ -14190,7 +14203,7 @@
       <c r="A67" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="247"/>
+      <c r="B67" s="248"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -14760,63 +14773,63 @@
   </conditionalFormatting>
   <dataValidations count="15">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="custom">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E10" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11 E13:E14" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F15" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G15" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19:D21 E20 D22:D26" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E19:F19 F20:F26 E21:E26" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D33:F33" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D34:E34" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D35:E35" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G33" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E36" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D43:G44" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D50:E51" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D55:E55 D59:E59 D63:G65" type="none">
-      <formula1>OR(ISNUMBER(#REF!),#REF!="*")</formula1>
+      <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -14837,8 +14850,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14858,17 +14871,17 @@
       </c>
     </row>
     <row r="2" s="52" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="250" t="s">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="251"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="253"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -14911,66 +14924,66 @@
       <c r="A3" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="254" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="257"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="166" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="171"/>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="258" t="str">
+      <c r="D4" s="259" t="str">
         <f aca="false">A3</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="259"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="166" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="171"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="166" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="171"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="260"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="166" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="171"/>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="262" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="262" t="str">
+      <c r="D7" s="263" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
-      <c r="E7" s="263"/>
+      <c r="E7" s="264"/>
       <c r="F7" s="185"/>
       <c r="G7" s="175"/>
     </row>
@@ -14979,14 +14992,14 @@
         <v>52</v>
       </c>
       <c r="B8" s="171"/>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="262" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="262" t="str">
+      <c r="D8" s="263" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
-      <c r="E8" s="264"/>
+      <c r="E8" s="265"/>
       <c r="F8" s="202"/>
       <c r="G8" s="204"/>
     </row>
@@ -14995,10 +15008,10 @@
         <v>278</v>
       </c>
       <c r="B9" s="171"/>
-      <c r="C9" s="233" t="s">
+      <c r="C9" s="234" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="265" t="str">
+      <c r="D9" s="266" t="str">
         <f aca="false">A6</f>
         <v>[:tulokset :e-luku]</v>
       </c>
@@ -15015,24 +15028,24 @@
         <v>56</v>
       </c>
       <c r="B10" s="201"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
       <c r="G10" s="184"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="254" t="s">
+      <c r="B11" s="254"/>
+      <c r="C11" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="257"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
@@ -15040,8 +15053,8 @@
       </c>
       <c r="B12" s="171"/>
       <c r="C12" s="202"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="202"/>
       <c r="G12" s="203"/>
     </row>
@@ -15050,19 +15063,19 @@
         <v>281</v>
       </c>
       <c r="B13" s="171"/>
-      <c r="C13" s="264" t="s">
+      <c r="C13" s="265" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="268" t="s">
+      <c r="D13" s="269" t="s">
         <v>283</v>
       </c>
       <c r="E13" s="195" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="269" t="s">
+      <c r="F13" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="269"/>
+      <c r="G13" s="270"/>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
@@ -15070,30 +15083,30 @@
       </c>
       <c r="B14" s="171"/>
       <c r="C14" s="185"/>
-      <c r="D14" s="268" t="s">
+      <c r="D14" s="269" t="s">
         <v>286</v>
       </c>
       <c r="E14" s="195" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="269" t="s">
+      <c r="F14" s="270" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="269"/>
+      <c r="G14" s="270"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="201"/>
-      <c r="C15" s="270"/>
+      <c r="C15" s="271"/>
       <c r="D15" s="121" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="238" t="s">
+      <c r="F15" s="239" t="s">
         <v>289</v>
       </c>
       <c r="G15" s="198" t="s">
@@ -15109,29 +15122,29 @@
       <c r="D16" s="195"/>
       <c r="E16" s="195"/>
       <c r="F16" s="186"/>
-      <c r="G16" s="269"/>
+      <c r="G16" s="270"/>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
         <v>291</v>
       </c>
       <c r="B17" s="171"/>
-      <c r="C17" s="271" t="s">
+      <c r="C17" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="240" t="str">
+      <c r="D17" s="241" t="str">
         <f aca="false">A7</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
       </c>
-      <c r="E17" s="272" t="str">
+      <c r="E17" s="273" t="str">
         <f aca="false">A8</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-kerroin]</v>
       </c>
-      <c r="F17" s="240" t="str">
+      <c r="F17" s="241" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-kertoimella]</v>
       </c>
-      <c r="G17" s="240" t="str">
+      <c r="G17" s="241" t="str">
         <f aca="false">A10</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-nettoala-kertoimella]</v>
       </c>
@@ -15141,22 +15154,22 @@
         <v>78</v>
       </c>
       <c r="B18" s="171"/>
-      <c r="C18" s="271" t="s">
+      <c r="C18" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="240" t="str">
+      <c r="D18" s="241" t="str">
         <f aca="false">A11</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
       </c>
-      <c r="E18" s="272" t="str">
+      <c r="E18" s="273" t="str">
         <f aca="false">A12</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-kerroin]</v>
       </c>
-      <c r="F18" s="240" t="str">
+      <c r="F18" s="241" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-kertoimella]</v>
       </c>
-      <c r="G18" s="240" t="str">
+      <c r="G18" s="241" t="str">
         <f aca="false">A14</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-nettoala-kertoimella]</v>
       </c>
@@ -15166,22 +15179,22 @@
         <v>79</v>
       </c>
       <c r="B19" s="171"/>
-      <c r="C19" s="271" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="240" t="str">
+      <c r="C19" s="272" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="241" t="str">
         <f aca="false">A15</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
       </c>
-      <c r="E19" s="272" t="str">
+      <c r="E19" s="273" t="str">
         <f aca="false">A16</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
       </c>
-      <c r="F19" s="240" t="str">
+      <c r="F19" s="241" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
       </c>
-      <c r="G19" s="240" t="str">
+      <c r="G19" s="241" t="str">
         <f aca="false">A18</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
       </c>
@@ -15191,47 +15204,47 @@
         <v>82</v>
       </c>
       <c r="B20" s="171"/>
-      <c r="C20" s="271" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="240" t="str">
+      <c r="C20" s="272" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="241" t="str">
         <f aca="false">A19</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
       </c>
-      <c r="E20" s="272" t="str">
+      <c r="E20" s="273" t="str">
         <f aca="false">A20</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
       </c>
-      <c r="F20" s="240" t="str">
+      <c r="F20" s="241" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
       </c>
-      <c r="G20" s="240" t="str">
+      <c r="G20" s="241" t="str">
         <f aca="false">A22</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B21" s="171"/>
-      <c r="C21" s="273" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="240" t="str">
+      <c r="C21" s="274" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="241" t="str">
         <f aca="false">A23</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
       </c>
-      <c r="E21" s="272" t="str">
+      <c r="E21" s="273" t="str">
         <f aca="false">A24</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
       </c>
-      <c r="F21" s="240" t="str">
+      <c r="F21" s="241" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
       </c>
-      <c r="G21" s="240" t="str">
+      <c r="G21" s="241" t="str">
         <f aca="false">A26</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
       </c>
@@ -15241,19 +15254,19 @@
         <v>84</v>
       </c>
       <c r="B22" s="171"/>
-      <c r="C22" s="264" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="274" t="str">
+      <c r="C22" s="265" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="275" t="str">
         <f aca="false">A42</f>
         <v>[:tulokset :kaytettavat-energiamuodot :summa]</v>
       </c>
-      <c r="E22" s="275"/>
-      <c r="F22" s="274" t="str">
+      <c r="E22" s="276"/>
+      <c r="F22" s="275" t="str">
         <f aca="false">A43</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kertoimella-summa]</v>
       </c>
-      <c r="G22" s="274" t="str">
+      <c r="G22" s="275" t="str">
         <f aca="false">A44</f>
         <v>[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</v>
       </c>
@@ -15273,24 +15286,24 @@
       <c r="A24" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="253"/>
-      <c r="C24" s="254" t="s">
-        <v>294</v>
+      <c r="B24" s="254"/>
+      <c r="C24" s="255" t="s">
+        <v>297</v>
       </c>
       <c r="D24" s="170"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="257"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B25" s="221"/>
-      <c r="C25" s="276"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="267"/>
-      <c r="F25" s="267"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="268"/>
       <c r="G25" s="203"/>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15324,121 +15337,121 @@
         <v>86</v>
       </c>
       <c r="B28" s="171"/>
-      <c r="C28" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" s="278"/>
-      <c r="E28" s="240" t="str">
+      <c r="C28" s="279" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="279"/>
+      <c r="E28" s="241" t="str">
         <f aca="false">A45</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :aurinkosahko]</v>
       </c>
-      <c r="F28" s="240" t="str">
+      <c r="F28" s="241" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :aurinkosahko-nettoala]</v>
       </c>
-      <c r="G28" s="279"/>
+      <c r="G28" s="280"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="171"/>
-      <c r="C29" s="278" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="278"/>
-      <c r="E29" s="240" t="str">
+      <c r="C29" s="279" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="279"/>
+      <c r="E29" s="241" t="str">
         <f aca="false">A47</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :aurinkolampo]</v>
       </c>
-      <c r="F29" s="240" t="str">
+      <c r="F29" s="241" t="str">
         <f aca="false">A48</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :aurinkolampo-nettoala]</v>
       </c>
-      <c r="G29" s="279"/>
+      <c r="G29" s="280"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B30" s="171"/>
-      <c r="C30" s="278" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="278"/>
-      <c r="E30" s="240" t="str">
+      <c r="C30" s="279" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" s="279"/>
+      <c r="E30" s="241" t="str">
         <f aca="false">A49</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :tuulisahko]</v>
       </c>
-      <c r="F30" s="240" t="str">
+      <c r="F30" s="241" t="str">
         <f aca="false">A50</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :tuulisahko-nettoala]</v>
       </c>
-      <c r="G30" s="279"/>
+      <c r="G30" s="280"/>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="171"/>
-      <c r="C31" s="278" t="s">
-        <v>300</v>
-      </c>
-      <c r="D31" s="278"/>
-      <c r="E31" s="240" t="str">
+      <c r="C31" s="279" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="279"/>
+      <c r="E31" s="241" t="str">
         <f aca="false">A51</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :lampopumppu]</v>
       </c>
-      <c r="F31" s="240" t="str">
+      <c r="F31" s="241" t="str">
         <f aca="false">A52</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :lampopumppu-nettoala]</v>
       </c>
-      <c r="G31" s="279"/>
+      <c r="G31" s="280"/>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
         <v>92</v>
       </c>
       <c r="B32" s="171"/>
-      <c r="C32" s="278" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="278"/>
-      <c r="E32" s="240" t="str">
+      <c r="C32" s="279" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" s="279"/>
+      <c r="E32" s="241" t="str">
         <f aca="false">A53</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :muusahko]</v>
       </c>
-      <c r="F32" s="240" t="str">
+      <c r="F32" s="241" t="str">
         <f aca="false">A54</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :muusahko-nettoala]</v>
       </c>
-      <c r="G32" s="279"/>
+      <c r="G32" s="280"/>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="171"/>
-      <c r="C33" s="278" t="s">
-        <v>302</v>
-      </c>
-      <c r="D33" s="278"/>
-      <c r="E33" s="240" t="str">
+      <c r="C33" s="279" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="279"/>
+      <c r="E33" s="241" t="str">
         <f aca="false">A55</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :muulampo]</v>
       </c>
-      <c r="F33" s="240" t="str">
+      <c r="F33" s="241" t="str">
         <f aca="false">A56</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat :muulampo-nettoala]</v>
       </c>
-      <c r="G33" s="279"/>
+      <c r="G33" s="280"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="201"/>
-      <c r="C34" s="266"/>
+      <c r="C34" s="267"/>
       <c r="D34" s="184"/>
       <c r="E34" s="220"/>
       <c r="F34" s="220"/>
@@ -15446,16 +15459,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="253"/>
-      <c r="C35" s="254" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="255"/>
-      <c r="G35" s="256"/>
+        <v>306</v>
+      </c>
+      <c r="B35" s="254"/>
+      <c r="C35" s="255" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="257"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
@@ -15464,9 +15477,9 @@
       <c r="B36" s="171"/>
       <c r="C36" s="202"/>
       <c r="D36" s="202"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="268"/>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
@@ -15476,13 +15489,13 @@
       <c r="C37" s="185"/>
       <c r="D37" s="185"/>
       <c r="E37" s="195" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F37" s="195" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G37" s="195" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15515,7 +15528,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B40" s="171"/>
       <c r="C40" s="172" t="s">
@@ -15523,8 +15536,8 @@
       </c>
       <c r="D40" s="172"/>
       <c r="E40" s="0"/>
-      <c r="F40" s="280"/>
-      <c r="G40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="282"/>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
@@ -15532,14 +15545,14 @@
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="172" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D41" s="172"/>
-      <c r="E41" s="240" t="str">
+      <c r="E41" s="241" t="str">
         <f aca="false">A81</f>
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :sahko]</v>
       </c>
-      <c r="F41" s="240" t="str">
+      <c r="F41" s="241" t="str">
         <f aca="false">A82</f>
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
@@ -15549,18 +15562,18 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="172" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D42" s="172"/>
-      <c r="E42" s="240" t="str">
+      <c r="E42" s="241" t="str">
         <f aca="false">A83</f>
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :sahko]</v>
       </c>
-      <c r="F42" s="240" t="str">
+      <c r="F42" s="241" t="str">
         <f aca="false">A84</f>
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
@@ -15570,18 +15583,18 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B43" s="171"/>
       <c r="C43" s="172" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D43" s="172"/>
-      <c r="E43" s="240" t="str">
+      <c r="E43" s="241" t="str">
         <f aca="false">A85</f>
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :sahko]</v>
       </c>
-      <c r="F43" s="240" t="str">
+      <c r="F43" s="241" t="str">
         <f aca="false">A86</f>
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
@@ -15591,14 +15604,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B44" s="171"/>
       <c r="C44" s="172" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D44" s="172"/>
-      <c r="E44" s="240" t="str">
+      <c r="E44" s="241" t="str">
         <f aca="false">A87</f>
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
@@ -15611,36 +15624,36 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="172" t="s">
         <v>228</v>
       </c>
       <c r="D45" s="172"/>
-      <c r="E45" s="240" t="str">
+      <c r="E45" s="241" t="str">
         <f aca="false">A88</f>
         <v>[:tulokset :tekniset-jarjestelmat :jaahdytys :sahko]</v>
       </c>
-      <c r="F45" s="240" t="str">
+      <c r="F45" s="241" t="str">
         <f aca="false">A89</f>
         <v>[:tulokset :tekniset-jarjestelmat :jaahdytys :lampo]</v>
       </c>
-      <c r="G45" s="240" t="str">
+      <c r="G45" s="241" t="str">
         <f aca="false">A90</f>
         <v>[:tulokset :tekniset-jarjestelmat :jaahdytys :kaukojaahdytys]</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B46" s="171"/>
       <c r="C46" s="172" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D46" s="172"/>
-      <c r="E46" s="240" t="str">
+      <c r="E46" s="241" t="str">
         <f aca="false">A91</f>
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
@@ -15653,42 +15666,42 @@
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B47" s="171"/>
-      <c r="C47" s="264" t="s">
-        <v>293</v>
-      </c>
-      <c r="D47" s="264"/>
-      <c r="E47" s="282" t="str">
+      <c r="C47" s="265" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="265"/>
+      <c r="E47" s="283" t="str">
         <f aca="false">A92</f>
         <v>[:tulokset :tekniset-jarjestelmat :sahko-summa]</v>
       </c>
-      <c r="F47" s="282" t="str">
+      <c r="F47" s="283" t="str">
         <f aca="false">A93</f>
         <v>[:tulokset :tekniset-jarjestelmat :lampo-summa]</v>
       </c>
-      <c r="G47" s="282" t="str">
+      <c r="G47" s="283" t="str">
         <f aca="false">A94</f>
         <v>[:tulokset :tekniset-jarjestelmat :kaukojaahdytys-summa]</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B48" s="171"/>
-      <c r="C48" s="227" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="264"/>
-      <c r="E48" s="234"/>
+      <c r="C48" s="228" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="265"/>
+      <c r="E48" s="235"/>
       <c r="F48" s="194"/>
       <c r="G48" s="194"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B49" s="171"/>
       <c r="C49" s="202"/>
@@ -15699,31 +15712,31 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="253"/>
-      <c r="C50" s="254" t="s">
-        <v>324</v>
-      </c>
-      <c r="D50" s="255"/>
-      <c r="E50" s="255"/>
-      <c r="F50" s="255"/>
-      <c r="G50" s="256"/>
+        <v>326</v>
+      </c>
+      <c r="B50" s="254"/>
+      <c r="C50" s="255" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="256"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="257"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="202"/>
       <c r="D51" s="202"/>
-      <c r="E51" s="267"/>
-      <c r="F51" s="267"/>
-      <c r="G51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="268"/>
+      <c r="G51" s="268"/>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="166" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B52" s="171"/>
       <c r="C52" s="185"/>
@@ -15738,7 +15751,7 @@
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
@@ -15749,120 +15762,120 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B54" s="171"/>
       <c r="C54" s="172" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D54" s="172"/>
-      <c r="E54" s="240" t="str">
+      <c r="E54" s="241" t="str">
         <f aca="false">A95</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus]</v>
       </c>
-      <c r="F54" s="240" t="str">
+      <c r="F54" s="241" t="str">
         <f aca="false">A96</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="G54" s="240"/>
+      <c r="G54" s="241"/>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="166" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D55" s="172"/>
-      <c r="E55" s="240" t="str">
+      <c r="E55" s="241" t="str">
         <f aca="false">A97</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus]</v>
       </c>
-      <c r="F55" s="240" t="str">
+      <c r="F55" s="241" t="str">
         <f aca="false">A98</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="G55" s="274"/>
+      <c r="G55" s="275"/>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="166" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B56" s="171"/>
       <c r="C56" s="172" t="s">
         <v>212</v>
       </c>
       <c r="D56" s="172"/>
-      <c r="E56" s="240" t="str">
+      <c r="E56" s="241" t="str">
         <f aca="false">A99</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus]</v>
       </c>
-      <c r="F56" s="240" t="str">
+      <c r="F56" s="241" t="str">
         <f aca="false">A100</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus-nettoala]</v>
       </c>
-      <c r="G56" s="240"/>
+      <c r="G56" s="241"/>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="166" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="172" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D57" s="172"/>
-      <c r="E57" s="240" t="str">
+      <c r="E57" s="241" t="str">
         <f aca="false">A101</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus]</v>
       </c>
-      <c r="F57" s="240" t="str">
+      <c r="F57" s="241" t="str">
         <f aca="false">A102</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="G57" s="274"/>
+      <c r="G57" s="275"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="166" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="172"/>
       <c r="D58" s="172"/>
-      <c r="E58" s="283"/>
-      <c r="F58" s="283"/>
-      <c r="G58" s="284"/>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="285"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="166" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B59" s="171"/>
-      <c r="C59" s="227" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="285"/>
-      <c r="E59" s="286"/>
-      <c r="F59" s="286"/>
-      <c r="G59" s="284"/>
+      <c r="C59" s="228" t="s">
+        <v>340</v>
+      </c>
+      <c r="D59" s="286"/>
+      <c r="E59" s="287"/>
+      <c r="F59" s="287"/>
+      <c r="G59" s="285"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="166" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B60" s="171"/>
-      <c r="C60" s="227" t="s">
-        <v>339</v>
-      </c>
-      <c r="D60" s="285"/>
-      <c r="E60" s="287"/>
-      <c r="F60" s="287"/>
-      <c r="G60" s="288"/>
+      <c r="C60" s="228" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="286"/>
+      <c r="E60" s="288"/>
+      <c r="F60" s="288"/>
+      <c r="G60" s="289"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="172"/>
@@ -15873,31 +15886,31 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="166" t="s">
-        <v>341</v>
-      </c>
-      <c r="B62" s="253"/>
-      <c r="C62" s="254" t="s">
-        <v>342</v>
-      </c>
-      <c r="D62" s="255"/>
-      <c r="E62" s="255"/>
-      <c r="F62" s="255"/>
-      <c r="G62" s="256"/>
+        <v>344</v>
+      </c>
+      <c r="B62" s="254"/>
+      <c r="C62" s="255" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="256"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
+      <c r="G62" s="257"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="166" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="202"/>
       <c r="D63" s="202"/>
-      <c r="E63" s="267"/>
-      <c r="F63" s="267"/>
-      <c r="G63" s="267"/>
+      <c r="E63" s="268"/>
+      <c r="F63" s="268"/>
+      <c r="G63" s="268"/>
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="166" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B64" s="171"/>
       <c r="C64" s="185"/>
@@ -15912,7 +15925,7 @@
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="166" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B65" s="171"/>
       <c r="C65" s="185"/>
@@ -15923,102 +15936,102 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="166" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B66" s="171"/>
       <c r="C66" s="172" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D66" s="172"/>
-      <c r="E66" s="240" t="str">
+      <c r="E66" s="241" t="str">
         <f aca="false">A103</f>
         <v>[:tulokset :lampokuormat :aurinko]</v>
       </c>
-      <c r="F66" s="240" t="str">
+      <c r="F66" s="241" t="str">
         <f aca="false">A104</f>
         <v>[:tulokset :lampokuormat :aurinko-nettoala]</v>
       </c>
-      <c r="G66" s="274"/>
+      <c r="G66" s="275"/>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="166" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B67" s="171"/>
       <c r="C67" s="172" t="s">
         <v>243</v>
       </c>
       <c r="D67" s="172"/>
-      <c r="E67" s="240" t="str">
+      <c r="E67" s="241" t="str">
         <f aca="false">A105</f>
         <v>[:tulokset :lampokuormat :ihmiset]</v>
       </c>
-      <c r="F67" s="240" t="str">
+      <c r="F67" s="241" t="str">
         <f aca="false">A106</f>
         <v>[:tulokset :lampokuormat :ihmiset-nettoala]</v>
       </c>
-      <c r="G67" s="274"/>
+      <c r="G67" s="275"/>
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="166" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B68" s="171"/>
       <c r="C68" s="172" t="s">
         <v>244</v>
       </c>
       <c r="D68" s="172"/>
-      <c r="E68" s="240" t="str">
+      <c r="E68" s="241" t="str">
         <f aca="false">A107</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet]</v>
       </c>
-      <c r="F68" s="240" t="str">
+      <c r="F68" s="241" t="str">
         <f aca="false">A108</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet-nettoala]</v>
       </c>
-      <c r="G68" s="274"/>
+      <c r="G68" s="275"/>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="166" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B69" s="171"/>
       <c r="C69" s="172" t="s">
         <v>245</v>
       </c>
       <c r="D69" s="172"/>
-      <c r="E69" s="240" t="str">
+      <c r="E69" s="241" t="str">
         <f aca="false">A109</f>
         <v>[:tulokset :lampokuormat :valaistus]</v>
       </c>
-      <c r="F69" s="240" t="str">
+      <c r="F69" s="241" t="str">
         <f aca="false">A110</f>
         <v>[:tulokset :lampokuormat :valaistus-nettoala]</v>
       </c>
-      <c r="G69" s="274"/>
+      <c r="G69" s="275"/>
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="166" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B70" s="171"/>
       <c r="C70" s="172" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D70" s="172"/>
-      <c r="E70" s="240" t="str">
+      <c r="E70" s="241" t="str">
         <f aca="false">A111</f>
         <v>[:tulokset :lampokuormat :kvesi]</v>
       </c>
-      <c r="F70" s="240" t="str">
+      <c r="F70" s="241" t="str">
         <f aca="false">A112</f>
         <v>[:tulokset :lampokuormat :kvesi-nettoala]</v>
       </c>
-      <c r="G70" s="274"/>
+      <c r="G70" s="275"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="166" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B71" s="171"/>
       <c r="C71" s="172"/>
@@ -16029,252 +16042,252 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="166" t="s">
-        <v>354</v>
-      </c>
-      <c r="B72" s="253"/>
-      <c r="C72" s="254" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="255"/>
-      <c r="F72" s="255"/>
-      <c r="G72" s="256"/>
+        <v>357</v>
+      </c>
+      <c r="B72" s="254"/>
+      <c r="C72" s="255" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="256"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="257"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="166" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B73" s="171"/>
       <c r="C73" s="202"/>
       <c r="D73" s="202"/>
       <c r="E73" s="221"/>
-      <c r="F73" s="276"/>
-      <c r="G73" s="277"/>
+      <c r="F73" s="277"/>
+      <c r="G73" s="278"/>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="166" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B74" s="171"/>
       <c r="C74" s="172" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D74" s="172"/>
-      <c r="E74" s="289" t="str">
+      <c r="E74" s="290" t="str">
         <f aca="false">A113</f>
         <v>[:tulokset :laskentatyokalu]</v>
       </c>
-      <c r="F74" s="289"/>
-      <c r="G74" s="289"/>
+      <c r="F74" s="290"/>
+      <c r="G74" s="290"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="166" t="s">
-        <v>358</v>
-      </c>
-      <c r="B75" s="244"/>
+        <v>361</v>
+      </c>
+      <c r="B75" s="245"/>
       <c r="C75" s="183"/>
       <c r="D75" s="183"/>
-      <c r="E75" s="244"/>
+      <c r="E75" s="245"/>
       <c r="F75" s="183"/>
-      <c r="G75" s="290"/>
+      <c r="G75" s="291"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="166" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="166" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="291" t="str">
+        <v>363</v>
+      </c>
+      <c r="B77" s="292" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 4/8"</f>
         <v>Certifikatbeteckning: [:id], 4/8</v>
       </c>
-      <c r="C77" s="291"/>
-      <c r="D77" s="291"/>
-      <c r="E77" s="291"/>
-      <c r="F77" s="291"/>
-      <c r="G77" s="291"/>
+      <c r="C77" s="292"/>
+      <c r="D77" s="292"/>
+      <c r="E77" s="292"/>
+      <c r="F77" s="292"/>
+      <c r="G77" s="292"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="166" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="166" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="166" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="166" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="166" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="166" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="166" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="166" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="166" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="166" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="166" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="166" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="166" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="166" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="166" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="166" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="166" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="166" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="166" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="166" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="166" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="166" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="166" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="166" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="166" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="166" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="166" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="166" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="166" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="166" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="166" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="166" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="166" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="166" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="166" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -16732,7 +16745,7 @@
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16754,22 +16767,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="297" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="292" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="294" t="s">
-        <v>398</v>
-      </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="296"/>
+    <row r="2" s="298" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="293" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="294"/>
+      <c r="C2" s="295" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="297"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
       <c r="AKS2" s="0"/>
@@ -16819,24 +16832,24 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" s="105"/>
-      <c r="C3" s="298" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
+      <c r="C3" s="299" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B4" s="105"/>
       <c r="C4" s="68"/>
@@ -16851,11 +16864,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="97" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="102" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="102"/>
@@ -16868,7 +16881,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="97" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="0"/>
@@ -16884,30 +16897,30 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="97" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="299" t="str">
+      <c r="D7" s="300" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
-      <c r="E7" s="300" t="s">
-        <v>406</v>
+      <c r="E7" s="301" t="s">
+        <v>409</v>
       </c>
       <c r="F7" s="111"/>
-      <c r="G7" s="301"/>
+      <c r="G7" s="302"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
       <c r="J7" s="111"/>
-      <c r="K7" s="302"/>
+      <c r="K7" s="303"/>
       <c r="L7" s="113"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="97" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="5"/>
@@ -16922,7 +16935,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="97" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -16935,26 +16948,26 @@
       <c r="J9" s="115"/>
       <c r="K9" s="116"/>
     </row>
-    <row r="10" s="297" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="292" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="303"/>
-      <c r="C10" s="304" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="309" t="s">
+    <row r="10" s="298" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="293" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="304"/>
+      <c r="C10" s="305" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="309" t="s">
+      <c r="J10" s="310" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="309"/>
+      <c r="K10" s="310"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
       <c r="AKS10" s="0"/>
@@ -17004,220 +17017,220 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="97" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="310"/>
+      <c r="F11" s="311"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="311"/>
+      <c r="H11" s="312"/>
       <c r="I11" s="123"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="311"/>
+      <c r="J11" s="313"/>
+      <c r="K11" s="312"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="108" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="240" t="str">
+      <c r="F12" s="314"/>
+      <c r="G12" s="315"/>
+      <c r="H12" s="316"/>
+      <c r="I12" s="241" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="316" t="str">
+      <c r="J12" s="317" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="317"/>
+      <c r="K12" s="318"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="97" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="317"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="318"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="97" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="108" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="108"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="315"/>
-      <c r="I14" s="240" t="str">
+      <c r="F14" s="314"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="316"/>
+      <c r="I14" s="241" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="316" t="str">
+      <c r="J14" s="317" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="317"/>
+      <c r="K14" s="318"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="316"/>
-      <c r="K15" s="317"/>
+      <c r="F15" s="314"/>
+      <c r="G15" s="315"/>
+      <c r="H15" s="316"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="318"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B16" s="105"/>
-      <c r="C16" s="318" t="s">
-        <v>419</v>
+      <c r="C16" s="319" t="s">
+        <v>422</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="240" t="str">
+      <c r="F16" s="314"/>
+      <c r="G16" s="315"/>
+      <c r="H16" s="316"/>
+      <c r="I16" s="241" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J16" s="316" t="str">
+      <c r="J16" s="317" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="317"/>
+      <c r="K16" s="318"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="97" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B17" s="105"/>
-      <c r="C17" s="318" t="s">
-        <v>421</v>
+      <c r="C17" s="319" t="s">
+        <v>424</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
-      <c r="F17" s="313"/>
-      <c r="G17" s="314"/>
-      <c r="H17" s="315"/>
-      <c r="I17" s="240" t="str">
+      <c r="F17" s="314"/>
+      <c r="G17" s="315"/>
+      <c r="H17" s="316"/>
+      <c r="I17" s="241" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J17" s="316" t="str">
+      <c r="J17" s="317" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="317"/>
+      <c r="K17" s="318"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B18" s="105"/>
-      <c r="C18" s="318"/>
+      <c r="C18" s="319"/>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="314"/>
-      <c r="H18" s="313"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="316"/>
-      <c r="K18" s="317"/>
+      <c r="F18" s="314"/>
+      <c r="G18" s="315"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="318"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="97" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="108" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
       <c r="H19" s="108"/>
-      <c r="I19" s="240" t="str">
+      <c r="I19" s="241" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J19" s="316" t="str">
+      <c r="J19" s="317" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="317"/>
+      <c r="K19" s="318"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="319"/>
-      <c r="D20" s="319"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="319"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="320"/>
-      <c r="J20" s="321"/>
-      <c r="K20" s="322"/>
-    </row>
-    <row r="21" s="297" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="292" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="303"/>
-      <c r="C21" s="304" t="s">
-        <v>426</v>
-      </c>
-      <c r="D21" s="304"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="323" t="s">
-        <v>427</v>
-      </c>
-      <c r="G21" s="324" t="s">
+      <c r="C20" s="320"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="320"/>
+      <c r="F20" s="320"/>
+      <c r="G20" s="320"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="323"/>
+    </row>
+    <row r="21" s="298" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="293" t="s">
         <v>428</v>
       </c>
-      <c r="H21" s="323" t="s">
+      <c r="B21" s="304"/>
+      <c r="C21" s="305" t="s">
         <v>429</v>
       </c>
-      <c r="I21" s="324" t="s">
+      <c r="D21" s="305"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="324" t="s">
+        <v>430</v>
+      </c>
+      <c r="G21" s="325" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" s="324" t="s">
+        <v>432</v>
+      </c>
+      <c r="I21" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="324" t="s">
+      <c r="J21" s="325" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="324"/>
+      <c r="K21" s="325"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
       <c r="AKS21" s="0"/>
@@ -17267,155 +17280,155 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="97" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B22" s="99"/>
-      <c r="C22" s="325"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="326"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
-      <c r="I22" s="329"/>
-      <c r="J22" s="330"/>
-      <c r="K22" s="331"/>
+      <c r="C22" s="326"/>
+      <c r="D22" s="326"/>
+      <c r="E22" s="326"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="331"/>
+      <c r="K22" s="332"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="108" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
-      <c r="F23" s="240" t="str">
+      <c r="F23" s="241" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G23" s="332" t="s">
-        <v>433</v>
-      </c>
-      <c r="H23" s="333" t="n">
+      <c r="G23" s="333" t="s">
+        <v>436</v>
+      </c>
+      <c r="H23" s="334" t="n">
         <v>10</v>
       </c>
-      <c r="I23" s="316" t="str">
+      <c r="I23" s="317" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J23" s="316" t="str">
+      <c r="J23" s="317" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K23" s="317"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="318"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="108" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D24" s="108"/>
       <c r="E24" s="108"/>
-      <c r="F24" s="240" t="str">
+      <c r="F24" s="241" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G24" s="332" t="s">
-        <v>436</v>
-      </c>
-      <c r="H24" s="333" t="n">
+      <c r="G24" s="333" t="s">
+        <v>439</v>
+      </c>
+      <c r="H24" s="334" t="n">
         <v>1300</v>
       </c>
-      <c r="I24" s="316" t="str">
+      <c r="I24" s="317" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J24" s="316" t="str">
+      <c r="J24" s="317" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K24" s="317"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="318"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="108" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
-      <c r="F25" s="240" t="str">
+      <c r="F25" s="241" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G25" s="332" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" s="333" t="n">
+      <c r="G25" s="333" t="s">
+        <v>439</v>
+      </c>
+      <c r="H25" s="334" t="n">
         <v>1700</v>
       </c>
-      <c r="I25" s="316" t="str">
+      <c r="I25" s="317" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J25" s="316" t="str">
+      <c r="J25" s="317" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K25" s="317"/>
+      <c r="K25" s="318"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="108" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D26" s="108"/>
       <c r="E26" s="108"/>
-      <c r="F26" s="240" t="str">
+      <c r="F26" s="241" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G26" s="332" t="s">
-        <v>441</v>
-      </c>
-      <c r="H26" s="333" t="n">
+      <c r="G26" s="333" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="334" t="n">
         <v>4.7</v>
       </c>
-      <c r="I26" s="316" t="str">
+      <c r="I26" s="317" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J26" s="316" t="str">
+      <c r="J26" s="317" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="317"/>
+      <c r="K26" s="318"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B27" s="105"/>
-      <c r="C27" s="334" t="str">
+      <c r="C27" s="335" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="D27" s="334"/>
-      <c r="E27" s="334"/>
-      <c r="F27" s="240" t="str">
+      <c r="D27" s="335"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="241" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G27" s="335" t="str">
+      <c r="G27" s="336" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
@@ -17427,28 +17440,28 @@
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J27" s="316" t="str">
+      <c r="J27" s="317" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K27" s="336"/>
+      <c r="K27" s="337"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B28" s="105"/>
-      <c r="C28" s="334" t="str">
+      <c r="C28" s="335" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="D28" s="334"/>
-      <c r="E28" s="334"/>
-      <c r="F28" s="240" t="str">
+      <c r="D28" s="335"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="241" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G28" s="335" t="str">
+      <c r="G28" s="336" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
@@ -17460,132 +17473,132 @@
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J28" s="316" t="str">
+      <c r="J28" s="317" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K28" s="336"/>
+      <c r="K28" s="337"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B29" s="105"/>
-      <c r="C29" s="337" t="s">
-        <v>445</v>
-      </c>
-      <c r="D29" s="337"/>
-      <c r="E29" s="337"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="338"/>
+      <c r="C29" s="338" t="s">
+        <v>448</v>
+      </c>
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="339"/>
       <c r="H29" s="209"/>
       <c r="I29" s="128"/>
-      <c r="J29" s="316"/>
-      <c r="K29" s="317"/>
+      <c r="J29" s="317"/>
+      <c r="K29" s="318"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B30" s="105"/>
-      <c r="C30" s="337"/>
-      <c r="D30" s="337"/>
-      <c r="E30" s="337"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="338"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="339"/>
       <c r="H30" s="209"/>
       <c r="I30" s="128"/>
-      <c r="J30" s="316"/>
-      <c r="K30" s="317"/>
+      <c r="J30" s="317"/>
+      <c r="K30" s="318"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B31" s="105"/>
-      <c r="C31" s="337"/>
-      <c r="D31" s="337"/>
-      <c r="E31" s="337"/>
+      <c r="C31" s="338"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="338"/>
       <c r="F31" s="209"/>
-      <c r="G31" s="338"/>
+      <c r="G31" s="339"/>
       <c r="H31" s="209"/>
-      <c r="I31" s="339"/>
-      <c r="J31" s="340"/>
-      <c r="K31" s="317"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="341"/>
+      <c r="K31" s="318"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B32" s="105"/>
-      <c r="C32" s="337"/>
-      <c r="D32" s="337"/>
-      <c r="E32" s="337"/>
+      <c r="C32" s="338"/>
+      <c r="D32" s="338"/>
+      <c r="E32" s="338"/>
       <c r="F32" s="209"/>
-      <c r="G32" s="338"/>
+      <c r="G32" s="339"/>
       <c r="H32" s="209"/>
-      <c r="I32" s="339"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="317"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="341"/>
+      <c r="K32" s="318"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="97" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B33" s="105"/>
-      <c r="C33" s="341"/>
-      <c r="D33" s="341"/>
-      <c r="E33" s="341"/>
+      <c r="C33" s="342"/>
+      <c r="D33" s="342"/>
+      <c r="E33" s="342"/>
       <c r="F33" s="209"/>
-      <c r="G33" s="338"/>
+      <c r="G33" s="339"/>
       <c r="H33" s="209"/>
-      <c r="I33" s="339"/>
-      <c r="J33" s="340"/>
-      <c r="K33" s="317"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="341"/>
+      <c r="K33" s="318"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B34" s="114"/>
-      <c r="C34" s="342"/>
-      <c r="D34" s="342"/>
-      <c r="E34" s="342"/>
+      <c r="C34" s="343"/>
+      <c r="D34" s="343"/>
+      <c r="E34" s="343"/>
       <c r="F34" s="214"/>
-      <c r="G34" s="343"/>
+      <c r="G34" s="344"/>
       <c r="H34" s="214"/>
-      <c r="I34" s="344"/>
-      <c r="J34" s="345"/>
-      <c r="K34" s="322"/>
+      <c r="I34" s="345"/>
+      <c r="J34" s="346"/>
+      <c r="K34" s="323"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B35" s="105"/>
-      <c r="C35" s="304" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="304"/>
-      <c r="E35" s="304"/>
-      <c r="F35" s="313"/>
-      <c r="G35" s="314"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="346"/>
-      <c r="J35" s="347"/>
-      <c r="K35" s="317"/>
+      <c r="C35" s="305" t="s">
+        <v>455</v>
+      </c>
+      <c r="D35" s="305"/>
+      <c r="E35" s="305"/>
+      <c r="F35" s="314"/>
+      <c r="G35" s="315"/>
+      <c r="H35" s="314"/>
+      <c r="I35" s="347"/>
+      <c r="J35" s="348"/>
+      <c r="K35" s="318"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B36" s="105"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="304"/>
-      <c r="E36" s="304"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="314"/>
-      <c r="H36" s="313"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="305"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="314"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="314"/>
       <c r="I36" s="120" t="s">
         <v>59</v>
       </c>
@@ -17596,393 +17609,393 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B37" s="99"/>
-      <c r="C37" s="348"/>
-      <c r="D37" s="348"/>
-      <c r="E37" s="348"/>
-      <c r="F37" s="349"/>
-      <c r="G37" s="350"/>
-      <c r="H37" s="350"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="353"/>
+      <c r="C37" s="349"/>
+      <c r="D37" s="349"/>
+      <c r="E37" s="349"/>
+      <c r="F37" s="350"/>
+      <c r="G37" s="351"/>
+      <c r="H37" s="351"/>
+      <c r="I37" s="352"/>
+      <c r="J37" s="353"/>
+      <c r="K37" s="354"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="32" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="354"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="240" t="str">
+      <c r="F38" s="355"/>
+      <c r="G38" s="356"/>
+      <c r="H38" s="356"/>
+      <c r="I38" s="241" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J38" s="316" t="str">
+      <c r="J38" s="317" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K38" s="317"/>
+      <c r="K38" s="318"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="354"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="356"/>
-      <c r="J39" s="357"/>
-      <c r="K39" s="317"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="356"/>
+      <c r="H39" s="356"/>
+      <c r="I39" s="357"/>
+      <c r="J39" s="358"/>
+      <c r="K39" s="318"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="32" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="354"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="240" t="str">
+      <c r="F40" s="355"/>
+      <c r="G40" s="356"/>
+      <c r="H40" s="356"/>
+      <c r="I40" s="241" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J40" s="358" t="str">
+      <c r="J40" s="359" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K40" s="317"/>
+      <c r="K40" s="318"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="354"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="358"/>
-      <c r="K41" s="317"/>
+      <c r="F41" s="355"/>
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="359"/>
+      <c r="K41" s="318"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="32" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="354"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="240" t="str">
+      <c r="F42" s="355"/>
+      <c r="G42" s="356"/>
+      <c r="H42" s="356"/>
+      <c r="I42" s="241" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J42" s="316" t="str">
+      <c r="J42" s="317" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K42" s="317"/>
+      <c r="K42" s="318"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="354"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="317"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="356"/>
+      <c r="H43" s="356"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="359"/>
+      <c r="K43" s="318"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="32" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="354"/>
-      <c r="G44" s="355"/>
-      <c r="H44" s="355"/>
-      <c r="I44" s="240" t="str">
+      <c r="F44" s="355"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="241" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J44" s="316" t="str">
+      <c r="J44" s="317" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K44" s="317"/>
+      <c r="K44" s="318"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="354"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="355"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="358"/>
-      <c r="K45" s="317"/>
+      <c r="F45" s="355"/>
+      <c r="G45" s="356"/>
+      <c r="H45" s="356"/>
+      <c r="I45" s="241"/>
+      <c r="J45" s="359"/>
+      <c r="K45" s="318"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="97" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="5"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
-      <c r="I46" s="316" t="str">
+      <c r="I46" s="317" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J46" s="316" t="str">
+      <c r="J46" s="317" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K46" s="359"/>
+      <c r="K46" s="360"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="97" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B47" s="114"/>
-      <c r="C47" s="360"/>
-      <c r="D47" s="360"/>
-      <c r="E47" s="360"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="361"/>
+      <c r="E47" s="361"/>
       <c r="F47" s="115"/>
-      <c r="G47" s="361"/>
-      <c r="H47" s="361"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="361"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="362"/>
       <c r="K47" s="154"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="97" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B48" s="99"/>
-      <c r="C48" s="363" t="s">
-        <v>469</v>
-      </c>
-      <c r="D48" s="363"/>
-      <c r="E48" s="363"/>
-      <c r="F48" s="363"/>
-      <c r="G48" s="363"/>
-      <c r="H48" s="363"/>
-      <c r="I48" s="363"/>
-      <c r="J48" s="363"/>
-      <c r="K48" s="363"/>
+      <c r="C48" s="364" t="s">
+        <v>472</v>
+      </c>
+      <c r="D48" s="364"/>
+      <c r="E48" s="364"/>
+      <c r="F48" s="364"/>
+      <c r="G48" s="364"/>
+      <c r="H48" s="364"/>
+      <c r="I48" s="364"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="97" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B49" s="105"/>
-      <c r="C49" s="363"/>
-      <c r="D49" s="363"/>
-      <c r="E49" s="363"/>
-      <c r="F49" s="363"/>
-      <c r="G49" s="363"/>
-      <c r="H49" s="363"/>
-      <c r="I49" s="363"/>
-      <c r="J49" s="363"/>
-      <c r="K49" s="363"/>
+      <c r="C49" s="364"/>
+      <c r="D49" s="364"/>
+      <c r="E49" s="364"/>
+      <c r="F49" s="364"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="364"/>
+      <c r="I49" s="364"/>
+      <c r="J49" s="364"/>
+      <c r="K49" s="364"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="97" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B50" s="105"/>
-      <c r="C50" s="363"/>
-      <c r="D50" s="363"/>
-      <c r="E50" s="363"/>
-      <c r="F50" s="363"/>
-      <c r="G50" s="363"/>
-      <c r="H50" s="363"/>
-      <c r="I50" s="363"/>
-      <c r="J50" s="363"/>
-      <c r="K50" s="363"/>
+      <c r="C50" s="364"/>
+      <c r="D50" s="364"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="364"/>
+      <c r="G50" s="364"/>
+      <c r="H50" s="364"/>
+      <c r="I50" s="364"/>
+      <c r="J50" s="364"/>
+      <c r="K50" s="364"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="97" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B51" s="105"/>
-      <c r="C51" s="363"/>
-      <c r="D51" s="363"/>
-      <c r="E51" s="363"/>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="I51" s="363"/>
-      <c r="J51" s="363"/>
-      <c r="K51" s="363"/>
+      <c r="C51" s="364"/>
+      <c r="D51" s="364"/>
+      <c r="E51" s="364"/>
+      <c r="F51" s="364"/>
+      <c r="G51" s="364"/>
+      <c r="H51" s="364"/>
+      <c r="I51" s="364"/>
+      <c r="J51" s="364"/>
+      <c r="K51" s="364"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="97" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B52" s="105"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="363"/>
-      <c r="E52" s="363"/>
-      <c r="F52" s="363"/>
-      <c r="G52" s="363"/>
-      <c r="H52" s="363"/>
-      <c r="I52" s="363"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="363"/>
+      <c r="C52" s="364"/>
+      <c r="D52" s="364"/>
+      <c r="E52" s="364"/>
+      <c r="F52" s="364"/>
+      <c r="G52" s="364"/>
+      <c r="H52" s="364"/>
+      <c r="I52" s="364"/>
+      <c r="J52" s="364"/>
+      <c r="K52" s="364"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="97" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B53" s="152"/>
-      <c r="C53" s="363"/>
-      <c r="D53" s="363"/>
-      <c r="E53" s="363"/>
-      <c r="F53" s="363"/>
-      <c r="G53" s="363"/>
-      <c r="H53" s="363"/>
-      <c r="I53" s="363"/>
-      <c r="J53" s="363"/>
-      <c r="K53" s="363"/>
-      <c r="L53" s="364"/>
+      <c r="C53" s="364"/>
+      <c r="D53" s="364"/>
+      <c r="E53" s="364"/>
+      <c r="F53" s="364"/>
+      <c r="G53" s="364"/>
+      <c r="H53" s="364"/>
+      <c r="I53" s="364"/>
+      <c r="J53" s="364"/>
+      <c r="K53" s="364"/>
+      <c r="L53" s="365"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="97" t="s">
-        <v>475</v>
-      </c>
-      <c r="B54" s="365" t="str">
+        <v>478</v>
+      </c>
+      <c r="B54" s="366" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
         <v>Certifikatbeteckning: [:id], 5/8</v>
       </c>
-      <c r="C54" s="365"/>
-      <c r="D54" s="365"/>
-      <c r="E54" s="365"/>
-      <c r="F54" s="365"/>
-      <c r="G54" s="365"/>
-      <c r="H54" s="365"/>
-      <c r="I54" s="365"/>
-      <c r="J54" s="365"/>
-      <c r="K54" s="365"/>
+      <c r="C54" s="366"/>
+      <c r="D54" s="366"/>
+      <c r="E54" s="366"/>
+      <c r="F54" s="366"/>
+      <c r="G54" s="366"/>
+      <c r="H54" s="366"/>
+      <c r="I54" s="366"/>
+      <c r="J54" s="366"/>
+      <c r="K54" s="366"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="97" t="s">
-        <v>476</v>
-      </c>
-      <c r="B55" s="365"/>
-      <c r="C55" s="365"/>
-      <c r="D55" s="365"/>
-      <c r="E55" s="365"/>
-      <c r="F55" s="365"/>
-      <c r="G55" s="365"/>
-      <c r="H55" s="365"/>
-      <c r="I55" s="365"/>
-      <c r="J55" s="365"/>
-      <c r="K55" s="365"/>
+        <v>479</v>
+      </c>
+      <c r="B55" s="366"/>
+      <c r="C55" s="366"/>
+      <c r="D55" s="366"/>
+      <c r="E55" s="366"/>
+      <c r="F55" s="366"/>
+      <c r="G55" s="366"/>
+      <c r="H55" s="366"/>
+      <c r="I55" s="366"/>
+      <c r="J55" s="366"/>
+      <c r="K55" s="366"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="97" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="97" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="97" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="97" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="97" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="97" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="97" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="97" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="97" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="97" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="97" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="97" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -18475,12 +18488,12 @@
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -18493,17 +18506,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="368" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="248" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="367" t="s">
+    <row r="2" s="369" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="367"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -18537,172 +18550,172 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="166" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="369" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
+        <v>493</v>
+      </c>
+      <c r="B3" s="370" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="366" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" s="370" t="s">
-        <v>493</v>
+      <c r="A4" s="367" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="371" t="s">
+        <v>496</v>
       </c>
       <c r="C4" s="102"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="373"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="366" t="s">
-        <v>494</v>
-      </c>
-      <c r="B5" s="373" t="str">
+      <c r="A5" s="367" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="374" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="C5" s="373"/>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="366" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" s="373"/>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
+      <c r="A6" s="367" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="366" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="373"/>
-      <c r="C7" s="373"/>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
+      <c r="A7" s="367" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="366" t="s">
-        <v>497</v>
-      </c>
-      <c r="B8" s="373"/>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="373"/>
+      <c r="A8" s="367" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="366" t="s">
-        <v>498</v>
-      </c>
-      <c r="B9" s="373"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="373"/>
+      <c r="A9" s="367" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="374"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="366" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10" s="373"/>
-      <c r="C10" s="373"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="373"/>
+      <c r="A10" s="367" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="374"/>
+      <c r="C10" s="374"/>
+      <c r="D10" s="374"/>
+      <c r="E10" s="374"/>
+      <c r="F10" s="374"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>500</v>
-      </c>
-      <c r="B11" s="374" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="374"/>
+        <v>503</v>
+      </c>
+      <c r="B11" s="375" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="375"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="375"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>502</v>
-      </c>
-      <c r="B12" s="375" t="n">
+        <v>505</v>
+      </c>
+      <c r="B12" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="376" t="str">
+      <c r="C12" s="377" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D12" s="376"/>
-      <c r="E12" s="376"/>
-      <c r="F12" s="376"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
+      <c r="F12" s="377"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>503</v>
-      </c>
-      <c r="B13" s="375" t="n">
+        <v>506</v>
+      </c>
+      <c r="B13" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="376" t="str">
+      <c r="C13" s="377" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
-      <c r="F13" s="376"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="377"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>504</v>
-      </c>
-      <c r="B14" s="375" t="n">
+        <v>507</v>
+      </c>
+      <c r="B14" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="376" t="str">
+      <c r="C14" s="377" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>505</v>
-      </c>
-      <c r="B15" s="377"/>
-      <c r="C15" s="378" t="s">
-        <v>506</v>
-      </c>
-      <c r="D15" s="378" t="s">
-        <v>507</v>
-      </c>
-      <c r="E15" s="378" t="s">
         <v>508</v>
       </c>
-      <c r="F15" s="379" t="s">
+      <c r="B15" s="378"/>
+      <c r="C15" s="379" t="s">
         <v>509</v>
+      </c>
+      <c r="D15" s="379" t="s">
+        <v>510</v>
+      </c>
+      <c r="E15" s="379" t="s">
+        <v>511</v>
+      </c>
+      <c r="F15" s="380" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>510</v>
-      </c>
-      <c r="B16" s="380"/>
+        <v>513</v>
+      </c>
+      <c r="B16" s="381"/>
       <c r="C16" s="120" t="s">
         <v>59</v>
       </c>
@@ -18718,231 +18731,231 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>511</v>
-      </c>
-      <c r="B17" s="375" t="n">
+        <v>514</v>
+      </c>
+      <c r="B17" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="381" t="str">
+      <c r="C17" s="382" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D17" s="381" t="str">
+      <c r="D17" s="382" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E17" s="381" t="str">
+      <c r="E17" s="382" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F17" s="381" t="str">
+      <c r="F17" s="382" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>512</v>
-      </c>
-      <c r="B18" s="375" t="n">
+        <v>515</v>
+      </c>
+      <c r="B18" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="381" t="str">
+      <c r="C18" s="382" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D18" s="381" t="str">
+      <c r="D18" s="382" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E18" s="381" t="str">
+      <c r="E18" s="382" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F18" s="381" t="str">
+      <c r="F18" s="382" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>513</v>
-      </c>
-      <c r="B19" s="375" t="n">
+        <v>516</v>
+      </c>
+      <c r="B19" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="381" t="str">
+      <c r="C19" s="382" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D19" s="381" t="str">
+      <c r="D19" s="382" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E19" s="381" t="str">
+      <c r="E19" s="382" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F19" s="381" t="str">
+      <c r="F19" s="382" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>514</v>
-      </c>
-      <c r="B20" s="382" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="B20" s="383" t="s">
+        <v>518</v>
       </c>
       <c r="C20" s="102"/>
-      <c r="D20" s="371"/>
-      <c r="E20" s="371"/>
-      <c r="F20" s="383"/>
+      <c r="D20" s="372"/>
+      <c r="E20" s="372"/>
+      <c r="F20" s="384"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>516</v>
-      </c>
-      <c r="B21" s="373" t="str">
+        <v>519</v>
+      </c>
+      <c r="B21" s="374" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="373"/>
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>517</v>
-      </c>
-      <c r="B22" s="373"/>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
+        <v>520</v>
+      </c>
+      <c r="B22" s="374"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>518</v>
-      </c>
-      <c r="B23" s="373"/>
-      <c r="C23" s="373"/>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="373"/>
+        <v>521</v>
+      </c>
+      <c r="B23" s="374"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>519</v>
-      </c>
-      <c r="B24" s="373"/>
-      <c r="C24" s="373"/>
-      <c r="D24" s="373"/>
-      <c r="E24" s="373"/>
-      <c r="F24" s="373"/>
+        <v>522</v>
+      </c>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>520</v>
-      </c>
-      <c r="B25" s="373"/>
-      <c r="C25" s="373"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
+        <v>523</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>521</v>
-      </c>
-      <c r="B26" s="373"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
+        <v>524</v>
+      </c>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>522</v>
-      </c>
-      <c r="B27" s="374" t="s">
-        <v>501</v>
-      </c>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="374"/>
-      <c r="F27" s="374"/>
+        <v>525</v>
+      </c>
+      <c r="B27" s="375" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="375"/>
+      <c r="D27" s="375"/>
+      <c r="E27" s="375"/>
+      <c r="F27" s="375"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>523</v>
-      </c>
-      <c r="B28" s="375" t="n">
+        <v>526</v>
+      </c>
+      <c r="B28" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="376" t="str">
+      <c r="C28" s="377" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="376"/>
-      <c r="E28" s="376"/>
-      <c r="F28" s="376"/>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="377"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>524</v>
-      </c>
-      <c r="B29" s="375" t="n">
+        <v>527</v>
+      </c>
+      <c r="B29" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="376" t="str">
+      <c r="C29" s="377" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="376"/>
-      <c r="E29" s="376"/>
-      <c r="F29" s="376"/>
+      <c r="D29" s="377"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="377"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="375" t="n">
+        <v>528</v>
+      </c>
+      <c r="B30" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="376" t="str">
+      <c r="C30" s="377" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="376"/>
-      <c r="E30" s="376"/>
-      <c r="F30" s="376"/>
+      <c r="D30" s="377"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>526</v>
-      </c>
-      <c r="B31" s="384"/>
-      <c r="C31" s="378" t="s">
-        <v>506</v>
-      </c>
-      <c r="D31" s="378" t="s">
-        <v>507</v>
-      </c>
-      <c r="E31" s="378" t="s">
-        <v>508</v>
-      </c>
-      <c r="F31" s="379" t="s">
+        <v>529</v>
+      </c>
+      <c r="B31" s="385"/>
+      <c r="C31" s="379" t="s">
         <v>509</v>
+      </c>
+      <c r="D31" s="379" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="379" t="s">
+        <v>511</v>
+      </c>
+      <c r="F31" s="380" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>527</v>
-      </c>
-      <c r="B32" s="384"/>
+        <v>530</v>
+      </c>
+      <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -18958,231 +18971,231 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>528</v>
-      </c>
-      <c r="B33" s="375" t="n">
+        <v>531</v>
+      </c>
+      <c r="B33" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="381" t="str">
+      <c r="C33" s="382" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="381" t="str">
+      <c r="D33" s="382" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="381" t="str">
+      <c r="E33" s="382" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="381" t="str">
+      <c r="F33" s="382" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>529</v>
-      </c>
-      <c r="B34" s="375" t="n">
+        <v>532</v>
+      </c>
+      <c r="B34" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="381" t="str">
+      <c r="C34" s="382" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="381" t="str">
+      <c r="D34" s="382" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="381" t="str">
+      <c r="E34" s="382" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="381" t="str">
+      <c r="F34" s="382" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>530</v>
-      </c>
-      <c r="B35" s="375" t="n">
+        <v>533</v>
+      </c>
+      <c r="B35" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="381" t="str">
+      <c r="C35" s="382" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="381" t="str">
+      <c r="D35" s="382" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="381" t="str">
+      <c r="E35" s="382" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="381" t="str">
+      <c r="F35" s="382" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>531</v>
-      </c>
-      <c r="B36" s="382" t="s">
-        <v>532</v>
-      </c>
-      <c r="C36" s="385"/>
+        <v>534</v>
+      </c>
+      <c r="B36" s="383" t="s">
+        <v>535</v>
+      </c>
+      <c r="C36" s="386"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="383"/>
+      <c r="F36" s="384"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>533</v>
-      </c>
-      <c r="B37" s="373" t="str">
+        <v>536</v>
+      </c>
+      <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="C37" s="373"/>
-      <c r="D37" s="373"/>
-      <c r="E37" s="373"/>
-      <c r="F37" s="373"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>534</v>
-      </c>
-      <c r="B38" s="373"/>
-      <c r="C38" s="373"/>
-      <c r="D38" s="373"/>
-      <c r="E38" s="373"/>
-      <c r="F38" s="373"/>
+        <v>537</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>535</v>
-      </c>
-      <c r="B39" s="373"/>
-      <c r="C39" s="373"/>
-      <c r="D39" s="373"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="373"/>
+        <v>538</v>
+      </c>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>536</v>
-      </c>
-      <c r="B40" s="373"/>
-      <c r="C40" s="373"/>
-      <c r="D40" s="373"/>
-      <c r="E40" s="373"/>
-      <c r="F40" s="373"/>
+        <v>539</v>
+      </c>
+      <c r="B40" s="374"/>
+      <c r="C40" s="374"/>
+      <c r="D40" s="374"/>
+      <c r="E40" s="374"/>
+      <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>537</v>
-      </c>
-      <c r="B41" s="373"/>
-      <c r="C41" s="373"/>
-      <c r="D41" s="373"/>
-      <c r="E41" s="373"/>
-      <c r="F41" s="373"/>
+        <v>540</v>
+      </c>
+      <c r="B41" s="374"/>
+      <c r="C41" s="374"/>
+      <c r="D41" s="374"/>
+      <c r="E41" s="374"/>
+      <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>538</v>
-      </c>
-      <c r="B42" s="373"/>
-      <c r="C42" s="373"/>
-      <c r="D42" s="373"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="373"/>
+        <v>541</v>
+      </c>
+      <c r="B42" s="374"/>
+      <c r="C42" s="374"/>
+      <c r="D42" s="374"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>539</v>
-      </c>
-      <c r="B43" s="374" t="s">
-        <v>501</v>
-      </c>
-      <c r="C43" s="374"/>
-      <c r="D43" s="374"/>
-      <c r="E43" s="374"/>
-      <c r="F43" s="374"/>
+        <v>542</v>
+      </c>
+      <c r="B43" s="375" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" s="375"/>
+      <c r="D43" s="375"/>
+      <c r="E43" s="375"/>
+      <c r="F43" s="375"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>540</v>
-      </c>
-      <c r="B44" s="375" t="n">
+        <v>543</v>
+      </c>
+      <c r="B44" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="376" t="str">
+      <c r="C44" s="377" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D44" s="376"/>
-      <c r="E44" s="376"/>
-      <c r="F44" s="376"/>
+      <c r="D44" s="377"/>
+      <c r="E44" s="377"/>
+      <c r="F44" s="377"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>541</v>
-      </c>
-      <c r="B45" s="375" t="n">
+        <v>544</v>
+      </c>
+      <c r="B45" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="376" t="str">
+      <c r="C45" s="377" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D45" s="376"/>
-      <c r="E45" s="376"/>
-      <c r="F45" s="376"/>
+      <c r="D45" s="377"/>
+      <c r="E45" s="377"/>
+      <c r="F45" s="377"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>542</v>
-      </c>
-      <c r="B46" s="375" t="n">
+        <v>545</v>
+      </c>
+      <c r="B46" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="376" t="str">
+      <c r="C46" s="377" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D46" s="376"/>
-      <c r="E46" s="376"/>
-      <c r="F46" s="376"/>
+      <c r="D46" s="377"/>
+      <c r="E46" s="377"/>
+      <c r="F46" s="377"/>
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>543</v>
-      </c>
-      <c r="B47" s="384"/>
-      <c r="C47" s="378" t="s">
-        <v>506</v>
-      </c>
-      <c r="D47" s="378" t="s">
-        <v>507</v>
-      </c>
-      <c r="E47" s="378" t="s">
-        <v>508</v>
-      </c>
-      <c r="F47" s="379" t="s">
+        <v>546</v>
+      </c>
+      <c r="B47" s="385"/>
+      <c r="C47" s="379" t="s">
         <v>509</v>
+      </c>
+      <c r="D47" s="379" t="s">
+        <v>510</v>
+      </c>
+      <c r="E47" s="379" t="s">
+        <v>511</v>
+      </c>
+      <c r="F47" s="380" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>544</v>
-      </c>
-      <c r="B48" s="384"/>
+        <v>547</v>
+      </c>
+      <c r="B48" s="385"/>
       <c r="C48" s="120" t="s">
         <v>59</v>
       </c>
@@ -19198,133 +19211,133 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>545</v>
-      </c>
-      <c r="B49" s="375" t="n">
+        <v>548</v>
+      </c>
+      <c r="B49" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="381" t="str">
+      <c r="C49" s="382" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D49" s="381" t="str">
+      <c r="D49" s="382" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E49" s="381" t="str">
+      <c r="E49" s="382" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F49" s="381" t="str">
+      <c r="F49" s="382" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>546</v>
-      </c>
-      <c r="B50" s="375" t="n">
+        <v>549</v>
+      </c>
+      <c r="B50" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="381" t="str">
+      <c r="C50" s="382" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D50" s="381" t="str">
+      <c r="D50" s="382" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E50" s="381" t="str">
+      <c r="E50" s="382" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F50" s="381" t="str">
+      <c r="F50" s="382" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>547</v>
-      </c>
-      <c r="B51" s="375" t="n">
+        <v>550</v>
+      </c>
+      <c r="B51" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="381" t="str">
+      <c r="C51" s="382" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D51" s="381" t="str">
+      <c r="D51" s="382" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E51" s="381" t="str">
+      <c r="E51" s="382" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F51" s="381" t="str">
+      <c r="F51" s="382" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="366" t="s">
-        <v>548</v>
-      </c>
-      <c r="B52" s="291" t="str">
+      <c r="A52" s="367" t="s">
+        <v>551</v>
+      </c>
+      <c r="B52" s="292" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 6/8"</f>
         <v>Certifikatbeteckning: [:id], 6/8</v>
       </c>
-      <c r="C52" s="291"/>
-      <c r="D52" s="291"/>
-      <c r="E52" s="291"/>
-      <c r="F52" s="291"/>
+      <c r="C52" s="292"/>
+      <c r="D52" s="292"/>
+      <c r="E52" s="292"/>
+      <c r="F52" s="292"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="366" t="s">
-        <v>549</v>
-      </c>
-      <c r="B53" s="386"/>
+      <c r="A53" s="367" t="s">
+        <v>552</v>
+      </c>
+      <c r="B53" s="387"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="366" t="s">
-        <v>550</v>
+      <c r="A54" s="367" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="366" t="s">
-        <v>551</v>
+      <c r="A55" s="367" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="366" t="s">
-        <v>552</v>
+      <c r="A56" s="367" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="366" t="s">
-        <v>553</v>
+      <c r="A57" s="367" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="366" t="s">
-        <v>554</v>
+      <c r="A58" s="367" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="366" t="s">
-        <v>555</v>
+      <c r="A59" s="367" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="366" t="s">
-        <v>556</v>
+      <c r="A60" s="367" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="366" t="s">
-        <v>557</v>
+      <c r="A61" s="367" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -19463,7 +19476,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.12"/>
@@ -19477,172 +19490,172 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="366" t="s">
-        <v>558</v>
-      </c>
-      <c r="B2" s="370" t="s">
-        <v>559</v>
+      <c r="A2" s="367" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="371" t="s">
+        <v>562</v>
       </c>
       <c r="C2" s="102"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="373"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="366" t="s">
-        <v>560</v>
-      </c>
-      <c r="B3" s="373" t="str">
+      <c r="A3" s="367" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="374" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="366" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="373"/>
-      <c r="C4" s="373"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
+      <c r="A4" s="367" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="374"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="366" t="s">
-        <v>562</v>
-      </c>
-      <c r="B5" s="373"/>
-      <c r="C5" s="373"/>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
+      <c r="A5" s="367" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="374"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="366" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6" s="373"/>
-      <c r="C6" s="373"/>
-      <c r="D6" s="373"/>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
+      <c r="A6" s="367" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="366" t="s">
-        <v>564</v>
-      </c>
-      <c r="B7" s="373"/>
-      <c r="C7" s="373"/>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
+      <c r="A7" s="367" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="366" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="373"/>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="373"/>
+      <c r="A8" s="367" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="366" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9" s="373"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="373"/>
+      <c r="A9" s="367" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" s="374"/>
+      <c r="C9" s="374"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
-        <v>567</v>
-      </c>
-      <c r="B10" s="387" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="387"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="387"/>
-      <c r="F10" s="387"/>
+        <v>570</v>
+      </c>
+      <c r="B10" s="388" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>568</v>
-      </c>
-      <c r="B11" s="375" t="n">
+        <v>571</v>
+      </c>
+      <c r="B11" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="388" t="str">
+      <c r="C11" s="389" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D11" s="388"/>
-      <c r="E11" s="388"/>
-      <c r="F11" s="388"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="375" t="n">
+        <v>572</v>
+      </c>
+      <c r="B12" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="388" t="str">
+      <c r="C12" s="389" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D12" s="388"/>
-      <c r="E12" s="388"/>
-      <c r="F12" s="388"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="375" t="n">
+        <v>573</v>
+      </c>
+      <c r="B13" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="388" t="str">
+      <c r="C13" s="389" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D13" s="388"/>
-      <c r="E13" s="388"/>
-      <c r="F13" s="388"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="389"/>
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>571</v>
-      </c>
-      <c r="B14" s="384"/>
-      <c r="C14" s="378" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" s="378" t="s">
-        <v>507</v>
-      </c>
-      <c r="E14" s="378" t="s">
-        <v>508</v>
-      </c>
-      <c r="F14" s="379" t="s">
+        <v>574</v>
+      </c>
+      <c r="B14" s="385"/>
+      <c r="C14" s="379" t="s">
         <v>509</v>
+      </c>
+      <c r="D14" s="379" t="s">
+        <v>510</v>
+      </c>
+      <c r="E14" s="379" t="s">
+        <v>511</v>
+      </c>
+      <c r="F14" s="380" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>572</v>
-      </c>
-      <c r="B15" s="384"/>
+        <v>575</v>
+      </c>
+      <c r="B15" s="385"/>
       <c r="C15" s="120" t="s">
         <v>59</v>
       </c>
@@ -19658,241 +19671,241 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="B16" s="375" t="n">
+        <v>576</v>
+      </c>
+      <c r="B16" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="381" t="str">
+      <c r="C16" s="382" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D16" s="381" t="str">
+      <c r="D16" s="382" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E16" s="381" t="str">
+      <c r="E16" s="382" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F16" s="381" t="str">
+      <c r="F16" s="382" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="B17" s="375" t="n">
+        <v>577</v>
+      </c>
+      <c r="B17" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="381" t="str">
+      <c r="C17" s="382" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D17" s="381" t="str">
+      <c r="D17" s="382" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E17" s="381" t="str">
+      <c r="E17" s="382" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F17" s="381" t="str">
+      <c r="F17" s="382" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>575</v>
-      </c>
-      <c r="B18" s="375" t="n">
+        <v>578</v>
+      </c>
+      <c r="B18" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="381" t="str">
+      <c r="C18" s="382" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D18" s="381" t="str">
+      <c r="D18" s="382" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E18" s="381" t="str">
+      <c r="E18" s="382" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F18" s="381" t="str">
+      <c r="F18" s="382" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>576</v>
-      </c>
-      <c r="B19" s="382" t="s">
-        <v>577</v>
-      </c>
-      <c r="C19" s="385"/>
+        <v>579</v>
+      </c>
+      <c r="B19" s="383" t="s">
+        <v>580</v>
+      </c>
+      <c r="C19" s="386"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="383"/>
+      <c r="F19" s="384"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>578</v>
-      </c>
-      <c r="B20" s="373" t="str">
+        <v>581</v>
+      </c>
+      <c r="B20" s="374" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="373"/>
-      <c r="F20" s="373"/>
+      <c r="C20" s="374"/>
+      <c r="D20" s="374"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>579</v>
-      </c>
-      <c r="B21" s="373"/>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="373"/>
+        <v>582</v>
+      </c>
+      <c r="B21" s="374"/>
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>580</v>
-      </c>
-      <c r="B22" s="373"/>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
+        <v>583</v>
+      </c>
+      <c r="B22" s="374"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>581</v>
-      </c>
-      <c r="B23" s="373"/>
-      <c r="C23" s="373"/>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="373"/>
+        <v>584</v>
+      </c>
+      <c r="B23" s="374"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>582</v>
-      </c>
-      <c r="B24" s="373"/>
-      <c r="C24" s="373"/>
-      <c r="D24" s="373"/>
-      <c r="E24" s="373"/>
-      <c r="F24" s="373"/>
+        <v>585</v>
+      </c>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>583</v>
-      </c>
-      <c r="B25" s="373"/>
-      <c r="C25" s="373"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
+        <v>586</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>584</v>
-      </c>
-      <c r="B26" s="373"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
+        <v>587</v>
+      </c>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>585</v>
-      </c>
-      <c r="B27" s="387" t="s">
-        <v>501</v>
-      </c>
-      <c r="C27" s="387"/>
-      <c r="D27" s="387"/>
-      <c r="E27" s="387"/>
-      <c r="F27" s="387"/>
+        <v>588</v>
+      </c>
+      <c r="B27" s="388" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="388"/>
+      <c r="D27" s="388"/>
+      <c r="E27" s="388"/>
+      <c r="F27" s="388"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>586</v>
-      </c>
-      <c r="B28" s="375" t="n">
+        <v>589</v>
+      </c>
+      <c r="B28" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="388" t="str">
+      <c r="C28" s="389" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="D28" s="388"/>
-      <c r="E28" s="388"/>
-      <c r="F28" s="388"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="389"/>
+      <c r="F28" s="389"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>587</v>
-      </c>
-      <c r="B29" s="375" t="n">
+        <v>590</v>
+      </c>
+      <c r="B29" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="388" t="str">
+      <c r="C29" s="389" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="D29" s="388"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="388"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="389"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>588</v>
-      </c>
-      <c r="B30" s="375" t="n">
+        <v>591</v>
+      </c>
+      <c r="B30" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="388" t="str">
+      <c r="C30" s="389" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="D30" s="388"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="388"/>
+      <c r="D30" s="389"/>
+      <c r="E30" s="389"/>
+      <c r="F30" s="389"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>589</v>
-      </c>
-      <c r="B31" s="384"/>
-      <c r="C31" s="378" t="s">
-        <v>506</v>
-      </c>
-      <c r="D31" s="378" t="s">
-        <v>507</v>
-      </c>
-      <c r="E31" s="378" t="s">
-        <v>508</v>
-      </c>
-      <c r="F31" s="379" t="s">
+        <v>592</v>
+      </c>
+      <c r="B31" s="385"/>
+      <c r="C31" s="379" t="s">
         <v>509</v>
+      </c>
+      <c r="D31" s="379" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="379" t="s">
+        <v>511</v>
+      </c>
+      <c r="F31" s="380" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>590</v>
-      </c>
-      <c r="B32" s="384"/>
+        <v>593</v>
+      </c>
+      <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
         <v>59</v>
       </c>
@@ -19908,237 +19921,237 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>591</v>
-      </c>
-      <c r="B33" s="375" t="n">
+        <v>594</v>
+      </c>
+      <c r="B33" s="376" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="381" t="str">
+      <c r="C33" s="382" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="D33" s="381" t="str">
+      <c r="D33" s="382" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="E33" s="381" t="str">
+      <c r="E33" s="382" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="F33" s="381" t="str">
+      <c r="F33" s="382" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>592</v>
-      </c>
-      <c r="B34" s="375" t="n">
+        <v>595</v>
+      </c>
+      <c r="B34" s="376" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="381" t="str">
+      <c r="C34" s="382" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="D34" s="381" t="str">
+      <c r="D34" s="382" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="E34" s="381" t="str">
+      <c r="E34" s="382" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="F34" s="381" t="str">
+      <c r="F34" s="382" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>593</v>
-      </c>
-      <c r="B35" s="375" t="n">
+        <v>596</v>
+      </c>
+      <c r="B35" s="376" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="381" t="str">
+      <c r="C35" s="382" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="D35" s="381" t="str">
+      <c r="D35" s="382" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="E35" s="381" t="str">
+      <c r="E35" s="382" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="F35" s="381" t="str">
+      <c r="F35" s="382" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>594</v>
-      </c>
-      <c r="B36" s="389" t="s">
-        <v>595</v>
-      </c>
-      <c r="C36" s="389"/>
-      <c r="D36" s="389"/>
-      <c r="E36" s="389"/>
-      <c r="F36" s="389"/>
+        <v>597</v>
+      </c>
+      <c r="B36" s="390" t="s">
+        <v>598</v>
+      </c>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>596</v>
-      </c>
-      <c r="B37" s="373" t="str">
+        <v>599</v>
+      </c>
+      <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="C37" s="373"/>
-      <c r="D37" s="373"/>
-      <c r="E37" s="373"/>
-      <c r="F37" s="373"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>597</v>
-      </c>
-      <c r="B38" s="373"/>
-      <c r="C38" s="373"/>
-      <c r="D38" s="373"/>
-      <c r="E38" s="373"/>
-      <c r="F38" s="373"/>
+        <v>600</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>598</v>
-      </c>
-      <c r="B39" s="373"/>
-      <c r="C39" s="373"/>
-      <c r="D39" s="373"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="373"/>
+        <v>601</v>
+      </c>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>599</v>
-      </c>
-      <c r="B40" s="373"/>
-      <c r="C40" s="373"/>
-      <c r="D40" s="373"/>
-      <c r="E40" s="373"/>
-      <c r="F40" s="373"/>
+        <v>602</v>
+      </c>
+      <c r="B40" s="374"/>
+      <c r="C40" s="374"/>
+      <c r="D40" s="374"/>
+      <c r="E40" s="374"/>
+      <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>600</v>
-      </c>
-      <c r="B41" s="373"/>
-      <c r="C41" s="373"/>
-      <c r="D41" s="373"/>
-      <c r="E41" s="373"/>
-      <c r="F41" s="373"/>
+        <v>603</v>
+      </c>
+      <c r="B41" s="374"/>
+      <c r="C41" s="374"/>
+      <c r="D41" s="374"/>
+      <c r="E41" s="374"/>
+      <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>601</v>
-      </c>
-      <c r="B42" s="373"/>
-      <c r="C42" s="373"/>
-      <c r="D42" s="373"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="373"/>
+        <v>604</v>
+      </c>
+      <c r="B42" s="374"/>
+      <c r="C42" s="374"/>
+      <c r="D42" s="374"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>602</v>
-      </c>
-      <c r="B43" s="373"/>
-      <c r="C43" s="373"/>
-      <c r="D43" s="373"/>
-      <c r="E43" s="373"/>
-      <c r="F43" s="373"/>
+        <v>605</v>
+      </c>
+      <c r="B43" s="374"/>
+      <c r="C43" s="374"/>
+      <c r="D43" s="374"/>
+      <c r="E43" s="374"/>
+      <c r="F43" s="374"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>603</v>
-      </c>
-      <c r="B44" s="373"/>
-      <c r="C44" s="373"/>
-      <c r="D44" s="373"/>
-      <c r="E44" s="373"/>
-      <c r="F44" s="373"/>
+        <v>606</v>
+      </c>
+      <c r="B44" s="374"/>
+      <c r="C44" s="374"/>
+      <c r="D44" s="374"/>
+      <c r="E44" s="374"/>
+      <c r="F44" s="374"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>604</v>
-      </c>
-      <c r="B45" s="373"/>
-      <c r="C45" s="373"/>
-      <c r="D45" s="373"/>
-      <c r="E45" s="373"/>
-      <c r="F45" s="373"/>
+        <v>607</v>
+      </c>
+      <c r="B45" s="374"/>
+      <c r="C45" s="374"/>
+      <c r="D45" s="374"/>
+      <c r="E45" s="374"/>
+      <c r="F45" s="374"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166"/>
-      <c r="B46" s="373"/>
-      <c r="C46" s="373"/>
-      <c r="D46" s="373"/>
-      <c r="E46" s="373"/>
-      <c r="F46" s="373"/>
+      <c r="B46" s="374"/>
+      <c r="C46" s="374"/>
+      <c r="D46" s="374"/>
+      <c r="E46" s="374"/>
+      <c r="F46" s="374"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166"/>
-      <c r="B47" s="373"/>
-      <c r="C47" s="373"/>
-      <c r="D47" s="373"/>
-      <c r="E47" s="373"/>
-      <c r="F47" s="373"/>
+      <c r="B47" s="374"/>
+      <c r="C47" s="374"/>
+      <c r="D47" s="374"/>
+      <c r="E47" s="374"/>
+      <c r="F47" s="374"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="166"/>
-      <c r="B48" s="373"/>
-      <c r="C48" s="373"/>
-      <c r="D48" s="373"/>
-      <c r="E48" s="373"/>
-      <c r="F48" s="373"/>
+      <c r="B48" s="374"/>
+      <c r="C48" s="374"/>
+      <c r="D48" s="374"/>
+      <c r="E48" s="374"/>
+      <c r="F48" s="374"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166"/>
-      <c r="B49" s="373"/>
-      <c r="C49" s="373"/>
-      <c r="D49" s="373"/>
-      <c r="E49" s="373"/>
-      <c r="F49" s="373"/>
+      <c r="B49" s="374"/>
+      <c r="C49" s="374"/>
+      <c r="D49" s="374"/>
+      <c r="E49" s="374"/>
+      <c r="F49" s="374"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166"/>
-      <c r="B50" s="373"/>
-      <c r="C50" s="373"/>
-      <c r="D50" s="373"/>
-      <c r="E50" s="373"/>
-      <c r="F50" s="373"/>
+      <c r="B50" s="374"/>
+      <c r="C50" s="374"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="374"/>
+      <c r="F50" s="374"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166"/>
-      <c r="B51" s="373"/>
-      <c r="C51" s="373"/>
-      <c r="D51" s="373"/>
-      <c r="E51" s="373"/>
-      <c r="F51" s="373"/>
+      <c r="B51" s="374"/>
+      <c r="C51" s="374"/>
+      <c r="D51" s="374"/>
+      <c r="E51" s="374"/>
+      <c r="F51" s="374"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="370" t="s">
-        <v>605</v>
+      <c r="B52" s="371" t="s">
+        <v>608</v>
       </c>
       <c r="C52" s="102"/>
-      <c r="D52" s="371"/>
-      <c r="E52" s="371"/>
-      <c r="F52" s="372"/>
+      <c r="D52" s="372"/>
+      <c r="E52" s="372"/>
+      <c r="F52" s="373"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166"/>
@@ -20146,64 +20159,64 @@
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="390"/>
+      <c r="F53" s="391"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
-      <c r="B54" s="332" t="s">
-        <v>606</v>
-      </c>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
+      <c r="B54" s="333" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" s="333"/>
+      <c r="D54" s="333"/>
+      <c r="E54" s="333"/>
+      <c r="F54" s="333"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
-      <c r="B55" s="391" t="str">
+      <c r="B55" s="392" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="C55" s="391"/>
-      <c r="D55" s="391"/>
-      <c r="E55" s="391"/>
-      <c r="F55" s="391"/>
+      <c r="C55" s="392"/>
+      <c r="D55" s="392"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
-      <c r="B56" s="391"/>
-      <c r="C56" s="391"/>
-      <c r="D56" s="391"/>
-      <c r="E56" s="391"/>
-      <c r="F56" s="391"/>
+      <c r="B56" s="392"/>
+      <c r="C56" s="392"/>
+      <c r="D56" s="392"/>
+      <c r="E56" s="392"/>
+      <c r="F56" s="392"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
-      <c r="B57" s="391"/>
-      <c r="C57" s="391"/>
-      <c r="D57" s="391"/>
-      <c r="E57" s="391"/>
-      <c r="F57" s="391"/>
+      <c r="B57" s="392"/>
+      <c r="C57" s="392"/>
+      <c r="D57" s="392"/>
+      <c r="E57" s="392"/>
+      <c r="F57" s="392"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="391"/>
-      <c r="C58" s="391"/>
-      <c r="D58" s="391"/>
-      <c r="E58" s="391"/>
-      <c r="F58" s="391"/>
+      <c r="B58" s="392"/>
+      <c r="C58" s="392"/>
+      <c r="D58" s="392"/>
+      <c r="E58" s="392"/>
+      <c r="F58" s="392"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="291" t="str">
+      <c r="B59" s="292" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 7/8"</f>
         <v>Certifikatbeteckning: [:id], 7/8</v>
       </c>
-      <c r="C59" s="291"/>
-      <c r="D59" s="291"/>
-      <c r="E59" s="291"/>
-      <c r="F59" s="291"/>
+      <c r="C59" s="292"/>
+      <c r="D59" s="292"/>
+      <c r="E59" s="292"/>
+      <c r="F59" s="292"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="386"/>
+      <c r="B60" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -20312,14 +20325,14 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="366" width="27.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="367" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="1.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="3" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="1.12"/>
@@ -20334,1945 +20347,1945 @@
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="393" t="s">
-        <v>608</v>
-      </c>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
-      <c r="L2" s="393"/>
-      <c r="M2" s="393"/>
+        <v>610</v>
+      </c>
+      <c r="B2" s="393"/>
+      <c r="C2" s="394" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="366" t="s">
-        <v>609</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="394" t="str">
+      <c r="A3" s="367" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="358"/>
+      <c r="C3" s="395" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="366" t="s">
-        <v>610</v>
-      </c>
-      <c r="B4" s="357"/>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="394"/>
+      <c r="A4" s="367" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" s="358"/>
+      <c r="C4" s="395"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="395"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="395"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="366" t="s">
-        <v>611</v>
-      </c>
-      <c r="B5" s="357"/>
-      <c r="C5" s="394"/>
-      <c r="D5" s="394"/>
-      <c r="E5" s="394"/>
-      <c r="F5" s="394"/>
-      <c r="G5" s="394"/>
-      <c r="H5" s="394"/>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394"/>
-      <c r="K5" s="394"/>
-      <c r="L5" s="394"/>
-      <c r="M5" s="394"/>
+      <c r="A5" s="367" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="358"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="395"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="366" t="s">
-        <v>612</v>
-      </c>
-      <c r="B6" s="357"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="394"/>
-      <c r="E6" s="394"/>
-      <c r="F6" s="394"/>
-      <c r="G6" s="394"/>
-      <c r="H6" s="394"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="394"/>
-      <c r="K6" s="394"/>
-      <c r="L6" s="394"/>
-      <c r="M6" s="394"/>
+      <c r="A6" s="367" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="358"/>
+      <c r="C6" s="395"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="395"/>
+      <c r="G6" s="395"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="395"/>
       <c r="N6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="366" t="s">
-        <v>613</v>
-      </c>
-      <c r="B7" s="357"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
+      <c r="A7" s="367" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="358"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="231"/>
+      <c r="O7" s="232"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="366" t="s">
-        <v>614</v>
-      </c>
-      <c r="B8" s="357"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="394"/>
+      <c r="A8" s="367" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="358"/>
+      <c r="C8" s="395"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="395"/>
+      <c r="F8" s="395"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="395"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="395"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="366" t="s">
-        <v>615</v>
-      </c>
-      <c r="B9" s="357"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394"/>
-      <c r="E9" s="394"/>
-      <c r="F9" s="394"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="394"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="394"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="394"/>
-      <c r="M9" s="394"/>
-      <c r="P9" s="231"/>
+      <c r="A9" s="367" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="358"/>
+      <c r="C9" s="395"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="395"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
+      <c r="I9" s="395"/>
+      <c r="J9" s="395"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="395"/>
+      <c r="M9" s="395"/>
+      <c r="P9" s="232"/>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="366" t="s">
-        <v>616</v>
-      </c>
-      <c r="B10" s="357"/>
-      <c r="C10" s="394"/>
-      <c r="D10" s="394"/>
-      <c r="E10" s="394"/>
-      <c r="F10" s="394"/>
-      <c r="G10" s="394"/>
-      <c r="H10" s="394"/>
-      <c r="I10" s="394"/>
-      <c r="J10" s="394"/>
-      <c r="K10" s="394"/>
-      <c r="L10" s="394"/>
-      <c r="M10" s="394"/>
+      <c r="A10" s="367" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" s="358"/>
+      <c r="C10" s="395"/>
+      <c r="D10" s="395"/>
+      <c r="E10" s="395"/>
+      <c r="F10" s="395"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="395"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="395"/>
+      <c r="K10" s="395"/>
+      <c r="L10" s="395"/>
+      <c r="M10" s="395"/>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="366" t="s">
-        <v>617</v>
-      </c>
-      <c r="B11" s="357"/>
-      <c r="C11" s="394"/>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="394"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="394"/>
-      <c r="K11" s="394"/>
-      <c r="L11" s="394"/>
-      <c r="M11" s="394"/>
+      <c r="A11" s="367" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" s="358"/>
+      <c r="C11" s="395"/>
+      <c r="D11" s="395"/>
+      <c r="E11" s="395"/>
+      <c r="F11" s="395"/>
+      <c r="G11" s="395"/>
+      <c r="H11" s="395"/>
+      <c r="I11" s="395"/>
+      <c r="J11" s="395"/>
+      <c r="K11" s="395"/>
+      <c r="L11" s="395"/>
+      <c r="M11" s="395"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="366" t="s">
-        <v>618</v>
-      </c>
-      <c r="B12" s="357"/>
-      <c r="C12" s="394"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
-      <c r="G12" s="394"/>
-      <c r="H12" s="394"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="394"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="394"/>
+      <c r="A12" s="367" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12" s="358"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="395"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="395"/>
+      <c r="I12" s="395"/>
+      <c r="J12" s="395"/>
+      <c r="K12" s="395"/>
+      <c r="L12" s="395"/>
+      <c r="M12" s="395"/>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="366" t="s">
-        <v>619</v>
-      </c>
-      <c r="B13" s="357"/>
-      <c r="C13" s="394"/>
-      <c r="D13" s="394"/>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
-      <c r="G13" s="394"/>
-      <c r="H13" s="394"/>
-      <c r="I13" s="394"/>
-      <c r="J13" s="394"/>
-      <c r="K13" s="394"/>
-      <c r="L13" s="394"/>
-      <c r="M13" s="394"/>
+      <c r="A13" s="367" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="358"/>
+      <c r="C13" s="395"/>
+      <c r="D13" s="395"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="395"/>
+      <c r="G13" s="395"/>
+      <c r="H13" s="395"/>
+      <c r="I13" s="395"/>
+      <c r="J13" s="395"/>
+      <c r="K13" s="395"/>
+      <c r="L13" s="395"/>
+      <c r="M13" s="395"/>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="366" t="s">
-        <v>620</v>
-      </c>
-      <c r="B14" s="357"/>
-      <c r="C14" s="394"/>
-      <c r="D14" s="394"/>
-      <c r="E14" s="394"/>
-      <c r="F14" s="394"/>
-      <c r="G14" s="394"/>
-      <c r="H14" s="394"/>
-      <c r="I14" s="394"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="394"/>
-      <c r="L14" s="394"/>
-      <c r="M14" s="394"/>
+      <c r="A14" s="367" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14" s="358"/>
+      <c r="C14" s="395"/>
+      <c r="D14" s="395"/>
+      <c r="E14" s="395"/>
+      <c r="F14" s="395"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="395"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="395"/>
+      <c r="K14" s="395"/>
+      <c r="L14" s="395"/>
+      <c r="M14" s="395"/>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="366" t="s">
-        <v>621</v>
-      </c>
-      <c r="B15" s="357"/>
-      <c r="C15" s="394"/>
-      <c r="D15" s="394"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="394"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="394"/>
-      <c r="L15" s="394"/>
-      <c r="M15" s="394"/>
+      <c r="A15" s="367" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" s="358"/>
+      <c r="C15" s="395"/>
+      <c r="D15" s="395"/>
+      <c r="E15" s="395"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="395"/>
+      <c r="K15" s="395"/>
+      <c r="L15" s="395"/>
+      <c r="M15" s="395"/>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="366" t="s">
-        <v>622</v>
-      </c>
-      <c r="B16" s="357"/>
-      <c r="C16" s="394"/>
-      <c r="D16" s="394"/>
-      <c r="E16" s="394"/>
-      <c r="F16" s="394"/>
-      <c r="G16" s="394"/>
-      <c r="H16" s="394"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="394"/>
-      <c r="K16" s="394"/>
-      <c r="L16" s="394"/>
-      <c r="M16" s="394"/>
+      <c r="A16" s="367" t="s">
+        <v>625</v>
+      </c>
+      <c r="B16" s="358"/>
+      <c r="C16" s="395"/>
+      <c r="D16" s="395"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="395"/>
+      <c r="K16" s="395"/>
+      <c r="L16" s="395"/>
+      <c r="M16" s="395"/>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="366" t="s">
-        <v>623</v>
-      </c>
-      <c r="B17" s="357"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="394"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="394"/>
-      <c r="J17" s="394"/>
-      <c r="K17" s="394"/>
-      <c r="L17" s="394"/>
-      <c r="M17" s="394"/>
+      <c r="A17" s="367" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" s="358"/>
+      <c r="C17" s="395"/>
+      <c r="D17" s="395"/>
+      <c r="E17" s="395"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="395"/>
+      <c r="H17" s="395"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="395"/>
+      <c r="K17" s="395"/>
+      <c r="L17" s="395"/>
+      <c r="M17" s="395"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="366" t="s">
-        <v>624</v>
-      </c>
-      <c r="B18" s="357"/>
-      <c r="C18" s="394"/>
-      <c r="D18" s="394"/>
-      <c r="E18" s="394"/>
-      <c r="F18" s="394"/>
-      <c r="G18" s="394"/>
-      <c r="H18" s="394"/>
-      <c r="I18" s="394"/>
-      <c r="J18" s="394"/>
-      <c r="K18" s="394"/>
-      <c r="L18" s="394"/>
-      <c r="M18" s="394"/>
+      <c r="A18" s="367" t="s">
+        <v>627</v>
+      </c>
+      <c r="B18" s="358"/>
+      <c r="C18" s="395"/>
+      <c r="D18" s="395"/>
+      <c r="E18" s="395"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="395"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="395"/>
+      <c r="K18" s="395"/>
+      <c r="L18" s="395"/>
+      <c r="M18" s="395"/>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="366" t="s">
-        <v>625</v>
-      </c>
-      <c r="B19" s="357"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="394"/>
-      <c r="E19" s="394"/>
-      <c r="F19" s="394"/>
-      <c r="G19" s="394"/>
-      <c r="H19" s="394"/>
-      <c r="I19" s="394"/>
-      <c r="J19" s="394"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="394"/>
-      <c r="M19" s="394"/>
+      <c r="A19" s="367" t="s">
+        <v>628</v>
+      </c>
+      <c r="B19" s="358"/>
+      <c r="C19" s="395"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
+      <c r="F19" s="395"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="395"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="395"/>
+      <c r="K19" s="395"/>
+      <c r="L19" s="395"/>
+      <c r="M19" s="395"/>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="366" t="s">
-        <v>626</v>
-      </c>
-      <c r="B20" s="357"/>
-      <c r="C20" s="394"/>
-      <c r="D20" s="394"/>
-      <c r="E20" s="394"/>
-      <c r="F20" s="394"/>
-      <c r="G20" s="394"/>
-      <c r="H20" s="394"/>
-      <c r="I20" s="394"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="394"/>
-      <c r="L20" s="394"/>
-      <c r="M20" s="394"/>
+      <c r="A20" s="367" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20" s="358"/>
+      <c r="C20" s="395"/>
+      <c r="D20" s="395"/>
+      <c r="E20" s="395"/>
+      <c r="F20" s="395"/>
+      <c r="G20" s="395"/>
+      <c r="H20" s="395"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="395"/>
+      <c r="K20" s="395"/>
+      <c r="L20" s="395"/>
+      <c r="M20" s="395"/>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="366" t="s">
-        <v>627</v>
-      </c>
-      <c r="B21" s="357"/>
-      <c r="C21" s="394"/>
-      <c r="D21" s="394"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="394"/>
-      <c r="G21" s="394"/>
-      <c r="H21" s="394"/>
-      <c r="I21" s="394"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="394"/>
-      <c r="L21" s="394"/>
-      <c r="M21" s="394"/>
+      <c r="A21" s="367" t="s">
+        <v>630</v>
+      </c>
+      <c r="B21" s="358"/>
+      <c r="C21" s="395"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="395"/>
+      <c r="K21" s="395"/>
+      <c r="L21" s="395"/>
+      <c r="M21" s="395"/>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="366" t="s">
-        <v>628</v>
-      </c>
-      <c r="B22" s="357"/>
-      <c r="C22" s="394"/>
-      <c r="D22" s="394"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="394"/>
-      <c r="G22" s="394"/>
-      <c r="H22" s="394"/>
-      <c r="I22" s="394"/>
-      <c r="J22" s="394"/>
-      <c r="K22" s="394"/>
-      <c r="L22" s="394"/>
-      <c r="M22" s="394"/>
+      <c r="A22" s="367" t="s">
+        <v>631</v>
+      </c>
+      <c r="B22" s="358"/>
+      <c r="C22" s="395"/>
+      <c r="D22" s="395"/>
+      <c r="E22" s="395"/>
+      <c r="F22" s="395"/>
+      <c r="G22" s="395"/>
+      <c r="H22" s="395"/>
+      <c r="I22" s="395"/>
+      <c r="J22" s="395"/>
+      <c r="K22" s="395"/>
+      <c r="L22" s="395"/>
+      <c r="M22" s="395"/>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="366" t="s">
-        <v>629</v>
-      </c>
-      <c r="B23" s="357"/>
-      <c r="C23" s="394"/>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="394"/>
-      <c r="H23" s="394"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
-      <c r="K23" s="394"/>
-      <c r="L23" s="394"/>
-      <c r="M23" s="394"/>
+      <c r="A23" s="367" t="s">
+        <v>632</v>
+      </c>
+      <c r="B23" s="358"/>
+      <c r="C23" s="395"/>
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="395"/>
+      <c r="H23" s="395"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
+      <c r="K23" s="395"/>
+      <c r="L23" s="395"/>
+      <c r="M23" s="395"/>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="366" t="s">
-        <v>630</v>
-      </c>
-      <c r="B24" s="357"/>
-      <c r="C24" s="394"/>
-      <c r="D24" s="394"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="394"/>
-      <c r="G24" s="394"/>
-      <c r="H24" s="394"/>
-      <c r="I24" s="394"/>
-      <c r="J24" s="394"/>
-      <c r="K24" s="394"/>
-      <c r="L24" s="394"/>
-      <c r="M24" s="394"/>
+      <c r="A24" s="367" t="s">
+        <v>633</v>
+      </c>
+      <c r="B24" s="358"/>
+      <c r="C24" s="395"/>
+      <c r="D24" s="395"/>
+      <c r="E24" s="395"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="395"/>
+      <c r="H24" s="395"/>
+      <c r="I24" s="395"/>
+      <c r="J24" s="395"/>
+      <c r="K24" s="395"/>
+      <c r="L24" s="395"/>
+      <c r="M24" s="395"/>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="366" t="s">
-        <v>631</v>
-      </c>
-      <c r="B25" s="357"/>
-      <c r="C25" s="394"/>
-      <c r="D25" s="394"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="394"/>
-      <c r="G25" s="394"/>
-      <c r="H25" s="394"/>
-      <c r="I25" s="394"/>
-      <c r="J25" s="394"/>
-      <c r="K25" s="394"/>
-      <c r="L25" s="394"/>
-      <c r="M25" s="394"/>
+      <c r="A25" s="367" t="s">
+        <v>634</v>
+      </c>
+      <c r="B25" s="358"/>
+      <c r="C25" s="395"/>
+      <c r="D25" s="395"/>
+      <c r="E25" s="395"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="395"/>
+      <c r="H25" s="395"/>
+      <c r="I25" s="395"/>
+      <c r="J25" s="395"/>
+      <c r="K25" s="395"/>
+      <c r="L25" s="395"/>
+      <c r="M25" s="395"/>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="366" t="s">
-        <v>632</v>
-      </c>
-      <c r="B26" s="357"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="394"/>
-      <c r="E26" s="394"/>
-      <c r="F26" s="394"/>
-      <c r="G26" s="394"/>
-      <c r="H26" s="394"/>
-      <c r="I26" s="394"/>
-      <c r="J26" s="394"/>
-      <c r="K26" s="394"/>
-      <c r="L26" s="394"/>
-      <c r="M26" s="394"/>
+      <c r="A26" s="367" t="s">
+        <v>635</v>
+      </c>
+      <c r="B26" s="358"/>
+      <c r="C26" s="395"/>
+      <c r="D26" s="395"/>
+      <c r="E26" s="395"/>
+      <c r="F26" s="395"/>
+      <c r="G26" s="395"/>
+      <c r="H26" s="395"/>
+      <c r="I26" s="395"/>
+      <c r="J26" s="395"/>
+      <c r="K26" s="395"/>
+      <c r="L26" s="395"/>
+      <c r="M26" s="395"/>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="366" t="s">
-        <v>633</v>
-      </c>
-      <c r="B27" s="357"/>
-      <c r="C27" s="394"/>
-      <c r="D27" s="394"/>
-      <c r="E27" s="394"/>
-      <c r="F27" s="394"/>
-      <c r="G27" s="394"/>
-      <c r="H27" s="394"/>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
-      <c r="M27" s="394"/>
-      <c r="Q27" s="231"/>
+      <c r="A27" s="367" t="s">
+        <v>636</v>
+      </c>
+      <c r="B27" s="358"/>
+      <c r="C27" s="395"/>
+      <c r="D27" s="395"/>
+      <c r="E27" s="395"/>
+      <c r="F27" s="395"/>
+      <c r="G27" s="395"/>
+      <c r="H27" s="395"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="395"/>
+      <c r="K27" s="395"/>
+      <c r="L27" s="395"/>
+      <c r="M27" s="395"/>
+      <c r="Q27" s="232"/>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="366" t="s">
-        <v>634</v>
-      </c>
-      <c r="B28" s="357"/>
-      <c r="C28" s="394"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="394"/>
-      <c r="F28" s="394"/>
-      <c r="G28" s="394"/>
-      <c r="H28" s="394"/>
-      <c r="I28" s="394"/>
-      <c r="J28" s="394"/>
-      <c r="K28" s="394"/>
-      <c r="L28" s="394"/>
-      <c r="M28" s="394"/>
+      <c r="A28" s="367" t="s">
+        <v>637</v>
+      </c>
+      <c r="B28" s="358"/>
+      <c r="C28" s="395"/>
+      <c r="D28" s="395"/>
+      <c r="E28" s="395"/>
+      <c r="F28" s="395"/>
+      <c r="G28" s="395"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="395"/>
+      <c r="J28" s="395"/>
+      <c r="K28" s="395"/>
+      <c r="L28" s="395"/>
+      <c r="M28" s="395"/>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="366" t="s">
-        <v>635</v>
-      </c>
-      <c r="B29" s="357"/>
-      <c r="C29" s="394"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="394"/>
-      <c r="G29" s="394"/>
-      <c r="H29" s="394"/>
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
-      <c r="K29" s="394"/>
-      <c r="L29" s="394"/>
-      <c r="M29" s="394"/>
+      <c r="A29" s="367" t="s">
+        <v>638</v>
+      </c>
+      <c r="B29" s="358"/>
+      <c r="C29" s="395"/>
+      <c r="D29" s="395"/>
+      <c r="E29" s="395"/>
+      <c r="F29" s="395"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="395"/>
+      <c r="I29" s="395"/>
+      <c r="J29" s="395"/>
+      <c r="K29" s="395"/>
+      <c r="L29" s="395"/>
+      <c r="M29" s="395"/>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="366" t="s">
-        <v>636</v>
-      </c>
-      <c r="B30" s="357"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="394"/>
-      <c r="G30" s="394"/>
-      <c r="H30" s="394"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
-      <c r="K30" s="394"/>
-      <c r="L30" s="394"/>
-      <c r="M30" s="394"/>
+      <c r="A30" s="367" t="s">
+        <v>639</v>
+      </c>
+      <c r="B30" s="358"/>
+      <c r="C30" s="395"/>
+      <c r="D30" s="395"/>
+      <c r="E30" s="395"/>
+      <c r="F30" s="395"/>
+      <c r="G30" s="395"/>
+      <c r="H30" s="395"/>
+      <c r="I30" s="395"/>
+      <c r="J30" s="395"/>
+      <c r="K30" s="395"/>
+      <c r="L30" s="395"/>
+      <c r="M30" s="395"/>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="366" t="s">
-        <v>637</v>
-      </c>
-      <c r="B31" s="357"/>
-      <c r="C31" s="394"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="394"/>
-      <c r="G31" s="394"/>
-      <c r="H31" s="394"/>
-      <c r="I31" s="394"/>
-      <c r="J31" s="394"/>
-      <c r="K31" s="394"/>
-      <c r="L31" s="394"/>
-      <c r="M31" s="394"/>
-      <c r="P31" s="231"/>
+      <c r="A31" s="367" t="s">
+        <v>640</v>
+      </c>
+      <c r="B31" s="358"/>
+      <c r="C31" s="395"/>
+      <c r="D31" s="395"/>
+      <c r="E31" s="395"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="395"/>
+      <c r="H31" s="395"/>
+      <c r="I31" s="395"/>
+      <c r="J31" s="395"/>
+      <c r="K31" s="395"/>
+      <c r="L31" s="395"/>
+      <c r="M31" s="395"/>
+      <c r="P31" s="232"/>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="366" t="s">
-        <v>638</v>
-      </c>
-      <c r="B32" s="357"/>
-      <c r="C32" s="394"/>
-      <c r="D32" s="394"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="394"/>
-      <c r="G32" s="394"/>
-      <c r="H32" s="394"/>
-      <c r="I32" s="394"/>
-      <c r="J32" s="394"/>
-      <c r="K32" s="394"/>
-      <c r="L32" s="394"/>
-      <c r="M32" s="394"/>
+      <c r="A32" s="367" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32" s="358"/>
+      <c r="C32" s="395"/>
+      <c r="D32" s="395"/>
+      <c r="E32" s="395"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="395"/>
+      <c r="H32" s="395"/>
+      <c r="I32" s="395"/>
+      <c r="J32" s="395"/>
+      <c r="K32" s="395"/>
+      <c r="L32" s="395"/>
+      <c r="M32" s="395"/>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="366" t="s">
-        <v>639</v>
-      </c>
-      <c r="B33" s="357"/>
-      <c r="C33" s="394"/>
-      <c r="D33" s="394"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="394"/>
-      <c r="G33" s="394"/>
-      <c r="H33" s="394"/>
-      <c r="I33" s="394"/>
-      <c r="J33" s="394"/>
-      <c r="K33" s="394"/>
-      <c r="L33" s="394"/>
-      <c r="M33" s="394"/>
+      <c r="A33" s="367" t="s">
+        <v>642</v>
+      </c>
+      <c r="B33" s="358"/>
+      <c r="C33" s="395"/>
+      <c r="D33" s="395"/>
+      <c r="E33" s="395"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="395"/>
+      <c r="H33" s="395"/>
+      <c r="I33" s="395"/>
+      <c r="J33" s="395"/>
+      <c r="K33" s="395"/>
+      <c r="L33" s="395"/>
+      <c r="M33" s="395"/>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="366" t="s">
-        <v>640</v>
-      </c>
-      <c r="B34" s="357"/>
-      <c r="C34" s="394"/>
-      <c r="D34" s="394"/>
-      <c r="E34" s="394"/>
-      <c r="F34" s="394"/>
-      <c r="G34" s="394"/>
-      <c r="H34" s="394"/>
-      <c r="I34" s="394"/>
-      <c r="J34" s="394"/>
-      <c r="K34" s="394"/>
-      <c r="L34" s="394"/>
-      <c r="M34" s="394"/>
+      <c r="A34" s="367" t="s">
+        <v>643</v>
+      </c>
+      <c r="B34" s="358"/>
+      <c r="C34" s="395"/>
+      <c r="D34" s="395"/>
+      <c r="E34" s="395"/>
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
+      <c r="L34" s="395"/>
+      <c r="M34" s="395"/>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="366" t="s">
-        <v>641</v>
-      </c>
-      <c r="B35" s="357"/>
-      <c r="C35" s="394"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="394"/>
-      <c r="F35" s="394"/>
-      <c r="G35" s="394"/>
-      <c r="H35" s="394"/>
-      <c r="I35" s="394"/>
-      <c r="J35" s="394"/>
-      <c r="K35" s="394"/>
-      <c r="L35" s="394"/>
-      <c r="M35" s="394"/>
+      <c r="A35" s="367" t="s">
+        <v>644</v>
+      </c>
+      <c r="B35" s="358"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="395"/>
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
+      <c r="L35" s="395"/>
+      <c r="M35" s="395"/>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="366" t="s">
-        <v>642</v>
-      </c>
-      <c r="B36" s="395"/>
-      <c r="C36" s="396" t="s">
-        <v>643</v>
-      </c>
-      <c r="D36" s="397"/>
-      <c r="E36" s="397"/>
-      <c r="F36" s="397"/>
-      <c r="G36" s="397"/>
-      <c r="H36" s="397"/>
-      <c r="I36" s="397"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="397"/>
-      <c r="M36" s="398"/>
+      <c r="A36" s="367" t="s">
+        <v>645</v>
+      </c>
+      <c r="B36" s="396"/>
+      <c r="C36" s="397" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" s="398"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="398"/>
+      <c r="H36" s="398"/>
+      <c r="I36" s="398"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="398"/>
+      <c r="M36" s="399"/>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="366" t="s">
-        <v>644</v>
-      </c>
-      <c r="B37" s="399"/>
-      <c r="C37" s="400"/>
-      <c r="D37" s="401" t="s">
-        <v>645</v>
-      </c>
-      <c r="E37" s="401"/>
-      <c r="F37" s="401"/>
-      <c r="G37" s="402" t="s">
-        <v>646</v>
-      </c>
-      <c r="H37" s="402"/>
-      <c r="I37" s="402"/>
-      <c r="J37" s="402" t="s">
+      <c r="A37" s="367" t="s">
         <v>647</v>
       </c>
-      <c r="K37" s="402"/>
-      <c r="L37" s="402" t="s">
+      <c r="B37" s="400"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="402" t="s">
         <v>648</v>
       </c>
-      <c r="M37" s="402"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+      <c r="G37" s="403" t="s">
+        <v>649</v>
+      </c>
+      <c r="H37" s="403"/>
+      <c r="I37" s="403"/>
+      <c r="J37" s="403" t="s">
+        <v>650</v>
+      </c>
+      <c r="K37" s="403"/>
+      <c r="L37" s="403" t="s">
+        <v>651</v>
+      </c>
+      <c r="M37" s="403"/>
     </row>
     <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="366" t="s">
-        <v>649</v>
-      </c>
-      <c r="B38" s="403"/>
-      <c r="C38" s="404" t="s">
-        <v>650</v>
-      </c>
-      <c r="D38" s="405" t="s">
-        <v>651</v>
-      </c>
-      <c r="E38" s="405"/>
-      <c r="F38" s="405"/>
-      <c r="G38" s="406" t="s">
-        <v>651</v>
-      </c>
-      <c r="H38" s="406"/>
-      <c r="I38" s="406"/>
-      <c r="J38" s="406" t="s">
-        <v>651</v>
-      </c>
-      <c r="K38" s="406"/>
-      <c r="L38" s="406" t="s">
-        <v>651</v>
-      </c>
-      <c r="M38" s="406"/>
+      <c r="A38" s="367" t="s">
+        <v>652</v>
+      </c>
+      <c r="B38" s="404"/>
+      <c r="C38" s="405" t="s">
+        <v>653</v>
+      </c>
+      <c r="D38" s="406" t="s">
+        <v>654</v>
+      </c>
+      <c r="E38" s="406"/>
+      <c r="F38" s="406"/>
+      <c r="G38" s="407" t="s">
+        <v>654</v>
+      </c>
+      <c r="H38" s="407"/>
+      <c r="I38" s="407"/>
+      <c r="J38" s="407" t="s">
+        <v>654</v>
+      </c>
+      <c r="K38" s="407"/>
+      <c r="L38" s="407" t="s">
+        <v>654</v>
+      </c>
+      <c r="M38" s="407"/>
     </row>
     <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="366" t="s">
-        <v>652</v>
-      </c>
-      <c r="B39" s="407"/>
-      <c r="C39" s="408"/>
-      <c r="D39" s="409" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="410" t="s">
+      <c r="A39" s="367" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" s="408"/>
+      <c r="C39" s="409"/>
+      <c r="D39" s="410" t="s">
         <v>299</v>
       </c>
-      <c r="F39" s="410" t="s">
-        <v>653</v>
-      </c>
-      <c r="G39" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="410" t="s">
-        <v>654</v>
-      </c>
-      <c r="I39" s="410" t="s">
-        <v>655</v>
-      </c>
-      <c r="J39" s="410" t="s">
-        <v>305</v>
-      </c>
-      <c r="K39" s="410" t="s">
-        <v>306</v>
-      </c>
-      <c r="L39" s="410" t="s">
-        <v>305</v>
-      </c>
-      <c r="M39" s="410" t="s">
-        <v>306</v>
+      <c r="E39" s="411" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="411" t="s">
+        <v>656</v>
+      </c>
+      <c r="G39" s="411" t="s">
+        <v>300</v>
+      </c>
+      <c r="H39" s="411" t="s">
+        <v>657</v>
+      </c>
+      <c r="I39" s="411" t="s">
+        <v>658</v>
+      </c>
+      <c r="J39" s="411" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" s="411" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" s="411" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" s="411" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="366" t="s">
-        <v>656</v>
-      </c>
-      <c r="B40" s="411"/>
-      <c r="C40" s="412" t="s">
-        <v>657</v>
-      </c>
-      <c r="D40" s="413" t="str">
+      <c r="A40" s="367" t="s">
+        <v>659</v>
+      </c>
+      <c r="B40" s="412"/>
+      <c r="C40" s="413" t="s">
+        <v>660</v>
+      </c>
+      <c r="D40" s="414" t="str">
         <f aca="false">A11</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E40" s="413" t="str">
+      <c r="E40" s="414" t="str">
         <f aca="false">A12</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F40" s="413" t="str">
+      <c r="F40" s="414" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :muusahko]</v>
       </c>
-      <c r="G40" s="413" t="str">
+      <c r="G40" s="414" t="str">
         <f aca="false">A14</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H40" s="413" t="str">
+      <c r="H40" s="414" t="str">
         <f aca="false">A15</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I40" s="413" t="str">
+      <c r="I40" s="414" t="str">
         <f aca="false">A16</f>
         <v>[:tulokset :kuukausierittely 0 :tuotto :muulampo]</v>
       </c>
-      <c r="J40" s="413" t="str">
+      <c r="J40" s="414" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kuukausierittely 0 :kulutus :sahko]</v>
       </c>
-      <c r="K40" s="413" t="str">
+      <c r="K40" s="414" t="str">
         <f aca="false">A18</f>
         <v>[:tulokset :kuukausierittely 0 :kulutus :lampo]</v>
       </c>
-      <c r="L40" s="413" t="str">
+      <c r="L40" s="414" t="str">
         <f aca="false">A19</f>
         <v>[:tulokset :kuukausierittely 0 :hyoty :sahko]</v>
       </c>
-      <c r="M40" s="413" t="str">
+      <c r="M40" s="414" t="str">
         <f aca="false">A20</f>
         <v>[:tulokset :kuukausierittely 0 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="366" t="s">
-        <v>658</v>
-      </c>
-      <c r="B41" s="411"/>
-      <c r="C41" s="412" t="s">
-        <v>659</v>
-      </c>
-      <c r="D41" s="413" t="str">
+      <c r="A41" s="367" t="s">
+        <v>661</v>
+      </c>
+      <c r="B41" s="412"/>
+      <c r="C41" s="413" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="414" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E41" s="413" t="str">
+      <c r="E41" s="414" t="str">
         <f aca="false">A22</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F41" s="413" t="str">
+      <c r="F41" s="414" t="str">
         <f aca="false">A23</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :muusahko]</v>
       </c>
-      <c r="G41" s="413" t="str">
+      <c r="G41" s="414" t="str">
         <f aca="false">A24</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H41" s="413" t="str">
+      <c r="H41" s="414" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I41" s="413" t="str">
+      <c r="I41" s="414" t="str">
         <f aca="false">A26</f>
         <v>[:tulokset :kuukausierittely 1 :tuotto :muulampo]</v>
       </c>
-      <c r="J41" s="413" t="str">
+      <c r="J41" s="414" t="str">
         <f aca="false">A27</f>
         <v>[:tulokset :kuukausierittely 1 :kulutus :sahko]</v>
       </c>
-      <c r="K41" s="413" t="str">
+      <c r="K41" s="414" t="str">
         <f aca="false">A28</f>
         <v>[:tulokset :kuukausierittely 1 :kulutus :lampo]</v>
       </c>
-      <c r="L41" s="413" t="str">
+      <c r="L41" s="414" t="str">
         <f aca="false">A29</f>
         <v>[:tulokset :kuukausierittely 1 :hyoty :sahko]</v>
       </c>
-      <c r="M41" s="413" t="str">
+      <c r="M41" s="414" t="str">
         <f aca="false">A30</f>
         <v>[:tulokset :kuukausierittely 1 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="366" t="s">
-        <v>660</v>
-      </c>
-      <c r="B42" s="411"/>
-      <c r="C42" s="412" t="s">
-        <v>661</v>
-      </c>
-      <c r="D42" s="413" t="str">
+      <c r="A42" s="367" t="s">
+        <v>663</v>
+      </c>
+      <c r="B42" s="412"/>
+      <c r="C42" s="413" t="s">
+        <v>664</v>
+      </c>
+      <c r="D42" s="414" t="str">
         <f aca="false">A31</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E42" s="413" t="str">
+      <c r="E42" s="414" t="str">
         <f aca="false">A32</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F42" s="413" t="str">
+      <c r="F42" s="414" t="str">
         <f aca="false">A33</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :muusahko]</v>
       </c>
-      <c r="G42" s="413" t="str">
+      <c r="G42" s="414" t="str">
         <f aca="false">A34</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H42" s="413" t="str">
+      <c r="H42" s="414" t="str">
         <f aca="false">A35</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I42" s="413" t="str">
+      <c r="I42" s="414" t="str">
         <f aca="false">A36</f>
         <v>[:tulokset :kuukausierittely 2 :tuotto :muulampo]</v>
       </c>
-      <c r="J42" s="413" t="str">
+      <c r="J42" s="414" t="str">
         <f aca="false">A37</f>
         <v>[:tulokset :kuukausierittely 2 :kulutus :sahko]</v>
       </c>
-      <c r="K42" s="413" t="str">
+      <c r="K42" s="414" t="str">
         <f aca="false">A38</f>
         <v>[:tulokset :kuukausierittely 2 :kulutus :lampo]</v>
       </c>
-      <c r="L42" s="413" t="str">
+      <c r="L42" s="414" t="str">
         <f aca="false">A39</f>
         <v>[:tulokset :kuukausierittely 2 :hyoty :sahko]</v>
       </c>
-      <c r="M42" s="413" t="str">
+      <c r="M42" s="414" t="str">
         <f aca="false">A40</f>
         <v>[:tulokset :kuukausierittely 2 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="366" t="s">
-        <v>662</v>
-      </c>
-      <c r="B43" s="411"/>
-      <c r="C43" s="412" t="s">
-        <v>663</v>
-      </c>
-      <c r="D43" s="413" t="str">
+      <c r="A43" s="367" t="s">
+        <v>665</v>
+      </c>
+      <c r="B43" s="412"/>
+      <c r="C43" s="413" t="s">
+        <v>666</v>
+      </c>
+      <c r="D43" s="414" t="str">
         <f aca="false">A41</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E43" s="413" t="str">
+      <c r="E43" s="414" t="str">
         <f aca="false">A42</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F43" s="413" t="str">
+      <c r="F43" s="414" t="str">
         <f aca="false">A43</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :muusahko]</v>
       </c>
-      <c r="G43" s="413" t="str">
+      <c r="G43" s="414" t="str">
         <f aca="false">A44</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H43" s="413" t="str">
+      <c r="H43" s="414" t="str">
         <f aca="false">A45</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I43" s="413" t="str">
+      <c r="I43" s="414" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :kuukausierittely 3 :tuotto :muulampo]</v>
       </c>
-      <c r="J43" s="413" t="str">
+      <c r="J43" s="414" t="str">
         <f aca="false">A47</f>
         <v>[:tulokset :kuukausierittely 3 :kulutus :sahko]</v>
       </c>
-      <c r="K43" s="413" t="str">
+      <c r="K43" s="414" t="str">
         <f aca="false">A48</f>
         <v>[:tulokset :kuukausierittely 3 :kulutus :lampo]</v>
       </c>
-      <c r="L43" s="413" t="str">
+      <c r="L43" s="414" t="str">
         <f aca="false">A49</f>
         <v>[:tulokset :kuukausierittely 3 :hyoty :sahko]</v>
       </c>
-      <c r="M43" s="413" t="str">
+      <c r="M43" s="414" t="str">
         <f aca="false">A50</f>
         <v>[:tulokset :kuukausierittely 3 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="366" t="s">
-        <v>664</v>
-      </c>
-      <c r="B44" s="411"/>
-      <c r="C44" s="412" t="s">
-        <v>665</v>
-      </c>
-      <c r="D44" s="413" t="str">
+      <c r="A44" s="367" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" s="412"/>
+      <c r="C44" s="413" t="s">
+        <v>668</v>
+      </c>
+      <c r="D44" s="414" t="str">
         <f aca="false">A51</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E44" s="413" t="str">
+      <c r="E44" s="414" t="str">
         <f aca="false">A52</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F44" s="413" t="str">
+      <c r="F44" s="414" t="str">
         <f aca="false">A53</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :muusahko]</v>
       </c>
-      <c r="G44" s="413" t="str">
+      <c r="G44" s="414" t="str">
         <f aca="false">A54</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H44" s="413" t="str">
+      <c r="H44" s="414" t="str">
         <f aca="false">A55</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I44" s="413" t="str">
+      <c r="I44" s="414" t="str">
         <f aca="false">A56</f>
         <v>[:tulokset :kuukausierittely 4 :tuotto :muulampo]</v>
       </c>
-      <c r="J44" s="413" t="str">
+      <c r="J44" s="414" t="str">
         <f aca="false">A57</f>
         <v>[:tulokset :kuukausierittely 4 :kulutus :sahko]</v>
       </c>
-      <c r="K44" s="413" t="str">
+      <c r="K44" s="414" t="str">
         <f aca="false">A58</f>
         <v>[:tulokset :kuukausierittely 4 :kulutus :lampo]</v>
       </c>
-      <c r="L44" s="413" t="str">
+      <c r="L44" s="414" t="str">
         <f aca="false">A59</f>
         <v>[:tulokset :kuukausierittely 4 :hyoty :sahko]</v>
       </c>
-      <c r="M44" s="413" t="str">
+      <c r="M44" s="414" t="str">
         <f aca="false">A60</f>
         <v>[:tulokset :kuukausierittely 4 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="366" t="s">
-        <v>666</v>
-      </c>
-      <c r="B45" s="411"/>
-      <c r="C45" s="412" t="s">
-        <v>667</v>
-      </c>
-      <c r="D45" s="413" t="str">
+      <c r="A45" s="367" t="s">
+        <v>669</v>
+      </c>
+      <c r="B45" s="412"/>
+      <c r="C45" s="413" t="s">
+        <v>670</v>
+      </c>
+      <c r="D45" s="414" t="str">
         <f aca="false">A61</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E45" s="413" t="str">
+      <c r="E45" s="414" t="str">
         <f aca="false">A62</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F45" s="413" t="str">
+      <c r="F45" s="414" t="str">
         <f aca="false">A63</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :muusahko]</v>
       </c>
-      <c r="G45" s="413" t="str">
+      <c r="G45" s="414" t="str">
         <f aca="false">A64</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H45" s="413" t="str">
+      <c r="H45" s="414" t="str">
         <f aca="false">A65</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I45" s="413" t="str">
+      <c r="I45" s="414" t="str">
         <f aca="false">A66</f>
         <v>[:tulokset :kuukausierittely 5 :tuotto :muulampo]</v>
       </c>
-      <c r="J45" s="413" t="str">
+      <c r="J45" s="414" t="str">
         <f aca="false">A67</f>
         <v>[:tulokset :kuukausierittely 5 :kulutus :sahko]</v>
       </c>
-      <c r="K45" s="413" t="str">
+      <c r="K45" s="414" t="str">
         <f aca="false">A68</f>
         <v>[:tulokset :kuukausierittely 5 :kulutus :lampo]</v>
       </c>
-      <c r="L45" s="413" t="str">
+      <c r="L45" s="414" t="str">
         <f aca="false">A69</f>
         <v>[:tulokset :kuukausierittely 5 :hyoty :sahko]</v>
       </c>
-      <c r="M45" s="413" t="str">
+      <c r="M45" s="414" t="str">
         <f aca="false">A70</f>
         <v>[:tulokset :kuukausierittely 5 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="366" t="s">
-        <v>668</v>
-      </c>
-      <c r="B46" s="411"/>
-      <c r="C46" s="412" t="s">
-        <v>669</v>
-      </c>
-      <c r="D46" s="413" t="str">
+      <c r="A46" s="367" t="s">
+        <v>671</v>
+      </c>
+      <c r="B46" s="412"/>
+      <c r="C46" s="413" t="s">
+        <v>672</v>
+      </c>
+      <c r="D46" s="414" t="str">
         <f aca="false">A71</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E46" s="413" t="str">
+      <c r="E46" s="414" t="str">
         <f aca="false">A72</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F46" s="413" t="str">
+      <c r="F46" s="414" t="str">
         <f aca="false">A73</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :muusahko]</v>
       </c>
-      <c r="G46" s="413" t="str">
+      <c r="G46" s="414" t="str">
         <f aca="false">A74</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H46" s="413" t="str">
+      <c r="H46" s="414" t="str">
         <f aca="false">A75</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I46" s="413" t="str">
+      <c r="I46" s="414" t="str">
         <f aca="false">A76</f>
         <v>[:tulokset :kuukausierittely 6 :tuotto :muulampo]</v>
       </c>
-      <c r="J46" s="413" t="str">
+      <c r="J46" s="414" t="str">
         <f aca="false">A77</f>
         <v>[:tulokset :kuukausierittely 6 :kulutus :sahko]</v>
       </c>
-      <c r="K46" s="413" t="str">
+      <c r="K46" s="414" t="str">
         <f aca="false">A78</f>
         <v>[:tulokset :kuukausierittely 6 :kulutus :lampo]</v>
       </c>
-      <c r="L46" s="413" t="str">
+      <c r="L46" s="414" t="str">
         <f aca="false">A79</f>
         <v>[:tulokset :kuukausierittely 6 :hyoty :sahko]</v>
       </c>
-      <c r="M46" s="413" t="str">
+      <c r="M46" s="414" t="str">
         <f aca="false">A80</f>
         <v>[:tulokset :kuukausierittely 6 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="366" t="s">
-        <v>670</v>
-      </c>
-      <c r="B47" s="411"/>
-      <c r="C47" s="412" t="s">
-        <v>671</v>
-      </c>
-      <c r="D47" s="413" t="str">
+      <c r="A47" s="367" t="s">
+        <v>673</v>
+      </c>
+      <c r="B47" s="412"/>
+      <c r="C47" s="413" t="s">
+        <v>674</v>
+      </c>
+      <c r="D47" s="414" t="str">
         <f aca="false">A81</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E47" s="413" t="str">
+      <c r="E47" s="414" t="str">
         <f aca="false">A82</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F47" s="413" t="str">
+      <c r="F47" s="414" t="str">
         <f aca="false">A83</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :muusahko]</v>
       </c>
-      <c r="G47" s="413" t="str">
+      <c r="G47" s="414" t="str">
         <f aca="false">A84</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H47" s="413" t="str">
+      <c r="H47" s="414" t="str">
         <f aca="false">A85</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I47" s="413" t="str">
+      <c r="I47" s="414" t="str">
         <f aca="false">A86</f>
         <v>[:tulokset :kuukausierittely 7 :tuotto :muulampo]</v>
       </c>
-      <c r="J47" s="413" t="str">
+      <c r="J47" s="414" t="str">
         <f aca="false">A87</f>
         <v>[:tulokset :kuukausierittely 7 :kulutus :sahko]</v>
       </c>
-      <c r="K47" s="413" t="str">
+      <c r="K47" s="414" t="str">
         <f aca="false">A88</f>
         <v>[:tulokset :kuukausierittely 7 :kulutus :lampo]</v>
       </c>
-      <c r="L47" s="413" t="str">
+      <c r="L47" s="414" t="str">
         <f aca="false">A89</f>
         <v>[:tulokset :kuukausierittely 7 :hyoty :sahko]</v>
       </c>
-      <c r="M47" s="413" t="str">
+      <c r="M47" s="414" t="str">
         <f aca="false">A90</f>
         <v>[:tulokset :kuukausierittely 7 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="366" t="s">
-        <v>672</v>
-      </c>
-      <c r="B48" s="411"/>
-      <c r="C48" s="412" t="s">
-        <v>673</v>
-      </c>
-      <c r="D48" s="413" t="str">
+      <c r="A48" s="367" t="s">
+        <v>675</v>
+      </c>
+      <c r="B48" s="412"/>
+      <c r="C48" s="413" t="s">
+        <v>676</v>
+      </c>
+      <c r="D48" s="414" t="str">
         <f aca="false">A91</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E48" s="413" t="str">
+      <c r="E48" s="414" t="str">
         <f aca="false">A92</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F48" s="413" t="str">
+      <c r="F48" s="414" t="str">
         <f aca="false">A93</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :muusahko]</v>
       </c>
-      <c r="G48" s="413" t="str">
+      <c r="G48" s="414" t="str">
         <f aca="false">A94</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H48" s="413" t="str">
+      <c r="H48" s="414" t="str">
         <f aca="false">A95</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I48" s="413" t="str">
+      <c r="I48" s="414" t="str">
         <f aca="false">A96</f>
         <v>[:tulokset :kuukausierittely 8 :tuotto :muulampo]</v>
       </c>
-      <c r="J48" s="413" t="str">
+      <c r="J48" s="414" t="str">
         <f aca="false">A97</f>
         <v>[:tulokset :kuukausierittely 8 :kulutus :sahko]</v>
       </c>
-      <c r="K48" s="413" t="str">
+      <c r="K48" s="414" t="str">
         <f aca="false">A98</f>
         <v>[:tulokset :kuukausierittely 8 :kulutus :lampo]</v>
       </c>
-      <c r="L48" s="413" t="str">
+      <c r="L48" s="414" t="str">
         <f aca="false">A99</f>
         <v>[:tulokset :kuukausierittely 8 :hyoty :sahko]</v>
       </c>
-      <c r="M48" s="413" t="str">
+      <c r="M48" s="414" t="str">
         <f aca="false">A100</f>
         <v>[:tulokset :kuukausierittely 8 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="366" t="s">
-        <v>674</v>
-      </c>
-      <c r="B49" s="411"/>
-      <c r="C49" s="412" t="s">
-        <v>675</v>
-      </c>
-      <c r="D49" s="413" t="str">
+      <c r="A49" s="367" t="s">
+        <v>677</v>
+      </c>
+      <c r="B49" s="412"/>
+      <c r="C49" s="413" t="s">
+        <v>678</v>
+      </c>
+      <c r="D49" s="414" t="str">
         <f aca="false">A101</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E49" s="413" t="str">
+      <c r="E49" s="414" t="str">
         <f aca="false">A102</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F49" s="413" t="str">
+      <c r="F49" s="414" t="str">
         <f aca="false">A103</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :muusahko]</v>
       </c>
-      <c r="G49" s="413" t="str">
+      <c r="G49" s="414" t="str">
         <f aca="false">A104</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H49" s="413" t="str">
+      <c r="H49" s="414" t="str">
         <f aca="false">A105</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I49" s="413" t="str">
+      <c r="I49" s="414" t="str">
         <f aca="false">A106</f>
         <v>[:tulokset :kuukausierittely 9 :tuotto :muulampo]</v>
       </c>
-      <c r="J49" s="413" t="str">
+      <c r="J49" s="414" t="str">
         <f aca="false">A107</f>
         <v>[:tulokset :kuukausierittely 9 :kulutus :sahko]</v>
       </c>
-      <c r="K49" s="413" t="str">
+      <c r="K49" s="414" t="str">
         <f aca="false">A108</f>
         <v>[:tulokset :kuukausierittely 9 :kulutus :lampo]</v>
       </c>
-      <c r="L49" s="413" t="str">
+      <c r="L49" s="414" t="str">
         <f aca="false">A109</f>
         <v>[:tulokset :kuukausierittely 9 :hyoty :sahko]</v>
       </c>
-      <c r="M49" s="413" t="str">
+      <c r="M49" s="414" t="str">
         <f aca="false">A110</f>
         <v>[:tulokset :kuukausierittely 9 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="366" t="s">
-        <v>676</v>
-      </c>
-      <c r="B50" s="411"/>
-      <c r="C50" s="412" t="s">
-        <v>677</v>
-      </c>
-      <c r="D50" s="413" t="str">
+      <c r="A50" s="367" t="s">
+        <v>679</v>
+      </c>
+      <c r="B50" s="412"/>
+      <c r="C50" s="413" t="s">
+        <v>680</v>
+      </c>
+      <c r="D50" s="414" t="str">
         <f aca="false">A111</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E50" s="413" t="str">
+      <c r="E50" s="414" t="str">
         <f aca="false">A112</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F50" s="413" t="str">
+      <c r="F50" s="414" t="str">
         <f aca="false">A113</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :muusahko]</v>
       </c>
-      <c r="G50" s="413" t="str">
+      <c r="G50" s="414" t="str">
         <f aca="false">A114</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H50" s="413" t="str">
+      <c r="H50" s="414" t="str">
         <f aca="false">A115</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I50" s="413" t="str">
+      <c r="I50" s="414" t="str">
         <f aca="false">A116</f>
         <v>[:tulokset :kuukausierittely 10 :tuotto :muulampo]</v>
       </c>
-      <c r="J50" s="413" t="str">
+      <c r="J50" s="414" t="str">
         <f aca="false">A117</f>
         <v>[:tulokset :kuukausierittely 10 :kulutus :sahko]</v>
       </c>
-      <c r="K50" s="413" t="str">
+      <c r="K50" s="414" t="str">
         <f aca="false">A118</f>
         <v>[:tulokset :kuukausierittely 10 :kulutus :lampo]</v>
       </c>
-      <c r="L50" s="413" t="str">
+      <c r="L50" s="414" t="str">
         <f aca="false">A119</f>
         <v>[:tulokset :kuukausierittely 10 :hyoty :sahko]</v>
       </c>
-      <c r="M50" s="413" t="str">
+      <c r="M50" s="414" t="str">
         <f aca="false">A120</f>
         <v>[:tulokset :kuukausierittely 10 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="366" t="s">
-        <v>678</v>
-      </c>
-      <c r="B51" s="411"/>
-      <c r="C51" s="412" t="s">
-        <v>679</v>
-      </c>
-      <c r="D51" s="413" t="str">
+      <c r="A51" s="367" t="s">
+        <v>681</v>
+      </c>
+      <c r="B51" s="412"/>
+      <c r="C51" s="413" t="s">
+        <v>682</v>
+      </c>
+      <c r="D51" s="414" t="str">
         <f aca="false">A121</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E51" s="413" t="str">
+      <c r="E51" s="414" t="str">
         <f aca="false">A122</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</v>
       </c>
-      <c r="F51" s="413" t="str">
+      <c r="F51" s="414" t="str">
         <f aca="false">A123</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :muusahko]</v>
       </c>
-      <c r="G51" s="413" t="str">
+      <c r="G51" s="414" t="str">
         <f aca="false">A124</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H51" s="413" t="str">
+      <c r="H51" s="414" t="str">
         <f aca="false">A125</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</v>
       </c>
-      <c r="I51" s="413" t="str">
+      <c r="I51" s="414" t="str">
         <f aca="false">A126</f>
         <v>[:tulokset :kuukausierittely 11 :tuotto :muulampo]</v>
       </c>
-      <c r="J51" s="413" t="str">
+      <c r="J51" s="414" t="str">
         <f aca="false">A127</f>
         <v>[:tulokset :kuukausierittely 11 :kulutus :sahko]</v>
       </c>
-      <c r="K51" s="413" t="str">
+      <c r="K51" s="414" t="str">
         <f aca="false">A128</f>
         <v>[:tulokset :kuukausierittely 11 :kulutus :lampo]</v>
       </c>
-      <c r="L51" s="413" t="str">
+      <c r="L51" s="414" t="str">
         <f aca="false">A129</f>
         <v>[:tulokset :kuukausierittely 11 :hyoty :sahko]</v>
       </c>
-      <c r="M51" s="413" t="str">
+      <c r="M51" s="414" t="str">
         <f aca="false">A130</f>
         <v>[:tulokset :kuukausierittely 11 :hyoty :lampo]</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="366" t="s">
-        <v>680</v>
-      </c>
-      <c r="B52" s="411"/>
-      <c r="C52" s="414" t="s">
-        <v>681</v>
-      </c>
-      <c r="D52" s="415" t="str">
+      <c r="A52" s="367" t="s">
+        <v>683</v>
+      </c>
+      <c r="B52" s="412"/>
+      <c r="C52" s="415" t="s">
+        <v>684</v>
+      </c>
+      <c r="D52" s="416" t="str">
         <f aca="false">A131</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</v>
       </c>
-      <c r="E52" s="415" t="str">
+      <c r="E52" s="416" t="str">
         <f aca="false">A132</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</v>
       </c>
-      <c r="F52" s="415" t="str">
+      <c r="F52" s="416" t="str">
         <f aca="false">A133</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
       </c>
-      <c r="G52" s="415" t="str">
+      <c r="G52" s="416" t="str">
         <f aca="false">A134</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</v>
       </c>
-      <c r="H52" s="415" t="str">
+      <c r="H52" s="416" t="str">
         <f aca="false">A135</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</v>
       </c>
-      <c r="I52" s="415" t="str">
+      <c r="I52" s="416" t="str">
         <f aca="false">A136</f>
         <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
       </c>
-      <c r="J52" s="415" t="str">
+      <c r="J52" s="416" t="str">
         <f aca="false">A137</f>
         <v>[:tulokset :kuukausierittely-summat :kulutus :sahko]</v>
       </c>
-      <c r="K52" s="415" t="str">
+      <c r="K52" s="416" t="str">
         <f aca="false">A138</f>
         <v>[:tulokset :kuukausierittely-summat :kulutus :lampo]</v>
       </c>
-      <c r="L52" s="415" t="str">
+      <c r="L52" s="416" t="str">
         <f aca="false">A139</f>
         <v>[:tulokset :kuukausierittely-summat :hyoty :sahko]</v>
       </c>
-      <c r="M52" s="415" t="str">
+      <c r="M52" s="416" t="str">
         <f aca="false">A140</f>
         <v>[:tulokset :kuukausierittely-summat :hyoty :lampo]</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="366" t="s">
-        <v>682</v>
-      </c>
-      <c r="B53" s="399"/>
-      <c r="C53" s="416" t="s">
-        <v>683</v>
-      </c>
-      <c r="D53" s="416"/>
-      <c r="E53" s="416"/>
-      <c r="F53" s="416"/>
-      <c r="G53" s="416"/>
-      <c r="H53" s="416"/>
-      <c r="I53" s="416"/>
-      <c r="J53" s="416"/>
-      <c r="K53" s="416"/>
-      <c r="L53" s="416"/>
-      <c r="M53" s="416"/>
+      <c r="A53" s="367" t="s">
+        <v>685</v>
+      </c>
+      <c r="B53" s="400"/>
+      <c r="C53" s="417" t="s">
+        <v>686</v>
+      </c>
+      <c r="D53" s="417"/>
+      <c r="E53" s="417"/>
+      <c r="F53" s="417"/>
+      <c r="G53" s="417"/>
+      <c r="H53" s="417"/>
+      <c r="I53" s="417"/>
+      <c r="J53" s="417"/>
+      <c r="K53" s="417"/>
+      <c r="L53" s="417"/>
+      <c r="M53" s="417"/>
     </row>
     <row r="54" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="366" t="s">
-        <v>684</v>
-      </c>
-      <c r="B54" s="399"/>
-      <c r="C54" s="417"/>
-      <c r="D54" s="417"/>
-      <c r="E54" s="417"/>
-      <c r="F54" s="417"/>
-      <c r="G54" s="417"/>
-      <c r="H54" s="417"/>
-      <c r="I54" s="417"/>
-      <c r="J54" s="417"/>
-      <c r="K54" s="417"/>
-      <c r="L54" s="417"/>
-      <c r="M54" s="400"/>
+      <c r="A54" s="367" t="s">
+        <v>687</v>
+      </c>
+      <c r="B54" s="400"/>
+      <c r="C54" s="418"/>
+      <c r="D54" s="418"/>
+      <c r="E54" s="418"/>
+      <c r="F54" s="418"/>
+      <c r="G54" s="418"/>
+      <c r="H54" s="418"/>
+      <c r="I54" s="418"/>
+      <c r="J54" s="418"/>
+      <c r="K54" s="418"/>
+      <c r="L54" s="418"/>
+      <c r="M54" s="401"/>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="366" t="s">
-        <v>685</v>
-      </c>
-      <c r="B55" s="418"/>
-      <c r="C55" s="419" t="s">
-        <v>686</v>
-      </c>
-      <c r="D55" s="419"/>
-      <c r="E55" s="419"/>
-      <c r="F55" s="419"/>
-      <c r="G55" s="419"/>
-      <c r="H55" s="419"/>
-      <c r="I55" s="419"/>
-      <c r="J55" s="419"/>
-      <c r="K55" s="419"/>
-      <c r="L55" s="419"/>
-      <c r="M55" s="419"/>
+      <c r="A55" s="367" t="s">
+        <v>688</v>
+      </c>
+      <c r="B55" s="419"/>
+      <c r="C55" s="420" t="s">
+        <v>689</v>
+      </c>
+      <c r="D55" s="420"/>
+      <c r="E55" s="420"/>
+      <c r="F55" s="420"/>
+      <c r="G55" s="420"/>
+      <c r="H55" s="420"/>
+      <c r="I55" s="420"/>
+      <c r="J55" s="420"/>
+      <c r="K55" s="420"/>
+      <c r="L55" s="420"/>
+      <c r="M55" s="420"/>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="366" t="s">
-        <v>687</v>
-      </c>
-      <c r="B56" s="420"/>
-      <c r="C56" s="421" t="s">
-        <v>688</v>
-      </c>
-      <c r="D56" s="421"/>
-      <c r="E56" s="421"/>
-      <c r="F56" s="421"/>
-      <c r="G56" s="421"/>
-      <c r="H56" s="421"/>
-      <c r="I56" s="421"/>
-      <c r="J56" s="422" t="str">
+      <c r="A56" s="367" t="s">
+        <v>690</v>
+      </c>
+      <c r="B56" s="421"/>
+      <c r="C56" s="422" t="s">
+        <v>691</v>
+      </c>
+      <c r="D56" s="422"/>
+      <c r="E56" s="422"/>
+      <c r="F56" s="422"/>
+      <c r="G56" s="422"/>
+      <c r="H56" s="422"/>
+      <c r="I56" s="422"/>
+      <c r="J56" s="423" t="str">
         <f aca="false">A4</f>
         <v>[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</v>
       </c>
-      <c r="K56" s="423"/>
-      <c r="L56" s="423"/>
-      <c r="M56" s="424"/>
+      <c r="K56" s="424"/>
+      <c r="L56" s="424"/>
+      <c r="M56" s="425"/>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="366" t="s">
-        <v>689</v>
-      </c>
-      <c r="B57" s="420"/>
-      <c r="C57" s="421" t="s">
-        <v>690</v>
-      </c>
-      <c r="D57" s="421"/>
-      <c r="E57" s="421"/>
-      <c r="F57" s="421"/>
-      <c r="G57" s="421"/>
-      <c r="H57" s="421"/>
-      <c r="I57" s="421"/>
-      <c r="J57" s="422" t="str">
+      <c r="A57" s="367" t="s">
+        <v>692</v>
+      </c>
+      <c r="B57" s="421"/>
+      <c r="C57" s="422" t="s">
+        <v>693</v>
+      </c>
+      <c r="D57" s="422"/>
+      <c r="E57" s="422"/>
+      <c r="F57" s="422"/>
+      <c r="G57" s="422"/>
+      <c r="H57" s="422"/>
+      <c r="I57" s="422"/>
+      <c r="J57" s="423" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :rakennusvaippa :ilmatilavuus]</v>
       </c>
-      <c r="K57" s="423"/>
-      <c r="L57" s="423"/>
-      <c r="M57" s="424"/>
+      <c r="K57" s="424"/>
+      <c r="L57" s="424"/>
+      <c r="M57" s="425"/>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="366" t="s">
-        <v>691</v>
-      </c>
-      <c r="B58" s="420"/>
-      <c r="C58" s="421" t="s">
-        <v>692</v>
-      </c>
-      <c r="D58" s="421"/>
-      <c r="E58" s="421"/>
-      <c r="F58" s="421"/>
-      <c r="G58" s="421"/>
-      <c r="H58" s="421"/>
-      <c r="I58" s="421"/>
-      <c r="J58" s="422" t="str">
+      <c r="A58" s="367" t="s">
+        <v>694</v>
+      </c>
+      <c r="B58" s="421"/>
+      <c r="C58" s="422" t="s">
+        <v>695</v>
+      </c>
+      <c r="D58" s="422"/>
+      <c r="E58" s="422"/>
+      <c r="F58" s="422"/>
+      <c r="G58" s="422"/>
+      <c r="H58" s="422"/>
+      <c r="I58" s="422"/>
+      <c r="J58" s="423" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</v>
       </c>
-      <c r="K58" s="423"/>
-      <c r="L58" s="423"/>
-      <c r="M58" s="424"/>
+      <c r="K58" s="424"/>
+      <c r="L58" s="424"/>
+      <c r="M58" s="425"/>
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="366" t="s">
-        <v>693</v>
-      </c>
-      <c r="B59" s="420"/>
-      <c r="C59" s="421" t="s">
-        <v>694</v>
-      </c>
-      <c r="D59" s="421"/>
-      <c r="E59" s="421"/>
-      <c r="F59" s="421"/>
-      <c r="G59" s="421"/>
-      <c r="H59" s="421"/>
-      <c r="I59" s="421"/>
-      <c r="J59" s="422" t="str">
+      <c r="A59" s="367" t="s">
+        <v>696</v>
+      </c>
+      <c r="B59" s="421"/>
+      <c r="C59" s="422" t="s">
+        <v>697</v>
+      </c>
+      <c r="D59" s="422"/>
+      <c r="E59" s="422"/>
+      <c r="F59" s="422"/>
+      <c r="G59" s="422"/>
+      <c r="H59" s="422"/>
+      <c r="I59" s="422"/>
+      <c r="J59" s="423" t="str">
         <f aca="false">A7</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</v>
       </c>
-      <c r="K59" s="423"/>
-      <c r="L59" s="423"/>
-      <c r="M59" s="424"/>
+      <c r="K59" s="424"/>
+      <c r="L59" s="424"/>
+      <c r="M59" s="425"/>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="366" t="s">
-        <v>695</v>
-      </c>
-      <c r="B60" s="420"/>
-      <c r="C60" s="421" t="s">
-        <v>696</v>
-      </c>
-      <c r="D60" s="421"/>
-      <c r="E60" s="421"/>
-      <c r="F60" s="421"/>
-      <c r="G60" s="421"/>
-      <c r="H60" s="421"/>
-      <c r="I60" s="421"/>
-      <c r="J60" s="422" t="str">
+      <c r="A60" s="367" t="s">
+        <v>698</v>
+      </c>
+      <c r="B60" s="421"/>
+      <c r="C60" s="422" t="s">
+        <v>699</v>
+      </c>
+      <c r="D60" s="422"/>
+      <c r="E60" s="422"/>
+      <c r="F60" s="422"/>
+      <c r="G60" s="422"/>
+      <c r="H60" s="422"/>
+      <c r="I60" s="422"/>
+      <c r="J60" s="423" t="str">
         <f aca="false">A8</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</v>
       </c>
-      <c r="K60" s="423"/>
-      <c r="L60" s="423"/>
-      <c r="M60" s="424"/>
+      <c r="K60" s="424"/>
+      <c r="L60" s="424"/>
+      <c r="M60" s="425"/>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="366" t="s">
-        <v>697</v>
-      </c>
-      <c r="B61" s="403"/>
-      <c r="C61" s="425" t="s">
-        <v>698</v>
-      </c>
-      <c r="D61" s="425"/>
-      <c r="E61" s="425"/>
-      <c r="F61" s="425"/>
-      <c r="G61" s="425"/>
-      <c r="H61" s="425"/>
-      <c r="I61" s="425"/>
-      <c r="J61" s="426" t="str">
+      <c r="A61" s="367" t="s">
+        <v>700</v>
+      </c>
+      <c r="B61" s="404"/>
+      <c r="C61" s="426" t="s">
+        <v>701</v>
+      </c>
+      <c r="D61" s="426"/>
+      <c r="E61" s="426"/>
+      <c r="F61" s="426"/>
+      <c r="G61" s="426"/>
+      <c r="H61" s="426"/>
+      <c r="I61" s="426"/>
+      <c r="J61" s="427" t="str">
         <f aca="false">A9</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</v>
       </c>
-      <c r="K61" s="427"/>
-      <c r="L61" s="427"/>
-      <c r="M61" s="428"/>
+      <c r="K61" s="428"/>
+      <c r="L61" s="428"/>
+      <c r="M61" s="429"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="366" t="s">
-        <v>699</v>
-      </c>
-      <c r="B62" s="429" t="str">
+      <c r="A62" s="367" t="s">
+        <v>702</v>
+      </c>
+      <c r="B62" s="430" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="429"/>
-      <c r="D62" s="429"/>
-      <c r="E62" s="429"/>
-      <c r="F62" s="429"/>
-      <c r="G62" s="429"/>
-      <c r="H62" s="429"/>
-      <c r="I62" s="429"/>
-      <c r="J62" s="429"/>
-      <c r="K62" s="429"/>
-      <c r="L62" s="429"/>
-      <c r="M62" s="429"/>
+      <c r="C62" s="430"/>
+      <c r="D62" s="430"/>
+      <c r="E62" s="430"/>
+      <c r="F62" s="430"/>
+      <c r="G62" s="430"/>
+      <c r="H62" s="430"/>
+      <c r="I62" s="430"/>
+      <c r="J62" s="430"/>
+      <c r="K62" s="430"/>
+      <c r="L62" s="430"/>
+      <c r="M62" s="430"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="366" t="s">
-        <v>700</v>
-      </c>
-      <c r="B63" s="429"/>
-      <c r="C63" s="429"/>
-      <c r="D63" s="429"/>
-      <c r="E63" s="429"/>
-      <c r="F63" s="429"/>
-      <c r="G63" s="429"/>
-      <c r="H63" s="429"/>
-      <c r="I63" s="429"/>
-      <c r="J63" s="429"/>
-      <c r="K63" s="429"/>
-      <c r="L63" s="429"/>
-      <c r="M63" s="429"/>
+      <c r="A63" s="367" t="s">
+        <v>703</v>
+      </c>
+      <c r="B63" s="430"/>
+      <c r="C63" s="430"/>
+      <c r="D63" s="430"/>
+      <c r="E63" s="430"/>
+      <c r="F63" s="430"/>
+      <c r="G63" s="430"/>
+      <c r="H63" s="430"/>
+      <c r="I63" s="430"/>
+      <c r="J63" s="430"/>
+      <c r="K63" s="430"/>
+      <c r="L63" s="430"/>
+      <c r="M63" s="430"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="366" t="s">
-        <v>701</v>
+      <c r="A64" s="367" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="366" t="s">
-        <v>702</v>
+      <c r="A65" s="367" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="366" t="s">
-        <v>703</v>
+      <c r="A66" s="367" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="366" t="s">
-        <v>704</v>
+      <c r="A67" s="367" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="366" t="s">
-        <v>705</v>
+      <c r="A68" s="367" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="366" t="s">
-        <v>706</v>
+      <c r="A69" s="367" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="366" t="s">
-        <v>707</v>
+      <c r="A70" s="367" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="366" t="s">
-        <v>708</v>
+      <c r="A71" s="367" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="366" t="s">
-        <v>709</v>
+      <c r="A72" s="367" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="366" t="s">
-        <v>710</v>
+      <c r="A73" s="367" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="366" t="s">
-        <v>711</v>
+      <c r="A74" s="367" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="366" t="s">
-        <v>712</v>
+      <c r="A75" s="367" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="366" t="s">
-        <v>713</v>
+      <c r="A76" s="367" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="366" t="s">
-        <v>714</v>
+      <c r="A77" s="367" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="366" t="s">
-        <v>715</v>
+      <c r="A78" s="367" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="366" t="s">
-        <v>716</v>
+      <c r="A79" s="367" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="366" t="s">
-        <v>717</v>
+      <c r="A80" s="367" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="366" t="s">
-        <v>718</v>
+      <c r="A81" s="367" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="366" t="s">
-        <v>719</v>
+      <c r="A82" s="367" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="366" t="s">
-        <v>720</v>
+      <c r="A83" s="367" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="366" t="s">
-        <v>721</v>
+      <c r="A84" s="367" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="366" t="s">
-        <v>722</v>
+      <c r="A85" s="367" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="366" t="s">
-        <v>723</v>
+      <c r="A86" s="367" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="366" t="s">
-        <v>724</v>
+      <c r="A87" s="367" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="366" t="s">
-        <v>725</v>
+      <c r="A88" s="367" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="366" t="s">
-        <v>726</v>
+      <c r="A89" s="367" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="366" t="s">
-        <v>727</v>
+      <c r="A90" s="367" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="366" t="s">
-        <v>728</v>
+      <c r="A91" s="367" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="366" t="s">
-        <v>729</v>
+      <c r="A92" s="367" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="366" t="s">
-        <v>730</v>
+      <c r="A93" s="367" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="366" t="s">
-        <v>731</v>
+      <c r="A94" s="367" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="366" t="s">
-        <v>732</v>
+      <c r="A95" s="367" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="366" t="s">
-        <v>733</v>
+      <c r="A96" s="367" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="366" t="s">
-        <v>734</v>
+      <c r="A97" s="367" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="366" t="s">
-        <v>735</v>
+      <c r="A98" s="367" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="366" t="s">
-        <v>736</v>
+      <c r="A99" s="367" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="366" t="s">
-        <v>737</v>
+      <c r="A100" s="367" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="366" t="s">
-        <v>738</v>
+      <c r="A101" s="367" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="366" t="s">
-        <v>739</v>
+      <c r="A102" s="367" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="366" t="s">
-        <v>740</v>
+      <c r="A103" s="367" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="366" t="s">
-        <v>741</v>
+      <c r="A104" s="367" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="366" t="s">
-        <v>742</v>
+      <c r="A105" s="367" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="366" t="s">
-        <v>743</v>
+      <c r="A106" s="367" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="366" t="s">
-        <v>744</v>
+      <c r="A107" s="367" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="366" t="s">
-        <v>745</v>
+      <c r="A108" s="367" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="366" t="s">
-        <v>746</v>
+      <c r="A109" s="367" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="366" t="s">
-        <v>747</v>
+      <c r="A110" s="367" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="366" t="s">
-        <v>748</v>
+      <c r="A111" s="367" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="366" t="s">
-        <v>749</v>
+      <c r="A112" s="367" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="366" t="s">
-        <v>750</v>
+      <c r="A113" s="367" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="366" t="s">
-        <v>751</v>
+      <c r="A114" s="367" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="366" t="s">
-        <v>752</v>
+      <c r="A115" s="367" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="366" t="s">
-        <v>753</v>
+      <c r="A116" s="367" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="366" t="s">
-        <v>754</v>
+      <c r="A117" s="367" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="366" t="s">
-        <v>755</v>
+      <c r="A118" s="367" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="366" t="s">
-        <v>756</v>
+      <c r="A119" s="367" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="366" t="s">
-        <v>757</v>
+      <c r="A120" s="367" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="366" t="s">
-        <v>758</v>
+      <c r="A121" s="367" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="366" t="s">
-        <v>759</v>
+      <c r="A122" s="367" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="366" t="s">
-        <v>760</v>
+      <c r="A123" s="367" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="366" t="s">
-        <v>761</v>
+      <c r="A124" s="367" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="366" t="s">
-        <v>762</v>
+      <c r="A125" s="367" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="366" t="s">
-        <v>763</v>
+      <c r="A126" s="367" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="366" t="s">
-        <v>764</v>
+      <c r="A127" s="367" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="366" t="s">
-        <v>765</v>
+      <c r="A128" s="367" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="366" t="s">
-        <v>766</v>
+      <c r="A129" s="367" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="366" t="s">
-        <v>767</v>
+      <c r="A130" s="367" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="366" t="s">
-        <v>768</v>
+      <c r="A131" s="367" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="366" t="s">
-        <v>769</v>
+      <c r="A132" s="367" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="366" t="s">
-        <v>770</v>
+      <c r="A133" s="367" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="366" t="s">
-        <v>771</v>
+      <c r="A134" s="367" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="366" t="s">
-        <v>772</v>
+      <c r="A135" s="367" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="366" t="s">
-        <v>770</v>
+      <c r="A136" s="367" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="366" t="s">
-        <v>773</v>
+      <c r="A137" s="367" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="366" t="s">
-        <v>774</v>
+      <c r="A138" s="367" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="366" t="s">
-        <v>775</v>
+      <c r="A139" s="367" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="366" t="s">
-        <v>776</v>
+      <c r="A140" s="367" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">Muu sähkö</t>
   </si>
   <si>
-    <t xml:space="preserve">Lämpöpumppu</t>
+    <t xml:space="preserve">Lämpö-pumppu</t>
   </si>
   <si>
     <t xml:space="preserve">Muu lämpö</t>
@@ -3503,7 +3503,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3832,6 +3832,12 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF339966"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -5772,7 +5778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5784,7 +5790,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5792,15 +5798,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5812,11 +5818,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5824,15 +5830,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5840,15 +5846,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5856,7 +5862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5864,7 +5870,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5872,7 +5878,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5884,7 +5890,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5924,7 +5930,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8308,9 +8314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>246240</xdr:rowOff>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8324,7 +8330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="741960" cy="198720"/>
+          <a:ext cx="741600" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8345,9 +8351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>246240</xdr:rowOff>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8361,7 +8367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1085400" cy="198720"/>
+          <a:ext cx="1085040" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8382,9 +8388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>246240</xdr:rowOff>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8398,7 +8404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1392120" cy="198720"/>
+          <a:ext cx="1391760" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8419,9 +8425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>329040</xdr:colOff>
+      <xdr:colOff>328680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>246240</xdr:rowOff>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8435,7 +8441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1716120" cy="198720"/>
+          <a:ext cx="1715760" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8456,9 +8462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8472,7 +8478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2023200" cy="211680"/>
+          <a:ext cx="2022840" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8493,9 +8499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>145080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>246240</xdr:rowOff>
+      <xdr:rowOff>245880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8509,7 +8515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2359440" cy="198720"/>
+          <a:ext cx="2359080" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8530,9 +8536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>85320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>247320</xdr:rowOff>
+      <xdr:rowOff>246960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8542,7 +8548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2672280" cy="197640"/>
+          <a:ext cx="2671920" cy="197280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8911,9 +8917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8923,7 +8929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6971400" cy="10492920"/>
+          <a:ext cx="6971040" cy="10492560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9052,7 +9058,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -10692,7 +10698,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12905,7 +12911,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -14850,7 +14856,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -16744,7 +16750,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -18487,7 +18493,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -19470,8 +19476,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20161,7 +20167,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="391"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
       <c r="B54" s="333" t="s">
         <v>609</v>
@@ -20171,7 +20177,7 @@
       <c r="E54" s="333"/>
       <c r="F54" s="333"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="166"/>
       <c r="B55" s="392" t="str">
         <f aca="false">A45</f>
@@ -20182,7 +20188,7 @@
       <c r="E55" s="392"/>
       <c r="F55" s="392"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="166"/>
       <c r="B56" s="392"/>
       <c r="C56" s="392"/>
@@ -20190,7 +20196,7 @@
       <c r="E56" s="392"/>
       <c r="F56" s="392"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="166"/>
       <c r="B57" s="392"/>
       <c r="C57" s="392"/>
@@ -20198,7 +20204,7 @@
       <c r="E57" s="392"/>
       <c r="F57" s="392"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="392"/>
       <c r="C58" s="392"/>
       <c r="D58" s="392"/>
@@ -20325,8 +20331,8 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21023,7 +21029,7 @@
       <c r="G39" s="411" t="s">
         <v>300</v>
       </c>
-      <c r="H39" s="411" t="s">
+      <c r="H39" s="410" t="s">
         <v>657</v>
       </c>
       <c r="I39" s="411" t="s">

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="781">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t xml:space="preserve">st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :ikkunat :luode :ala]</t>
@@ -8314,9 +8317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>231480</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:rowOff>245520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8330,7 +8333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="741600" cy="198360"/>
+          <a:ext cx="741240" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8351,9 +8354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:rowOff>245520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8367,7 +8370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1085040" cy="198360"/>
+          <a:ext cx="1084680" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8388,9 +8391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:rowOff>245520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8404,7 +8407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1391760" cy="198360"/>
+          <a:ext cx="1391400" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8425,9 +8428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328680</xdr:colOff>
+      <xdr:colOff>328320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:rowOff>245520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8441,7 +8444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1715760" cy="198360"/>
+          <a:ext cx="1715400" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8462,9 +8465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>258840</xdr:rowOff>
+      <xdr:rowOff>258480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8478,7 +8481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2022840" cy="211320"/>
+          <a:ext cx="2022480" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8499,9 +8502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>145080</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:rowOff>245520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8515,7 +8518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2359080" cy="198360"/>
+          <a:ext cx="2358720" cy="198000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8536,9 +8539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>246960</xdr:rowOff>
+      <xdr:rowOff>246600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8548,7 +8551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2671920" cy="197280"/>
+          <a:ext cx="2671560" cy="196920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8917,9 +8920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8929,7 +8932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6971040" cy="10492560"/>
+          <a:ext cx="6970680" cy="10492200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9058,8 +9061,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9233,11 +9236,11 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="5" t="str">
+      <c r="J7" s="5" t="str">
         <f aca="false">A2</f>
         <v>[:perustiedot :nimi]</v>
       </c>
+      <c r="K7" s="0"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -9292,11 +9295,11 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="20" t="str">
+      <c r="J8" s="20" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :katuosoite-sv]</v>
       </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
@@ -9351,11 +9354,11 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="20" t="str">
+      <c r="J9" s="20" t="str">
         <f aca="false">A5</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61210]</v>
       </c>
+      <c r="K9" s="0"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
@@ -9522,11 +9525,11 @@
       </c>
       <c r="F12" s="24"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="27" t="str">
+      <c r="J12" s="27" t="str">
         <f aca="false">A6</f>
         <v>[:perustiedot :rakennustunnus]</v>
       </c>
+      <c r="K12" s="0"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -9583,11 +9586,11 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="27" t="str">
+      <c r="J13" s="27" t="str">
         <f aca="false">A7</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
+      <c r="K13" s="0"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -9610,11 +9613,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="34" t="str">
+      <c r="J14" s="34" t="str">
         <f aca="false">A9</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
+      <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
@@ -9635,7 +9638,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
@@ -9657,11 +9660,11 @@
       </c>
       <c r="F16" s="24"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="27" t="str">
+      <c r="J16" s="27" t="str">
         <f aca="false">A1</f>
         <v>[:id]</v>
       </c>
+      <c r="K16" s="0"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -10581,7 +10584,7 @@
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="K14:O15"/>
+    <mergeCell ref="J14:O15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:N25"/>
     <mergeCell ref="D26:E26"/>
@@ -12911,8 +12914,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13900,7 +13903,7 @@
       <c r="F48" s="233"/>
       <c r="G48" s="203"/>
     </row>
-    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
         <v>221</v>
       </c>
@@ -13910,18 +13913,18 @@
         <v>222</v>
       </c>
       <c r="E49" s="121" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="F49" s="233"/>
       <c r="G49" s="203"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B50" s="171"/>
       <c r="C50" s="172" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D50" s="209" t="str">
         <f aca="false">A74</f>
@@ -13936,11 +13939,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D51" s="209" t="str">
         <f aca="false">A76</f>
@@ -13955,11 +13958,11 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B52" s="168"/>
       <c r="C52" s="169" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D52" s="170"/>
       <c r="E52" s="170"/>
@@ -13973,7 +13976,7 @@
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
       <c r="D53" s="234" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E53" s="206"/>
       <c r="F53" s="206"/>
@@ -13994,11 +13997,11 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="166" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D55" s="199" t="str">
         <f aca="false">A78</f>
@@ -14010,11 +14013,11 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="166" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B56" s="168"/>
       <c r="C56" s="169" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D56" s="170"/>
       <c r="E56" s="170"/>
@@ -14023,27 +14026,27 @@
     </row>
     <row r="57" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="202"/>
       <c r="D57" s="237" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="238" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F57" s="202"/>
       <c r="G57" s="203"/>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="166" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="185"/>
       <c r="D58" s="239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E58" s="194" t="s">
         <v>60</v>
@@ -14053,11 +14056,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B59" s="171"/>
       <c r="C59" s="172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D59" s="240" t="str">
         <f aca="false">A79</f>
@@ -14072,11 +14075,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B60" s="168"/>
       <c r="C60" s="169" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D60" s="170"/>
       <c r="E60" s="170"/>
@@ -14085,26 +14088,26 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="185"/>
       <c r="D61" s="195" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" s="195" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F61" s="233" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G61" s="195" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B62" s="171"/>
       <c r="C62" s="185"/>
@@ -14112,18 +14115,18 @@
         <v>61</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F62" s="239" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="20"/>
@@ -14192,7 +14195,7 @@
     </row>
     <row r="66" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B66" s="162" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 3/8"</f>
@@ -14207,7 +14210,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B67" s="248"/>
       <c r="C67" s="4"/>
@@ -14218,127 +14221,127 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="166" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="166" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="166" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="166" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="166" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="166" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -14882,7 +14885,7 @@
       </c>
       <c r="B2" s="250"/>
       <c r="C2" s="251" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D2" s="252"/>
       <c r="E2" s="251"/>
@@ -14999,7 +15002,7 @@
       </c>
       <c r="B8" s="171"/>
       <c r="C8" s="262" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D8" s="263" t="str">
         <f aca="false">A5</f>
@@ -15011,11 +15014,11 @@
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B9" s="171"/>
       <c r="C9" s="234" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D9" s="266" t="str">
         <f aca="false">A6</f>
@@ -15046,7 +15049,7 @@
       </c>
       <c r="B11" s="254"/>
       <c r="C11" s="255" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D11" s="256"/>
       <c r="E11" s="256"/>
@@ -15066,20 +15069,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="265" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D13" s="269" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E13" s="195" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F13" s="270" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G13" s="270"/>
     </row>
@@ -15090,13 +15093,13 @@
       <c r="B14" s="171"/>
       <c r="C14" s="185"/>
       <c r="D14" s="269" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E14" s="195" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="270" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="270"/>
     </row>
@@ -15113,10 +15116,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="239" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G15" s="198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15132,7 +15135,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="171"/>
       <c r="C17" s="272" t="s">
@@ -15186,7 +15189,7 @@
       </c>
       <c r="B19" s="171"/>
       <c r="C19" s="272" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D19" s="241" t="str">
         <f aca="false">A15</f>
@@ -15211,7 +15214,7 @@
       </c>
       <c r="B20" s="171"/>
       <c r="C20" s="272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D20" s="241" t="str">
         <f aca="false">A19</f>
@@ -15232,11 +15235,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="171"/>
       <c r="C21" s="274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" s="241" t="str">
         <f aca="false">A23</f>
@@ -15261,7 +15264,7 @@
       </c>
       <c r="B22" s="171"/>
       <c r="C22" s="265" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D22" s="275" t="str">
         <f aca="false">A42</f>
@@ -15294,7 +15297,7 @@
       </c>
       <c r="B24" s="254"/>
       <c r="C24" s="255" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D24" s="170"/>
       <c r="E24" s="256"/>
@@ -15303,7 +15306,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B25" s="221"/>
       <c r="C25" s="277"/>
@@ -15344,7 +15347,7 @@
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="279" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D28" s="279"/>
       <c r="E28" s="241" t="str">
@@ -15363,7 +15366,7 @@
       </c>
       <c r="B29" s="171"/>
       <c r="C29" s="279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D29" s="279"/>
       <c r="E29" s="241" t="str">
@@ -15378,11 +15381,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" s="171"/>
       <c r="C30" s="279" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D30" s="279"/>
       <c r="E30" s="241" t="str">
@@ -15401,7 +15404,7 @@
       </c>
       <c r="B31" s="171"/>
       <c r="C31" s="279" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D31" s="279"/>
       <c r="E31" s="241" t="str">
@@ -15420,7 +15423,7 @@
       </c>
       <c r="B32" s="171"/>
       <c r="C32" s="279" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="279"/>
       <c r="E32" s="241" t="str">
@@ -15439,7 +15442,7 @@
       </c>
       <c r="B33" s="171"/>
       <c r="C33" s="279" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D33" s="279"/>
       <c r="E33" s="241" t="str">
@@ -15465,11 +15468,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" s="254"/>
       <c r="C35" s="255" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D35" s="256"/>
       <c r="E35" s="256"/>
@@ -15495,13 +15498,13 @@
       <c r="C37" s="185"/>
       <c r="D37" s="185"/>
       <c r="E37" s="195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F37" s="195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G37" s="195" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15534,7 +15537,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="171"/>
       <c r="C40" s="172" t="s">
@@ -15551,7 +15554,7 @@
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D41" s="172"/>
       <c r="E41" s="241" t="str">
@@ -15568,11 +15571,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="172" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D42" s="172"/>
       <c r="E42" s="241" t="str">
@@ -15589,11 +15592,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" s="171"/>
       <c r="C43" s="172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D43" s="172"/>
       <c r="E43" s="241" t="str">
@@ -15610,11 +15613,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B44" s="171"/>
       <c r="C44" s="172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D44" s="172"/>
       <c r="E44" s="241" t="str">
@@ -15630,11 +15633,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D45" s="172"/>
       <c r="E45" s="241" t="str">
@@ -15652,11 +15655,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" s="171"/>
       <c r="C46" s="172" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D46" s="172"/>
       <c r="E46" s="241" t="str">
@@ -15672,11 +15675,11 @@
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" s="171"/>
       <c r="C47" s="265" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D47" s="265"/>
       <c r="E47" s="283" t="str">
@@ -15694,11 +15697,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B48" s="171"/>
       <c r="C48" s="228" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D48" s="265"/>
       <c r="E48" s="235"/>
@@ -15707,7 +15710,7 @@
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" s="171"/>
       <c r="C49" s="202"/>
@@ -15718,11 +15721,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B50" s="254"/>
       <c r="C50" s="255" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D50" s="256"/>
       <c r="E50" s="256"/>
@@ -15731,7 +15734,7 @@
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="202"/>
@@ -15742,7 +15745,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B52" s="171"/>
       <c r="C52" s="185"/>
@@ -15757,7 +15760,7 @@
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="166" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
@@ -15768,11 +15771,11 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B54" s="171"/>
       <c r="C54" s="172" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D54" s="172"/>
       <c r="E54" s="241" t="str">
@@ -15787,11 +15790,11 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="166" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D55" s="172"/>
       <c r="E55" s="241" t="str">
@@ -15806,7 +15809,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="166" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="171"/>
       <c r="C56" s="172" t="s">
@@ -15825,11 +15828,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="172" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D57" s="172"/>
       <c r="E57" s="241" t="str">
@@ -15844,7 +15847,7 @@
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="166" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="172"/>
@@ -15855,11 +15858,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B59" s="171"/>
       <c r="C59" s="228" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D59" s="286"/>
       <c r="E59" s="287"/>
@@ -15868,11 +15871,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="166" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B60" s="171"/>
       <c r="C60" s="228" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D60" s="286"/>
       <c r="E60" s="288"/>
@@ -15881,7 +15884,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="166" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="172"/>
@@ -15892,11 +15895,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="166" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B62" s="254"/>
       <c r="C62" s="255" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D62" s="256"/>
       <c r="E62" s="256"/>
@@ -15905,7 +15908,7 @@
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="166" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="202"/>
@@ -15916,7 +15919,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="166" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" s="171"/>
       <c r="C64" s="185"/>
@@ -15931,7 +15934,7 @@
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="166" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B65" s="171"/>
       <c r="C65" s="185"/>
@@ -15942,11 +15945,11 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="166" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B66" s="171"/>
       <c r="C66" s="172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D66" s="172"/>
       <c r="E66" s="241" t="str">
@@ -15961,11 +15964,11 @@
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="166" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B67" s="171"/>
       <c r="C67" s="172" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D67" s="172"/>
       <c r="E67" s="241" t="str">
@@ -15980,11 +15983,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="166" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B68" s="171"/>
       <c r="C68" s="172" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D68" s="172"/>
       <c r="E68" s="241" t="str">
@@ -15999,11 +16002,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="166" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B69" s="171"/>
       <c r="C69" s="172" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D69" s="172"/>
       <c r="E69" s="241" t="str">
@@ -16018,11 +16021,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="166" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" s="171"/>
       <c r="C70" s="172" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D70" s="172"/>
       <c r="E70" s="241" t="str">
@@ -16037,7 +16040,7 @@
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="166" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" s="171"/>
       <c r="C71" s="172"/>
@@ -16048,11 +16051,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="166" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B72" s="254"/>
       <c r="C72" s="255" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D72" s="256"/>
       <c r="E72" s="256"/>
@@ -16061,7 +16064,7 @@
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="166" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B73" s="171"/>
       <c r="C73" s="202"/>
@@ -16072,11 +16075,11 @@
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="166" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B74" s="171"/>
       <c r="C74" s="172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D74" s="172"/>
       <c r="E74" s="290" t="str">
@@ -16088,7 +16091,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="166" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" s="245"/>
       <c r="C75" s="183"/>
@@ -16099,12 +16102,12 @@
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="166" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="166" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B77" s="292" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 4/8"</f>
@@ -16118,182 +16121,182 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="166" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="166" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="166" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="166" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="166" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="166" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="166" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="166" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="166" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="166" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="166" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="166" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="166" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="166" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="166" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="166" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="166" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="166" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="166" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="166" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="166" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="166" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="166" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="166" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="166" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="166" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="166" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="166" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="166" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -16775,11 +16778,11 @@
     </row>
     <row r="2" s="298" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="293" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B2" s="294"/>
       <c r="C2" s="295" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" s="295"/>
       <c r="E2" s="295"/>
@@ -16838,11 +16841,11 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="299" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D3" s="299"/>
       <c r="E3" s="299"/>
@@ -16855,7 +16858,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4" s="105"/>
       <c r="C4" s="68"/>
@@ -16870,11 +16873,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="97" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="102"/>
@@ -16887,7 +16890,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="0"/>
@@ -16903,7 +16906,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="97" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="110" t="s">
@@ -16914,7 +16917,7 @@
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
       <c r="E7" s="301" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F7" s="111"/>
       <c r="G7" s="302"/>
@@ -16926,7 +16929,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="5"/>
@@ -16941,7 +16944,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="97" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="115"/>
@@ -16956,11 +16959,11 @@
     </row>
     <row r="10" s="298" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="293" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B10" s="304"/>
       <c r="C10" s="305" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D10" s="306"/>
       <c r="E10" s="306"/>
@@ -17023,7 +17026,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="5"/>
@@ -17038,11 +17041,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="108" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
@@ -17061,7 +17064,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="108"/>
@@ -17076,11 +17079,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="97" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="108" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="108"/>
@@ -17099,7 +17102,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="97" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="108"/>
@@ -17114,11 +17117,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="97" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="319" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
@@ -17137,11 +17140,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="97" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="319" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -17160,7 +17163,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="97" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="319"/>
@@ -17175,11 +17178,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="97" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -17198,7 +17201,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="97" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="320"/>
@@ -17213,22 +17216,22 @@
     </row>
     <row r="21" s="298" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="293" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B21" s="304"/>
       <c r="C21" s="305" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D21" s="305"/>
       <c r="E21" s="305"/>
       <c r="F21" s="324" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G21" s="325" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H21" s="324" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I21" s="325" t="s">
         <v>59</v>
@@ -17286,7 +17289,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B22" s="99"/>
       <c r="C22" s="326"/>
@@ -17301,11 +17304,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="97" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
@@ -17314,7 +17317,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G23" s="333" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H23" s="334" t="n">
         <v>10</v>
@@ -17331,11 +17334,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="97" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="108" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D24" s="108"/>
       <c r="E24" s="108"/>
@@ -17344,7 +17347,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G24" s="333" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H24" s="334" t="n">
         <v>1300</v>
@@ -17361,11 +17364,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="108" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
@@ -17374,7 +17377,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G25" s="333" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H25" s="334" t="n">
         <v>1700</v>
@@ -17391,11 +17394,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="97" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D26" s="108"/>
       <c r="E26" s="108"/>
@@ -17404,7 +17407,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G26" s="333" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H26" s="334" t="n">
         <v>4.7</v>
@@ -17421,7 +17424,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B27" s="105"/>
       <c r="C27" s="335" t="str">
@@ -17454,7 +17457,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="97" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="335" t="str">
@@ -17487,11 +17490,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="97" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B29" s="105"/>
       <c r="C29" s="338" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D29" s="338"/>
       <c r="E29" s="338"/>
@@ -17504,7 +17507,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B30" s="105"/>
       <c r="C30" s="338"/>
@@ -17519,7 +17522,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="97" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="338"/>
@@ -17534,7 +17537,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="338"/>
@@ -17549,7 +17552,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="97" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="105"/>
       <c r="C33" s="342"/>
@@ -17564,7 +17567,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B34" s="114"/>
       <c r="C34" s="343"/>
@@ -17579,11 +17582,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="305" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D35" s="305"/>
       <c r="E35" s="305"/>
@@ -17596,7 +17599,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="305"/>
@@ -17615,7 +17618,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B37" s="99"/>
       <c r="C37" s="349"/>
@@ -17630,11 +17633,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="97" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -17653,7 +17656,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="97" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="32"/>
@@ -17668,11 +17671,11 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
@@ -17691,7 +17694,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="32"/>
@@ -17706,11 +17709,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -17729,7 +17732,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="97" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B43" s="105"/>
       <c r="C43" s="32"/>
@@ -17744,11 +17747,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="97" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -17767,7 +17770,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B45" s="105"/>
       <c r="C45" s="32"/>
@@ -17782,11 +17785,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -17805,7 +17808,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B47" s="114"/>
       <c r="C47" s="361"/>
@@ -17820,11 +17823,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B48" s="99"/>
       <c r="C48" s="364" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D48" s="364"/>
       <c r="E48" s="364"/>
@@ -17837,7 +17840,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B49" s="105"/>
       <c r="C49" s="364"/>
@@ -17852,7 +17855,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B50" s="105"/>
       <c r="C50" s="364"/>
@@ -17867,7 +17870,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B51" s="105"/>
       <c r="C51" s="364"/>
@@ -17882,7 +17885,7 @@
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="97" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B52" s="105"/>
       <c r="C52" s="364"/>
@@ -17897,7 +17900,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B53" s="152"/>
       <c r="C53" s="364"/>
@@ -17913,7 +17916,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B54" s="366" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
@@ -17931,7 +17934,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B55" s="366"/>
       <c r="C55" s="366"/>
@@ -17946,62 +17949,62 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="97" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="97" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="97" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="97" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="97" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="97" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="97" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="97" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="97" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -18092,12 +18095,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25 C26">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
-      <formula>LEFT(C24,1)="*"</formula>
+      <formula>LEFT(C23,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26 C27:E27">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
-      <formula>LEFT(C25,1)="*"</formula>
+      <formula>LEFT(C24,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 F10">
@@ -18514,7 +18517,7 @@
     </row>
     <row r="2" s="369" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="249" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B2" s="368" t="s">
         <v>97</v>
@@ -18556,10 +18559,10 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B3" s="370" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C3" s="370"/>
       <c r="D3" s="370"/>
@@ -18568,10 +18571,10 @@
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="367" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B4" s="371" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C4" s="102"/>
       <c r="D4" s="372"/>
@@ -18580,7 +18583,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="367" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B5" s="374" t="str">
         <f aca="false">A3</f>
@@ -18594,7 +18597,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="367" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B6" s="374"/>
       <c r="C6" s="374"/>
@@ -18604,7 +18607,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="367" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B7" s="374"/>
       <c r="C7" s="374"/>
@@ -18614,7 +18617,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="367" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B8" s="374"/>
       <c r="C8" s="374"/>
@@ -18624,7 +18627,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="367" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B9" s="374"/>
       <c r="C9" s="374"/>
@@ -18634,7 +18637,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="367" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B10" s="374"/>
       <c r="C10" s="374"/>
@@ -18644,10 +18647,10 @@
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B11" s="375" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C11" s="375"/>
       <c r="D11" s="375"/>
@@ -18656,7 +18659,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B12" s="376" t="n">
         <v>1</v>
@@ -18671,7 +18674,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B13" s="376" t="n">
         <v>2</v>
@@ -18686,7 +18689,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B14" s="376" t="n">
         <v>3</v>
@@ -18701,25 +18704,25 @@
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B15" s="378"/>
       <c r="C15" s="379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D15" s="379" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E15" s="379" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F15" s="380" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B16" s="381"/>
       <c r="C16" s="120" t="s">
@@ -18732,12 +18735,12 @@
         <v>59</v>
       </c>
       <c r="F16" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B17" s="376" t="n">
         <v>1</v>
@@ -18761,7 +18764,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B18" s="376" t="n">
         <v>2</v>
@@ -18785,7 +18788,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B19" s="376" t="n">
         <v>3</v>
@@ -18809,10 +18812,10 @@
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B20" s="383" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C20" s="102"/>
       <c r="D20" s="372"/>
@@ -18821,7 +18824,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B21" s="374" t="str">
         <f aca="false">A23</f>
@@ -18834,7 +18837,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B22" s="374"/>
       <c r="C22" s="374"/>
@@ -18844,7 +18847,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B23" s="374"/>
       <c r="C23" s="374"/>
@@ -18854,7 +18857,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B24" s="374"/>
       <c r="C24" s="374"/>
@@ -18864,7 +18867,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B25" s="374"/>
       <c r="C25" s="374"/>
@@ -18874,7 +18877,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B26" s="374"/>
       <c r="C26" s="374"/>
@@ -18884,10 +18887,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B27" s="375" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C27" s="375"/>
       <c r="D27" s="375"/>
@@ -18896,7 +18899,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B28" s="376" t="n">
         <v>1</v>
@@ -18911,7 +18914,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B29" s="376" t="n">
         <v>2</v>
@@ -18926,7 +18929,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B30" s="376" t="n">
         <v>3</v>
@@ -18941,25 +18944,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B31" s="385"/>
       <c r="C31" s="379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D31" s="379" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E31" s="379" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F31" s="380" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
@@ -18972,12 +18975,12 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B33" s="376" t="n">
         <v>1</v>
@@ -19001,7 +19004,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B34" s="376" t="n">
         <v>2</v>
@@ -19025,7 +19028,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B35" s="376" t="n">
         <v>3</v>
@@ -19049,10 +19052,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B36" s="383" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C36" s="386"/>
       <c r="D36" s="14"/>
@@ -19061,7 +19064,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
@@ -19074,7 +19077,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B38" s="374"/>
       <c r="C38" s="374"/>
@@ -19084,7 +19087,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B39" s="374"/>
       <c r="C39" s="374"/>
@@ -19094,7 +19097,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B40" s="374"/>
       <c r="C40" s="374"/>
@@ -19104,7 +19107,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B41" s="374"/>
       <c r="C41" s="374"/>
@@ -19114,7 +19117,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B42" s="374"/>
       <c r="C42" s="374"/>
@@ -19124,10 +19127,10 @@
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B43" s="375" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C43" s="375"/>
       <c r="D43" s="375"/>
@@ -19136,7 +19139,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B44" s="376" t="n">
         <v>1</v>
@@ -19151,7 +19154,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B45" s="376" t="n">
         <v>2</v>
@@ -19166,7 +19169,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="166" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B46" s="376" t="n">
         <v>3</v>
@@ -19181,25 +19184,25 @@
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="166" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B47" s="385"/>
       <c r="C47" s="379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D47" s="379" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E47" s="379" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F47" s="380" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="166" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B48" s="385"/>
       <c r="C48" s="120" t="s">
@@ -19212,12 +19215,12 @@
         <v>59</v>
       </c>
       <c r="F48" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="166" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B49" s="376" t="n">
         <v>1</v>
@@ -19241,7 +19244,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="166" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B50" s="376" t="n">
         <v>2</v>
@@ -19265,7 +19268,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="166" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B51" s="376" t="n">
         <v>3</v>
@@ -19289,7 +19292,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="367" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B52" s="292" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 6/8"</f>
@@ -19302,48 +19305,48 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="367" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B53" s="387"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="367" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="367" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="367" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="367" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="367" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="367" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="367" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="367" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -19497,10 +19500,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="367" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B2" s="371" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="372"/>
@@ -19509,7 +19512,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="367" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B3" s="374" t="str">
         <f aca="false">A3</f>
@@ -19522,7 +19525,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="367" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B4" s="374"/>
       <c r="C4" s="374"/>
@@ -19532,7 +19535,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="367" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B5" s="374"/>
       <c r="C5" s="374"/>
@@ -19543,7 +19546,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="367" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B6" s="374"/>
       <c r="C6" s="374"/>
@@ -19554,7 +19557,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="367" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B7" s="374"/>
       <c r="C7" s="374"/>
@@ -19564,7 +19567,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="367" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B8" s="374"/>
       <c r="C8" s="374"/>
@@ -19574,7 +19577,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="367" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B9" s="374"/>
       <c r="C9" s="374"/>
@@ -19584,10 +19587,10 @@
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="166" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B10" s="388" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C10" s="388"/>
       <c r="D10" s="388"/>
@@ -19596,7 +19599,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="166" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B11" s="376" t="n">
         <v>1</v>
@@ -19611,7 +19614,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="166" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B12" s="376" t="n">
         <v>2</v>
@@ -19626,7 +19629,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="166" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B13" s="376" t="n">
         <v>3</v>
@@ -19641,25 +19644,25 @@
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="166" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B14" s="385"/>
       <c r="C14" s="379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D14" s="379" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E14" s="379" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F14" s="380" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="166" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B15" s="385"/>
       <c r="C15" s="120" t="s">
@@ -19672,12 +19675,12 @@
         <v>59</v>
       </c>
       <c r="F15" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="166" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B16" s="376" t="n">
         <v>1</v>
@@ -19701,7 +19704,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="166" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B17" s="376" t="n">
         <v>2</v>
@@ -19725,7 +19728,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="166" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B18" s="376" t="n">
         <v>3</v>
@@ -19749,10 +19752,10 @@
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="166" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B19" s="383" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C19" s="386"/>
       <c r="D19" s="14"/>
@@ -19761,7 +19764,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="166" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B20" s="374" t="str">
         <f aca="false">A23</f>
@@ -19774,7 +19777,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="166" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B21" s="374"/>
       <c r="C21" s="374"/>
@@ -19784,7 +19787,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="166" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B22" s="374"/>
       <c r="C22" s="374"/>
@@ -19794,7 +19797,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="166" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B23" s="374"/>
       <c r="C23" s="374"/>
@@ -19804,7 +19807,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="166" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B24" s="374"/>
       <c r="C24" s="374"/>
@@ -19814,7 +19817,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="166" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B25" s="374"/>
       <c r="C25" s="374"/>
@@ -19824,7 +19827,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="166" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B26" s="374"/>
       <c r="C26" s="374"/>
@@ -19834,10 +19837,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="166" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B27" s="388" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C27" s="388"/>
       <c r="D27" s="388"/>
@@ -19846,7 +19849,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="166" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B28" s="376" t="n">
         <v>1</v>
@@ -19861,7 +19864,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="166" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B29" s="376" t="n">
         <v>2</v>
@@ -19876,7 +19879,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="166" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B30" s="376" t="n">
         <v>3</v>
@@ -19891,25 +19894,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="166" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B31" s="385"/>
       <c r="C31" s="379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D31" s="379" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E31" s="379" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F31" s="380" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="166" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B32" s="385"/>
       <c r="C32" s="120" t="s">
@@ -19922,12 +19925,12 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="166" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B33" s="376" t="n">
         <v>1</v>
@@ -19951,7 +19954,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="166" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B34" s="376" t="n">
         <v>2</v>
@@ -19975,7 +19978,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="166" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B35" s="376" t="n">
         <v>3</v>
@@ -19999,10 +20002,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="166" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B36" s="390" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C36" s="390"/>
       <c r="D36" s="390"/>
@@ -20011,7 +20014,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="166" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B37" s="374" t="str">
         <f aca="false">A43</f>
@@ -20024,7 +20027,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="166" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B38" s="374"/>
       <c r="C38" s="374"/>
@@ -20034,7 +20037,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="166" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B39" s="374"/>
       <c r="C39" s="374"/>
@@ -20044,7 +20047,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="166" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B40" s="374"/>
       <c r="C40" s="374"/>
@@ -20054,7 +20057,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="166" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B41" s="374"/>
       <c r="C41" s="374"/>
@@ -20064,7 +20067,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="166" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B42" s="374"/>
       <c r="C42" s="374"/>
@@ -20074,7 +20077,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="166" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B43" s="374"/>
       <c r="C43" s="374"/>
@@ -20084,7 +20087,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="166" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B44" s="374"/>
       <c r="C44" s="374"/>
@@ -20094,7 +20097,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="166" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B45" s="374"/>
       <c r="C45" s="374"/>
@@ -20152,7 +20155,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="371" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C52" s="102"/>
       <c r="D52" s="372"/>
@@ -20170,7 +20173,7 @@
     <row r="54" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="166"/>
       <c r="B54" s="333" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -20331,7 +20334,7 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -20353,11 +20356,11 @@
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="166" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B2" s="393"/>
       <c r="C2" s="394" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D2" s="394"/>
       <c r="E2" s="394"/>
@@ -20372,7 +20375,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="367" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B3" s="358"/>
       <c r="C3" s="395" t="str">
@@ -20392,7 +20395,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="367" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B4" s="358"/>
       <c r="C4" s="395"/>
@@ -20409,7 +20412,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="367" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B5" s="358"/>
       <c r="C5" s="395"/>
@@ -20426,7 +20429,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="367" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B6" s="358"/>
       <c r="C6" s="395"/>
@@ -20444,7 +20447,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="367" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B7" s="358"/>
       <c r="C7" s="395"/>
@@ -20463,7 +20466,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="367" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B8" s="358"/>
       <c r="C8" s="395"/>
@@ -20480,7 +20483,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="367" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B9" s="358"/>
       <c r="C9" s="395"/>
@@ -20498,7 +20501,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="367" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B10" s="358"/>
       <c r="C10" s="395"/>
@@ -20515,7 +20518,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="367" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B11" s="358"/>
       <c r="C11" s="395"/>
@@ -20532,7 +20535,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="367" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B12" s="358"/>
       <c r="C12" s="395"/>
@@ -20549,7 +20552,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="367" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B13" s="358"/>
       <c r="C13" s="395"/>
@@ -20566,7 +20569,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="367" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B14" s="358"/>
       <c r="C14" s="395"/>
@@ -20583,7 +20586,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="367" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B15" s="358"/>
       <c r="C15" s="395"/>
@@ -20600,7 +20603,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="367" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B16" s="358"/>
       <c r="C16" s="395"/>
@@ -20617,7 +20620,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="367" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B17" s="358"/>
       <c r="C17" s="395"/>
@@ -20634,7 +20637,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="367" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B18" s="358"/>
       <c r="C18" s="395"/>
@@ -20651,7 +20654,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="367" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B19" s="358"/>
       <c r="C19" s="395"/>
@@ -20668,7 +20671,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="367" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B20" s="358"/>
       <c r="C20" s="395"/>
@@ -20685,7 +20688,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="367" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B21" s="358"/>
       <c r="C21" s="395"/>
@@ -20702,7 +20705,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="367" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B22" s="358"/>
       <c r="C22" s="395"/>
@@ -20719,7 +20722,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="367" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B23" s="358"/>
       <c r="C23" s="395"/>
@@ -20736,7 +20739,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="367" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B24" s="358"/>
       <c r="C24" s="395"/>
@@ -20753,7 +20756,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="367" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B25" s="358"/>
       <c r="C25" s="395"/>
@@ -20770,7 +20773,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="367" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B26" s="358"/>
       <c r="C26" s="395"/>
@@ -20787,7 +20790,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="367" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B27" s="358"/>
       <c r="C27" s="395"/>
@@ -20805,7 +20808,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="367" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B28" s="358"/>
       <c r="C28" s="395"/>
@@ -20822,7 +20825,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="367" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B29" s="358"/>
       <c r="C29" s="395"/>
@@ -20839,7 +20842,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="367" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B30" s="358"/>
       <c r="C30" s="395"/>
@@ -20856,7 +20859,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="367" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B31" s="358"/>
       <c r="C31" s="395"/>
@@ -20874,7 +20877,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="367" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B32" s="358"/>
       <c r="C32" s="395"/>
@@ -20891,7 +20894,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="367" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B33" s="358"/>
       <c r="C33" s="395"/>
@@ -20908,7 +20911,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="367" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B34" s="358"/>
       <c r="C34" s="395"/>
@@ -20925,7 +20928,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="367" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B35" s="358"/>
       <c r="C35" s="395"/>
@@ -20942,11 +20945,11 @@
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="367" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B36" s="396"/>
       <c r="C36" s="397" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D36" s="398"/>
       <c r="E36" s="398"/>
@@ -20961,100 +20964,100 @@
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="367" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B37" s="400"/>
       <c r="C37" s="401"/>
       <c r="D37" s="402" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E37" s="402"/>
       <c r="F37" s="402"/>
       <c r="G37" s="403" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H37" s="403"/>
       <c r="I37" s="403"/>
       <c r="J37" s="403" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K37" s="403"/>
       <c r="L37" s="403" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M37" s="403"/>
     </row>
     <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="367" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B38" s="404"/>
       <c r="C38" s="405" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D38" s="406" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E38" s="406"/>
       <c r="F38" s="406"/>
       <c r="G38" s="407" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H38" s="407"/>
       <c r="I38" s="407"/>
       <c r="J38" s="407" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K38" s="407"/>
       <c r="L38" s="407" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M38" s="407"/>
     </row>
     <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="367" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B39" s="408"/>
       <c r="C39" s="409"/>
       <c r="D39" s="410" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E39" s="411" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F39" s="411" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G39" s="411" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H39" s="410" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I39" s="411" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J39" s="411" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K39" s="411" t="s">
+        <v>310</v>
+      </c>
+      <c r="L39" s="411" t="s">
         <v>309</v>
       </c>
-      <c r="L39" s="411" t="s">
-        <v>308</v>
-      </c>
       <c r="M39" s="411" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="367" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B40" s="412"/>
       <c r="C40" s="413" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D40" s="414" t="str">
         <f aca="false">A11</f>
@@ -21099,11 +21102,11 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="367" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B41" s="412"/>
       <c r="C41" s="413" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D41" s="414" t="str">
         <f aca="false">A21</f>
@@ -21148,11 +21151,11 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="367" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B42" s="412"/>
       <c r="C42" s="413" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D42" s="414" t="str">
         <f aca="false">A31</f>
@@ -21197,11 +21200,11 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="367" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B43" s="412"/>
       <c r="C43" s="413" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D43" s="414" t="str">
         <f aca="false">A41</f>
@@ -21246,11 +21249,11 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="367" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B44" s="412"/>
       <c r="C44" s="413" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D44" s="414" t="str">
         <f aca="false">A51</f>
@@ -21295,11 +21298,11 @@
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="367" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B45" s="412"/>
       <c r="C45" s="413" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D45" s="414" t="str">
         <f aca="false">A61</f>
@@ -21344,11 +21347,11 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="367" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B46" s="412"/>
       <c r="C46" s="413" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D46" s="414" t="str">
         <f aca="false">A71</f>
@@ -21393,11 +21396,11 @@
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="367" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B47" s="412"/>
       <c r="C47" s="413" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D47" s="414" t="str">
         <f aca="false">A81</f>
@@ -21442,11 +21445,11 @@
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="367" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B48" s="412"/>
       <c r="C48" s="413" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D48" s="414" t="str">
         <f aca="false">A91</f>
@@ -21491,11 +21494,11 @@
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="367" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B49" s="412"/>
       <c r="C49" s="413" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D49" s="414" t="str">
         <f aca="false">A101</f>
@@ -21540,11 +21543,11 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="367" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B50" s="412"/>
       <c r="C50" s="413" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D50" s="414" t="str">
         <f aca="false">A111</f>
@@ -21589,11 +21592,11 @@
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="367" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B51" s="412"/>
       <c r="C51" s="413" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D51" s="414" t="str">
         <f aca="false">A121</f>
@@ -21638,11 +21641,11 @@
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="367" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B52" s="412"/>
       <c r="C52" s="415" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D52" s="416" t="str">
         <f aca="false">A131</f>
@@ -21687,11 +21690,11 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="367" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B53" s="400"/>
       <c r="C53" s="417" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D53" s="417"/>
       <c r="E53" s="417"/>
@@ -21706,7 +21709,7 @@
     </row>
     <row r="54" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="367" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B54" s="400"/>
       <c r="C54" s="418"/>
@@ -21723,11 +21726,11 @@
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="367" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B55" s="419"/>
       <c r="C55" s="420" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D55" s="420"/>
       <c r="E55" s="420"/>
@@ -21742,11 +21745,11 @@
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="367" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B56" s="421"/>
       <c r="C56" s="422" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D56" s="422"/>
       <c r="E56" s="422"/>
@@ -21764,11 +21767,11 @@
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="367" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B57" s="421"/>
       <c r="C57" s="422" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D57" s="422"/>
       <c r="E57" s="422"/>
@@ -21786,11 +21789,11 @@
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="367" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B58" s="421"/>
       <c r="C58" s="422" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D58" s="422"/>
       <c r="E58" s="422"/>
@@ -21808,11 +21811,11 @@
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="367" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B59" s="421"/>
       <c r="C59" s="422" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D59" s="422"/>
       <c r="E59" s="422"/>
@@ -21830,11 +21833,11 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="367" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B60" s="421"/>
       <c r="C60" s="422" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D60" s="422"/>
       <c r="E60" s="422"/>
@@ -21852,11 +21855,11 @@
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="367" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B61" s="404"/>
       <c r="C61" s="426" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D61" s="426"/>
       <c r="E61" s="426"/>
@@ -21874,7 +21877,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="367" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B62" s="430" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
@@ -21894,7 +21897,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="367" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B63" s="430"/>
       <c r="C63" s="430"/>
@@ -21911,387 +21914,387 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="367" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="367" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="367" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="367" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="367" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="367" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="367" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="367" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="367" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="367" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="367" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="367" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="367" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="367" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="367" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="367" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="367" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="367" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="367" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="367" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="367" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="367" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="367" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="367" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="367" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="367" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="367" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="367" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="367" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="367" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="367" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="367" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="367" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="367" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="367" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="367" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="367" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="367" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="367" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="367" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="367" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="367" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="367" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="367" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="367" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="367" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="367" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="367" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="367" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="367" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="367" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="367" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="367" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="367" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="367" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="367" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="367" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="367" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="367" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="367" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="367" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="367" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="367" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="367" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="367" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="367" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="367" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="367" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="367" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="367" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="367" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="367" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="367" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="367" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="367" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="367" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="367" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="781">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Sista giltighetsdag:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61234]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55923]</t>
   </si>
   <si>
     <t xml:space="preserve">SAMMANDRAG ÖVER BYGGNADENS ENERGIPRESTANDA</t>
@@ -406,70 +406,46 @@
     <t xml:space="preserve">E-talet grundar sig på byggnadens beräknade förbrukning och på energiformsfaktorer. Förbrukningen har beräknats för den uppvärmda nettoarean vid standardanvändning för att E-talen för olika byggnader ska vara jämförbara. På grund av standardanvändningen lämpar sig E-talet inte för en jämförelse av enskilda byggnaders faktiska och beräknade förbrukning. I E-talet ingår energiförbrukningen för byggnadens uppvärmning, ventilation och kylning samt för hushållsapparater och belysning. Energiförbrukningen utanför byggnaden, såsom eluttag för bilvärmare, uppvärmning för frostfrihet och utebelysning, ingår inte i E-talet.</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :nimi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-nettoala]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :muotokerroin]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-nettoala-kertoimella]</t>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :valaistus-kuluttaja-sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :valaistus-kuluttaja-sahko-nettoala]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :e-luokka-rajat :kayttotarkoitus :label-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">ÅTGÄRDSFÖRSLAG FÖR ATT FÖRBÄTTRA E-TALET</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :nimi]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55925]</t>
   </si>
   <si>
     <t xml:space="preserve">De viktigaste rekommendationerna för att förbättra byggnadens E-tal (gäller inte nya byggnader)</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-nettoala]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :muotokerroin]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-nettoala-kertoimella]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :e-luokka-info :luokittelu :label-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :e-luokka-info :luokittelu :label-sv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61236]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61239]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61242]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61245]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61248]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61251]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61254]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :e-luokka-info :e-luokka]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55927]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55930]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55933]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55936]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55939]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--55942]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :e-luokka]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :keskeiset-suositukset-fi]</t>
@@ -1632,18 +1608,33 @@
     <t xml:space="preserve">TODO Lämpöpumpun lämmönlähteestä ottama energia</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :nimi]</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO Muu ympäristöstä otettu energia, sähkö</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia]</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO Muu ympäristöstä otettu energia, lämpö</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :muotokerroin]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-kertoimella]</t>
   </si>
   <si>
     <t xml:space="preserve">Energi som förbrukas av husets tekniska system</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-nettoala-kertoimella]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :nimi]</t>
+  </si>
+  <si>
     <t xml:space="preserve">El</t>
   </si>
   <si>
@@ -1653,7 +1644,16 @@
     <t xml:space="preserve">Fjärrkyla</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :muotokerroin]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-kertoimella]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-nettoala-kertoimella]</t>
   </si>
   <si>
     <r>
@@ -4749,11 +4749,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4769,31 +4769,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4805,7 +4805,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4849,8 +4849,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4875,10 +4879,6 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8317,9 +8317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>231120</xdr:colOff>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8333,7 +8333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="741240" cy="198000"/>
+          <a:ext cx="740880" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8354,9 +8354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8370,7 +8370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1084680" cy="198000"/>
+          <a:ext cx="1084320" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8391,9 +8391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8407,7 +8407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1391400" cy="198000"/>
+          <a:ext cx="1391040" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8428,9 +8428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
+      <xdr:colOff>327960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8444,7 +8444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1715400" cy="198000"/>
+          <a:ext cx="1715040" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8465,9 +8465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>258480</xdr:rowOff>
+      <xdr:rowOff>258120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8481,7 +8481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2022480" cy="210960"/>
+          <a:ext cx="2022120" cy="210600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8502,9 +8502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>144720</xdr:colOff>
+      <xdr:colOff>144360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8518,7 +8518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2358720" cy="198000"/>
+          <a:ext cx="2358360" cy="197640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8539,9 +8539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>246600</xdr:rowOff>
+      <xdr:rowOff>246240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8551,7 +8551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2671560" cy="196920"/>
+          <a:ext cx="2671200" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8920,9 +8920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8932,7 +8932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6970680" cy="10492200"/>
+          <a:ext cx="6970320" cy="10491840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9061,7 +9061,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -10701,8 +10701,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10851,7 +10851,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="107" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61234]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55923]</v>
       </c>
       <c r="G5" s="108"/>
       <c r="H5" s="5"/>
@@ -11074,7 +11074,7 @@
       <c r="Z11" s="0"/>
       <c r="AA11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="97" t="s">
         <v>58</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
       <c r="I20" s="134" t="str">
-        <f aca="false">A42</f>
+        <f aca="false">A34</f>
         <v>[:tulokset :e-luku]</v>
       </c>
       <c r="J20" s="134"/>
@@ -11501,8 +11501,8 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="135" t="str">
-        <f aca="false">A44</f>
-        <v>[:tulokset :e-luokka-info :luokittelu :label-sv]</v>
+        <f aca="false">A36</f>
+        <v>[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</v>
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -11567,16 +11567,16 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="139" t="str">
-        <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61236]</v>
+        <f aca="false">A37</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55925]</v>
       </c>
       <c r="H25" s="140" t="str">
-        <f aca="false">A46</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61239]</v>
+        <f aca="false">A38</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55927]</v>
       </c>
       <c r="I25" s="141" t="str">
-        <f aca="false">A47</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61242]</v>
+        <f aca="false">A39</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55930]</v>
       </c>
       <c r="J25" s="136"/>
       <c r="L25" s="0"/>
@@ -11606,16 +11606,16 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="142" t="str">
-        <f aca="false">A48</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61245]</v>
+        <f aca="false">A40</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55933]</v>
       </c>
       <c r="H26" s="143" t="str">
-        <f aca="false">A49</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61248]</v>
+        <f aca="false">A41</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55936]</v>
       </c>
       <c r="I26" s="144" t="str">
-        <f aca="false">A50</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61251]</v>
+        <f aca="false">A42</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55939]</v>
       </c>
       <c r="J26" s="136"/>
       <c r="L26" s="0"/>
@@ -11645,8 +11645,8 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="145" t="str">
-        <f aca="false">A51</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61254]</v>
+        <f aca="false">A43</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--55942]</v>
       </c>
       <c r="H27" s="146"/>
       <c r="I27" s="146"/>
@@ -11710,8 +11710,8 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="148" t="str">
-        <f aca="false">A52</f>
-        <v>[:tulokset :e-luokka-info :e-luokka]</v>
+        <f aca="false">A44</f>
+        <v>[:tulokset :e-luokka]</v>
       </c>
       <c r="H29" s="149"/>
       <c r="I29" s="149"/>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="97" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B34" s="105"/>
       <c r="C34" s="151"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="152"/>
       <c r="C35" s="153"/>
@@ -11917,11 +11917,11 @@
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="155"/>
       <c r="C36" s="156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="156"/>
       <c r="E36" s="156"/>
@@ -11949,11 +11949,11 @@
     </row>
     <row r="37" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="102"/>
       <c r="E37" s="103"/>
@@ -11980,12 +11980,12 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>100</v>
+      <c r="A38" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="B38" s="158"/>
       <c r="C38" s="159" t="str">
-        <f aca="false">A54</f>
+        <f aca="false">A46</f>
         <v>[:perustiedot :keskeiset-suositukset-sv]</v>
       </c>
       <c r="D38" s="159"/>
@@ -12013,8 +12013,8 @@
       <c r="AA38" s="0"/>
     </row>
     <row r="39" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>101</v>
+      <c r="A39" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="159"/>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="105"/>
       <c r="C40" s="159"/>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="105"/>
       <c r="C41" s="159"/>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="97" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B42" s="105"/>
       <c r="C42" s="159"/>
@@ -12134,7 +12134,7 @@
       <c r="AA42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="160" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="105"/>
@@ -12254,9 +12254,6 @@
       <c r="AA46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="97" t="s">
-        <v>108</v>
-      </c>
       <c r="B47" s="105"/>
       <c r="C47" s="159"/>
       <c r="D47" s="159"/>
@@ -12284,9 +12281,6 @@
       <c r="AA47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="97" t="s">
-        <v>109</v>
-      </c>
       <c r="B48" s="105"/>
       <c r="C48" s="159"/>
       <c r="D48" s="159"/>
@@ -12314,9 +12308,6 @@
       <c r="AA48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="97" t="s">
-        <v>110</v>
-      </c>
       <c r="B49" s="105"/>
       <c r="C49" s="159"/>
       <c r="D49" s="159"/>
@@ -12344,9 +12335,6 @@
       <c r="AA49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="97" t="s">
-        <v>111</v>
-      </c>
       <c r="B50" s="105"/>
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
@@ -12374,9 +12362,6 @@
       <c r="AA50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="97" t="s">
-        <v>112</v>
-      </c>
       <c r="B51" s="105"/>
       <c r="C51" s="159"/>
       <c r="D51" s="159"/>
@@ -12404,9 +12389,6 @@
       <c r="AA51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="97" t="s">
-        <v>113</v>
-      </c>
       <c r="B52" s="105"/>
       <c r="C52" s="159"/>
       <c r="D52" s="159"/>
@@ -12434,9 +12416,6 @@
       <c r="AA52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="97" t="s">
-        <v>114</v>
-      </c>
       <c r="B53" s="105"/>
       <c r="C53" s="159"/>
       <c r="D53" s="159"/>
@@ -12464,9 +12443,6 @@
       <c r="AA53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="97" t="s">
-        <v>115</v>
-      </c>
       <c r="B54" s="105"/>
       <c r="C54" s="159"/>
       <c r="D54" s="159"/>
@@ -12548,17 +12524,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="160" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="160"/>
-      <c r="J57" s="160"/>
+      <c r="B57" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -12577,18 +12553,18 @@
       <c r="AA57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="161"/>
-      <c r="C58" s="162" t="str">
+      <c r="B58" s="162"/>
+      <c r="C58" s="163" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 2/8"</f>
         <v>Certifikatbeteckning: [:id], 2/8</v>
       </c>
-      <c r="D58" s="162"/>
-      <c r="E58" s="162"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="164"/>
       <c r="L58" s="0"/>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
@@ -12607,7 +12583,7 @@
       <c r="AA58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="164"/>
+      <c r="B59" s="165"/>
       <c r="L59" s="0"/>
       <c r="M59" s="0"/>
       <c r="N59" s="0"/>
@@ -12683,20 +12659,20 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="165"/>
+      <c r="O64" s="166"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="165"/>
-      <c r="O65" s="165"/>
-      <c r="P65" s="165"/>
-      <c r="Q65" s="165"/>
-      <c r="R65" s="165"/>
-      <c r="S65" s="165"/>
-      <c r="T65" s="165"/>
-      <c r="U65" s="165"/>
-      <c r="V65" s="165"/>
-      <c r="W65" s="165"/>
-      <c r="X65" s="165"/>
+      <c r="N65" s="166"/>
+      <c r="O65" s="166"/>
+      <c r="P65" s="166"/>
+      <c r="Q65" s="166"/>
+      <c r="R65" s="166"/>
+      <c r="S65" s="166"/>
+      <c r="T65" s="166"/>
+      <c r="U65" s="166"/>
+      <c r="V65" s="166"/>
+      <c r="W65" s="166"/>
+      <c r="X65" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12914,13 +12890,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="166" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="160" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="1.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="3" width="16.57"/>
@@ -12929,7 +12905,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12938,7 +12914,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="167" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C2" s="167"/>
       <c r="D2" s="167"/>
@@ -12985,12 +12961,12 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="168"/>
       <c r="C3" s="169" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D3" s="170"/>
       <c r="E3" s="170"/>
@@ -12998,12 +12974,12 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="160" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="171"/>
       <c r="C4" s="172" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D4" s="173" t="str">
         <f aca="false">A3</f>
@@ -13019,12 +12995,12 @@
       <c r="L4" s="137"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="166" t="s">
-        <v>120</v>
+      <c r="A5" s="160" t="s">
+        <v>112</v>
       </c>
       <c r="B5" s="171"/>
       <c r="C5" s="172" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">A4</f>
@@ -13038,16 +13014,16 @@
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="G5" s="175" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="166" t="s">
-        <v>123</v>
+      <c r="A6" s="160" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="176"/>
       <c r="C6" s="177" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="178"/>
       <c r="E6" s="179"/>
@@ -13055,68 +13031,68 @@
       <c r="G6" s="180"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="166" t="s">
-        <v>125</v>
+      <c r="A7" s="160" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="171"/>
       <c r="C7" s="172" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D7" s="181" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</v>
       </c>
       <c r="E7" s="182" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F7" s="183"/>
       <c r="G7" s="184"/>
     </row>
     <row r="8" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="166" t="s">
-        <v>128</v>
+      <c r="A8" s="160" t="s">
+        <v>120</v>
       </c>
       <c r="B8" s="171"/>
       <c r="C8" s="185"/>
       <c r="D8" s="186" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="186" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G8" s="187" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="166" t="s">
-        <v>133</v>
+      <c r="A9" s="160" t="s">
+        <v>125</v>
       </c>
       <c r="B9" s="171"/>
       <c r="C9" s="185"/>
       <c r="D9" s="121" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G9" s="121" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="166" t="s">
-        <v>137</v>
+      <c r="A10" s="160" t="s">
+        <v>129</v>
       </c>
       <c r="B10" s="171"/>
       <c r="C10" s="175" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D10" s="174" t="str">
         <f aca="false">A7</f>
@@ -13143,12 +13119,12 @@
       <c r="N10" s="137"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="166" t="s">
-        <v>139</v>
+      <c r="A11" s="160" t="s">
+        <v>131</v>
       </c>
       <c r="B11" s="171"/>
       <c r="C11" s="175" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D11" s="174" t="str">
         <f aca="false">A11</f>
@@ -13175,12 +13151,12 @@
       <c r="N11" s="137"/>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="166" t="s">
-        <v>141</v>
+      <c r="A12" s="160" t="s">
+        <v>133</v>
       </c>
       <c r="B12" s="171"/>
       <c r="C12" s="175" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D12" s="191" t="str">
         <f aca="false">A15</f>
@@ -13207,12 +13183,12 @@
       <c r="N12" s="137"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="166" t="s">
-        <v>143</v>
+      <c r="A13" s="160" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="175" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D13" s="174" t="str">
         <f aca="false">A19</f>
@@ -13239,12 +13215,12 @@
       <c r="N13" s="137"/>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="166" t="s">
-        <v>145</v>
+      <c r="A14" s="160" t="s">
+        <v>137</v>
       </c>
       <c r="B14" s="171"/>
       <c r="C14" s="175" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D14" s="174" t="str">
         <f aca="false">A23</f>
@@ -13271,12 +13247,12 @@
       <c r="N14" s="137"/>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="166" t="s">
-        <v>147</v>
+      <c r="A15" s="160" t="s">
+        <v>139</v>
       </c>
       <c r="B15" s="171"/>
       <c r="C15" s="175" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D15" s="193" t="s">
         <v>61</v>
@@ -13301,12 +13277,12 @@
       <c r="N15" s="137"/>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="166" t="s">
-        <v>149</v>
+      <c r="A16" s="160" t="s">
+        <v>141</v>
       </c>
       <c r="B16" s="176"/>
       <c r="C16" s="177" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D16" s="178"/>
       <c r="E16" s="179"/>
@@ -13314,33 +13290,33 @@
       <c r="G16" s="180"/>
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="166" t="s">
-        <v>151</v>
+      <c r="A17" s="160" t="s">
+        <v>143</v>
       </c>
       <c r="B17" s="171"/>
       <c r="C17" s="185"/>
       <c r="D17" s="195" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E17" s="195" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F17" s="196" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G17" s="197"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="166" t="s">
-        <v>153</v>
+      <c r="A18" s="160" t="s">
+        <v>145</v>
       </c>
       <c r="B18" s="171"/>
       <c r="C18" s="185"/>
       <c r="D18" s="121" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F18" s="198" t="s">
         <v>61</v>
@@ -13348,12 +13324,12 @@
       <c r="G18" s="197"/>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="166" t="s">
-        <v>154</v>
+      <c r="A19" s="160" t="s">
+        <v>146</v>
       </c>
       <c r="B19" s="171"/>
       <c r="C19" s="172" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D19" s="189" t="str">
         <f aca="false">A29</f>
@@ -13370,12 +13346,12 @@
       <c r="G19" s="197"/>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="166" t="s">
-        <v>156</v>
+      <c r="A20" s="160" t="s">
+        <v>148</v>
       </c>
       <c r="B20" s="171"/>
       <c r="C20" s="172" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D20" s="189" t="str">
         <f aca="false">A32</f>
@@ -13392,12 +13368,12 @@
       <c r="G20" s="197"/>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="166" t="s">
-        <v>158</v>
+      <c r="A21" s="160" t="s">
+        <v>150</v>
       </c>
       <c r="B21" s="171"/>
       <c r="C21" s="172" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D21" s="189" t="str">
         <f aca="false">A35</f>
@@ -13414,12 +13390,12 @@
       <c r="G21" s="197"/>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="166" t="s">
-        <v>160</v>
+      <c r="A22" s="160" t="s">
+        <v>152</v>
       </c>
       <c r="B22" s="171"/>
       <c r="C22" s="172" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D22" s="189" t="str">
         <f aca="false">A38</f>
@@ -13436,12 +13412,12 @@
       <c r="G22" s="197"/>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="166" t="s">
-        <v>162</v>
+      <c r="A23" s="160" t="s">
+        <v>154</v>
       </c>
       <c r="B23" s="171"/>
       <c r="C23" s="172" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D23" s="189" t="str">
         <f aca="false">A41</f>
@@ -13458,12 +13434,12 @@
       <c r="G23" s="197"/>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="166" t="s">
-        <v>164</v>
+      <c r="A24" s="160" t="s">
+        <v>156</v>
       </c>
       <c r="B24" s="171"/>
       <c r="C24" s="172" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D24" s="189" t="str">
         <f aca="false">A44</f>
@@ -13480,12 +13456,12 @@
       <c r="G24" s="197"/>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="166" t="s">
-        <v>166</v>
+      <c r="A25" s="160" t="s">
+        <v>158</v>
       </c>
       <c r="B25" s="171"/>
       <c r="C25" s="172" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D25" s="189" t="str">
         <f aca="false">A47</f>
@@ -13502,12 +13478,12 @@
       <c r="G25" s="197"/>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="166" t="s">
-        <v>168</v>
+      <c r="A26" s="160" t="s">
+        <v>160</v>
       </c>
       <c r="B26" s="171"/>
       <c r="C26" s="172" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D26" s="189" t="str">
         <f aca="false">A50</f>
@@ -13524,12 +13500,12 @@
       <c r="G26" s="197"/>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="166" t="s">
-        <v>170</v>
+      <c r="A27" s="160" t="s">
+        <v>162</v>
       </c>
       <c r="B27" s="168"/>
       <c r="C27" s="169" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D27" s="170"/>
       <c r="E27" s="170"/>
@@ -13537,12 +13513,12 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="166" t="s">
-        <v>172</v>
+      <c r="A28" s="160" t="s">
+        <v>164</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="175" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D28" s="200" t="str">
         <f aca="false">A54</f>
@@ -13553,8 +13529,8 @@
       <c r="G28" s="200"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="166" t="s">
-        <v>174</v>
+      <c r="A29" s="160" t="s">
+        <v>166</v>
       </c>
       <c r="B29" s="201"/>
       <c r="C29" s="184"/>
@@ -13564,67 +13540,67 @@
       <c r="G29" s="203"/>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="166" t="s">
-        <v>175</v>
+      <c r="A30" s="160" t="s">
+        <v>167</v>
       </c>
       <c r="B30" s="171"/>
       <c r="C30" s="204"/>
       <c r="D30" s="205" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E30" s="186" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F30" s="186" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G30" s="186" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="166" t="s">
-        <v>180</v>
+      <c r="A31" s="160" t="s">
+        <v>172</v>
       </c>
       <c r="B31" s="171"/>
       <c r="C31" s="204"/>
       <c r="D31" s="206" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E31" s="195" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F31" s="195" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G31" s="195"/>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="166" t="s">
-        <v>184</v>
+      <c r="A32" s="160" t="s">
+        <v>176</v>
       </c>
       <c r="B32" s="171"/>
       <c r="C32" s="204"/>
       <c r="D32" s="207" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E32" s="121" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F32" s="121" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="208" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="166" t="s">
-        <v>188</v>
+      <c r="A33" s="160" t="s">
+        <v>180</v>
       </c>
       <c r="B33" s="171"/>
       <c r="C33" s="175" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D33" s="209" t="str">
         <f aca="false">A55</f>
@@ -13644,12 +13620,12 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="166" t="s">
-        <v>190</v>
+      <c r="A34" s="160" t="s">
+        <v>182</v>
       </c>
       <c r="B34" s="171"/>
       <c r="C34" s="175" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D34" s="209" t="str">
         <f aca="false">A59</f>
@@ -13667,12 +13643,12 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="166" t="s">
-        <v>192</v>
+      <c r="A35" s="160" t="s">
+        <v>184</v>
       </c>
       <c r="B35" s="201"/>
       <c r="C35" s="213" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D35" s="214" t="str">
         <f aca="false">A61</f>
@@ -13690,12 +13666,12 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="166" t="s">
-        <v>193</v>
+      <c r="A36" s="160" t="s">
+        <v>185</v>
       </c>
       <c r="B36" s="171"/>
       <c r="C36" s="217" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D36" s="217"/>
       <c r="E36" s="218" t="str">
@@ -13706,12 +13682,12 @@
       <c r="G36" s="218"/>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="166" t="s">
-        <v>195</v>
+      <c r="A37" s="160" t="s">
+        <v>187</v>
       </c>
       <c r="B37" s="168"/>
       <c r="C37" s="169" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D37" s="170"/>
       <c r="E37" s="170"/>
@@ -13719,12 +13695,12 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="166" t="s">
-        <v>197</v>
+      <c r="A38" s="160" t="s">
+        <v>189</v>
       </c>
       <c r="B38" s="171"/>
       <c r="C38" s="172" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D38" s="219" t="str">
         <f aca="false">A65</f>
@@ -13735,8 +13711,8 @@
       <c r="G38" s="219"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="166" t="s">
-        <v>199</v>
+      <c r="A39" s="160" t="s">
+        <v>191</v>
       </c>
       <c r="B39" s="171"/>
       <c r="C39" s="202"/>
@@ -13746,44 +13722,44 @@
       <c r="G39" s="220"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="166" t="s">
-        <v>200</v>
+      <c r="A40" s="160" t="s">
+        <v>192</v>
       </c>
       <c r="B40" s="221"/>
       <c r="C40" s="222"/>
       <c r="D40" s="186" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E40" s="223" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F40" s="186" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G40" s="186" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="166" t="s">
-        <v>204</v>
+      <c r="A41" s="160" t="s">
+        <v>196</v>
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="185"/>
       <c r="D41" s="195" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E41" s="224" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="195" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="166" t="s">
-        <v>208</v>
+      <c r="A42" s="160" t="s">
+        <v>200</v>
       </c>
       <c r="B42" s="171"/>
       <c r="C42" s="225"/>
@@ -13801,12 +13777,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="166" t="s">
-        <v>209</v>
+      <c r="A43" s="160" t="s">
+        <v>201</v>
       </c>
       <c r="B43" s="171"/>
       <c r="C43" s="172" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D43" s="227" t="str">
         <f aca="false">A66</f>
@@ -13826,12 +13802,12 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="166" t="s">
-        <v>211</v>
+      <c r="A44" s="160" t="s">
+        <v>203</v>
       </c>
       <c r="B44" s="171"/>
       <c r="C44" s="172" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D44" s="227" t="str">
         <f aca="false">A70</f>
@@ -13851,12 +13827,12 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="166" t="s">
-        <v>213</v>
+      <c r="A45" s="160" t="s">
+        <v>205</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="228" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D45" s="229"/>
       <c r="E45" s="229"/>
@@ -13864,12 +13840,12 @@
       <c r="G45" s="229"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="166" t="s">
-        <v>215</v>
+      <c r="A46" s="160" t="s">
+        <v>207</v>
       </c>
       <c r="B46" s="171"/>
       <c r="C46" s="228" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D46" s="172"/>
       <c r="E46" s="172"/>
@@ -13877,8 +13853,8 @@
       <c r="G46" s="175"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="166" t="s">
-        <v>217</v>
+      <c r="A47" s="160" t="s">
+        <v>209</v>
       </c>
       <c r="B47" s="171"/>
       <c r="C47" s="230"/>
@@ -13889,42 +13865,42 @@
       <c r="J47" s="232"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="166" t="s">
-        <v>218</v>
+      <c r="A48" s="160" t="s">
+        <v>210</v>
       </c>
       <c r="B48" s="171"/>
       <c r="C48" s="185"/>
       <c r="D48" s="186" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E48" s="186" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F48" s="233"/>
       <c r="G48" s="203"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="166" t="s">
-        <v>221</v>
+      <c r="A49" s="160" t="s">
+        <v>213</v>
       </c>
       <c r="B49" s="171"/>
       <c r="C49" s="185"/>
       <c r="D49" s="121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E49" s="121" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F49" s="233"/>
       <c r="G49" s="203"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="166" t="s">
-        <v>224</v>
+      <c r="A50" s="160" t="s">
+        <v>216</v>
       </c>
       <c r="B50" s="171"/>
       <c r="C50" s="172" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D50" s="209" t="str">
         <f aca="false">A74</f>
@@ -13938,12 +13914,12 @@
       <c r="G50" s="203"/>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="166" t="s">
-        <v>226</v>
+      <c r="A51" s="160" t="s">
+        <v>218</v>
       </c>
       <c r="B51" s="171"/>
       <c r="C51" s="172" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D51" s="209" t="str">
         <f aca="false">A76</f>
@@ -13957,12 +13933,12 @@
       <c r="G51" s="203"/>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="166" t="s">
-        <v>228</v>
+      <c r="A52" s="160" t="s">
+        <v>220</v>
       </c>
       <c r="B52" s="168"/>
       <c r="C52" s="169" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D52" s="170"/>
       <c r="E52" s="170"/>
@@ -13970,20 +13946,20 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="160" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="171"/>
       <c r="C53" s="185"/>
       <c r="D53" s="234" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E53" s="206"/>
       <c r="F53" s="206"/>
       <c r="G53" s="203"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="160" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="171"/>
@@ -13996,12 +13972,12 @@
       <c r="G54" s="203"/>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="166" t="s">
-        <v>231</v>
+      <c r="A55" s="160" t="s">
+        <v>223</v>
       </c>
       <c r="B55" s="171"/>
       <c r="C55" s="172" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D55" s="199" t="str">
         <f aca="false">A78</f>
@@ -14012,12 +13988,12 @@
       <c r="G55" s="203"/>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="166" t="s">
-        <v>232</v>
+      <c r="A56" s="160" t="s">
+        <v>224</v>
       </c>
       <c r="B56" s="168"/>
       <c r="C56" s="169" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D56" s="170"/>
       <c r="E56" s="170"/>
@@ -14025,28 +14001,28 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="166" t="s">
-        <v>234</v>
+      <c r="A57" s="160" t="s">
+        <v>226</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="202"/>
       <c r="D57" s="237" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E57" s="238" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F57" s="202"/>
       <c r="G57" s="203"/>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="166" t="s">
-        <v>237</v>
+      <c r="A58" s="160" t="s">
+        <v>229</v>
       </c>
       <c r="B58" s="171"/>
       <c r="C58" s="185"/>
       <c r="D58" s="239" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E58" s="194" t="s">
         <v>60</v>
@@ -14055,12 +14031,12 @@
       <c r="G58" s="203"/>
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="166" t="s">
-        <v>239</v>
+      <c r="A59" s="160" t="s">
+        <v>231</v>
       </c>
       <c r="B59" s="171"/>
       <c r="C59" s="172" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D59" s="240" t="str">
         <f aca="false">A79</f>
@@ -14074,12 +14050,12 @@
       <c r="G59" s="203"/>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="166" t="s">
-        <v>240</v>
+      <c r="A60" s="160" t="s">
+        <v>232</v>
       </c>
       <c r="B60" s="168"/>
       <c r="C60" s="169" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D60" s="170"/>
       <c r="E60" s="170"/>
@@ -14087,27 +14063,27 @@
       <c r="G60" s="243"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="166" t="s">
-        <v>242</v>
+      <c r="A61" s="160" t="s">
+        <v>234</v>
       </c>
       <c r="B61" s="171"/>
       <c r="C61" s="185"/>
       <c r="D61" s="195" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E61" s="195" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F61" s="233" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G61" s="195" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="166" t="s">
-        <v>247</v>
+      <c r="A62" s="160" t="s">
+        <v>239</v>
       </c>
       <c r="B62" s="171"/>
       <c r="C62" s="185"/>
@@ -14115,18 +14091,18 @@
         <v>61</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F62" s="239" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="166" t="s">
-        <v>249</v>
+      <c r="A63" s="160" t="s">
+        <v>241</v>
       </c>
       <c r="B63" s="171"/>
       <c r="C63" s="20"/>
@@ -14148,7 +14124,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="166" t="s">
+      <c r="A64" s="160" t="s">
         <v>42</v>
       </c>
       <c r="B64" s="171"/>
@@ -14171,7 +14147,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="166" t="s">
+      <c r="A65" s="160" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="245"/>
@@ -14194,23 +14170,23 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="166" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" s="162" t="str">
+      <c r="A66" s="160" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="163" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 3/8"</f>
         <v>Certifikatbeteckning: [:id], 3/8</v>
       </c>
-      <c r="C66" s="162"/>
-      <c r="D66" s="162"/>
-      <c r="E66" s="162"/>
-      <c r="F66" s="162"/>
-      <c r="G66" s="162"/>
-      <c r="H66" s="162"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
+      <c r="E66" s="163"/>
+      <c r="F66" s="163"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="163"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="166" t="s">
-        <v>251</v>
+      <c r="A67" s="160" t="s">
+        <v>243</v>
       </c>
       <c r="B67" s="248"/>
       <c r="C67" s="4"/>
@@ -14220,128 +14196,128 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="160" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="160" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="160" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="160" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="160" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="160" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="160" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="166" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="160" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="166" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="160" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="166" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="160" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="166" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="160" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="166" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="160" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="166" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="160" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="166" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="160" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="166" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="160" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="166" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="160" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="166" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="160" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="166" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="160" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="166" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="160" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="166" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="160" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="166" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="160" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="166" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="160" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="166" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="160" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="166" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="166" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="166" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="166" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="166" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="166" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="166" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -14859,13 +14835,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="166" width="38.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="160" width="38.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="1.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="21.57"/>
@@ -14875,7 +14851,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14885,7 +14861,7 @@
       </c>
       <c r="B2" s="250"/>
       <c r="C2" s="251" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D2" s="252"/>
       <c r="E2" s="251"/>
@@ -14930,12 +14906,12 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="254"/>
       <c r="C3" s="255" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D3" s="256"/>
       <c r="E3" s="256"/>
@@ -14943,12 +14919,12 @@
       <c r="G3" s="257"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="160" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="171"/>
       <c r="C4" s="258" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D4" s="259" t="str">
         <f aca="false">A3</f>
@@ -14959,8 +14935,8 @@
       <c r="G4" s="259"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="166" t="s">
-        <v>120</v>
+      <c r="A5" s="160" t="s">
+        <v>112</v>
       </c>
       <c r="B5" s="171"/>
       <c r="C5" s="258"/>
@@ -14970,7 +14946,7 @@
       <c r="G5" s="259"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="160" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="171"/>
@@ -14981,12 +14957,12 @@
       <c r="G6" s="261"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="160" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="171"/>
       <c r="C7" s="262" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D7" s="263" t="str">
         <f aca="false">A4</f>
@@ -14997,12 +14973,12 @@
       <c r="G7" s="175"/>
     </row>
     <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="160" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="171"/>
       <c r="C8" s="262" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D8" s="263" t="str">
         <f aca="false">A5</f>
@@ -15013,12 +14989,12 @@
       <c r="G8" s="204"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="166" t="s">
-        <v>279</v>
+      <c r="A9" s="160" t="s">
+        <v>271</v>
       </c>
       <c r="B9" s="171"/>
       <c r="C9" s="234" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D9" s="266" t="str">
         <f aca="false">A6</f>
@@ -15033,7 +15009,7 @@
       <c r="K9" s="137"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="160" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="201"/>
@@ -15044,12 +15020,12 @@
       <c r="G10" s="184"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="160" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="254"/>
       <c r="C11" s="255" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D11" s="256"/>
       <c r="E11" s="256"/>
@@ -15057,7 +15033,7 @@
       <c r="G11" s="257"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="160" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="171"/>
@@ -15068,43 +15044,43 @@
       <c r="G12" s="203"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="166" t="s">
-        <v>282</v>
+      <c r="A13" s="160" t="s">
+        <v>274</v>
       </c>
       <c r="B13" s="171"/>
       <c r="C13" s="265" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D13" s="269" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E13" s="195" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F13" s="270" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G13" s="270"/>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="160" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="171"/>
       <c r="C14" s="185"/>
       <c r="D14" s="269" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E14" s="195" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F14" s="270" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G14" s="270"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="160" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="201"/>
@@ -15116,14 +15092,14 @@
         <v>61</v>
       </c>
       <c r="F15" s="239" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G15" s="198" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="160" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="171"/>
@@ -15134,8 +15110,8 @@
       <c r="G16" s="270"/>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="166" t="s">
-        <v>292</v>
+      <c r="A17" s="160" t="s">
+        <v>284</v>
       </c>
       <c r="B17" s="171"/>
       <c r="C17" s="272" t="s">
@@ -15159,7 +15135,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="160" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="171"/>
@@ -15184,12 +15160,12 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="160" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="171"/>
       <c r="C19" s="272" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D19" s="241" t="str">
         <f aca="false">A15</f>
@@ -15209,12 +15185,12 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="160" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="171"/>
       <c r="C20" s="272" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D20" s="241" t="str">
         <f aca="false">A19</f>
@@ -15234,12 +15210,12 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="166" t="s">
-        <v>295</v>
+      <c r="A21" s="160" t="s">
+        <v>287</v>
       </c>
       <c r="B21" s="171"/>
       <c r="C21" s="274" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D21" s="241" t="str">
         <f aca="false">A23</f>
@@ -15259,12 +15235,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="160" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="171"/>
       <c r="C22" s="265" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D22" s="275" t="str">
         <f aca="false">A42</f>
@@ -15281,7 +15257,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="160" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="171"/>
@@ -15292,12 +15268,12 @@
       <c r="G23" s="203"/>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="160" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="254"/>
       <c r="C24" s="255" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D24" s="170"/>
       <c r="E24" s="256"/>
@@ -15305,8 +15281,8 @@
       <c r="G24" s="257"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="166" t="s">
-        <v>299</v>
+      <c r="A25" s="160" t="s">
+        <v>291</v>
       </c>
       <c r="B25" s="221"/>
       <c r="C25" s="277"/>
@@ -15316,7 +15292,7 @@
       <c r="G25" s="203"/>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="160" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="171"/>
@@ -15331,7 +15307,7 @@
       <c r="G26" s="203"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="160" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="171"/>
@@ -15342,12 +15318,12 @@
       <c r="G27" s="203"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="160" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="279" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D28" s="279"/>
       <c r="E28" s="241" t="str">
@@ -15361,12 +15337,12 @@
       <c r="G28" s="280"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="160" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="171"/>
       <c r="C29" s="279" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D29" s="279"/>
       <c r="E29" s="241" t="str">
@@ -15380,12 +15356,12 @@
       <c r="G29" s="280"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="166" t="s">
-        <v>302</v>
+      <c r="A30" s="160" t="s">
+        <v>294</v>
       </c>
       <c r="B30" s="171"/>
       <c r="C30" s="279" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D30" s="279"/>
       <c r="E30" s="241" t="str">
@@ -15399,12 +15375,12 @@
       <c r="G30" s="280"/>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="160" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="171"/>
       <c r="C31" s="279" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D31" s="279"/>
       <c r="E31" s="241" t="str">
@@ -15418,12 +15394,12 @@
       <c r="G31" s="280"/>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="166" t="s">
-        <v>92</v>
+      <c r="A32" s="160" t="s">
+        <v>297</v>
       </c>
       <c r="B32" s="171"/>
       <c r="C32" s="279" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D32" s="279"/>
       <c r="E32" s="241" t="str">
@@ -15437,12 +15413,12 @@
       <c r="G32" s="280"/>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="166" t="s">
-        <v>93</v>
+      <c r="A33" s="160" t="s">
+        <v>299</v>
       </c>
       <c r="B33" s="171"/>
       <c r="C33" s="279" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D33" s="279"/>
       <c r="E33" s="241" t="str">
@@ -15456,8 +15432,8 @@
       <c r="G33" s="280"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="166" t="s">
-        <v>95</v>
+      <c r="A34" s="160" t="s">
+        <v>301</v>
       </c>
       <c r="B34" s="201"/>
       <c r="C34" s="267"/>
@@ -15467,12 +15443,12 @@
       <c r="G34" s="203"/>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="166" t="s">
-        <v>307</v>
+      <c r="A35" s="160" t="s">
+        <v>302</v>
       </c>
       <c r="B35" s="254"/>
       <c r="C35" s="255" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D35" s="256"/>
       <c r="E35" s="256"/>
@@ -15480,8 +15456,8 @@
       <c r="G35" s="257"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="166" t="s">
-        <v>96</v>
+      <c r="A36" s="160" t="s">
+        <v>304</v>
       </c>
       <c r="B36" s="171"/>
       <c r="C36" s="202"/>
@@ -15491,25 +15467,25 @@
       <c r="G36" s="268"/>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="166" t="s">
-        <v>98</v>
+      <c r="A37" s="160" t="s">
+        <v>305</v>
       </c>
       <c r="B37" s="171"/>
       <c r="C37" s="185"/>
       <c r="D37" s="185"/>
       <c r="E37" s="195" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" s="195" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="195" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="160" t="s">
         <v>309</v>
-      </c>
-      <c r="F37" s="195" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="195" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="166" t="s">
-        <v>100</v>
       </c>
       <c r="B38" s="171"/>
       <c r="C38" s="185"/>
@@ -15525,8 +15501,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="166" t="s">
-        <v>102</v>
+      <c r="A39" s="160" t="s">
+        <v>310</v>
       </c>
       <c r="B39" s="171"/>
       <c r="C39" s="185"/>
@@ -15536,8 +15512,8 @@
       <c r="G39" s="195"/>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="166" t="s">
-        <v>312</v>
+      <c r="A40" s="160" t="s">
+        <v>311</v>
       </c>
       <c r="B40" s="171"/>
       <c r="C40" s="172" t="s">
@@ -15549,8 +15525,8 @@
       <c r="G40" s="282"/>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="166" t="s">
-        <v>103</v>
+      <c r="A41" s="160" t="s">
+        <v>312</v>
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="172" t="s">
@@ -15570,7 +15546,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="160" t="s">
         <v>314</v>
       </c>
       <c r="B42" s="171"/>
@@ -15591,7 +15567,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="160" t="s">
         <v>316</v>
       </c>
       <c r="B43" s="171"/>
@@ -15612,7 +15588,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="160" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="171"/>
@@ -15632,12 +15608,12 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="160" t="s">
         <v>320</v>
       </c>
       <c r="B45" s="171"/>
       <c r="C45" s="172" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D45" s="172"/>
       <c r="E45" s="241" t="str">
@@ -15654,7 +15630,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="160" t="s">
         <v>321</v>
       </c>
       <c r="B46" s="171"/>
@@ -15674,12 +15650,12 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="166" t="s">
+      <c r="A47" s="160" t="s">
         <v>323</v>
       </c>
       <c r="B47" s="171"/>
       <c r="C47" s="265" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D47" s="265"/>
       <c r="E47" s="283" t="str">
@@ -15696,7 +15672,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="160" t="s">
         <v>324</v>
       </c>
       <c r="B48" s="171"/>
@@ -15709,7 +15685,7 @@
       <c r="G48" s="194"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="160" t="s">
         <v>326</v>
       </c>
       <c r="B49" s="171"/>
@@ -15720,7 +15696,7 @@
       <c r="G49" s="220"/>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="160" t="s">
         <v>327</v>
       </c>
       <c r="B50" s="254"/>
@@ -15733,7 +15709,7 @@
       <c r="G50" s="257"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="166" t="s">
+      <c r="A51" s="160" t="s">
         <v>329</v>
       </c>
       <c r="B51" s="171"/>
@@ -15744,7 +15720,7 @@
       <c r="G51" s="268"/>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="166" t="s">
+      <c r="A52" s="160" t="s">
         <v>330</v>
       </c>
       <c r="B52" s="171"/>
@@ -15759,7 +15735,7 @@
       <c r="G52" s="194"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="160" t="s">
         <v>331</v>
       </c>
       <c r="B53" s="171"/>
@@ -15770,7 +15746,7 @@
       <c r="G53" s="195"/>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="160" t="s">
         <v>332</v>
       </c>
       <c r="B54" s="171"/>
@@ -15789,7 +15765,7 @@
       <c r="G54" s="241"/>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="166" t="s">
+      <c r="A55" s="160" t="s">
         <v>334</v>
       </c>
       <c r="B55" s="171"/>
@@ -15808,12 +15784,12 @@
       <c r="G55" s="275"/>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="160" t="s">
         <v>336</v>
       </c>
       <c r="B56" s="171"/>
       <c r="C56" s="172" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D56" s="172"/>
       <c r="E56" s="241" t="str">
@@ -15827,7 +15803,7 @@
       <c r="G56" s="241"/>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="166" t="s">
+      <c r="A57" s="160" t="s">
         <v>337</v>
       </c>
       <c r="B57" s="171"/>
@@ -15846,7 +15822,7 @@
       <c r="G57" s="275"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="160" t="s">
         <v>339</v>
       </c>
       <c r="B58" s="171"/>
@@ -15857,7 +15833,7 @@
       <c r="G58" s="285"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="166" t="s">
+      <c r="A59" s="160" t="s">
         <v>340</v>
       </c>
       <c r="B59" s="171"/>
@@ -15870,7 +15846,7 @@
       <c r="G59" s="285"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="166" t="s">
+      <c r="A60" s="160" t="s">
         <v>342</v>
       </c>
       <c r="B60" s="171"/>
@@ -15883,7 +15859,7 @@
       <c r="G60" s="289"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="166" t="s">
+      <c r="A61" s="160" t="s">
         <v>344</v>
       </c>
       <c r="B61" s="171"/>
@@ -15894,7 +15870,7 @@
       <c r="G61" s="220"/>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="160" t="s">
         <v>345</v>
       </c>
       <c r="B62" s="254"/>
@@ -15907,7 +15883,7 @@
       <c r="G62" s="257"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="166" t="s">
+      <c r="A63" s="160" t="s">
         <v>347</v>
       </c>
       <c r="B63" s="171"/>
@@ -15918,7 +15894,7 @@
       <c r="G63" s="268"/>
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="166" t="s">
+      <c r="A64" s="160" t="s">
         <v>348</v>
       </c>
       <c r="B64" s="171"/>
@@ -15933,7 +15909,7 @@
       <c r="G64" s="195"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="166" t="s">
+      <c r="A65" s="160" t="s">
         <v>349</v>
       </c>
       <c r="B65" s="171"/>
@@ -15944,7 +15920,7 @@
       <c r="G65" s="195"/>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="166" t="s">
+      <c r="A66" s="160" t="s">
         <v>350</v>
       </c>
       <c r="B66" s="171"/>
@@ -15963,12 +15939,12 @@
       <c r="G66" s="275"/>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="160" t="s">
         <v>352</v>
       </c>
       <c r="B67" s="171"/>
       <c r="C67" s="172" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D67" s="172"/>
       <c r="E67" s="241" t="str">
@@ -15982,12 +15958,12 @@
       <c r="G67" s="275"/>
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="160" t="s">
         <v>353</v>
       </c>
       <c r="B68" s="171"/>
       <c r="C68" s="172" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D68" s="172"/>
       <c r="E68" s="241" t="str">
@@ -16001,12 +15977,12 @@
       <c r="G68" s="275"/>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="166" t="s">
+      <c r="A69" s="160" t="s">
         <v>354</v>
       </c>
       <c r="B69" s="171"/>
       <c r="C69" s="172" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D69" s="172"/>
       <c r="E69" s="241" t="str">
@@ -16020,7 +15996,7 @@
       <c r="G69" s="275"/>
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="160" t="s">
         <v>355</v>
       </c>
       <c r="B70" s="171"/>
@@ -16039,7 +16015,7 @@
       <c r="G70" s="275"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="166" t="s">
+      <c r="A71" s="160" t="s">
         <v>357</v>
       </c>
       <c r="B71" s="171"/>
@@ -16050,7 +16026,7 @@
       <c r="G71" s="220"/>
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="166" t="s">
+      <c r="A72" s="160" t="s">
         <v>358</v>
       </c>
       <c r="B72" s="254"/>
@@ -16063,7 +16039,7 @@
       <c r="G72" s="257"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="160" t="s">
         <v>360</v>
       </c>
       <c r="B73" s="171"/>
@@ -16074,7 +16050,7 @@
       <c r="G73" s="278"/>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="166" t="s">
+      <c r="A74" s="160" t="s">
         <v>361</v>
       </c>
       <c r="B74" s="171"/>
@@ -16090,7 +16066,7 @@
       <c r="G74" s="290"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="166" t="s">
+      <c r="A75" s="160" t="s">
         <v>362</v>
       </c>
       <c r="B75" s="245"/>
@@ -16101,12 +16077,12 @@
       <c r="G75" s="291"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="166" t="s">
+      <c r="A76" s="160" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="166" t="s">
+      <c r="A77" s="160" t="s">
         <v>364</v>
       </c>
       <c r="B77" s="292" t="str">
@@ -16120,182 +16096,182 @@
       <c r="G77" s="292"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="160" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="166" t="s">
+      <c r="A79" s="160" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="166" t="s">
+      <c r="A80" s="160" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="166" t="s">
+      <c r="A81" s="160" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="166" t="s">
+      <c r="A82" s="160" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="166" t="s">
+      <c r="A83" s="160" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="160" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="160" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="166" t="s">
+      <c r="A86" s="160" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="166" t="s">
+      <c r="A87" s="160" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="166" t="s">
+      <c r="A88" s="160" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="160" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="160" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="166" t="s">
+      <c r="A91" s="160" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="166" t="s">
+      <c r="A92" s="160" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="166" t="s">
+      <c r="A93" s="160" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="166" t="s">
+      <c r="A94" s="160" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="166" t="s">
+      <c r="A95" s="160" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="166" t="s">
+      <c r="A96" s="160" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="166" t="s">
+      <c r="A97" s="160" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="166" t="s">
+      <c r="A98" s="160" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="166" t="s">
+      <c r="A99" s="160" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="160" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="166" t="s">
+      <c r="A101" s="160" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="166" t="s">
+      <c r="A102" s="160" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="166" t="s">
+      <c r="A103" s="160" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="166" t="s">
+      <c r="A104" s="160" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="166" t="s">
+      <c r="A105" s="160" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="166" t="s">
+      <c r="A106" s="160" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="166" t="s">
+      <c r="A107" s="160" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="166" t="s">
+      <c r="A108" s="160" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="166" t="s">
+      <c r="A109" s="160" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="166" t="s">
+      <c r="A110" s="160" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="160" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="166" t="s">
+      <c r="A112" s="160" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="166" t="s">
+      <c r="A113" s="160" t="s">
         <v>400</v>
       </c>
     </row>
@@ -16753,7 +16729,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -17182,7 +17158,7 @@
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="108" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -17751,7 +17727,7 @@
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -17789,7 +17765,7 @@
       </c>
       <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -18496,7 +18472,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -18511,7 +18487,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
     </row>
@@ -18520,7 +18496,7 @@
         <v>493</v>
       </c>
       <c r="B2" s="368" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="368"/>
       <c r="D2" s="368"/>
@@ -18558,7 +18534,7 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>494</v>
       </c>
       <c r="B3" s="370" t="s">
@@ -18646,7 +18622,7 @@
       <c r="F10" s="374"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="160" t="s">
         <v>504</v>
       </c>
       <c r="B11" s="375" t="s">
@@ -18658,7 +18634,7 @@
       <c r="F11" s="375"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="160" t="s">
         <v>506</v>
       </c>
       <c r="B12" s="376" t="n">
@@ -18673,7 +18649,7 @@
       <c r="F12" s="377"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="160" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="376" t="n">
@@ -18688,7 +18664,7 @@
       <c r="F13" s="377"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="160" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="376" t="n">
@@ -18703,7 +18679,7 @@
       <c r="F14" s="377"/>
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="160" t="s">
         <v>509</v>
       </c>
       <c r="B15" s="378"/>
@@ -18721,7 +18697,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="160" t="s">
         <v>514</v>
       </c>
       <c r="B16" s="381"/>
@@ -18735,11 +18711,11 @@
         <v>59</v>
       </c>
       <c r="F16" s="120" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="160" t="s">
         <v>515</v>
       </c>
       <c r="B17" s="376" t="n">
@@ -18763,7 +18739,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="160" t="s">
         <v>516</v>
       </c>
       <c r="B18" s="376" t="n">
@@ -18787,7 +18763,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="160" t="s">
         <v>517</v>
       </c>
       <c r="B19" s="376" t="n">
@@ -18811,7 +18787,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="160" t="s">
         <v>518</v>
       </c>
       <c r="B20" s="383" t="s">
@@ -18823,7 +18799,7 @@
       <c r="F20" s="384"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="166" t="s">
+      <c r="A21" s="160" t="s">
         <v>520</v>
       </c>
       <c r="B21" s="374" t="str">
@@ -18836,7 +18812,7 @@
       <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="160" t="s">
         <v>521</v>
       </c>
       <c r="B22" s="374"/>
@@ -18846,7 +18822,7 @@
       <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="160" t="s">
         <v>522</v>
       </c>
       <c r="B23" s="374"/>
@@ -18856,7 +18832,7 @@
       <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="160" t="s">
         <v>523</v>
       </c>
       <c r="B24" s="374"/>
@@ -18866,7 +18842,7 @@
       <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="160" t="s">
         <v>524</v>
       </c>
       <c r="B25" s="374"/>
@@ -18876,7 +18852,7 @@
       <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="160" t="s">
         <v>525</v>
       </c>
       <c r="B26" s="374"/>
@@ -18886,7 +18862,7 @@
       <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="160" t="s">
         <v>526</v>
       </c>
       <c r="B27" s="375" t="s">
@@ -18898,7 +18874,7 @@
       <c r="F27" s="375"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="160" t="s">
         <v>527</v>
       </c>
       <c r="B28" s="376" t="n">
@@ -18913,7 +18889,7 @@
       <c r="F28" s="377"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="160" t="s">
         <v>528</v>
       </c>
       <c r="B29" s="376" t="n">
@@ -18928,7 +18904,7 @@
       <c r="F29" s="377"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="160" t="s">
         <v>529</v>
       </c>
       <c r="B30" s="376" t="n">
@@ -18943,7 +18919,7 @@
       <c r="F30" s="377"/>
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="160" t="s">
         <v>530</v>
       </c>
       <c r="B31" s="385"/>
@@ -18961,7 +18937,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="160" t="s">
         <v>531</v>
       </c>
       <c r="B32" s="385"/>
@@ -18975,11 +18951,11 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="160" t="s">
         <v>532</v>
       </c>
       <c r="B33" s="376" t="n">
@@ -19003,7 +18979,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="160" t="s">
         <v>533</v>
       </c>
       <c r="B34" s="376" t="n">
@@ -19027,7 +19003,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="160" t="s">
         <v>534</v>
       </c>
       <c r="B35" s="376" t="n">
@@ -19051,7 +19027,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="160" t="s">
         <v>535</v>
       </c>
       <c r="B36" s="383" t="s">
@@ -19063,7 +19039,7 @@
       <c r="F36" s="384"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="160" t="s">
         <v>537</v>
       </c>
       <c r="B37" s="374" t="str">
@@ -19076,7 +19052,7 @@
       <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="160" t="s">
         <v>538</v>
       </c>
       <c r="B38" s="374"/>
@@ -19086,7 +19062,7 @@
       <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="160" t="s">
         <v>539</v>
       </c>
       <c r="B39" s="374"/>
@@ -19096,7 +19072,7 @@
       <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="166" t="s">
+      <c r="A40" s="160" t="s">
         <v>540</v>
       </c>
       <c r="B40" s="374"/>
@@ -19106,7 +19082,7 @@
       <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="160" t="s">
         <v>541</v>
       </c>
       <c r="B41" s="374"/>
@@ -19116,7 +19092,7 @@
       <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="160" t="s">
         <v>542</v>
       </c>
       <c r="B42" s="374"/>
@@ -19126,7 +19102,7 @@
       <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="160" t="s">
         <v>543</v>
       </c>
       <c r="B43" s="375" t="s">
@@ -19138,7 +19114,7 @@
       <c r="F43" s="375"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="160" t="s">
         <v>544</v>
       </c>
       <c r="B44" s="376" t="n">
@@ -19153,7 +19129,7 @@
       <c r="F44" s="377"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="160" t="s">
         <v>545</v>
       </c>
       <c r="B45" s="376" t="n">
@@ -19168,7 +19144,7 @@
       <c r="F45" s="377"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="160" t="s">
         <v>546</v>
       </c>
       <c r="B46" s="376" t="n">
@@ -19183,7 +19159,7 @@
       <c r="F46" s="377"/>
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="166" t="s">
+      <c r="A47" s="160" t="s">
         <v>547</v>
       </c>
       <c r="B47" s="385"/>
@@ -19201,7 +19177,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="160" t="s">
         <v>548</v>
       </c>
       <c r="B48" s="385"/>
@@ -19215,11 +19191,11 @@
         <v>59</v>
       </c>
       <c r="F48" s="120" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="160" t="s">
         <v>549</v>
       </c>
       <c r="B49" s="376" t="n">
@@ -19243,7 +19219,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="160" t="s">
         <v>550</v>
       </c>
       <c r="B50" s="376" t="n">
@@ -19267,7 +19243,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="166" t="s">
+      <c r="A51" s="160" t="s">
         <v>551</v>
       </c>
       <c r="B51" s="376" t="n">
@@ -19479,7 +19455,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -19494,7 +19470,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
     </row>
@@ -19586,7 +19562,7 @@
       <c r="F9" s="374"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="160" t="s">
         <v>571</v>
       </c>
       <c r="B10" s="388" t="s">
@@ -19598,7 +19574,7 @@
       <c r="F10" s="388"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="160" t="s">
         <v>572</v>
       </c>
       <c r="B11" s="376" t="n">
@@ -19613,7 +19589,7 @@
       <c r="F11" s="389"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="160" t="s">
         <v>573</v>
       </c>
       <c r="B12" s="376" t="n">
@@ -19628,7 +19604,7 @@
       <c r="F12" s="389"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="160" t="s">
         <v>574</v>
       </c>
       <c r="B13" s="376" t="n">
@@ -19643,7 +19619,7 @@
       <c r="F13" s="389"/>
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="160" t="s">
         <v>575</v>
       </c>
       <c r="B14" s="385"/>
@@ -19661,7 +19637,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="160" t="s">
         <v>576</v>
       </c>
       <c r="B15" s="385"/>
@@ -19675,11 +19651,11 @@
         <v>59</v>
       </c>
       <c r="F15" s="120" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="160" t="s">
         <v>577</v>
       </c>
       <c r="B16" s="376" t="n">
@@ -19703,7 +19679,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="160" t="s">
         <v>578</v>
       </c>
       <c r="B17" s="376" t="n">
@@ -19727,7 +19703,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="160" t="s">
         <v>579</v>
       </c>
       <c r="B18" s="376" t="n">
@@ -19751,7 +19727,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="160" t="s">
         <v>580</v>
       </c>
       <c r="B19" s="383" t="s">
@@ -19763,7 +19739,7 @@
       <c r="F19" s="384"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="160" t="s">
         <v>582</v>
       </c>
       <c r="B20" s="374" t="str">
@@ -19776,7 +19752,7 @@
       <c r="F20" s="374"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="166" t="s">
+      <c r="A21" s="160" t="s">
         <v>583</v>
       </c>
       <c r="B21" s="374"/>
@@ -19786,7 +19762,7 @@
       <c r="F21" s="374"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="160" t="s">
         <v>584</v>
       </c>
       <c r="B22" s="374"/>
@@ -19796,7 +19772,7 @@
       <c r="F22" s="374"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="160" t="s">
         <v>585</v>
       </c>
       <c r="B23" s="374"/>
@@ -19806,7 +19782,7 @@
       <c r="F23" s="374"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="160" t="s">
         <v>586</v>
       </c>
       <c r="B24" s="374"/>
@@ -19816,7 +19792,7 @@
       <c r="F24" s="374"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="160" t="s">
         <v>587</v>
       </c>
       <c r="B25" s="374"/>
@@ -19826,7 +19802,7 @@
       <c r="F25" s="374"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="160" t="s">
         <v>588</v>
       </c>
       <c r="B26" s="374"/>
@@ -19836,7 +19812,7 @@
       <c r="F26" s="374"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="160" t="s">
         <v>589</v>
       </c>
       <c r="B27" s="388" t="s">
@@ -19848,7 +19824,7 @@
       <c r="F27" s="388"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="160" t="s">
         <v>590</v>
       </c>
       <c r="B28" s="376" t="n">
@@ -19863,7 +19839,7 @@
       <c r="F28" s="389"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="160" t="s">
         <v>591</v>
       </c>
       <c r="B29" s="376" t="n">
@@ -19878,7 +19854,7 @@
       <c r="F29" s="389"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="160" t="s">
         <v>592</v>
       </c>
       <c r="B30" s="376" t="n">
@@ -19893,7 +19869,7 @@
       <c r="F30" s="389"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="160" t="s">
         <v>593</v>
       </c>
       <c r="B31" s="385"/>
@@ -19911,7 +19887,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="160" t="s">
         <v>594</v>
       </c>
       <c r="B32" s="385"/>
@@ -19925,11 +19901,11 @@
         <v>59</v>
       </c>
       <c r="F32" s="120" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="160" t="s">
         <v>595</v>
       </c>
       <c r="B33" s="376" t="n">
@@ -19953,7 +19929,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="160" t="s">
         <v>596</v>
       </c>
       <c r="B34" s="376" t="n">
@@ -19977,7 +19953,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="160" t="s">
         <v>597</v>
       </c>
       <c r="B35" s="376" t="n">
@@ -20001,7 +19977,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="160" t="s">
         <v>598</v>
       </c>
       <c r="B36" s="390" t="s">
@@ -20013,7 +19989,7 @@
       <c r="F36" s="390"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="160" t="s">
         <v>600</v>
       </c>
       <c r="B37" s="374" t="str">
@@ -20026,7 +20002,7 @@
       <c r="F37" s="374"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="160" t="s">
         <v>601</v>
       </c>
       <c r="B38" s="374"/>
@@ -20036,7 +20012,7 @@
       <c r="F38" s="374"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="160" t="s">
         <v>602</v>
       </c>
       <c r="B39" s="374"/>
@@ -20046,7 +20022,7 @@
       <c r="F39" s="374"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="166" t="s">
+      <c r="A40" s="160" t="s">
         <v>603</v>
       </c>
       <c r="B40" s="374"/>
@@ -20056,7 +20032,7 @@
       <c r="F40" s="374"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="160" t="s">
         <v>604</v>
       </c>
       <c r="B41" s="374"/>
@@ -20066,7 +20042,7 @@
       <c r="F41" s="374"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="160" t="s">
         <v>605</v>
       </c>
       <c r="B42" s="374"/>
@@ -20076,7 +20052,7 @@
       <c r="F42" s="374"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="160" t="s">
         <v>606</v>
       </c>
       <c r="B43" s="374"/>
@@ -20086,7 +20062,7 @@
       <c r="F43" s="374"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="160" t="s">
         <v>607</v>
       </c>
       <c r="B44" s="374"/>
@@ -20096,7 +20072,7 @@
       <c r="F44" s="374"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="160" t="s">
         <v>608</v>
       </c>
       <c r="B45" s="374"/>
@@ -20106,7 +20082,7 @@
       <c r="F45" s="374"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="166"/>
+      <c r="A46" s="160"/>
       <c r="B46" s="374"/>
       <c r="C46" s="374"/>
       <c r="D46" s="374"/>
@@ -20114,7 +20090,7 @@
       <c r="F46" s="374"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="166"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="374"/>
       <c r="C47" s="374"/>
       <c r="D47" s="374"/>
@@ -20122,7 +20098,7 @@
       <c r="F47" s="374"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="166"/>
+      <c r="A48" s="160"/>
       <c r="B48" s="374"/>
       <c r="C48" s="374"/>
       <c r="D48" s="374"/>
@@ -20130,7 +20106,7 @@
       <c r="F48" s="374"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="166"/>
+      <c r="A49" s="160"/>
       <c r="B49" s="374"/>
       <c r="C49" s="374"/>
       <c r="D49" s="374"/>
@@ -20138,7 +20114,7 @@
       <c r="F49" s="374"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="166"/>
+      <c r="A50" s="160"/>
       <c r="B50" s="374"/>
       <c r="C50" s="374"/>
       <c r="D50" s="374"/>
@@ -20146,7 +20122,7 @@
       <c r="F50" s="374"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="166"/>
+      <c r="A51" s="160"/>
       <c r="B51" s="374"/>
       <c r="C51" s="374"/>
       <c r="D51" s="374"/>
@@ -20163,7 +20139,7 @@
       <c r="F52" s="373"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="166"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="158"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
@@ -20171,7 +20147,7 @@
       <c r="F53" s="391"/>
     </row>
     <row r="54" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="166"/>
+      <c r="A54" s="160"/>
       <c r="B54" s="333" t="s">
         <v>610</v>
       </c>
@@ -20181,7 +20157,7 @@
       <c r="F54" s="333"/>
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="166"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="392" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
@@ -20192,7 +20168,7 @@
       <c r="F55" s="392"/>
     </row>
     <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="166"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="392"/>
       <c r="C56" s="392"/>
       <c r="D56" s="392"/>
@@ -20200,7 +20176,7 @@
       <c r="F56" s="392"/>
     </row>
     <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="166"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="392"/>
       <c r="C57" s="392"/>
       <c r="D57" s="392"/>
@@ -20334,7 +20310,7 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -20350,12 +20326,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>611</v>
       </c>
       <c r="B2" s="393"/>
@@ -21021,16 +20997,16 @@
       <c r="B39" s="408"/>
       <c r="C39" s="409"/>
       <c r="D39" s="410" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E39" s="411" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F39" s="411" t="s">
         <v>657</v>
       </c>
       <c r="G39" s="411" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H39" s="410" t="s">
         <v>658</v>
@@ -21039,16 +21015,16 @@
         <v>659</v>
       </c>
       <c r="J39" s="411" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K39" s="411" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L39" s="411" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M39" s="411" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="761">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2875,169 +2875,55 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">Kuukausitason erittely ympäristöstä olevasta energiasta otetun energian määrästä</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Sähköenergiantuotto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lämpöenergiantuotto</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Energiförbrukning</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyödynnetty osuus</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">Månad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh/kk</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :sahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Muu sähkö</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lämpö-pumppu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muu lämpö</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">Januari</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Februari</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muusahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">Maj</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
   </si>
   <si>
-    <t xml:space="preserve">Juni</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">Juli</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Augusti</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :sahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Oktober</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">December</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</t>
   </si>
   <si>
-    <t xml:space="preserve">Totalt</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muusahko]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7.5"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Energiankulutukseen merkitään se osuus rakennuksen energiankulutuksesta, jonka määrää voidaan vähentää ympäristössä olevasta energiasta otetulla energialla.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
@@ -3508,9 +3394,9 @@
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="[$-409]m/d/yyyy"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="[$-40B]0"/>
     <numFmt numFmtId="170" formatCode="[$-40B]0.00"/>
     <numFmt numFmtId="171" formatCode="[$-40B]General"/>
@@ -3518,7 +3404,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="50">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3868,60 +3754,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="7.5"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -4232,7 +4064,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="410">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4349,7 +4181,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4377,7 +4209,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4501,11 +4333,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4553,7 +4385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4613,11 +4445,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4669,7 +4501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4677,7 +4509,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4685,7 +4517,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4777,11 +4609,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4789,7 +4621,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4797,31 +4629,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4833,7 +4665,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4877,7 +4709,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4893,7 +4725,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4933,11 +4765,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4965,7 +4797,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5005,11 +4837,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5041,7 +4873,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5077,306 +4909,306 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -5401,7 +5233,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5409,7 +5241,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5441,7 +5273,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5497,7 +5329,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5505,7 +5337,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5601,7 +5433,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5621,7 +5453,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5629,7 +5461,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5649,7 +5481,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5705,7 +5537,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5737,7 +5569,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5745,15 +5577,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5769,7 +5601,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5797,7 +5629,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5809,7 +5641,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5821,135 +5653,55 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8333,9 +8085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>244440</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8349,7 +8101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="740160" cy="196920"/>
+          <a:ext cx="739800" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8370,9 +8122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>129600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>244440</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8386,7 +8138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1083600" cy="196920"/>
+          <a:ext cx="1083240" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8407,9 +8159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>244440</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8423,7 +8175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1390320" cy="196920"/>
+          <a:ext cx="1389960" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8444,9 +8196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>327240</xdr:colOff>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>244440</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8460,7 +8212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1714320" cy="196920"/>
+          <a:ext cx="1713960" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8481,9 +8233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8497,7 +8249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2021400" cy="209880"/>
+          <a:ext cx="2021040" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8518,9 +8270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244440</xdr:rowOff>
+      <xdr:rowOff>244080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8534,7 +8286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2357640" cy="196920"/>
+          <a:ext cx="2357280" cy="196560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8555,9 +8307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>245520</xdr:rowOff>
+      <xdr:rowOff>245160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8567,7 +8319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2670480" cy="195840"/>
+          <a:ext cx="2670120" cy="195480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8936,9 +8688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8948,7 +8700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6969600" cy="10491120"/>
+          <a:ext cx="6969240" cy="10490760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9077,7 +8829,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
     </sheetView>
   </sheetViews>
@@ -18105,12 +17857,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25 C26">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
-      <formula>LEFT(C22,1)="*"</formula>
+      <formula>LEFT(C21,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26 C27:E27">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
-      <formula>LEFT(C23,1)="*"</formula>
+      <formula>LEFT(C22,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7 F10">
@@ -20344,8 +20096,8 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20957,1369 +20709,902 @@
       <c r="A36" s="369" t="s">
         <v>650</v>
       </c>
-      <c r="B36" s="398"/>
-      <c r="C36" s="399" t="s">
-        <v>651</v>
-      </c>
-      <c r="D36" s="400"/>
-      <c r="E36" s="400"/>
-      <c r="F36" s="400"/>
-      <c r="G36" s="400"/>
-      <c r="H36" s="400"/>
-      <c r="I36" s="400"/>
-      <c r="J36" s="400"/>
-      <c r="K36" s="400"/>
-      <c r="L36" s="400"/>
-      <c r="M36" s="401"/>
+      <c r="B36" s="360"/>
+      <c r="C36" s="397"/>
+      <c r="D36" s="397"/>
+      <c r="E36" s="397"/>
+      <c r="F36" s="397"/>
+      <c r="G36" s="397"/>
+      <c r="H36" s="397"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="397"/>
+      <c r="M36" s="397"/>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="369" t="s">
-        <v>652</v>
-      </c>
-      <c r="B37" s="402"/>
-      <c r="C37" s="403"/>
-      <c r="D37" s="404" t="s">
-        <v>653</v>
-      </c>
-      <c r="E37" s="404"/>
-      <c r="F37" s="404"/>
-      <c r="G37" s="405" t="s">
-        <v>654</v>
-      </c>
-      <c r="H37" s="405"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="405" t="s">
-        <v>655</v>
-      </c>
-      <c r="K37" s="405"/>
-      <c r="L37" s="405" t="s">
-        <v>656</v>
-      </c>
-      <c r="M37" s="405"/>
+        <v>651</v>
+      </c>
+      <c r="B37" s="360"/>
+      <c r="C37" s="397"/>
+      <c r="D37" s="397"/>
+      <c r="E37" s="397"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="397"/>
+      <c r="H37" s="397"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="397"/>
+      <c r="M37" s="397"/>
     </row>
     <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="369" t="s">
-        <v>657</v>
-      </c>
-      <c r="B38" s="406"/>
-      <c r="C38" s="407" t="s">
-        <v>658</v>
-      </c>
-      <c r="D38" s="408" t="s">
-        <v>659</v>
-      </c>
-      <c r="E38" s="408"/>
-      <c r="F38" s="408"/>
-      <c r="G38" s="409" t="s">
-        <v>659</v>
-      </c>
-      <c r="H38" s="409"/>
-      <c r="I38" s="409"/>
-      <c r="J38" s="409" t="s">
-        <v>659</v>
-      </c>
-      <c r="K38" s="409"/>
-      <c r="L38" s="409" t="s">
-        <v>659</v>
-      </c>
-      <c r="M38" s="409"/>
+        <v>652</v>
+      </c>
+      <c r="B38" s="360"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="397"/>
+      <c r="E38" s="397"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="397"/>
+      <c r="H38" s="397"/>
+      <c r="I38" s="397"/>
+      <c r="J38" s="397"/>
+      <c r="K38" s="397"/>
+      <c r="L38" s="397"/>
+      <c r="M38" s="397"/>
     </row>
     <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="369" t="s">
-        <v>660</v>
-      </c>
-      <c r="B39" s="410"/>
-      <c r="C39" s="411"/>
-      <c r="D39" s="412" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="413" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="413" t="s">
-        <v>661</v>
-      </c>
-      <c r="G39" s="413" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="412" t="s">
-        <v>662</v>
-      </c>
-      <c r="I39" s="413" t="s">
-        <v>663</v>
-      </c>
-      <c r="J39" s="413" t="s">
-        <v>310</v>
-      </c>
-      <c r="K39" s="413" t="s">
-        <v>311</v>
-      </c>
-      <c r="L39" s="413" t="s">
-        <v>310</v>
-      </c>
-      <c r="M39" s="413" t="s">
-        <v>311</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="B39" s="360"/>
+      <c r="C39" s="397"/>
+      <c r="D39" s="397"/>
+      <c r="E39" s="397"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="397"/>
+      <c r="H39" s="397"/>
+      <c r="I39" s="397"/>
+      <c r="J39" s="397"/>
+      <c r="K39" s="397"/>
+      <c r="L39" s="397"/>
+      <c r="M39" s="397"/>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="369" t="s">
-        <v>664</v>
-      </c>
-      <c r="B40" s="414"/>
-      <c r="C40" s="415" t="s">
-        <v>665</v>
-      </c>
-      <c r="D40" s="416" t="str">
-        <f aca="false">A11</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E40" s="416" t="str">
-        <f aca="false">A12</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F40" s="416" t="str">
-        <f aca="false">A13</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :muusahko]</v>
-      </c>
-      <c r="G40" s="416" t="str">
-        <f aca="false">A14</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H40" s="416" t="str">
-        <f aca="false">A15</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I40" s="416" t="str">
-        <f aca="false">A16</f>
-        <v>[:tulokset :kuukausierittely 0 :tuotto :muulampo]</v>
-      </c>
-      <c r="J40" s="416" t="str">
-        <f aca="false">A17</f>
-        <v>[:tulokset :kuukausierittely 0 :kulutus :sahko]</v>
-      </c>
-      <c r="K40" s="416" t="str">
-        <f aca="false">A18</f>
-        <v>[:tulokset :kuukausierittely 0 :kulutus :lampo]</v>
-      </c>
-      <c r="L40" s="416" t="str">
-        <f aca="false">A19</f>
-        <v>[:tulokset :kuukausierittely 0 :hyoty :sahko]</v>
-      </c>
-      <c r="M40" s="416" t="str">
-        <f aca="false">A20</f>
-        <v>[:tulokset :kuukausierittely 0 :hyoty :lampo]</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="B40" s="360"/>
+      <c r="C40" s="397"/>
+      <c r="D40" s="397"/>
+      <c r="E40" s="397"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="397"/>
+      <c r="H40" s="397"/>
+      <c r="I40" s="397"/>
+      <c r="J40" s="397"/>
+      <c r="K40" s="397"/>
+      <c r="L40" s="397"/>
+      <c r="M40" s="397"/>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="369" t="s">
-        <v>666</v>
-      </c>
-      <c r="B41" s="414"/>
-      <c r="C41" s="415" t="s">
-        <v>667</v>
-      </c>
-      <c r="D41" s="416" t="str">
-        <f aca="false">A21</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E41" s="416" t="str">
-        <f aca="false">A22</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F41" s="416" t="str">
-        <f aca="false">A23</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :muusahko]</v>
-      </c>
-      <c r="G41" s="416" t="str">
-        <f aca="false">A24</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H41" s="416" t="str">
-        <f aca="false">A25</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I41" s="416" t="str">
-        <f aca="false">A26</f>
-        <v>[:tulokset :kuukausierittely 1 :tuotto :muulampo]</v>
-      </c>
-      <c r="J41" s="416" t="str">
-        <f aca="false">A27</f>
-        <v>[:tulokset :kuukausierittely 1 :kulutus :sahko]</v>
-      </c>
-      <c r="K41" s="416" t="str">
-        <f aca="false">A28</f>
-        <v>[:tulokset :kuukausierittely 1 :kulutus :lampo]</v>
-      </c>
-      <c r="L41" s="416" t="str">
-        <f aca="false">A29</f>
-        <v>[:tulokset :kuukausierittely 1 :hyoty :sahko]</v>
-      </c>
-      <c r="M41" s="416" t="str">
-        <f aca="false">A30</f>
-        <v>[:tulokset :kuukausierittely 1 :hyoty :lampo]</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="B41" s="360"/>
+      <c r="C41" s="397"/>
+      <c r="D41" s="397"/>
+      <c r="E41" s="397"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="397"/>
+      <c r="H41" s="397"/>
+      <c r="I41" s="397"/>
+      <c r="J41" s="397"/>
+      <c r="K41" s="397"/>
+      <c r="L41" s="397"/>
+      <c r="M41" s="397"/>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="369" t="s">
-        <v>668</v>
-      </c>
-      <c r="B42" s="414"/>
-      <c r="C42" s="415" t="s">
-        <v>669</v>
-      </c>
-      <c r="D42" s="416" t="str">
-        <f aca="false">A31</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E42" s="416" t="str">
-        <f aca="false">A32</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F42" s="416" t="str">
-        <f aca="false">A33</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :muusahko]</v>
-      </c>
-      <c r="G42" s="416" t="str">
-        <f aca="false">A34</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H42" s="416" t="str">
-        <f aca="false">A35</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I42" s="416" t="str">
-        <f aca="false">A36</f>
-        <v>[:tulokset :kuukausierittely 2 :tuotto :muulampo]</v>
-      </c>
-      <c r="J42" s="416" t="str">
-        <f aca="false">A37</f>
-        <v>[:tulokset :kuukausierittely 2 :kulutus :sahko]</v>
-      </c>
-      <c r="K42" s="416" t="str">
-        <f aca="false">A38</f>
-        <v>[:tulokset :kuukausierittely 2 :kulutus :lampo]</v>
-      </c>
-      <c r="L42" s="416" t="str">
-        <f aca="false">A39</f>
-        <v>[:tulokset :kuukausierittely 2 :hyoty :sahko]</v>
-      </c>
-      <c r="M42" s="416" t="str">
-        <f aca="false">A40</f>
-        <v>[:tulokset :kuukausierittely 2 :hyoty :lampo]</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="B42" s="360"/>
+      <c r="C42" s="397"/>
+      <c r="D42" s="397"/>
+      <c r="E42" s="397"/>
+      <c r="F42" s="397"/>
+      <c r="G42" s="397"/>
+      <c r="H42" s="397"/>
+      <c r="I42" s="397"/>
+      <c r="J42" s="397"/>
+      <c r="K42" s="397"/>
+      <c r="L42" s="397"/>
+      <c r="M42" s="397"/>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="369" t="s">
-        <v>670</v>
-      </c>
-      <c r="B43" s="414"/>
-      <c r="C43" s="415" t="s">
-        <v>671</v>
-      </c>
-      <c r="D43" s="416" t="str">
-        <f aca="false">A41</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E43" s="416" t="str">
-        <f aca="false">A42</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F43" s="416" t="str">
-        <f aca="false">A43</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :muusahko]</v>
-      </c>
-      <c r="G43" s="416" t="str">
-        <f aca="false">A44</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H43" s="416" t="str">
-        <f aca="false">A45</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I43" s="416" t="str">
-        <f aca="false">A46</f>
-        <v>[:tulokset :kuukausierittely 3 :tuotto :muulampo]</v>
-      </c>
-      <c r="J43" s="416" t="str">
-        <f aca="false">A47</f>
-        <v>[:tulokset :kuukausierittely 3 :kulutus :sahko]</v>
-      </c>
-      <c r="K43" s="416" t="str">
-        <f aca="false">A48</f>
-        <v>[:tulokset :kuukausierittely 3 :kulutus :lampo]</v>
-      </c>
-      <c r="L43" s="416" t="str">
-        <f aca="false">A49</f>
-        <v>[:tulokset :kuukausierittely 3 :hyoty :sahko]</v>
-      </c>
-      <c r="M43" s="416" t="str">
-        <f aca="false">A50</f>
-        <v>[:tulokset :kuukausierittely 3 :hyoty :lampo]</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="B43" s="360"/>
+      <c r="C43" s="397"/>
+      <c r="D43" s="397"/>
+      <c r="E43" s="397"/>
+      <c r="F43" s="397"/>
+      <c r="G43" s="397"/>
+      <c r="H43" s="397"/>
+      <c r="I43" s="397"/>
+      <c r="J43" s="397"/>
+      <c r="K43" s="397"/>
+      <c r="L43" s="397"/>
+      <c r="M43" s="397"/>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="369" t="s">
-        <v>672</v>
-      </c>
-      <c r="B44" s="414"/>
-      <c r="C44" s="415" t="s">
-        <v>673</v>
-      </c>
-      <c r="D44" s="416" t="str">
-        <f aca="false">A51</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E44" s="416" t="str">
-        <f aca="false">A52</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F44" s="416" t="str">
-        <f aca="false">A53</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :muusahko]</v>
-      </c>
-      <c r="G44" s="416" t="str">
-        <f aca="false">A54</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H44" s="416" t="str">
-        <f aca="false">A55</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I44" s="416" t="str">
-        <f aca="false">A56</f>
-        <v>[:tulokset :kuukausierittely 4 :tuotto :muulampo]</v>
-      </c>
-      <c r="J44" s="416" t="str">
-        <f aca="false">A57</f>
-        <v>[:tulokset :kuukausierittely 4 :kulutus :sahko]</v>
-      </c>
-      <c r="K44" s="416" t="str">
-        <f aca="false">A58</f>
-        <v>[:tulokset :kuukausierittely 4 :kulutus :lampo]</v>
-      </c>
-      <c r="L44" s="416" t="str">
-        <f aca="false">A59</f>
-        <v>[:tulokset :kuukausierittely 4 :hyoty :sahko]</v>
-      </c>
-      <c r="M44" s="416" t="str">
-        <f aca="false">A60</f>
-        <v>[:tulokset :kuukausierittely 4 :hyoty :lampo]</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="B44" s="360"/>
+      <c r="C44" s="397"/>
+      <c r="D44" s="397"/>
+      <c r="E44" s="397"/>
+      <c r="F44" s="397"/>
+      <c r="G44" s="397"/>
+      <c r="H44" s="397"/>
+      <c r="I44" s="397"/>
+      <c r="J44" s="397"/>
+      <c r="K44" s="397"/>
+      <c r="L44" s="397"/>
+      <c r="M44" s="397"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="369" t="s">
-        <v>674</v>
-      </c>
-      <c r="B45" s="414"/>
-      <c r="C45" s="415" t="s">
-        <v>675</v>
-      </c>
-      <c r="D45" s="416" t="str">
-        <f aca="false">A61</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E45" s="416" t="str">
-        <f aca="false">A62</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F45" s="416" t="str">
-        <f aca="false">A63</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :muusahko]</v>
-      </c>
-      <c r="G45" s="416" t="str">
-        <f aca="false">A64</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H45" s="416" t="str">
-        <f aca="false">A65</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I45" s="416" t="str">
-        <f aca="false">A66</f>
-        <v>[:tulokset :kuukausierittely 5 :tuotto :muulampo]</v>
-      </c>
-      <c r="J45" s="416" t="str">
-        <f aca="false">A67</f>
-        <v>[:tulokset :kuukausierittely 5 :kulutus :sahko]</v>
-      </c>
-      <c r="K45" s="416" t="str">
-        <f aca="false">A68</f>
-        <v>[:tulokset :kuukausierittely 5 :kulutus :lampo]</v>
-      </c>
-      <c r="L45" s="416" t="str">
-        <f aca="false">A69</f>
-        <v>[:tulokset :kuukausierittely 5 :hyoty :sahko]</v>
-      </c>
-      <c r="M45" s="416" t="str">
-        <f aca="false">A70</f>
-        <v>[:tulokset :kuukausierittely 5 :hyoty :lampo]</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="B45" s="360"/>
+      <c r="C45" s="397"/>
+      <c r="D45" s="397"/>
+      <c r="E45" s="397"/>
+      <c r="F45" s="397"/>
+      <c r="G45" s="397"/>
+      <c r="H45" s="397"/>
+      <c r="I45" s="397"/>
+      <c r="J45" s="397"/>
+      <c r="K45" s="397"/>
+      <c r="L45" s="397"/>
+      <c r="M45" s="397"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="369" t="s">
-        <v>676</v>
-      </c>
-      <c r="B46" s="414"/>
-      <c r="C46" s="415" t="s">
-        <v>677</v>
-      </c>
-      <c r="D46" s="416" t="str">
-        <f aca="false">A71</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E46" s="416" t="str">
-        <f aca="false">A72</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F46" s="416" t="str">
-        <f aca="false">A73</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :muusahko]</v>
-      </c>
-      <c r="G46" s="416" t="str">
-        <f aca="false">A74</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H46" s="416" t="str">
-        <f aca="false">A75</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I46" s="416" t="str">
-        <f aca="false">A76</f>
-        <v>[:tulokset :kuukausierittely 6 :tuotto :muulampo]</v>
-      </c>
-      <c r="J46" s="416" t="str">
-        <f aca="false">A77</f>
-        <v>[:tulokset :kuukausierittely 6 :kulutus :sahko]</v>
-      </c>
-      <c r="K46" s="416" t="str">
-        <f aca="false">A78</f>
-        <v>[:tulokset :kuukausierittely 6 :kulutus :lampo]</v>
-      </c>
-      <c r="L46" s="416" t="str">
-        <f aca="false">A79</f>
-        <v>[:tulokset :kuukausierittely 6 :hyoty :sahko]</v>
-      </c>
-      <c r="M46" s="416" t="str">
-        <f aca="false">A80</f>
-        <v>[:tulokset :kuukausierittely 6 :hyoty :lampo]</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="B46" s="360"/>
+      <c r="C46" s="397"/>
+      <c r="D46" s="397"/>
+      <c r="E46" s="397"/>
+      <c r="F46" s="397"/>
+      <c r="G46" s="397"/>
+      <c r="H46" s="397"/>
+      <c r="I46" s="397"/>
+      <c r="J46" s="397"/>
+      <c r="K46" s="397"/>
+      <c r="L46" s="397"/>
+      <c r="M46" s="397"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="369" t="s">
-        <v>678</v>
-      </c>
-      <c r="B47" s="414"/>
-      <c r="C47" s="415" t="s">
-        <v>679</v>
-      </c>
-      <c r="D47" s="416" t="str">
-        <f aca="false">A81</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E47" s="416" t="str">
-        <f aca="false">A82</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F47" s="416" t="str">
-        <f aca="false">A83</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :muusahko]</v>
-      </c>
-      <c r="G47" s="416" t="str">
-        <f aca="false">A84</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H47" s="416" t="str">
-        <f aca="false">A85</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I47" s="416" t="str">
-        <f aca="false">A86</f>
-        <v>[:tulokset :kuukausierittely 7 :tuotto :muulampo]</v>
-      </c>
-      <c r="J47" s="416" t="str">
-        <f aca="false">A87</f>
-        <v>[:tulokset :kuukausierittely 7 :kulutus :sahko]</v>
-      </c>
-      <c r="K47" s="416" t="str">
-        <f aca="false">A88</f>
-        <v>[:tulokset :kuukausierittely 7 :kulutus :lampo]</v>
-      </c>
-      <c r="L47" s="416" t="str">
-        <f aca="false">A89</f>
-        <v>[:tulokset :kuukausierittely 7 :hyoty :sahko]</v>
-      </c>
-      <c r="M47" s="416" t="str">
-        <f aca="false">A90</f>
-        <v>[:tulokset :kuukausierittely 7 :hyoty :lampo]</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B47" s="360"/>
+      <c r="C47" s="397"/>
+      <c r="D47" s="397"/>
+      <c r="E47" s="397"/>
+      <c r="F47" s="397"/>
+      <c r="G47" s="397"/>
+      <c r="H47" s="397"/>
+      <c r="I47" s="397"/>
+      <c r="J47" s="397"/>
+      <c r="K47" s="397"/>
+      <c r="L47" s="397"/>
+      <c r="M47" s="397"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="369" t="s">
-        <v>680</v>
-      </c>
-      <c r="B48" s="414"/>
-      <c r="C48" s="415" t="s">
-        <v>681</v>
-      </c>
-      <c r="D48" s="416" t="str">
-        <f aca="false">A91</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E48" s="416" t="str">
-        <f aca="false">A92</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F48" s="416" t="str">
-        <f aca="false">A93</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :muusahko]</v>
-      </c>
-      <c r="G48" s="416" t="str">
-        <f aca="false">A94</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H48" s="416" t="str">
-        <f aca="false">A95</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I48" s="416" t="str">
-        <f aca="false">A96</f>
-        <v>[:tulokset :kuukausierittely 8 :tuotto :muulampo]</v>
-      </c>
-      <c r="J48" s="416" t="str">
-        <f aca="false">A97</f>
-        <v>[:tulokset :kuukausierittely 8 :kulutus :sahko]</v>
-      </c>
-      <c r="K48" s="416" t="str">
-        <f aca="false">A98</f>
-        <v>[:tulokset :kuukausierittely 8 :kulutus :lampo]</v>
-      </c>
-      <c r="L48" s="416" t="str">
-        <f aca="false">A99</f>
-        <v>[:tulokset :kuukausierittely 8 :hyoty :sahko]</v>
-      </c>
-      <c r="M48" s="416" t="str">
-        <f aca="false">A100</f>
-        <v>[:tulokset :kuukausierittely 8 :hyoty :lampo]</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="B48" s="360"/>
+      <c r="C48" s="397"/>
+      <c r="D48" s="397"/>
+      <c r="E48" s="397"/>
+      <c r="F48" s="397"/>
+      <c r="G48" s="397"/>
+      <c r="H48" s="397"/>
+      <c r="I48" s="397"/>
+      <c r="J48" s="397"/>
+      <c r="K48" s="397"/>
+      <c r="L48" s="397"/>
+      <c r="M48" s="397"/>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="369" t="s">
-        <v>682</v>
-      </c>
-      <c r="B49" s="414"/>
-      <c r="C49" s="415" t="s">
-        <v>683</v>
-      </c>
-      <c r="D49" s="416" t="str">
-        <f aca="false">A101</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E49" s="416" t="str">
-        <f aca="false">A102</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F49" s="416" t="str">
-        <f aca="false">A103</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :muusahko]</v>
-      </c>
-      <c r="G49" s="416" t="str">
-        <f aca="false">A104</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H49" s="416" t="str">
-        <f aca="false">A105</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I49" s="416" t="str">
-        <f aca="false">A106</f>
-        <v>[:tulokset :kuukausierittely 9 :tuotto :muulampo]</v>
-      </c>
-      <c r="J49" s="416" t="str">
-        <f aca="false">A107</f>
-        <v>[:tulokset :kuukausierittely 9 :kulutus :sahko]</v>
-      </c>
-      <c r="K49" s="416" t="str">
-        <f aca="false">A108</f>
-        <v>[:tulokset :kuukausierittely 9 :kulutus :lampo]</v>
-      </c>
-      <c r="L49" s="416" t="str">
-        <f aca="false">A109</f>
-        <v>[:tulokset :kuukausierittely 9 :hyoty :sahko]</v>
-      </c>
-      <c r="M49" s="416" t="str">
-        <f aca="false">A110</f>
-        <v>[:tulokset :kuukausierittely 9 :hyoty :lampo]</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="B49" s="360"/>
+      <c r="C49" s="397"/>
+      <c r="D49" s="397"/>
+      <c r="E49" s="397"/>
+      <c r="F49" s="397"/>
+      <c r="G49" s="397"/>
+      <c r="H49" s="397"/>
+      <c r="I49" s="397"/>
+      <c r="J49" s="397"/>
+      <c r="K49" s="397"/>
+      <c r="L49" s="397"/>
+      <c r="M49" s="397"/>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="369" t="s">
-        <v>684</v>
-      </c>
-      <c r="B50" s="414"/>
-      <c r="C50" s="415" t="s">
-        <v>685</v>
-      </c>
-      <c r="D50" s="416" t="str">
-        <f aca="false">A111</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E50" s="416" t="str">
-        <f aca="false">A112</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F50" s="416" t="str">
-        <f aca="false">A113</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :muusahko]</v>
-      </c>
-      <c r="G50" s="416" t="str">
-        <f aca="false">A114</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H50" s="416" t="str">
-        <f aca="false">A115</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I50" s="416" t="str">
-        <f aca="false">A116</f>
-        <v>[:tulokset :kuukausierittely 10 :tuotto :muulampo]</v>
-      </c>
-      <c r="J50" s="416" t="str">
-        <f aca="false">A117</f>
-        <v>[:tulokset :kuukausierittely 10 :kulutus :sahko]</v>
-      </c>
-      <c r="K50" s="416" t="str">
-        <f aca="false">A118</f>
-        <v>[:tulokset :kuukausierittely 10 :kulutus :lampo]</v>
-      </c>
-      <c r="L50" s="416" t="str">
-        <f aca="false">A119</f>
-        <v>[:tulokset :kuukausierittely 10 :hyoty :sahko]</v>
-      </c>
-      <c r="M50" s="416" t="str">
-        <f aca="false">A120</f>
-        <v>[:tulokset :kuukausierittely 10 :hyoty :lampo]</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="B50" s="360"/>
+      <c r="C50" s="397"/>
+      <c r="D50" s="397"/>
+      <c r="E50" s="397"/>
+      <c r="F50" s="397"/>
+      <c r="G50" s="397"/>
+      <c r="H50" s="397"/>
+      <c r="I50" s="397"/>
+      <c r="J50" s="397"/>
+      <c r="K50" s="397"/>
+      <c r="L50" s="397"/>
+      <c r="M50" s="397"/>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="369" t="s">
-        <v>686</v>
-      </c>
-      <c r="B51" s="414"/>
-      <c r="C51" s="415" t="s">
-        <v>687</v>
-      </c>
-      <c r="D51" s="416" t="str">
-        <f aca="false">A121</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E51" s="416" t="str">
-        <f aca="false">A122</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F51" s="416" t="str">
-        <f aca="false">A123</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :muusahko]</v>
-      </c>
-      <c r="G51" s="416" t="str">
-        <f aca="false">A124</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H51" s="416" t="str">
-        <f aca="false">A125</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I51" s="416" t="str">
-        <f aca="false">A126</f>
-        <v>[:tulokset :kuukausierittely 11 :tuotto :muulampo]</v>
-      </c>
-      <c r="J51" s="416" t="str">
-        <f aca="false">A127</f>
-        <v>[:tulokset :kuukausierittely 11 :kulutus :sahko]</v>
-      </c>
-      <c r="K51" s="416" t="str">
-        <f aca="false">A128</f>
-        <v>[:tulokset :kuukausierittely 11 :kulutus :lampo]</v>
-      </c>
-      <c r="L51" s="416" t="str">
-        <f aca="false">A129</f>
-        <v>[:tulokset :kuukausierittely 11 :hyoty :sahko]</v>
-      </c>
-      <c r="M51" s="416" t="str">
-        <f aca="false">A130</f>
-        <v>[:tulokset :kuukausierittely 11 :hyoty :lampo]</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B51" s="360"/>
+      <c r="C51" s="397"/>
+      <c r="D51" s="397"/>
+      <c r="E51" s="397"/>
+      <c r="F51" s="397"/>
+      <c r="G51" s="397"/>
+      <c r="H51" s="397"/>
+      <c r="I51" s="397"/>
+      <c r="J51" s="397"/>
+      <c r="K51" s="397"/>
+      <c r="L51" s="397"/>
+      <c r="M51" s="397"/>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="369" t="s">
-        <v>688</v>
-      </c>
-      <c r="B52" s="414"/>
-      <c r="C52" s="417" t="s">
-        <v>689</v>
-      </c>
-      <c r="D52" s="418" t="str">
-        <f aca="false">A131</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</v>
-      </c>
-      <c r="E52" s="418" t="str">
-        <f aca="false">A132</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</v>
-      </c>
-      <c r="F52" s="418" t="str">
-        <f aca="false">A133</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
-      </c>
-      <c r="G52" s="418" t="str">
-        <f aca="false">A134</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</v>
-      </c>
-      <c r="H52" s="418" t="str">
-        <f aca="false">A135</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</v>
-      </c>
-      <c r="I52" s="418" t="str">
-        <f aca="false">A136</f>
-        <v>[:tulokset :kuukausierittely-summat :tuotto :muulampo]</v>
-      </c>
-      <c r="J52" s="418" t="str">
-        <f aca="false">A137</f>
-        <v>[:tulokset :kuukausierittely-summat :kulutus :sahko]</v>
-      </c>
-      <c r="K52" s="418" t="str">
-        <f aca="false">A138</f>
-        <v>[:tulokset :kuukausierittely-summat :kulutus :lampo]</v>
-      </c>
-      <c r="L52" s="418" t="str">
-        <f aca="false">A139</f>
-        <v>[:tulokset :kuukausierittely-summat :hyoty :sahko]</v>
-      </c>
-      <c r="M52" s="418" t="str">
-        <f aca="false">A140</f>
-        <v>[:tulokset :kuukausierittely-summat :hyoty :lampo]</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="B52" s="360"/>
+      <c r="C52" s="397"/>
+      <c r="D52" s="397"/>
+      <c r="E52" s="397"/>
+      <c r="F52" s="397"/>
+      <c r="G52" s="397"/>
+      <c r="H52" s="397"/>
+      <c r="I52" s="397"/>
+      <c r="J52" s="397"/>
+      <c r="K52" s="397"/>
+      <c r="L52" s="397"/>
+      <c r="M52" s="397"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="369" t="s">
-        <v>690</v>
-      </c>
-      <c r="B53" s="402"/>
-      <c r="C53" s="419" t="s">
-        <v>691</v>
-      </c>
-      <c r="D53" s="419"/>
-      <c r="E53" s="419"/>
-      <c r="F53" s="419"/>
-      <c r="G53" s="419"/>
-      <c r="H53" s="419"/>
-      <c r="I53" s="419"/>
-      <c r="J53" s="419"/>
-      <c r="K53" s="419"/>
-      <c r="L53" s="419"/>
-      <c r="M53" s="419"/>
+        <v>667</v>
+      </c>
+      <c r="B53" s="360"/>
+      <c r="C53" s="397"/>
+      <c r="D53" s="397"/>
+      <c r="E53" s="397"/>
+      <c r="F53" s="397"/>
+      <c r="G53" s="397"/>
+      <c r="H53" s="397"/>
+      <c r="I53" s="397"/>
+      <c r="J53" s="397"/>
+      <c r="K53" s="397"/>
+      <c r="L53" s="397"/>
+      <c r="M53" s="397"/>
     </row>
     <row r="54" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="369" t="s">
-        <v>692</v>
-      </c>
-      <c r="B54" s="402"/>
-      <c r="C54" s="420"/>
-      <c r="D54" s="420"/>
-      <c r="E54" s="420"/>
-      <c r="F54" s="420"/>
-      <c r="G54" s="420"/>
-      <c r="H54" s="420"/>
-      <c r="I54" s="420"/>
-      <c r="J54" s="420"/>
-      <c r="K54" s="420"/>
-      <c r="L54" s="420"/>
-      <c r="M54" s="403"/>
+        <v>668</v>
+      </c>
+      <c r="B54" s="360"/>
+      <c r="C54" s="398"/>
+      <c r="D54" s="398"/>
+      <c r="E54" s="398"/>
+      <c r="F54" s="398"/>
+      <c r="G54" s="398"/>
+      <c r="H54" s="398"/>
+      <c r="I54" s="398"/>
+      <c r="J54" s="398"/>
+      <c r="K54" s="398"/>
+      <c r="L54" s="398"/>
+      <c r="M54" s="399"/>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="369" t="s">
-        <v>693</v>
-      </c>
-      <c r="B55" s="421"/>
-      <c r="C55" s="422" t="s">
-        <v>694</v>
-      </c>
-      <c r="D55" s="422"/>
-      <c r="E55" s="422"/>
-      <c r="F55" s="422"/>
-      <c r="G55" s="422"/>
-      <c r="H55" s="422"/>
-      <c r="I55" s="422"/>
-      <c r="J55" s="422"/>
-      <c r="K55" s="422"/>
-      <c r="L55" s="422"/>
-      <c r="M55" s="422"/>
+        <v>669</v>
+      </c>
+      <c r="B55" s="400"/>
+      <c r="C55" s="401" t="s">
+        <v>670</v>
+      </c>
+      <c r="D55" s="401"/>
+      <c r="E55" s="401"/>
+      <c r="F55" s="401"/>
+      <c r="G55" s="401"/>
+      <c r="H55" s="401"/>
+      <c r="I55" s="401"/>
+      <c r="J55" s="401"/>
+      <c r="K55" s="401"/>
+      <c r="L55" s="401"/>
+      <c r="M55" s="401"/>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="369" t="s">
-        <v>695</v>
-      </c>
-      <c r="B56" s="423"/>
-      <c r="C56" s="424" t="s">
-        <v>696</v>
-      </c>
-      <c r="D56" s="424"/>
-      <c r="E56" s="424"/>
-      <c r="F56" s="424"/>
-      <c r="G56" s="424"/>
-      <c r="H56" s="424"/>
-      <c r="I56" s="424"/>
-      <c r="J56" s="424"/>
-      <c r="K56" s="424"/>
-      <c r="L56" s="424"/>
-      <c r="M56" s="425" t="str">
+        <v>671</v>
+      </c>
+      <c r="B56" s="402"/>
+      <c r="C56" s="403" t="s">
+        <v>672</v>
+      </c>
+      <c r="D56" s="403"/>
+      <c r="E56" s="403"/>
+      <c r="F56" s="403"/>
+      <c r="G56" s="403"/>
+      <c r="H56" s="403"/>
+      <c r="I56" s="403"/>
+      <c r="J56" s="403"/>
+      <c r="K56" s="403"/>
+      <c r="L56" s="403"/>
+      <c r="M56" s="404" t="str">
         <f aca="false">A4</f>
         <v>[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="369" t="s">
-        <v>697</v>
-      </c>
-      <c r="B57" s="423"/>
-      <c r="C57" s="424" t="s">
-        <v>698</v>
-      </c>
-      <c r="D57" s="424"/>
-      <c r="E57" s="424"/>
-      <c r="F57" s="424"/>
-      <c r="G57" s="424"/>
-      <c r="H57" s="424"/>
-      <c r="I57" s="424"/>
-      <c r="J57" s="424"/>
-      <c r="K57" s="424"/>
-      <c r="L57" s="424"/>
-      <c r="M57" s="425" t="str">
+        <v>673</v>
+      </c>
+      <c r="B57" s="402"/>
+      <c r="C57" s="403" t="s">
+        <v>674</v>
+      </c>
+      <c r="D57" s="403"/>
+      <c r="E57" s="403"/>
+      <c r="F57" s="403"/>
+      <c r="G57" s="403"/>
+      <c r="H57" s="403"/>
+      <c r="I57" s="403"/>
+      <c r="J57" s="403"/>
+      <c r="K57" s="403"/>
+      <c r="L57" s="403"/>
+      <c r="M57" s="404" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :rakennusvaippa :ilmatilavuus]</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="369" t="s">
-        <v>699</v>
-      </c>
-      <c r="B58" s="423"/>
-      <c r="C58" s="424" t="s">
-        <v>700</v>
-      </c>
-      <c r="D58" s="424"/>
-      <c r="E58" s="424"/>
-      <c r="F58" s="424"/>
-      <c r="G58" s="424"/>
-      <c r="H58" s="424"/>
-      <c r="I58" s="424"/>
-      <c r="J58" s="424"/>
-      <c r="K58" s="424"/>
-      <c r="L58" s="424"/>
-      <c r="M58" s="425" t="str">
+        <v>675</v>
+      </c>
+      <c r="B58" s="402"/>
+      <c r="C58" s="403" t="s">
+        <v>676</v>
+      </c>
+      <c r="D58" s="403"/>
+      <c r="E58" s="403"/>
+      <c r="F58" s="403"/>
+      <c r="G58" s="403"/>
+      <c r="H58" s="403"/>
+      <c r="I58" s="403"/>
+      <c r="J58" s="403"/>
+      <c r="K58" s="403"/>
+      <c r="L58" s="403"/>
+      <c r="M58" s="404" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="369" t="s">
-        <v>701</v>
-      </c>
-      <c r="B59" s="423"/>
-      <c r="C59" s="426" t="s">
-        <v>702</v>
-      </c>
-      <c r="D59" s="426"/>
-      <c r="E59" s="426"/>
-      <c r="F59" s="426"/>
-      <c r="G59" s="426"/>
-      <c r="H59" s="426"/>
-      <c r="I59" s="426"/>
-      <c r="J59" s="426"/>
-      <c r="K59" s="426"/>
-      <c r="L59" s="426"/>
-      <c r="M59" s="425" t="str">
+        <v>677</v>
+      </c>
+      <c r="B59" s="402"/>
+      <c r="C59" s="405" t="s">
+        <v>678</v>
+      </c>
+      <c r="D59" s="405"/>
+      <c r="E59" s="405"/>
+      <c r="F59" s="405"/>
+      <c r="G59" s="405"/>
+      <c r="H59" s="405"/>
+      <c r="I59" s="405"/>
+      <c r="J59" s="405"/>
+      <c r="K59" s="405"/>
+      <c r="L59" s="405"/>
+      <c r="M59" s="404" t="str">
         <f aca="false">A7</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="369" t="s">
-        <v>703</v>
-      </c>
-      <c r="B60" s="423"/>
-      <c r="C60" s="426" t="s">
-        <v>704</v>
-      </c>
-      <c r="D60" s="426"/>
-      <c r="E60" s="426"/>
-      <c r="F60" s="426"/>
-      <c r="G60" s="426"/>
-      <c r="H60" s="426"/>
-      <c r="I60" s="426"/>
-      <c r="J60" s="426"/>
-      <c r="K60" s="426"/>
-      <c r="L60" s="426"/>
-      <c r="M60" s="425" t="str">
+        <v>679</v>
+      </c>
+      <c r="B60" s="402"/>
+      <c r="C60" s="405" t="s">
+        <v>680</v>
+      </c>
+      <c r="D60" s="405"/>
+      <c r="E60" s="405"/>
+      <c r="F60" s="405"/>
+      <c r="G60" s="405"/>
+      <c r="H60" s="405"/>
+      <c r="I60" s="405"/>
+      <c r="J60" s="405"/>
+      <c r="K60" s="405"/>
+      <c r="L60" s="405"/>
+      <c r="M60" s="404" t="str">
         <f aca="false">A8</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="369" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="B61" s="406"/>
-      <c r="C61" s="427" t="s">
-        <v>706</v>
-      </c>
-      <c r="D61" s="427"/>
-      <c r="E61" s="427"/>
-      <c r="F61" s="427"/>
-      <c r="G61" s="427"/>
-      <c r="H61" s="427"/>
-      <c r="I61" s="427"/>
-      <c r="J61" s="427"/>
-      <c r="K61" s="427"/>
-      <c r="L61" s="427"/>
-      <c r="M61" s="428" t="str">
+      <c r="C61" s="407" t="s">
+        <v>682</v>
+      </c>
+      <c r="D61" s="407"/>
+      <c r="E61" s="407"/>
+      <c r="F61" s="407"/>
+      <c r="G61" s="407"/>
+      <c r="H61" s="407"/>
+      <c r="I61" s="407"/>
+      <c r="J61" s="407"/>
+      <c r="K61" s="407"/>
+      <c r="L61" s="407"/>
+      <c r="M61" s="408" t="str">
         <f aca="false">A9</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="369" t="s">
-        <v>707</v>
-      </c>
-      <c r="B62" s="429" t="str">
+        <v>683</v>
+      </c>
+      <c r="B62" s="409" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 8/8"</f>
         <v>Certifikatbeteckning: [:id], 8/8</v>
       </c>
-      <c r="C62" s="429"/>
-      <c r="D62" s="429"/>
-      <c r="E62" s="429"/>
-      <c r="F62" s="429"/>
-      <c r="G62" s="429"/>
-      <c r="H62" s="429"/>
-      <c r="I62" s="429"/>
-      <c r="J62" s="429"/>
-      <c r="K62" s="429"/>
-      <c r="L62" s="429"/>
-      <c r="M62" s="429"/>
+      <c r="C62" s="409"/>
+      <c r="D62" s="409"/>
+      <c r="E62" s="409"/>
+      <c r="F62" s="409"/>
+      <c r="G62" s="409"/>
+      <c r="H62" s="409"/>
+      <c r="I62" s="409"/>
+      <c r="J62" s="409"/>
+      <c r="K62" s="409"/>
+      <c r="L62" s="409"/>
+      <c r="M62" s="409"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="369" t="s">
-        <v>708</v>
-      </c>
-      <c r="B63" s="429"/>
-      <c r="C63" s="429"/>
-      <c r="D63" s="429"/>
-      <c r="E63" s="429"/>
-      <c r="F63" s="429"/>
-      <c r="G63" s="429"/>
-      <c r="H63" s="429"/>
-      <c r="I63" s="429"/>
-      <c r="J63" s="429"/>
-      <c r="K63" s="429"/>
-      <c r="L63" s="429"/>
-      <c r="M63" s="429"/>
+        <v>684</v>
+      </c>
+      <c r="B63" s="409"/>
+      <c r="C63" s="409"/>
+      <c r="D63" s="409"/>
+      <c r="E63" s="409"/>
+      <c r="F63" s="409"/>
+      <c r="G63" s="409"/>
+      <c r="H63" s="409"/>
+      <c r="I63" s="409"/>
+      <c r="J63" s="409"/>
+      <c r="K63" s="409"/>
+      <c r="L63" s="409"/>
+      <c r="M63" s="409"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="369" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="369" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="369" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="369" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="369" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="369" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="369" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="369" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="369" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="369" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="369" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="369" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="369" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="369" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="369" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="369" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="369" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="369" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="369" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="369" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="369" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="369" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="369" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="369" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="369" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="369" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="369" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="369" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="369" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="369" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="369" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="369" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="369" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="369" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="369" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="369" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="369" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="369" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="369" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="369" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="369" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="369" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="369" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="369" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="369" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="369" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="369" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="369" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="369" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="369" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="369" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="369" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="369" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="369" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="369" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="369" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="369" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="369" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="369" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="369" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="369" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="369" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="369" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="369" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="369" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="369" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="369" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="369" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="369" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="369" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="369" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="369" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="369" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="369" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="369" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="369" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="369" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="10">
     <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C3:M53"/>
     <mergeCell ref="C55:M55"/>
     <mergeCell ref="C56:L56"/>
     <mergeCell ref="C57:L57"/>
@@ -22329,7 +21614,7 @@
     <mergeCell ref="C61:L61"/>
     <mergeCell ref="B62:M63"/>
   </mergeCells>
-  <conditionalFormatting sqref="B62:AMJ1048576 B2:C2 N2:AMJ61 B55:M55 D40:M51 B38:B39 B36 A3:A1048576 B56:I61 K56:K61 M56:M61">
+  <conditionalFormatting sqref="B62:AMJ1048576 B2:C2 N2:AMJ61 B55:M55 A3:A1048576 B56:I61 K56:K61 M56:M61">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
   </si>
   <si>
-    <t xml:space="preserve">Byggnadens namn och address:</t>
+    <t xml:space="preserve">Byggnadens namn och adress:</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :valmistumisvuosi]</t>
@@ -322,6 +322,59 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">kWh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/(m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">år)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :sahko]</t>
   </si>
   <si>
@@ -1145,9 +1198,6 @@
     <t xml:space="preserve">st.</t>
   </si>
   <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:lahtotiedot :ikkunat :luode :ala]</t>
   </si>
   <si>
@@ -1387,7 +1437,26 @@
     <t xml:space="preserve">BERÄKNING AV E-TAL, RESULTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Uppvärmd nettoarea, m 2</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Uppvärmd nettoarea, m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kaukolampo-kertoimella]</t>
@@ -3404,7 +3473,7 @@
     <numFmt numFmtId="173" formatCode="0%"/>
     <numFmt numFmtId="174" formatCode="0"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3538,6 +3607,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -3675,6 +3751,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -4609,11 +4692,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4621,35 +4704,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4657,15 +4740,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4673,11 +4756,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4721,19 +4804,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4821,7 +4904,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4857,7 +4940,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4905,7 +4988,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4921,7 +5004,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4937,11 +5020,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4965,11 +5048,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4985,7 +5068,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4993,11 +5076,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5025,7 +5108,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5041,7 +5124,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5065,7 +5148,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5149,7 +5232,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5173,7 +5256,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5217,15 +5300,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5241,7 +5324,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5281,7 +5364,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5325,7 +5408,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5401,7 +5484,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5425,7 +5508,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5473,11 +5556,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5493,11 +5576,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5513,7 +5596,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5537,7 +5620,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5621,7 +5704,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5641,7 +5724,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5653,7 +5736,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5669,7 +5752,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5685,7 +5768,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5701,7 +5784,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8085,9 +8168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8101,7 +8184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="739800" cy="196560"/>
+          <a:ext cx="739440" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8122,9 +8205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>129240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8138,7 +8221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1083240" cy="196560"/>
+          <a:ext cx="1082880" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8159,9 +8242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8175,7 +8258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1389960" cy="196560"/>
+          <a:ext cx="1389600" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8196,9 +8279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8212,7 +8295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1713960" cy="196560"/>
+          <a:ext cx="1713600" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8233,9 +8316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8249,7 +8332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2021040" cy="209520"/>
+          <a:ext cx="2020680" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8270,9 +8353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244080</xdr:rowOff>
+      <xdr:rowOff>243720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8286,7 +8369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2357280" cy="196560"/>
+          <a:ext cx="2356920" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8307,9 +8390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>245160</xdr:rowOff>
+      <xdr:rowOff>244800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8319,7 +8402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2670120" cy="195480"/>
+          <a:ext cx="2669760" cy="195120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8688,9 +8771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8700,7 +8783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6969240" cy="10490760"/>
+          <a:ext cx="6968880" cy="10490400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8830,7 +8913,7 @@
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10478,8 +10561,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10854,7 +10937,7 @@
       <c r="Z11" s="0"/>
       <c r="AA11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="99" t="s">
         <v>60</v>
       </c>
@@ -10872,7 +10955,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="123" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="123"/>
       <c r="L12" s="0"/>
@@ -10894,7 +10977,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="107"/>
       <c r="C13" s="6"/>
@@ -10924,11 +11007,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="129"/>
       <c r="E14" s="6"/>
@@ -10968,11 +11051,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="129"/>
       <c r="E15" s="6"/>
@@ -11012,11 +11095,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="129"/>
       <c r="E16" s="6"/>
@@ -11056,11 +11139,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="107"/>
       <c r="C17" s="129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="129"/>
       <c r="E17" s="6"/>
@@ -11100,11 +11183,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="107"/>
       <c r="C18" s="129" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="129"/>
       <c r="E18" s="6"/>
@@ -11144,7 +11227,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="129"/>
@@ -11174,11 +11257,11 @@
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="134"/>
       <c r="C20" s="135" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="135"/>
       <c r="E20" s="135"/>
@@ -11209,11 +11292,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="103"/>
       <c r="C21" s="104" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
@@ -11241,7 +11324,7 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="107"/>
       <c r="C22" s="6"/>
@@ -11271,11 +11354,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="6"/>
@@ -11307,7 +11390,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="107"/>
       <c r="C24" s="18"/>
@@ -11337,11 +11420,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="107"/>
       <c r="C25" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="6"/>
@@ -11378,7 +11461,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="18"/>
@@ -11417,7 +11500,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="18"/>
@@ -11450,7 +11533,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="18"/>
@@ -11480,11 +11563,11 @@
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="107"/>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="6"/>
@@ -11515,7 +11598,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="140"/>
@@ -11545,11 +11628,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="153" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="153"/>
       <c r="E31" s="153"/>
@@ -11577,7 +11660,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" s="107"/>
       <c r="C32" s="153"/>
@@ -11607,7 +11690,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B33" s="107"/>
       <c r="C33" s="153"/>
@@ -11637,7 +11720,7 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="153"/>
@@ -11667,7 +11750,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="154"/>
       <c r="C35" s="155"/>
@@ -11701,7 +11784,7 @@
       </c>
       <c r="B36" s="157"/>
       <c r="C36" s="158" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="158"/>
       <c r="E36" s="158"/>
@@ -11729,11 +11812,11 @@
     </row>
     <row r="37" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" s="103"/>
       <c r="C37" s="104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37" s="104"/>
       <c r="E37" s="105"/>
@@ -11761,7 +11844,7 @@
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" s="160"/>
       <c r="C38" s="161" t="str">
@@ -11794,7 +11877,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="107"/>
       <c r="C39" s="161"/>
@@ -11825,7 +11908,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="161"/>
@@ -11855,7 +11938,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="161"/>
@@ -11885,7 +11968,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="107"/>
       <c r="C42" s="161"/>
@@ -11915,7 +11998,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="162" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="107"/>
       <c r="C43" s="161"/>
@@ -11945,7 +12028,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" s="107"/>
       <c r="C44" s="161"/>
@@ -11975,7 +12058,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" s="107"/>
       <c r="C45" s="161"/>
@@ -12005,7 +12088,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="161"/>
@@ -12035,7 +12118,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" s="107"/>
       <c r="C47" s="161"/>
@@ -12065,7 +12148,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" s="107"/>
       <c r="C48" s="161"/>
@@ -12311,7 +12394,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="163" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="163"/>
       <c r="D57" s="163"/>
@@ -12676,8 +12759,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12700,7 +12783,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="169" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="169"/>
       <c r="D2" s="169"/>
@@ -12752,7 +12835,7 @@
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="171" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="172"/>
       <c r="E3" s="172"/>
@@ -12765,7 +12848,7 @@
       </c>
       <c r="B4" s="173"/>
       <c r="C4" s="174" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="175" t="str">
         <f aca="false">A3</f>
@@ -12782,11 +12865,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="162" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="173"/>
       <c r="C5" s="174" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">A4</f>
@@ -12800,16 +12883,16 @@
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="G5" s="177" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="162" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="178"/>
       <c r="C6" s="179" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="180"/>
       <c r="E6" s="181"/>
@@ -12818,67 +12901,67 @@
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="162" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="173"/>
       <c r="C7" s="174" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="183" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</v>
       </c>
       <c r="E7" s="184" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" s="185"/>
       <c r="G7" s="186"/>
     </row>
     <row r="8" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="162" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="173"/>
       <c r="C8" s="187"/>
       <c r="D8" s="188" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="188" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="188" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="189" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="162" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="173"/>
       <c r="C9" s="187"/>
       <c r="D9" s="123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" s="123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9" s="123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="162" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="173"/>
       <c r="C10" s="177" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" s="176" t="str">
         <f aca="false">A7</f>
@@ -12906,11 +12989,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="162" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" s="173"/>
       <c r="C11" s="177" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="176" t="str">
         <f aca="false">A11</f>
@@ -12938,11 +13021,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="173"/>
       <c r="C12" s="177" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="193" t="str">
         <f aca="false">A15</f>
@@ -12970,11 +13053,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="162" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="173"/>
       <c r="C13" s="177" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="176" t="str">
         <f aca="false">A19</f>
@@ -13002,11 +13085,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="162" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="173"/>
       <c r="C14" s="177" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="176" t="str">
         <f aca="false">A23</f>
@@ -13034,11 +13117,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="173"/>
       <c r="C15" s="177" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D15" s="195" t="s">
         <v>63</v>
@@ -13064,11 +13147,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="162" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="178"/>
       <c r="C16" s="179" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="180"/>
       <c r="E16" s="181"/>
@@ -13077,32 +13160,32 @@
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" s="173"/>
       <c r="C17" s="187"/>
       <c r="D17" s="197" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" s="197" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="198" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G17" s="199"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="162" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" s="173"/>
       <c r="C18" s="187"/>
       <c r="D18" s="123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F18" s="200" t="s">
         <v>63</v>
@@ -13111,11 +13194,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" s="173"/>
       <c r="C19" s="174" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="191" t="str">
         <f aca="false">A29</f>
@@ -13133,11 +13216,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="162" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="173"/>
       <c r="C20" s="174" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="191" t="str">
         <f aca="false">A32</f>
@@ -13155,11 +13238,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="173"/>
       <c r="C21" s="174" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="191" t="str">
         <f aca="false">A35</f>
@@ -13177,11 +13260,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="162" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="173"/>
       <c r="C22" s="174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="191" t="str">
         <f aca="false">A38</f>
@@ -13199,11 +13282,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="173"/>
       <c r="C23" s="174" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D23" s="191" t="str">
         <f aca="false">A41</f>
@@ -13221,11 +13304,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="173"/>
       <c r="C24" s="174" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" s="191" t="str">
         <f aca="false">A44</f>
@@ -13243,11 +13326,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" s="173"/>
       <c r="C25" s="174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" s="191" t="str">
         <f aca="false">A47</f>
@@ -13265,11 +13348,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="173"/>
       <c r="C26" s="174" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D26" s="191" t="str">
         <f aca="false">A50</f>
@@ -13287,11 +13370,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" s="170"/>
       <c r="C27" s="171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="172"/>
       <c r="E27" s="172"/>
@@ -13300,11 +13383,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="162" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="173"/>
       <c r="C28" s="177" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="202" t="str">
         <f aca="false">A54</f>
@@ -13316,7 +13399,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" s="203"/>
       <c r="C29" s="186"/>
@@ -13327,66 +13410,66 @@
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="173"/>
       <c r="C30" s="206"/>
       <c r="D30" s="207" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="188" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="188" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="188" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="162" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31" s="173"/>
       <c r="C31" s="206"/>
       <c r="D31" s="208" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E31" s="197" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" s="197" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G31" s="197"/>
     </row>
     <row r="32" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="173"/>
       <c r="C32" s="206"/>
       <c r="D32" s="209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E32" s="123" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" s="123" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="210" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B33" s="173"/>
       <c r="C33" s="177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" s="211" t="str">
         <f aca="false">A55</f>
@@ -13407,11 +13490,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="162" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="173"/>
       <c r="C34" s="177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D34" s="211" t="str">
         <f aca="false">A59</f>
@@ -13430,11 +13513,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B35" s="203"/>
       <c r="C35" s="215" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D35" s="216" t="str">
         <f aca="false">A61</f>
@@ -13453,11 +13536,11 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="162" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B36" s="173"/>
       <c r="C36" s="219" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="219"/>
       <c r="E36" s="220" t="str">
@@ -13469,11 +13552,11 @@
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B37" s="170"/>
       <c r="C37" s="171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D37" s="172"/>
       <c r="E37" s="172"/>
@@ -13482,11 +13565,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="173"/>
       <c r="C38" s="174" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D38" s="221" t="str">
         <f aca="false">A65</f>
@@ -13498,7 +13581,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="162" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" s="173"/>
       <c r="C39" s="204"/>
@@ -13509,43 +13592,43 @@
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="162" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B40" s="223"/>
       <c r="C40" s="224"/>
       <c r="D40" s="188" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E40" s="225" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40" s="188" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G40" s="188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="162" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B41" s="173"/>
       <c r="C41" s="187"/>
       <c r="D41" s="197" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E41" s="226" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F41" s="197"/>
       <c r="G41" s="197" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="162" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" s="173"/>
       <c r="C42" s="227"/>
@@ -13564,11 +13647,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="162" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B43" s="173"/>
       <c r="C43" s="174" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D43" s="229" t="str">
         <f aca="false">A66</f>
@@ -13589,11 +13672,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="162" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" s="173"/>
       <c r="C44" s="174" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D44" s="229" t="str">
         <f aca="false">A70</f>
@@ -13614,11 +13697,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="162" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B45" s="173"/>
       <c r="C45" s="230" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D45" s="231"/>
       <c r="E45" s="231"/>
@@ -13627,11 +13710,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="162" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B46" s="173"/>
       <c r="C46" s="230" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D46" s="174"/>
       <c r="E46" s="174"/>
@@ -13640,7 +13723,7 @@
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="162" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B47" s="173"/>
       <c r="C47" s="232"/>
@@ -13652,30 +13735,30 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="162" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B48" s="173"/>
       <c r="C48" s="187"/>
       <c r="D48" s="188" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E48" s="188" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F48" s="235"/>
       <c r="G48" s="205"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="187"/>
       <c r="D49" s="123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" s="123" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="F49" s="235"/>
       <c r="G49" s="205"/>
@@ -14621,8 +14704,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14697,7 +14780,7 @@
       </c>
       <c r="B3" s="256"/>
       <c r="C3" s="257" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="258"/>
       <c r="E3" s="258"/>
@@ -14710,7 +14793,7 @@
       </c>
       <c r="B4" s="173"/>
       <c r="C4" s="260" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="261" t="str">
         <f aca="false">A3</f>
@@ -14722,7 +14805,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="162" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="173"/>
       <c r="C5" s="260"/>
@@ -14748,7 +14831,7 @@
       </c>
       <c r="B7" s="173"/>
       <c r="C7" s="264" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="265" t="str">
         <f aca="false">A4</f>
@@ -14807,7 +14890,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="256"/>
       <c r="C11" s="257" t="s">
@@ -14820,7 +14903,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="173"/>
       <c r="C12" s="204"/>
@@ -14850,7 +14933,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="173"/>
       <c r="C14" s="187"/>
@@ -14867,7 +14950,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="203"/>
       <c r="C15" s="273"/>
@@ -14886,7 +14969,7 @@
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="162" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="173"/>
       <c r="C16" s="187"/>
@@ -14901,7 +14984,7 @@
       </c>
       <c r="B17" s="173"/>
       <c r="C17" s="274" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="243" t="str">
         <f aca="false">A7</f>
@@ -14922,11 +15005,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="173"/>
       <c r="C18" s="274" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="243" t="str">
         <f aca="false">A11</f>
@@ -14947,11 +15030,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="173"/>
       <c r="C19" s="274" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="243" t="str">
         <f aca="false">A15</f>
@@ -14972,11 +15055,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="162" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="173"/>
       <c r="C20" s="274" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="243" t="str">
         <f aca="false">A19</f>
@@ -15022,7 +15105,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="162" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="173"/>
       <c r="C22" s="267" t="s">
@@ -15044,7 +15127,7 @@
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="173"/>
       <c r="C23" s="204"/>
@@ -15055,7 +15138,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="162" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="256"/>
       <c r="C24" s="257" t="s">
@@ -15079,7 +15162,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="162" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="173"/>
       <c r="C26" s="187"/>
@@ -15094,7 +15177,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="173"/>
       <c r="C27" s="187"/>
@@ -15105,7 +15188,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="173"/>
       <c r="C28" s="281" t="s">
@@ -15124,7 +15207,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="173"/>
       <c r="C29" s="281" t="s">
@@ -15162,7 +15245,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="162" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="173"/>
       <c r="C31" s="281" t="s">
@@ -15575,7 +15658,7 @@
       </c>
       <c r="B56" s="173"/>
       <c r="C56" s="174" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D56" s="174"/>
       <c r="E56" s="243" t="str">
@@ -18282,7 +18365,7 @@
         <v>497</v>
       </c>
       <c r="B2" s="370" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="370"/>
       <c r="D2" s="370"/>
@@ -20096,7 +20179,7 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2018-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,23 +19,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'1) etusivu'!$B$1:$R$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$M$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$B$1:$R$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$2:$J$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$2:$G$66</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$L$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="760">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -339,6 +339,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">E</t>
     </r>
@@ -1454,6 +1455,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1581,60 +1583,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kWh</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/(m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF009EE0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">år)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</t>
   </si>
   <si>
@@ -3026,7 +2974,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rak omin</t>
+      <t xml:space="preserve">byg spec</t>
     </r>
     <r>
       <rPr>
@@ -3036,7 +2984,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, Wh/m^2^K</t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Wh/m²K</t>
     </r>
   </si>
   <si>
@@ -3068,7 +3025,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">sp</t>
+      <t xml:space="preserve">ib</t>
     </r>
     <r>
       <rPr>
@@ -3087,28 +3044,28 @@
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Andelen värmeenergi som värmepumpen alstrar jämfört med den värmeenergi som behövs för uppvärmning av utrymmen  Q</t>
+      <t xml:space="preserve">Andelen värmeenergi som värmepumpen alstrar den värmeenergi som behövs för uppvärmning av utrymmen Q</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LP</t>
+      <t xml:space="preserve">VP</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -3119,17 +3076,17 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">lämmitys, tilat</t>
+      <t xml:space="preserve">uppvärmning, utrymmen</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -3144,28 +3101,28 @@
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Andelen värmeenergi som värmepumpen alstrar jämfört med den värmeenergi som behövs för uppvärmning av tappvatten Q</t>
+      <t xml:space="preserve">Andelen värmeenergi som värmepumpen alstrar den värmeenergi som behövs för uppvärmning av tappvatten Q</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LP</t>
+      <t xml:space="preserve">VP</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -3176,13 +3133,13 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">lämmitys, lkv</t>
+      <t xml:space="preserve">uppvärmning, vtv</t>
     </r>
   </si>
   <si>
@@ -3208,7 +3165,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">jakelu, ulos</t>
+      <t xml:space="preserve">distribution, ut</t>
     </r>
     <r>
       <rPr>
@@ -3609,13 +3566,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3753,13 +3703,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <vertAlign val="subscript"/>
       <sz val="10"/>
@@ -3841,8 +3784,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF009EE0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -4692,11 +4648,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4704,35 +4660,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4740,15 +4696,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4756,11 +4712,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4804,19 +4760,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4904,7 +4860,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4940,7 +4896,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4988,43 +4944,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5048,11 +5004,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5068,7 +5024,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5076,11 +5032,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5108,7 +5064,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5124,7 +5080,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5148,7 +5104,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5232,7 +5188,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5256,7 +5212,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5300,15 +5256,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5324,7 +5280,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5364,7 +5320,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5408,7 +5364,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5484,7 +5440,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5508,7 +5464,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5556,11 +5512,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5576,11 +5532,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5596,7 +5552,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5620,7 +5576,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5704,7 +5660,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5724,7 +5680,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5736,7 +5692,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5752,7 +5708,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5768,7 +5724,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -8168,9 +8124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8184,7 +8140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4656960"/>
-          <a:ext cx="739440" cy="196200"/>
+          <a:ext cx="739080" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8205,9 +8161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8221,7 +8177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="4971240"/>
-          <a:ext cx="1082880" cy="196200"/>
+          <a:ext cx="1082520" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8242,9 +8198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8258,7 +8214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5285520"/>
-          <a:ext cx="1389600" cy="196200"/>
+          <a:ext cx="1389240" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8279,9 +8235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>326160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8295,7 +8251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5599800"/>
-          <a:ext cx="1713600" cy="196200"/>
+          <a:ext cx="1713240" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8316,9 +8272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8332,7 +8288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="5909760"/>
-          <a:ext cx="2020680" cy="209160"/>
+          <a:ext cx="2020320" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8353,9 +8309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>243720</xdr:rowOff>
+      <xdr:rowOff>243360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8369,7 +8325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6219720"/>
-          <a:ext cx="2356920" cy="196200"/>
+          <a:ext cx="2356560" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8390,9 +8346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>244800</xdr:rowOff>
+      <xdr:rowOff>244440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8402,7 +8358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3083040" y="6531480"/>
-          <a:ext cx="2669760" cy="195120"/>
+          <a:ext cx="2669400" cy="194760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8771,9 +8727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8783,7 +8739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1978200" y="78480"/>
-          <a:ext cx="6968880" cy="10490400"/>
+          <a:ext cx="6968520" cy="10490040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12759,8 +12715,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14964,7 +14920,7 @@
         <v>288</v>
       </c>
       <c r="G15" s="200" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14980,7 +14936,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="173"/>
       <c r="C17" s="274" t="s">
@@ -15080,11 +15036,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="173"/>
       <c r="C21" s="276" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="243" t="str">
         <f aca="false">A23</f>
@@ -15109,7 +15065,7 @@
       </c>
       <c r="B22" s="173"/>
       <c r="C22" s="267" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="277" t="str">
         <f aca="false">A42</f>
@@ -15142,7 +15098,7 @@
       </c>
       <c r="B24" s="256"/>
       <c r="C24" s="257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="172"/>
       <c r="E24" s="258"/>
@@ -15151,7 +15107,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="162" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="223"/>
       <c r="C25" s="279"/>
@@ -15192,7 +15148,7 @@
       </c>
       <c r="B28" s="173"/>
       <c r="C28" s="281" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28" s="281"/>
       <c r="E28" s="243" t="str">
@@ -15211,7 +15167,7 @@
       </c>
       <c r="B29" s="173"/>
       <c r="C29" s="281" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="281"/>
       <c r="E29" s="243" t="str">
@@ -15226,11 +15182,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B30" s="173"/>
       <c r="C30" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="281"/>
       <c r="E30" s="243" t="str">
@@ -15249,7 +15205,7 @@
       </c>
       <c r="B31" s="173"/>
       <c r="C31" s="281" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D31" s="281"/>
       <c r="E31" s="243" t="str">
@@ -15264,11 +15220,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="162" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" s="173"/>
       <c r="C32" s="281" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="281"/>
       <c r="E32" s="243" t="str">
@@ -15283,11 +15239,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="162" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="173"/>
       <c r="C33" s="281" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" s="281"/>
       <c r="E33" s="243" t="str">
@@ -15302,7 +15258,7 @@
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="162" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="203"/>
       <c r="C34" s="269"/>
@@ -15313,11 +15269,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="162" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="256"/>
       <c r="C35" s="257" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="258"/>
       <c r="E35" s="258"/>
@@ -15326,7 +15282,7 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="162" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="173"/>
       <c r="C36" s="204"/>
@@ -15337,24 +15293,24 @@
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="173"/>
       <c r="C37" s="187"/>
       <c r="D37" s="187"/>
       <c r="E37" s="197" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="197" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="197" t="s">
+      <c r="G37" s="197" t="s">
         <v>311</v>
-      </c>
-      <c r="G37" s="197" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B38" s="173"/>
       <c r="C38" s="187"/>
@@ -15371,7 +15327,7 @@
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B39" s="173"/>
       <c r="C39" s="187"/>
@@ -15382,7 +15338,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="173"/>
       <c r="C40" s="174" t="s">
@@ -15395,11 +15351,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B41" s="173"/>
       <c r="C41" s="174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D41" s="174"/>
       <c r="E41" s="243" t="str">
@@ -15416,11 +15372,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="173"/>
       <c r="C42" s="174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" s="174"/>
       <c r="E42" s="243" t="str">
@@ -15437,11 +15393,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="162" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" s="173"/>
       <c r="C43" s="174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D43" s="174"/>
       <c r="E43" s="243" t="str">
@@ -15458,11 +15414,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="162" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" s="173"/>
       <c r="C44" s="174" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D44" s="174"/>
       <c r="E44" s="243" t="str">
@@ -15478,7 +15434,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="173"/>
       <c r="C45" s="174" t="s">
@@ -15500,11 +15456,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" s="173"/>
       <c r="C46" s="174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D46" s="174"/>
       <c r="E46" s="243" t="str">
@@ -15520,11 +15476,11 @@
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B47" s="173"/>
       <c r="C47" s="267" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47" s="267"/>
       <c r="E47" s="285" t="str">
@@ -15542,11 +15498,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" s="173"/>
       <c r="C48" s="230" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D48" s="267"/>
       <c r="E48" s="237"/>
@@ -15555,7 +15511,7 @@
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="162" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="204"/>
@@ -15566,11 +15522,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="162" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" s="256"/>
       <c r="C50" s="257" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" s="258"/>
       <c r="E50" s="258"/>
@@ -15579,7 +15535,7 @@
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="162" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" s="173"/>
       <c r="C51" s="204"/>
@@ -15590,7 +15546,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" s="173"/>
       <c r="C52" s="187"/>
@@ -15605,7 +15561,7 @@
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" s="173"/>
       <c r="C53" s="187"/>
@@ -15616,11 +15572,11 @@
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="162" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B54" s="173"/>
       <c r="C54" s="174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D54" s="174"/>
       <c r="E54" s="243" t="str">
@@ -15635,11 +15591,11 @@
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="162" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B55" s="173"/>
       <c r="C55" s="174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D55" s="174"/>
       <c r="E55" s="243" t="str">
@@ -15654,7 +15610,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="162" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" s="173"/>
       <c r="C56" s="174" t="s">
@@ -15673,11 +15629,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="162" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" s="173"/>
       <c r="C57" s="174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D57" s="174"/>
       <c r="E57" s="243" t="str">
@@ -15692,7 +15648,7 @@
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="173"/>
       <c r="C58" s="174"/>
@@ -15703,11 +15659,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B59" s="173"/>
       <c r="C59" s="230" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D59" s="288"/>
       <c r="E59" s="289"/>
@@ -15716,11 +15672,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="162" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" s="173"/>
       <c r="C60" s="230" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D60" s="288"/>
       <c r="E60" s="290"/>
@@ -15729,7 +15685,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="162" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" s="173"/>
       <c r="C61" s="174"/>
@@ -15740,11 +15696,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="162" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B62" s="256"/>
       <c r="C62" s="257" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" s="258"/>
       <c r="E62" s="258"/>
@@ -15753,7 +15709,7 @@
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="162" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B63" s="173"/>
       <c r="C63" s="204"/>
@@ -15764,7 +15720,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B64" s="173"/>
       <c r="C64" s="187"/>
@@ -15779,7 +15735,7 @@
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="162" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B65" s="173"/>
       <c r="C65" s="187"/>
@@ -15790,11 +15746,11 @@
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="173"/>
       <c r="C66" s="174" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" s="174"/>
       <c r="E66" s="243" t="str">
@@ -15809,7 +15765,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B67" s="173"/>
       <c r="C67" s="174" t="s">
@@ -15828,7 +15784,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B68" s="173"/>
       <c r="C68" s="174" t="s">
@@ -15847,7 +15803,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B69" s="173"/>
       <c r="C69" s="174" t="s">
@@ -15866,11 +15822,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="162" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B70" s="173"/>
       <c r="C70" s="174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" s="174"/>
       <c r="E70" s="243" t="str">
@@ -15885,7 +15841,7 @@
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="162" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B71" s="173"/>
       <c r="C71" s="174"/>
@@ -15896,11 +15852,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="162" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B72" s="256"/>
       <c r="C72" s="257" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D72" s="258"/>
       <c r="E72" s="258"/>
@@ -15909,7 +15865,7 @@
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="173"/>
       <c r="C73" s="204"/>
@@ -15920,11 +15876,11 @@
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" s="173"/>
       <c r="C74" s="174" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" s="174"/>
       <c r="E74" s="292" t="str">
@@ -15936,7 +15892,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="247"/>
       <c r="C75" s="185"/>
@@ -15947,12 +15903,12 @@
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="162" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="162" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B77" s="294" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 4/8"</f>
@@ -15966,182 +15922,182 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="162" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="162" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="162" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="162" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="162" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="162" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="162" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="162" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="162" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="162" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="162" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="162" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="162" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="162" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="162" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="162" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="162" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -16623,11 +16579,11 @@
     </row>
     <row r="2" s="300" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="295" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="296"/>
       <c r="C2" s="297" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="297"/>
       <c r="E2" s="297"/>
@@ -16686,11 +16642,11 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="301" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D3" s="301"/>
       <c r="E3" s="301"/>
@@ -16703,7 +16659,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="70"/>
@@ -16718,11 +16674,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="104"/>
       <c r="E5" s="104"/>
@@ -16735,7 +16691,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="107"/>
       <c r="C6" s="0"/>
@@ -16751,7 +16707,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="107"/>
       <c r="C7" s="116" t="s">
@@ -16762,7 +16718,7 @@
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
       <c r="E7" s="303" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F7" s="112"/>
       <c r="G7" s="304"/>
@@ -16774,7 +16730,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="99" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" s="107"/>
       <c r="C8" s="6"/>
@@ -16789,7 +16745,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="115"/>
       <c r="C9" s="117"/>
@@ -16804,11 +16760,11 @@
     </row>
     <row r="10" s="300" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="295" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="306"/>
       <c r="C10" s="307" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" s="308"/>
       <c r="E10" s="308"/>
@@ -16871,7 +16827,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="99" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="6"/>
@@ -16886,11 +16842,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" s="107"/>
       <c r="C12" s="110" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="110"/>
       <c r="E12" s="110"/>
@@ -16909,7 +16865,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="99" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B13" s="107"/>
       <c r="C13" s="110"/>
@@ -16924,11 +16880,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="99" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="110" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="110"/>
       <c r="E14" s="110"/>
@@ -16947,7 +16903,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="110"/>
@@ -16962,11 +16918,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="99" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="321" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
@@ -16985,11 +16941,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B17" s="107"/>
       <c r="C17" s="321" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D17" s="110"/>
       <c r="E17" s="110"/>
@@ -17008,7 +16964,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="107"/>
       <c r="C18" s="321"/>
@@ -17023,11 +16979,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
@@ -17046,7 +17002,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="115"/>
       <c r="C20" s="322"/>
@@ -17061,22 +17017,22 @@
     </row>
     <row r="21" s="300" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="295" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="306"/>
       <c r="C21" s="307" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D21" s="307"/>
       <c r="E21" s="307"/>
       <c r="F21" s="326" t="s">
+        <v>434</v>
+      </c>
+      <c r="G21" s="327" t="s">
         <v>435</v>
       </c>
-      <c r="G21" s="327" t="s">
+      <c r="H21" s="326" t="s">
         <v>436</v>
-      </c>
-      <c r="H21" s="326" t="s">
-        <v>437</v>
       </c>
       <c r="I21" s="327" t="s">
         <v>61</v>
@@ -17134,7 +17090,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" s="101"/>
       <c r="C22" s="328"/>
@@ -17149,11 +17105,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
@@ -17162,7 +17118,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G23" s="335" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H23" s="336" t="n">
         <v>10</v>
@@ -17179,11 +17135,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="107"/>
       <c r="C24" s="110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
@@ -17192,7 +17148,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G24" s="335" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H24" s="336" t="n">
         <v>1300</v>
@@ -17209,11 +17165,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B25" s="107"/>
       <c r="C25" s="110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
@@ -17222,7 +17178,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G25" s="335" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H25" s="336" t="n">
         <v>1700</v>
@@ -17239,11 +17195,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="110" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="110"/>
@@ -17252,7 +17208,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G26" s="335" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H26" s="336" t="n">
         <v>4.7</v>
@@ -17269,7 +17225,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="337" t="str">
@@ -17302,7 +17258,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="337" t="str">
@@ -17335,11 +17291,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" s="107"/>
       <c r="C29" s="340" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D29" s="340"/>
       <c r="E29" s="340"/>
@@ -17352,7 +17308,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="340"/>
@@ -17367,7 +17323,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="340"/>
@@ -17382,7 +17338,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="99" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B32" s="107"/>
       <c r="C32" s="340"/>
@@ -17397,7 +17353,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="99" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B33" s="107"/>
       <c r="C33" s="344"/>
@@ -17412,7 +17368,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="99" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="115"/>
       <c r="C34" s="345"/>
@@ -17427,11 +17383,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="99" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="307" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D35" s="307"/>
       <c r="E35" s="307"/>
@@ -17444,7 +17400,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="99" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B36" s="107"/>
       <c r="C36" s="307"/>
@@ -17463,7 +17419,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="351"/>
@@ -17478,11 +17434,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="99" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B38" s="107"/>
       <c r="C38" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -17501,7 +17457,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="99" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B39" s="107"/>
       <c r="C39" s="34"/>
@@ -17516,11 +17472,11 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
@@ -17539,7 +17495,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="34"/>
@@ -17554,11 +17510,11 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="107"/>
       <c r="C42" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -17577,7 +17533,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="99" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B43" s="107"/>
       <c r="C43" s="34"/>
@@ -17592,11 +17548,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B44" s="107"/>
       <c r="C44" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -17615,7 +17571,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B45" s="107"/>
       <c r="C45" s="34"/>
@@ -17630,11 +17586,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -17653,7 +17609,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B47" s="115"/>
       <c r="C47" s="363"/>
@@ -17668,11 +17624,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B48" s="101"/>
       <c r="C48" s="366" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D48" s="366"/>
       <c r="E48" s="366"/>
@@ -17685,7 +17641,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B49" s="107"/>
       <c r="C49" s="366"/>
@@ -17700,7 +17656,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B50" s="107"/>
       <c r="C50" s="366"/>
@@ -17715,7 +17671,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B51" s="107"/>
       <c r="C51" s="366"/>
@@ -17730,7 +17686,7 @@
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B52" s="107"/>
       <c r="C52" s="366"/>
@@ -17745,7 +17701,7 @@
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B53" s="154"/>
       <c r="C53" s="366"/>
@@ -17761,7 +17717,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B54" s="368" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 5/8"</f>
@@ -17779,7 +17735,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" s="368"/>
       <c r="C55" s="368"/>
@@ -17794,62 +17750,62 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -18362,7 +18318,7 @@
     </row>
     <row r="2" s="371" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="251" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="370" t="s">
         <v>99</v>
@@ -18404,10 +18360,10 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="162" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="372" t="s">
         <v>498</v>
-      </c>
-      <c r="B3" s="372" t="s">
-        <v>499</v>
       </c>
       <c r="C3" s="372"/>
       <c r="D3" s="372"/>
@@ -18416,10 +18372,10 @@
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="373" t="s">
         <v>500</v>
-      </c>
-      <c r="B4" s="373" t="s">
-        <v>501</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="374"/>
@@ -18428,7 +18384,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="369" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B5" s="376" t="str">
         <f aca="false">A3</f>
@@ -18442,7 +18398,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="369" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6" s="376"/>
       <c r="C6" s="376"/>
@@ -18452,7 +18408,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="369" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7" s="376"/>
       <c r="C7" s="376"/>
@@ -18462,7 +18418,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="369" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B8" s="376"/>
       <c r="C8" s="376"/>
@@ -18472,7 +18428,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="369" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B9" s="376"/>
       <c r="C9" s="376"/>
@@ -18482,7 +18438,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="369" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B10" s="376"/>
       <c r="C10" s="376"/>
@@ -18492,10 +18448,10 @@
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="162" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="377" t="s">
         <v>508</v>
-      </c>
-      <c r="B11" s="377" t="s">
-        <v>509</v>
       </c>
       <c r="C11" s="377"/>
       <c r="D11" s="377"/>
@@ -18504,7 +18460,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="378" t="n">
         <v>1</v>
@@ -18519,7 +18475,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="162" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B13" s="378" t="n">
         <v>2</v>
@@ -18534,7 +18490,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="162" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="378" t="n">
         <v>3</v>
@@ -18549,25 +18505,25 @@
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15" s="380"/>
       <c r="C15" s="381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="381" t="s">
         <v>514</v>
       </c>
-      <c r="D15" s="381" t="s">
+      <c r="E15" s="381" t="s">
         <v>515</v>
       </c>
-      <c r="E15" s="381" t="s">
+      <c r="F15" s="382" t="s">
         <v>516</v>
-      </c>
-      <c r="F15" s="382" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="162" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" s="383"/>
       <c r="C16" s="122" t="s">
@@ -18580,12 +18536,12 @@
         <v>61</v>
       </c>
       <c r="F16" s="122" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B17" s="378" t="n">
         <v>1</v>
@@ -18609,7 +18565,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="162" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" s="378" t="n">
         <v>2</v>
@@ -18633,7 +18589,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B19" s="378" t="n">
         <v>3</v>
@@ -18657,10 +18613,10 @@
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="162" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="385" t="s">
         <v>522</v>
-      </c>
-      <c r="B20" s="385" t="s">
-        <v>523</v>
       </c>
       <c r="C20" s="104"/>
       <c r="D20" s="374"/>
@@ -18669,7 +18625,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" s="376" t="str">
         <f aca="false">A23</f>
@@ -18682,7 +18638,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="162" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B22" s="376"/>
       <c r="C22" s="376"/>
@@ -18692,7 +18648,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B23" s="376"/>
       <c r="C23" s="376"/>
@@ -18702,7 +18658,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="162" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B24" s="376"/>
       <c r="C24" s="376"/>
@@ -18712,7 +18668,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="162" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B25" s="376"/>
       <c r="C25" s="376"/>
@@ -18722,7 +18678,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="162" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="376"/>
       <c r="C26" s="376"/>
@@ -18732,10 +18688,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B27" s="377" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C27" s="377"/>
       <c r="D27" s="377"/>
@@ -18744,7 +18700,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="162" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B28" s="378" t="n">
         <v>1</v>
@@ -18759,7 +18715,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B29" s="378" t="n">
         <v>2</v>
@@ -18774,7 +18730,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="162" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" s="378" t="n">
         <v>3</v>
@@ -18789,25 +18745,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="162" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B31" s="387"/>
       <c r="C31" s="381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="381" t="s">
         <v>514</v>
       </c>
-      <c r="D31" s="381" t="s">
+      <c r="E31" s="381" t="s">
         <v>515</v>
       </c>
-      <c r="E31" s="381" t="s">
+      <c r="F31" s="382" t="s">
         <v>516</v>
-      </c>
-      <c r="F31" s="382" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="162" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B32" s="387"/>
       <c r="C32" s="122" t="s">
@@ -18820,12 +18776,12 @@
         <v>61</v>
       </c>
       <c r="F32" s="122" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="162" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B33" s="378" t="n">
         <v>1</v>
@@ -18849,7 +18805,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B34" s="378" t="n">
         <v>2</v>
@@ -18873,7 +18829,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="162" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B35" s="378" t="n">
         <v>3</v>
@@ -18897,10 +18853,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="162" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" s="385" t="s">
         <v>539</v>
-      </c>
-      <c r="B36" s="385" t="s">
-        <v>540</v>
       </c>
       <c r="C36" s="388"/>
       <c r="D36" s="15"/>
@@ -18909,7 +18865,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="162" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B37" s="376" t="str">
         <f aca="false">A43</f>
@@ -18922,7 +18878,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="162" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B38" s="376"/>
       <c r="C38" s="376"/>
@@ -18932,7 +18888,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="162" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B39" s="376"/>
       <c r="C39" s="376"/>
@@ -18942,7 +18898,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="162" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B40" s="376"/>
       <c r="C40" s="376"/>
@@ -18952,7 +18908,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="162" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B41" s="376"/>
       <c r="C41" s="376"/>
@@ -18962,7 +18918,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="162" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B42" s="376"/>
       <c r="C42" s="376"/>
@@ -18972,10 +18928,10 @@
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="162" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B43" s="377" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C43" s="377"/>
       <c r="D43" s="377"/>
@@ -18984,7 +18940,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="162" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B44" s="378" t="n">
         <v>1</v>
@@ -18999,7 +18955,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="162" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B45" s="378" t="n">
         <v>2</v>
@@ -19014,7 +18970,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B46" s="378" t="n">
         <v>3</v>
@@ -19029,25 +18985,25 @@
     </row>
     <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="162" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B47" s="387"/>
       <c r="C47" s="381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D47" s="381" t="s">
         <v>514</v>
       </c>
-      <c r="D47" s="381" t="s">
+      <c r="E47" s="381" t="s">
         <v>515</v>
       </c>
-      <c r="E47" s="381" t="s">
+      <c r="F47" s="382" t="s">
         <v>516</v>
-      </c>
-      <c r="F47" s="382" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B48" s="387"/>
       <c r="C48" s="122" t="s">
@@ -19060,12 +19016,12 @@
         <v>61</v>
       </c>
       <c r="F48" s="122" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="162" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B49" s="378" t="n">
         <v>1</v>
@@ -19089,7 +19045,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="162" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B50" s="378" t="n">
         <v>2</v>
@@ -19113,7 +19069,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="162" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B51" s="378" t="n">
         <v>3</v>
@@ -19137,7 +19093,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="369" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B52" s="294" t="str">
         <f aca="false">"Certifikatbeteckning: "&amp;A1&amp;", 6/8"</f>
@@ -19150,48 +19106,48 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="369" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B53" s="389"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="369" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="369" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="369" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="369" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="369" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="369" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="369" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -19345,10 +19301,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="369" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="373" t="s">
         <v>566</v>
-      </c>
-      <c r="B2" s="373" t="s">
-        <v>567</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="374"/>
@@ -19357,7 +19313,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="369" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3" s="376" t="str">
         <f aca="false">A3</f>
@@ -19370,7 +19326,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="369" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B4" s="376"/>
       <c r="C4" s="376"/>
@@ -19380,7 +19336,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="369" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5" s="376"/>
       <c r="C5" s="376"/>
@@ -19391,7 +19347,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="369" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B6" s="376"/>
       <c r="C6" s="376"/>
@@ -19402,7 +19358,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="369" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B7" s="376"/>
       <c r="C7" s="376"/>
@@ -19412,7 +19368,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="369" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="376"/>
       <c r="C8" s="376"/>
@@ -19422,7 +19378,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="369" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="376"/>
       <c r="C9" s="376"/>
@@ -19432,10 +19388,10 @@
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="390" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C10" s="390"/>
       <c r="D10" s="390"/>
@@ -19444,7 +19400,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="162" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="378" t="n">
         <v>1</v>
@@ -19459,7 +19415,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" s="378" t="n">
         <v>2</v>
@@ -19474,7 +19430,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" s="378" t="n">
         <v>3</v>
@@ -19489,25 +19445,25 @@
     </row>
     <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="162" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14" s="387"/>
       <c r="C14" s="381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" s="381" t="s">
         <v>514</v>
       </c>
-      <c r="D14" s="381" t="s">
+      <c r="E14" s="381" t="s">
         <v>515</v>
       </c>
-      <c r="E14" s="381" t="s">
+      <c r="F14" s="382" t="s">
         <v>516</v>
-      </c>
-      <c r="F14" s="382" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15" s="387"/>
       <c r="C15" s="122" t="s">
@@ -19520,12 +19476,12 @@
         <v>61</v>
       </c>
       <c r="F15" s="122" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="162" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16" s="378" t="n">
         <v>1</v>
@@ -19549,7 +19505,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B17" s="378" t="n">
         <v>2</v>
@@ -19573,7 +19529,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" s="378" t="n">
         <v>3</v>
@@ -19597,10 +19553,10 @@
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="385" t="s">
         <v>584</v>
-      </c>
-      <c r="B19" s="385" t="s">
-        <v>585</v>
       </c>
       <c r="C19" s="388"/>
       <c r="D19" s="15"/>
@@ -19609,7 +19565,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="162" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B20" s="376" t="str">
         <f aca="false">A23</f>
@@ -19622,7 +19578,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B21" s="376"/>
       <c r="C21" s="376"/>
@@ -19632,7 +19588,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="162" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B22" s="376"/>
       <c r="C22" s="376"/>
@@ -19642,7 +19598,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B23" s="376"/>
       <c r="C23" s="376"/>
@@ -19652,7 +19608,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="162" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B24" s="376"/>
       <c r="C24" s="376"/>
@@ -19662,7 +19618,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="162" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B25" s="376"/>
       <c r="C25" s="376"/>
@@ -19672,7 +19628,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="162" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B26" s="376"/>
       <c r="C26" s="376"/>
@@ -19682,10 +19638,10 @@
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="162" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B27" s="390" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C27" s="390"/>
       <c r="D27" s="390"/>
@@ -19694,7 +19650,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="162" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B28" s="378" t="n">
         <v>1</v>
@@ -19709,7 +19665,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B29" s="378" t="n">
         <v>2</v>
@@ -19724,7 +19680,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B30" s="378" t="n">
         <v>3</v>
@@ -19739,25 +19695,25 @@
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="162" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B31" s="387"/>
       <c r="C31" s="381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="381" t="s">
         <v>514</v>
       </c>
-      <c r="D31" s="381" t="s">
+      <c r="E31" s="381" t="s">
         <v>515</v>
       </c>
-      <c r="E31" s="381" t="s">
+      <c r="F31" s="382" t="s">
         <v>516</v>
-      </c>
-      <c r="F31" s="382" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B32" s="387"/>
       <c r="C32" s="122" t="s">
@@ -19770,12 +19726,12 @@
         <v>61</v>
       </c>
       <c r="F32" s="122" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="162" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B33" s="378" t="n">
         <v>1</v>
@@ -19799,7 +19755,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="162" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B34" s="378" t="n">
         <v>2</v>
@@ -19823,7 +19779,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="162" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" s="378" t="n">
         <v>3</v>
@@ -19847,10 +19803,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="162" t="s">
+        <v>601</v>
+      </c>
+      <c r="B36" s="392" t="s">
         <v>602</v>
-      </c>
-      <c r="B36" s="392" t="s">
-        <v>603</v>
       </c>
       <c r="C36" s="392"/>
       <c r="D36" s="392"/>
@@ -19859,7 +19815,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="162" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B37" s="376" t="str">
         <f aca="false">A43</f>
@@ -19872,7 +19828,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="162" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B38" s="376"/>
       <c r="C38" s="376"/>
@@ -19882,7 +19838,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="162" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B39" s="376"/>
       <c r="C39" s="376"/>
@@ -19892,7 +19848,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="162" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B40" s="376"/>
       <c r="C40" s="376"/>
@@ -19902,7 +19858,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="162" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B41" s="376"/>
       <c r="C41" s="376"/>
@@ -19912,7 +19868,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="162" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B42" s="376"/>
       <c r="C42" s="376"/>
@@ -19922,7 +19878,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="162" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B43" s="376"/>
       <c r="C43" s="376"/>
@@ -19932,7 +19888,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="162" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B44" s="376"/>
       <c r="C44" s="376"/>
@@ -19942,7 +19898,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="162" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B45" s="376"/>
       <c r="C45" s="376"/>
@@ -20000,7 +19956,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="373" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C52" s="104"/>
       <c r="D52" s="374"/>
@@ -20018,7 +19974,7 @@
     <row r="54" customFormat="false" ht="11.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="162"/>
       <c r="B54" s="335" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C54" s="335"/>
       <c r="D54" s="335"/>
@@ -20179,8 +20135,8 @@
   </sheetPr>
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20201,11 +20157,11 @@
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="162" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" s="395"/>
       <c r="C2" s="396" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D2" s="396"/>
       <c r="E2" s="396"/>
@@ -20220,7 +20176,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="369" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B3" s="360"/>
       <c r="C3" s="397" t="str">
@@ -20240,7 +20196,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="369" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B4" s="360"/>
       <c r="C4" s="397"/>
@@ -20257,7 +20213,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="369" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" s="360"/>
       <c r="C5" s="397"/>
@@ -20274,7 +20230,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="369" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" s="360"/>
       <c r="C6" s="397"/>
@@ -20292,7 +20248,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="369" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B7" s="360"/>
       <c r="C7" s="397"/>
@@ -20311,7 +20267,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="369" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B8" s="360"/>
       <c r="C8" s="397"/>
@@ -20328,7 +20284,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="369" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" s="360"/>
       <c r="C9" s="397"/>
@@ -20346,7 +20302,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="369" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B10" s="360"/>
       <c r="C10" s="397"/>
@@ -20363,7 +20319,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="369" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B11" s="360"/>
       <c r="C11" s="397"/>
@@ -20380,7 +20336,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="369" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B12" s="360"/>
       <c r="C12" s="397"/>
@@ -20397,7 +20353,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="369" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B13" s="360"/>
       <c r="C13" s="397"/>
@@ -20414,7 +20370,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="369" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B14" s="360"/>
       <c r="C14" s="397"/>
@@ -20431,7 +20387,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="369" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B15" s="360"/>
       <c r="C15" s="397"/>
@@ -20448,7 +20404,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="369" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B16" s="360"/>
       <c r="C16" s="397"/>
@@ -20465,7 +20421,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="369" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B17" s="360"/>
       <c r="C17" s="397"/>
@@ -20482,7 +20438,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="369" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B18" s="360"/>
       <c r="C18" s="397"/>
@@ -20499,7 +20455,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="369" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B19" s="360"/>
       <c r="C19" s="397"/>
@@ -20516,7 +20472,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="369" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B20" s="360"/>
       <c r="C20" s="397"/>
@@ -20533,7 +20489,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="369" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B21" s="360"/>
       <c r="C21" s="397"/>
@@ -20550,7 +20506,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="369" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B22" s="360"/>
       <c r="C22" s="397"/>
@@ -20567,7 +20523,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="369" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B23" s="360"/>
       <c r="C23" s="397"/>
@@ -20584,7 +20540,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="369" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B24" s="360"/>
       <c r="C24" s="397"/>
@@ -20601,7 +20557,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="369" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B25" s="360"/>
       <c r="C25" s="397"/>
@@ -20618,7 +20574,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="369" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B26" s="360"/>
       <c r="C26" s="397"/>
@@ -20635,7 +20591,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="369" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B27" s="360"/>
       <c r="C27" s="397"/>
@@ -20653,7 +20609,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="369" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B28" s="360"/>
       <c r="C28" s="397"/>
@@ -20670,7 +20626,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="369" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B29" s="360"/>
       <c r="C29" s="397"/>
@@ -20687,7 +20643,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="369" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B30" s="360"/>
       <c r="C30" s="397"/>
@@ -20704,7 +20660,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="369" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B31" s="360"/>
       <c r="C31" s="397"/>
@@ -20722,7 +20678,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="369" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B32" s="360"/>
       <c r="C32" s="397"/>
@@ -20739,7 +20695,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="369" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B33" s="360"/>
       <c r="C33" s="397"/>
@@ -20756,7 +20712,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="369" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B34" s="360"/>
       <c r="C34" s="397"/>
@@ -20773,7 +20729,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="369" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B35" s="360"/>
       <c r="C35" s="397"/>
@@ -20790,7 +20746,7 @@
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="369" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B36" s="360"/>
       <c r="C36" s="397"/>
@@ -20807,7 +20763,7 @@
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="369" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B37" s="360"/>
       <c r="C37" s="397"/>
@@ -20824,7 +20780,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="369" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B38" s="360"/>
       <c r="C38" s="397"/>
@@ -20841,7 +20797,7 @@
     </row>
     <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="369" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B39" s="360"/>
       <c r="C39" s="397"/>
@@ -20858,7 +20814,7 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="369" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B40" s="360"/>
       <c r="C40" s="397"/>
@@ -20875,7 +20831,7 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="369" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B41" s="360"/>
       <c r="C41" s="397"/>
@@ -20892,7 +20848,7 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="369" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B42" s="360"/>
       <c r="C42" s="397"/>
@@ -20909,7 +20865,7 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="369" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B43" s="360"/>
       <c r="C43" s="397"/>
@@ -20926,7 +20882,7 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="369" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B44" s="360"/>
       <c r="C44" s="397"/>
@@ -20943,7 +20899,7 @@
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="369" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B45" s="360"/>
       <c r="C45" s="397"/>
@@ -20960,7 +20916,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="369" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B46" s="360"/>
       <c r="C46" s="397"/>
@@ -20977,7 +20933,7 @@
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="369" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B47" s="360"/>
       <c r="C47" s="397"/>
@@ -20994,7 +20950,7 @@
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B48" s="360"/>
       <c r="C48" s="397"/>
@@ -21011,7 +20967,7 @@
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="369" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B49" s="360"/>
       <c r="C49" s="397"/>
@@ -21028,7 +20984,7 @@